--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0AF49E-0D22-4C07-B03B-43C2BAA1BCCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD24B76-CB11-4EA1-8C43-79302CE665B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -445,7 +445,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -478,13 +478,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -8569,8 +8570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8708,10 +8709,10 @@
         <f>SUM('Dist Calc'!C2:C21)*I12</f>
         <v>1.9055939425877148E-7</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9114,10 +9115,10 @@
         <f>SUM($D$2:D15)</f>
         <v>654</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="35">
         <f>365*O9</f>
         <v>20702.34375</v>
       </c>
@@ -9827,7 +9828,7 @@
   <dimension ref="C1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD24B76-CB11-4EA1-8C43-79302CE665B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD16C217-F29E-416D-801D-A3F556C055D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>Freq</t>
   </si>
@@ -175,6 +175,12 @@
   <si>
     <t>Predicted Yearly Scrobbles</t>
   </si>
+  <si>
+    <t>Listen %</t>
+  </si>
+  <si>
+    <t>Listen?</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -423,21 +429,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -445,7 +436,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -466,8 +457,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -477,15 +466,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -8570,8 +8560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8660,16 +8650,16 @@
         <f>SUM($D$2:D3)</f>
         <v>46</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8697,22 +8687,22 @@
       <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="27">
         <f>SUM(Calc!K2:K406)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I12</f>
         <v>2.755828529582649</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I12</f>
         <v>1.9055939425877148E-7</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8738,22 +8728,22 @@
       <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="27">
         <f>SUM(Calc!L2:L406)</f>
         <v>5</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I12</f>
         <v>5.5207604135885546</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I12</f>
         <v>0.2650563305187848</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="33">
         <f ca="1">TODAY()</f>
         <v>43571</v>
       </c>
@@ -8782,15 +8772,15 @@
       <c r="H6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="27">
         <f>SUM(Calc!M2:M406)</f>
         <v>11</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I12</f>
         <v>7.6132196578024791</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I12</f>
         <v>20.570667985876916</v>
       </c>
@@ -8826,15 +8816,15 @@
       <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="27">
         <f>SUM(Calc!N2:N406)</f>
         <v>3</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I12</f>
         <v>7.2281266636418948</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I12</f>
         <v>11.098846594600893</v>
       </c>
@@ -8865,15 +8855,15 @@
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="27">
         <f>SUM(Calc!O2:O406)</f>
         <v>5</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I12</f>
         <v>4.724550189973888</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I12</f>
         <v>6.5424663668853314E-2</v>
       </c>
@@ -8909,15 +8899,15 @@
       <c r="H9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="27">
         <f>SUM(Calc!P2:P406)</f>
         <v>1</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I12</f>
         <v>2.125625750087083</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I12</f>
         <v>4.2347693200051773E-6</v>
       </c>
@@ -8929,7 +8919,7 @@
         <v>56.71875</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8953,27 +8943,27 @@
       <c r="H10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="27">
         <f>SUM(Calc!Q2:Q406)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I12</f>
         <v>0.65803605024088829</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I12</f>
         <v>5.83926618533836E-12</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="5">
         <f>SUM(D:D)</f>
         <v>1815</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8995,9 +8985,16 @@
         <v>404</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="N11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="26">
+        <f ca="1">SUM(Calc!S2:S406)/Scrobbles!O6</f>
+        <v>0.96875</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -9023,15 +9020,15 @@
       <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f>SUM(I4:I10)</f>
         <v>32</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <f>SUM(J4:J10)</f>
         <v>30.626147254917434</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="28">
         <f>SUM(K4:K10)</f>
         <v>32</v>
       </c>
@@ -9057,17 +9054,17 @@
         <f>SUM($D$2:D13)</f>
         <v>572</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
         <v>0.16235246744104204</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
@@ -9115,10 +9112,10 @@
         <f>SUM($D$2:D15)</f>
         <v>654</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="30">
         <f>365*O9</f>
         <v>20702.34375</v>
       </c>
@@ -12205,10 +12202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB0E1D8-8D5B-4CEF-AC8E-68B008740A99}">
-  <dimension ref="C1:Q406"/>
+  <dimension ref="C1:S406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V387" sqref="V387"/>
+    <sheetView topLeftCell="F363" workbookViewId="0">
+      <selection activeCell="R379" sqref="R379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12222,7 +12219,7 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12268,8 +12265,11 @@
       <c r="Q1">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -12326,8 +12326,12 @@
         <f>IF(AND(Scrobbles!$D2&gt;=Calc!P$1+1,Scrobbles!$D2&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D2)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>IF(Scrobbles!D2&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -12384,8 +12388,12 @@
         <f>IF(AND(Scrobbles!$D3&gt;=Calc!P$1+1,Scrobbles!$D3&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D3)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f>IF(Scrobbles!D3&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -12442,8 +12450,12 @@
         <f>IF(AND(Scrobbles!$D4&gt;=Calc!P$1+1,Scrobbles!$D4&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D4)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f>IF(Scrobbles!D4&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -12500,8 +12512,12 @@
         <f>IF(AND(Scrobbles!$D5&gt;=Calc!P$1+1,Scrobbles!$D5&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D5)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f>IF(Scrobbles!D5&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -12558,8 +12574,12 @@
         <f>IF(AND(Scrobbles!$D6&gt;=Calc!P$1+1,Scrobbles!$D6&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D6)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f>IF(Scrobbles!D6&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -12616,8 +12636,12 @@
         <f>IF(AND(Scrobbles!$D7&gt;=Calc!P$1+1,Scrobbles!$D7&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D7)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f>IF(Scrobbles!D7&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -12674,8 +12698,12 @@
         <f>IF(AND(Scrobbles!$D8&gt;=Calc!P$1+1,Scrobbles!$D8&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D8)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f>IF(Scrobbles!D8&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -12732,8 +12760,12 @@
         <f>IF(AND(Scrobbles!$D9&gt;=Calc!P$1+1,Scrobbles!$D9&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D9)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f>IF(Scrobbles!D9&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -12790,8 +12822,12 @@
         <f>IF(AND(Scrobbles!$D10&gt;=Calc!P$1+1,Scrobbles!$D10&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D10)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f>IF(Scrobbles!D10&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -12848,8 +12884,12 @@
         <f>IF(AND(Scrobbles!$D11&gt;=Calc!P$1+1,Scrobbles!$D11&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D11)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f>IF(Scrobbles!D11&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -12906,8 +12946,12 @@
         <f>IF(AND(Scrobbles!$D12&gt;=Calc!P$1+1,Scrobbles!$D12&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D12)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <f>IF(Scrobbles!D12&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -12964,8 +13008,12 @@
         <f>IF(AND(Scrobbles!$D13&gt;=Calc!P$1+1,Scrobbles!$D13&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D13)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f>IF(Scrobbles!D13&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13022,8 +13070,12 @@
         <f>IF(AND(Scrobbles!$D14&gt;=Calc!P$1+1,Scrobbles!$D14&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D14)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f>IF(Scrobbles!D14&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13080,8 +13132,12 @@
         <f>IF(AND(Scrobbles!$D15&gt;=Calc!P$1+1,Scrobbles!$D15&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D15)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <f>IF(Scrobbles!D15&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13138,8 +13194,12 @@
         <f>IF(AND(Scrobbles!$D16&gt;=Calc!P$1+1,Scrobbles!$D16&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D16)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f>IF(Scrobbles!D16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13196,8 +13256,12 @@
         <f>IF(AND(Scrobbles!$D17&gt;=Calc!P$1+1,Scrobbles!$D17&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D17)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f>IF(Scrobbles!D17&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -13254,8 +13318,12 @@
         <f>IF(AND(Scrobbles!$D18&gt;=Calc!P$1+1,Scrobbles!$D18&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D18)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f>IF(Scrobbles!D18&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -13312,8 +13380,12 @@
         <f>IF(AND(Scrobbles!$D19&gt;=Calc!P$1+1,Scrobbles!$D19&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D19)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f>IF(Scrobbles!D19&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -13370,8 +13442,12 @@
         <f>IF(AND(Scrobbles!$D20&gt;=Calc!P$1+1,Scrobbles!$D20&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D20)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f>IF(Scrobbles!D20&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -13428,8 +13504,12 @@
         <f>IF(AND(Scrobbles!$D21&gt;=Calc!P$1+1,Scrobbles!$D21&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D21)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f>IF(Scrobbles!D21&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -13486,8 +13566,12 @@
         <f>IF(AND(Scrobbles!$D22&gt;=Calc!P$1+1,Scrobbles!$D22&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D22)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f>IF(Scrobbles!D22&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -13544,8 +13628,12 @@
         <f>IF(AND(Scrobbles!$D23&gt;=Calc!P$1+1,Scrobbles!$D23&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D23)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f>IF(Scrobbles!D23&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -13602,8 +13690,12 @@
         <f>IF(AND(Scrobbles!$D24&gt;=Calc!P$1+1,Scrobbles!$D24&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D24)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f>IF(Scrobbles!D24&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -13660,8 +13752,12 @@
         <f>IF(AND(Scrobbles!$D25&gt;=Calc!P$1+1,Scrobbles!$D25&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D25)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f>IF(Scrobbles!D25&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -13718,8 +13814,12 @@
         <f>IF(AND(Scrobbles!$D26&gt;=Calc!P$1+1,Scrobbles!$D26&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D26)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f>IF(Scrobbles!D26&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -13776,8 +13876,12 @@
         <f>IF(AND(Scrobbles!$D27&gt;=Calc!P$1+1,Scrobbles!$D27&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D27)=FALSE),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f>IF(Scrobbles!D27&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -13834,8 +13938,12 @@
         <f>IF(AND(Scrobbles!$D28&gt;=Calc!P$1+1,Scrobbles!$D28&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D28)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f>IF(Scrobbles!D28&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -13892,8 +14000,12 @@
         <f>IF(AND(Scrobbles!$D29&gt;=Calc!P$1+1,Scrobbles!$D29&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D29)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f>IF(Scrobbles!D29&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -13950,8 +14062,12 @@
         <f>IF(AND(Scrobbles!$D30&gt;=Calc!P$1+1,Scrobbles!$D30&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D30)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f>IF(Scrobbles!D30&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14008,8 +14124,12 @@
         <f>IF(AND(Scrobbles!$D31&gt;=Calc!P$1+1,Scrobbles!$D31&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D31)=FALSE),1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f>IF(Scrobbles!D31&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14066,8 +14186,12 @@
         <f>IF(AND(Scrobbles!$D32&gt;=Calc!P$1+1,Scrobbles!$D32&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D32)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f>IF(Scrobbles!D32&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -14124,8 +14248,12 @@
         <f>IF(AND(Scrobbles!$D33&gt;=Calc!P$1+1,Scrobbles!$D33&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D33)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f>IF(Scrobbles!D33&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -14182,8 +14310,12 @@
         <f>IF(AND(Scrobbles!$D34&gt;=Calc!P$1+1,Scrobbles!$D34&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f>IF(Scrobbles!D34&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -14240,8 +14372,12 @@
         <f>IF(AND(Scrobbles!$D35&gt;=Calc!P$1+1,Scrobbles!$D35&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f>IF(Scrobbles!D35&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -14298,8 +14434,12 @@
         <f>IF(AND(Scrobbles!$D36&gt;=Calc!P$1+1,Scrobbles!$D36&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>IF(Scrobbles!D36&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -14356,8 +14496,12 @@
         <f>IF(AND(Scrobbles!$D37&gt;=Calc!P$1+1,Scrobbles!$D37&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f>IF(Scrobbles!D37&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -14414,8 +14558,12 @@
         <f>IF(AND(Scrobbles!$D38&gt;=Calc!P$1+1,Scrobbles!$D38&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f>IF(Scrobbles!D38&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -14472,8 +14620,12 @@
         <f>IF(AND(Scrobbles!$D39&gt;=Calc!P$1+1,Scrobbles!$D39&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f>IF(Scrobbles!D39&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -14530,8 +14682,12 @@
         <f>IF(AND(Scrobbles!$D40&gt;=Calc!P$1+1,Scrobbles!$D40&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D40)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f>IF(Scrobbles!D40&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -14588,8 +14744,12 @@
         <f>IF(AND(Scrobbles!$D41&gt;=Calc!P$1+1,Scrobbles!$D41&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D41)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f>IF(Scrobbles!D41&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -14646,8 +14806,12 @@
         <f>IF(AND(Scrobbles!$D42&gt;=Calc!P$1+1,Scrobbles!$D42&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D42)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <f>IF(Scrobbles!D42&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -14704,8 +14868,12 @@
         <f>IF(AND(Scrobbles!$D43&gt;=Calc!P$1+1,Scrobbles!$D43&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D43)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <f>IF(Scrobbles!D43&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -14762,8 +14930,12 @@
         <f>IF(AND(Scrobbles!$D44&gt;=Calc!P$1+1,Scrobbles!$D44&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D44)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <f>IF(Scrobbles!D44&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -14820,8 +14992,12 @@
         <f>IF(AND(Scrobbles!$D45&gt;=Calc!P$1+1,Scrobbles!$D45&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D45)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <f>IF(Scrobbles!D45&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -14878,8 +15054,12 @@
         <f>IF(AND(Scrobbles!$D46&gt;=Calc!P$1+1,Scrobbles!$D46&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D46)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <f>IF(Scrobbles!D46&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -14936,8 +15116,12 @@
         <f>IF(AND(Scrobbles!$D47&gt;=Calc!P$1+1,Scrobbles!$D47&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D47)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <f>IF(Scrobbles!D47&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -14994,8 +15178,12 @@
         <f>IF(AND(Scrobbles!$D48&gt;=Calc!P$1+1,Scrobbles!$D48&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D48)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f>IF(Scrobbles!D48&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -15052,8 +15240,12 @@
         <f>IF(AND(Scrobbles!$D49&gt;=Calc!P$1+1,Scrobbles!$D49&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D49)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f>IF(Scrobbles!D49&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -15110,8 +15302,12 @@
         <f>IF(AND(Scrobbles!$D50&gt;=Calc!P$1+1,Scrobbles!$D50&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D50)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f>IF(Scrobbles!D50&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -15168,8 +15364,12 @@
         <f>IF(AND(Scrobbles!$D51&gt;=Calc!P$1+1,Scrobbles!$D51&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D51)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <f>IF(Scrobbles!D51&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -15226,8 +15426,12 @@
         <f>IF(AND(Scrobbles!$D52&gt;=Calc!P$1+1,Scrobbles!$D52&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D52)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f>IF(Scrobbles!D52&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -15284,8 +15488,12 @@
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!P$1+1,Scrobbles!$D53&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f>IF(Scrobbles!D53&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -15342,8 +15550,12 @@
         <f>IF(AND(Scrobbles!$D54&gt;=Calc!P$1+1,Scrobbles!$D54&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f>IF(Scrobbles!D54&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -15400,8 +15612,12 @@
         <f>IF(AND(Scrobbles!$D55&gt;=Calc!P$1+1,Scrobbles!$D55&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <f>IF(Scrobbles!D55&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -15458,8 +15674,12 @@
         <f>IF(AND(Scrobbles!$D56&gt;=Calc!P$1+1,Scrobbles!$D56&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <f>IF(Scrobbles!D56&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -15516,8 +15736,12 @@
         <f>IF(AND(Scrobbles!$D57&gt;=Calc!P$1+1,Scrobbles!$D57&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <f>IF(Scrobbles!D57&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -15574,8 +15798,12 @@
         <f>IF(AND(Scrobbles!$D58&gt;=Calc!P$1+1,Scrobbles!$D58&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <f>IF(Scrobbles!D58&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -15632,8 +15860,12 @@
         <f>IF(AND(Scrobbles!$D59&gt;=Calc!P$1+1,Scrobbles!$D59&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <f>IF(Scrobbles!D59&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -15690,8 +15922,12 @@
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!P$1+1,Scrobbles!$D60&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <f>IF(Scrobbles!D60&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -15748,8 +15984,12 @@
         <f>IF(AND(Scrobbles!$D61&gt;=Calc!P$1+1,Scrobbles!$D61&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <f>IF(Scrobbles!D61&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -15806,8 +16046,12 @@
         <f>IF(AND(Scrobbles!$D62&gt;=Calc!P$1+1,Scrobbles!$D62&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <f>IF(Scrobbles!D62&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -15864,8 +16108,12 @@
         <f>IF(AND(Scrobbles!$D63&gt;=Calc!P$1+1,Scrobbles!$D63&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <f>IF(Scrobbles!D63&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -15922,8 +16170,12 @@
         <f>IF(AND(Scrobbles!$D64&gt;=Calc!P$1+1,Scrobbles!$D64&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <f>IF(Scrobbles!D64&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -15980,8 +16232,12 @@
         <f>IF(AND(Scrobbles!$D65&gt;=Calc!P$1+1,Scrobbles!$D65&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <f>IF(Scrobbles!D65&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -16038,8 +16294,12 @@
         <f>IF(AND(Scrobbles!$D66&gt;=Calc!P$1+1,Scrobbles!$D66&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <f>IF(Scrobbles!D66&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -16096,8 +16356,12 @@
         <f>IF(AND(Scrobbles!$D67&gt;=Calc!P$1+1,Scrobbles!$D67&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D67)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <f>IF(Scrobbles!D67&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -16154,8 +16418,12 @@
         <f>IF(AND(Scrobbles!$D68&gt;=Calc!P$1+1,Scrobbles!$D68&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D68)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <f>IF(Scrobbles!D68&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -16212,8 +16480,12 @@
         <f>IF(AND(Scrobbles!$D69&gt;=Calc!P$1+1,Scrobbles!$D69&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D69)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <f>IF(Scrobbles!D69&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -16270,8 +16542,12 @@
         <f>IF(AND(Scrobbles!$D70&gt;=Calc!P$1+1,Scrobbles!$D70&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <f>IF(Scrobbles!D70&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -16328,8 +16604,12 @@
         <f>IF(AND(Scrobbles!$D71&gt;=Calc!P$1+1,Scrobbles!$D71&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <f>IF(Scrobbles!D71&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -16386,8 +16666,12 @@
         <f>IF(AND(Scrobbles!$D72&gt;=Calc!P$1+1,Scrobbles!$D72&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D72)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <f>IF(Scrobbles!D72&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -16444,8 +16728,12 @@
         <f>IF(AND(Scrobbles!$D73&gt;=Calc!P$1+1,Scrobbles!$D73&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D73)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <f>IF(Scrobbles!D73&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -16502,8 +16790,12 @@
         <f>IF(AND(Scrobbles!$D74&gt;=Calc!P$1+1,Scrobbles!$D74&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <f>IF(Scrobbles!D74&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -16560,8 +16852,12 @@
         <f>IF(AND(Scrobbles!$D75&gt;=Calc!P$1+1,Scrobbles!$D75&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <f>IF(Scrobbles!D75&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -16618,8 +16914,12 @@
         <f>IF(AND(Scrobbles!$D76&gt;=Calc!P$1+1,Scrobbles!$D76&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <f>IF(Scrobbles!D76&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -16676,8 +16976,12 @@
         <f>IF(AND(Scrobbles!$D77&gt;=Calc!P$1+1,Scrobbles!$D77&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <f>IF(Scrobbles!D77&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -16734,8 +17038,12 @@
         <f>IF(AND(Scrobbles!$D78&gt;=Calc!P$1+1,Scrobbles!$D78&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <f>IF(Scrobbles!D78&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -16792,8 +17100,12 @@
         <f>IF(AND(Scrobbles!$D79&gt;=Calc!P$1+1,Scrobbles!$D79&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <f>IF(Scrobbles!D79&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -16850,8 +17162,12 @@
         <f>IF(AND(Scrobbles!$D80&gt;=Calc!P$1+1,Scrobbles!$D80&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <f>IF(Scrobbles!D80&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -16908,8 +17224,12 @@
         <f>IF(AND(Scrobbles!$D81&gt;=Calc!P$1+1,Scrobbles!$D81&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <f>IF(Scrobbles!D81&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -16966,8 +17286,12 @@
         <f>IF(AND(Scrobbles!$D82&gt;=Calc!P$1+1,Scrobbles!$D82&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <f>IF(Scrobbles!D82&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -17024,8 +17348,12 @@
         <f>IF(AND(Scrobbles!$D83&gt;=Calc!P$1+1,Scrobbles!$D83&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <f>IF(Scrobbles!D83&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -17082,8 +17410,12 @@
         <f>IF(AND(Scrobbles!$D84&gt;=Calc!P$1+1,Scrobbles!$D84&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D84)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <f>IF(Scrobbles!D84&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -17140,8 +17472,12 @@
         <f>IF(AND(Scrobbles!$D85&gt;=Calc!P$1+1,Scrobbles!$D85&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D85)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <f>IF(Scrobbles!D85&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -17198,8 +17534,12 @@
         <f>IF(AND(Scrobbles!$D86&gt;=Calc!P$1+1,Scrobbles!$D86&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D86)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <f>IF(Scrobbles!D86&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -17256,8 +17596,12 @@
         <f>IF(AND(Scrobbles!$D87&gt;=Calc!P$1+1,Scrobbles!$D87&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D87)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <f>IF(Scrobbles!D87&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -17314,8 +17658,12 @@
         <f>IF(AND(Scrobbles!$D88&gt;=Calc!P$1+1,Scrobbles!$D88&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D88)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <f>IF(Scrobbles!D88&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -17372,8 +17720,12 @@
         <f>IF(AND(Scrobbles!$D89&gt;=Calc!P$1+1,Scrobbles!$D89&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D89)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <f>IF(Scrobbles!D89&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -17430,8 +17782,12 @@
         <f>IF(AND(Scrobbles!$D90&gt;=Calc!P$1+1,Scrobbles!$D90&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D90)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <f>IF(Scrobbles!D90&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -17488,8 +17844,12 @@
         <f>IF(AND(Scrobbles!$D91&gt;=Calc!P$1+1,Scrobbles!$D91&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D91)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <f>IF(Scrobbles!D91&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -17546,8 +17906,12 @@
         <f>IF(AND(Scrobbles!$D92&gt;=Calc!P$1+1,Scrobbles!$D92&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D92)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <f>IF(Scrobbles!D92&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -17604,8 +17968,12 @@
         <f>IF(AND(Scrobbles!$D93&gt;=Calc!P$1+1,Scrobbles!$D93&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D93)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <f>IF(Scrobbles!D93&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -17662,8 +18030,12 @@
         <f>IF(AND(Scrobbles!$D94&gt;=Calc!P$1+1,Scrobbles!$D94&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D94)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <f>IF(Scrobbles!D94&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -17720,8 +18092,12 @@
         <f>IF(AND(Scrobbles!$D95&gt;=Calc!P$1+1,Scrobbles!$D95&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D95)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <f>IF(Scrobbles!D95&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -17778,8 +18154,12 @@
         <f>IF(AND(Scrobbles!$D96&gt;=Calc!P$1+1,Scrobbles!$D96&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D96)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <f>IF(Scrobbles!D96&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -17836,8 +18216,12 @@
         <f>IF(AND(Scrobbles!$D97&gt;=Calc!P$1+1,Scrobbles!$D97&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D97)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <f>IF(Scrobbles!D97&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -17894,8 +18278,12 @@
         <f>IF(AND(Scrobbles!$D98&gt;=Calc!P$1+1,Scrobbles!$D98&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D98)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <f>IF(Scrobbles!D98&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -17952,8 +18340,12 @@
         <f>IF(AND(Scrobbles!$D99&gt;=Calc!P$1+1,Scrobbles!$D99&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D99)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <f>IF(Scrobbles!D99&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -18010,8 +18402,12 @@
         <f>IF(AND(Scrobbles!$D100&gt;=Calc!P$1+1,Scrobbles!$D100&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D100)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <f>IF(Scrobbles!D100&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -18068,8 +18464,12 @@
         <f>IF(AND(Scrobbles!$D101&gt;=Calc!P$1+1,Scrobbles!$D101&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D101)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <f>IF(Scrobbles!D101&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -18126,8 +18526,12 @@
         <f>IF(AND(Scrobbles!$D102&gt;=Calc!P$1+1,Scrobbles!$D102&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D102)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <f>IF(Scrobbles!D102&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -18184,8 +18588,12 @@
         <f>IF(AND(Scrobbles!$D103&gt;=Calc!P$1+1,Scrobbles!$D103&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D103)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <f>IF(Scrobbles!D103&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -18242,8 +18650,12 @@
         <f>IF(AND(Scrobbles!$D104&gt;=Calc!P$1+1,Scrobbles!$D104&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D104)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <f>IF(Scrobbles!D104&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -18300,8 +18712,12 @@
         <f>IF(AND(Scrobbles!$D105&gt;=Calc!P$1+1,Scrobbles!$D105&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D105)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <f>IF(Scrobbles!D105&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -18358,8 +18774,12 @@
         <f>IF(AND(Scrobbles!$D106&gt;=Calc!P$1+1,Scrobbles!$D106&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D106)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <f>IF(Scrobbles!D106&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -18416,8 +18836,12 @@
         <f>IF(AND(Scrobbles!$D107&gt;=Calc!P$1+1,Scrobbles!$D107&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D107)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <f>IF(Scrobbles!D107&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -18474,8 +18898,12 @@
         <f>IF(AND(Scrobbles!$D108&gt;=Calc!P$1+1,Scrobbles!$D108&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D108)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <f>IF(Scrobbles!D108&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -18532,8 +18960,12 @@
         <f>IF(AND(Scrobbles!$D109&gt;=Calc!P$1+1,Scrobbles!$D109&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D109)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <f>IF(Scrobbles!D109&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -18590,8 +19022,12 @@
         <f>IF(AND(Scrobbles!$D110&gt;=Calc!P$1+1,Scrobbles!$D110&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D110)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <f>IF(Scrobbles!D110&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -18648,8 +19084,12 @@
         <f>IF(AND(Scrobbles!$D111&gt;=Calc!P$1+1,Scrobbles!$D111&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D111)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <f>IF(Scrobbles!D111&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -18706,8 +19146,12 @@
         <f>IF(AND(Scrobbles!$D112&gt;=Calc!P$1+1,Scrobbles!$D112&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D112)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <f>IF(Scrobbles!D112&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -18764,8 +19208,12 @@
         <f>IF(AND(Scrobbles!$D113&gt;=Calc!P$1+1,Scrobbles!$D113&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D113)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <f>IF(Scrobbles!D113&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -18822,8 +19270,12 @@
         <f>IF(AND(Scrobbles!$D114&gt;=Calc!P$1+1,Scrobbles!$D114&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D114)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <f>IF(Scrobbles!D114&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -18880,8 +19332,12 @@
         <f>IF(AND(Scrobbles!$D115&gt;=Calc!P$1+1,Scrobbles!$D115&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D115)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <f>IF(Scrobbles!D115&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -18938,8 +19394,12 @@
         <f>IF(AND(Scrobbles!$D116&gt;=Calc!P$1+1,Scrobbles!$D116&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D116)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <f>IF(Scrobbles!D116&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -18996,8 +19456,12 @@
         <f>IF(AND(Scrobbles!$D117&gt;=Calc!P$1+1,Scrobbles!$D117&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D117)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <f>IF(Scrobbles!D117&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -19054,8 +19518,12 @@
         <f>IF(AND(Scrobbles!$D118&gt;=Calc!P$1+1,Scrobbles!$D118&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D118)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <f>IF(Scrobbles!D118&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -19112,8 +19580,12 @@
         <f>IF(AND(Scrobbles!$D119&gt;=Calc!P$1+1,Scrobbles!$D119&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D119)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <f>IF(Scrobbles!D119&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -19170,8 +19642,12 @@
         <f>IF(AND(Scrobbles!$D120&gt;=Calc!P$1+1,Scrobbles!$D120&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D120)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <f>IF(Scrobbles!D120&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -19228,8 +19704,12 @@
         <f>IF(AND(Scrobbles!$D121&gt;=Calc!P$1+1,Scrobbles!$D121&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D121)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <f>IF(Scrobbles!D121&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -19286,8 +19766,12 @@
         <f>IF(AND(Scrobbles!$D122&gt;=Calc!P$1+1,Scrobbles!$D122&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D122)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <f>IF(Scrobbles!D122&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -19344,8 +19828,12 @@
         <f>IF(AND(Scrobbles!$D123&gt;=Calc!P$1+1,Scrobbles!$D123&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D123)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <f>IF(Scrobbles!D123&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -19402,8 +19890,12 @@
         <f>IF(AND(Scrobbles!$D124&gt;=Calc!P$1+1,Scrobbles!$D124&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D124)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <f>IF(Scrobbles!D124&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -19460,8 +19952,12 @@
         <f>IF(AND(Scrobbles!$D125&gt;=Calc!P$1+1,Scrobbles!$D125&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D125)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <f>IF(Scrobbles!D125&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -19518,8 +20014,12 @@
         <f>IF(AND(Scrobbles!$D126&gt;=Calc!P$1+1,Scrobbles!$D126&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D126)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <f>IF(Scrobbles!D126&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -19576,8 +20076,12 @@
         <f>IF(AND(Scrobbles!$D127&gt;=Calc!P$1+1,Scrobbles!$D127&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D127)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <f>IF(Scrobbles!D127&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -19634,8 +20138,12 @@
         <f>IF(AND(Scrobbles!$D128&gt;=Calc!P$1+1,Scrobbles!$D128&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D128)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <f>IF(Scrobbles!D128&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -19692,8 +20200,12 @@
         <f>IF(AND(Scrobbles!$D129&gt;=Calc!P$1+1,Scrobbles!$D129&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D129)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <f>IF(Scrobbles!D129&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -19750,8 +20262,12 @@
         <f>IF(AND(Scrobbles!$D130&gt;=Calc!P$1+1,Scrobbles!$D130&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D130)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <f>IF(Scrobbles!D130&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -19808,8 +20324,12 @@
         <f>IF(AND(Scrobbles!$D131&gt;=Calc!P$1+1,Scrobbles!$D131&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D131)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <f>IF(Scrobbles!D131&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -19866,8 +20386,12 @@
         <f>IF(AND(Scrobbles!$D132&gt;=Calc!P$1+1,Scrobbles!$D132&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D132)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <f>IF(Scrobbles!D132&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -19924,8 +20448,12 @@
         <f>IF(AND(Scrobbles!$D133&gt;=Calc!P$1+1,Scrobbles!$D133&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D133)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <f>IF(Scrobbles!D133&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -19982,8 +20510,12 @@
         <f>IF(AND(Scrobbles!$D134&gt;=Calc!P$1+1,Scrobbles!$D134&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D134)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <f>IF(Scrobbles!D134&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -20040,8 +20572,12 @@
         <f>IF(AND(Scrobbles!$D135&gt;=Calc!P$1+1,Scrobbles!$D135&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D135)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <f>IF(Scrobbles!D135&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -20098,8 +20634,12 @@
         <f>IF(AND(Scrobbles!$D136&gt;=Calc!P$1+1,Scrobbles!$D136&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D136)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <f>IF(Scrobbles!D136&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -20156,8 +20696,12 @@
         <f>IF(AND(Scrobbles!$D137&gt;=Calc!P$1+1,Scrobbles!$D137&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D137)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <f>IF(Scrobbles!D137&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -20214,8 +20758,12 @@
         <f>IF(AND(Scrobbles!$D138&gt;=Calc!P$1+1,Scrobbles!$D138&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D138)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <f>IF(Scrobbles!D138&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -20272,8 +20820,12 @@
         <f>IF(AND(Scrobbles!$D139&gt;=Calc!P$1+1,Scrobbles!$D139&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D139)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <f>IF(Scrobbles!D139&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -20330,8 +20882,12 @@
         <f>IF(AND(Scrobbles!$D140&gt;=Calc!P$1+1,Scrobbles!$D140&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D140)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <f>IF(Scrobbles!D140&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -20388,8 +20944,12 @@
         <f>IF(AND(Scrobbles!$D141&gt;=Calc!P$1+1,Scrobbles!$D141&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D141)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <f>IF(Scrobbles!D141&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -20446,8 +21006,12 @@
         <f>IF(AND(Scrobbles!$D142&gt;=Calc!P$1+1,Scrobbles!$D142&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D142)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <f>IF(Scrobbles!D142&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -20504,8 +21068,12 @@
         <f>IF(AND(Scrobbles!$D143&gt;=Calc!P$1+1,Scrobbles!$D143&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D143)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <f>IF(Scrobbles!D143&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -20562,8 +21130,12 @@
         <f>IF(AND(Scrobbles!$D144&gt;=Calc!P$1+1,Scrobbles!$D144&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D144)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <f>IF(Scrobbles!D144&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -20620,8 +21192,12 @@
         <f>IF(AND(Scrobbles!$D145&gt;=Calc!P$1+1,Scrobbles!$D145&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D145)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <f>IF(Scrobbles!D145&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -20678,8 +21254,12 @@
         <f>IF(AND(Scrobbles!$D146&gt;=Calc!P$1+1,Scrobbles!$D146&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D146)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <f>IF(Scrobbles!D146&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -20736,8 +21316,12 @@
         <f>IF(AND(Scrobbles!$D147&gt;=Calc!P$1+1,Scrobbles!$D147&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D147)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <f>IF(Scrobbles!D147&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -20794,8 +21378,12 @@
         <f>IF(AND(Scrobbles!$D148&gt;=Calc!P$1+1,Scrobbles!$D148&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D148)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <f>IF(Scrobbles!D148&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -20852,8 +21440,12 @@
         <f>IF(AND(Scrobbles!$D149&gt;=Calc!P$1+1,Scrobbles!$D149&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D149)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <f>IF(Scrobbles!D149&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -20910,8 +21502,12 @@
         <f>IF(AND(Scrobbles!$D150&gt;=Calc!P$1+1,Scrobbles!$D150&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D150)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <f>IF(Scrobbles!D150&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -20968,8 +21564,12 @@
         <f>IF(AND(Scrobbles!$D151&gt;=Calc!P$1+1,Scrobbles!$D151&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D151)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <f>IF(Scrobbles!D151&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -21026,8 +21626,12 @@
         <f>IF(AND(Scrobbles!$D152&gt;=Calc!P$1+1,Scrobbles!$D152&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D152)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <f>IF(Scrobbles!D152&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -21084,8 +21688,12 @@
         <f>IF(AND(Scrobbles!$D153&gt;=Calc!P$1+1,Scrobbles!$D153&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D153)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <f>IF(Scrobbles!D153&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -21142,8 +21750,12 @@
         <f>IF(AND(Scrobbles!$D154&gt;=Calc!P$1+1,Scrobbles!$D154&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D154)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S154">
+        <f>IF(Scrobbles!D154&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -21200,8 +21812,12 @@
         <f>IF(AND(Scrobbles!$D155&gt;=Calc!P$1+1,Scrobbles!$D155&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D155)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S155">
+        <f>IF(Scrobbles!D155&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -21258,8 +21874,12 @@
         <f>IF(AND(Scrobbles!$D156&gt;=Calc!P$1+1,Scrobbles!$D156&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D156)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S156">
+        <f>IF(Scrobbles!D156&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -21316,8 +21936,12 @@
         <f>IF(AND(Scrobbles!$D157&gt;=Calc!P$1+1,Scrobbles!$D157&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D157)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S157">
+        <f>IF(Scrobbles!D157&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -21374,8 +21998,12 @@
         <f>IF(AND(Scrobbles!$D158&gt;=Calc!P$1+1,Scrobbles!$D158&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D158)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S158">
+        <f>IF(Scrobbles!D158&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -21432,8 +22060,12 @@
         <f>IF(AND(Scrobbles!$D159&gt;=Calc!P$1+1,Scrobbles!$D159&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D159)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S159">
+        <f>IF(Scrobbles!D159&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -21490,8 +22122,12 @@
         <f>IF(AND(Scrobbles!$D160&gt;=Calc!P$1+1,Scrobbles!$D160&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D160)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S160">
+        <f>IF(Scrobbles!D160&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -21548,8 +22184,12 @@
         <f>IF(AND(Scrobbles!$D161&gt;=Calc!P$1+1,Scrobbles!$D161&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D161)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S161">
+        <f>IF(Scrobbles!D161&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -21606,8 +22246,12 @@
         <f>IF(AND(Scrobbles!$D162&gt;=Calc!P$1+1,Scrobbles!$D162&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D162)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S162">
+        <f>IF(Scrobbles!D162&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -21664,8 +22308,12 @@
         <f>IF(AND(Scrobbles!$D163&gt;=Calc!P$1+1,Scrobbles!$D163&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D163)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S163">
+        <f>IF(Scrobbles!D163&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -21722,8 +22370,12 @@
         <f>IF(AND(Scrobbles!$D164&gt;=Calc!P$1+1,Scrobbles!$D164&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D164)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S164">
+        <f>IF(Scrobbles!D164&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -21780,8 +22432,12 @@
         <f>IF(AND(Scrobbles!$D165&gt;=Calc!P$1+1,Scrobbles!$D165&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D165)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S165">
+        <f>IF(Scrobbles!D165&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -21838,8 +22494,12 @@
         <f>IF(AND(Scrobbles!$D166&gt;=Calc!P$1+1,Scrobbles!$D166&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D166)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S166">
+        <f>IF(Scrobbles!D166&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -21896,8 +22556,12 @@
         <f>IF(AND(Scrobbles!$D167&gt;=Calc!P$1+1,Scrobbles!$D167&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D167)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S167">
+        <f>IF(Scrobbles!D167&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -21954,8 +22618,12 @@
         <f>IF(AND(Scrobbles!$D168&gt;=Calc!P$1+1,Scrobbles!$D168&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D168)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S168">
+        <f>IF(Scrobbles!D168&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -22012,8 +22680,12 @@
         <f>IF(AND(Scrobbles!$D169&gt;=Calc!P$1+1,Scrobbles!$D169&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D169)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S169">
+        <f>IF(Scrobbles!D169&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -22070,8 +22742,12 @@
         <f>IF(AND(Scrobbles!$D170&gt;=Calc!P$1+1,Scrobbles!$D170&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D170)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S170">
+        <f>IF(Scrobbles!D170&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -22128,8 +22804,12 @@
         <f>IF(AND(Scrobbles!$D171&gt;=Calc!P$1+1,Scrobbles!$D171&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D171)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S171">
+        <f>IF(Scrobbles!D171&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -22186,8 +22866,12 @@
         <f>IF(AND(Scrobbles!$D172&gt;=Calc!P$1+1,Scrobbles!$D172&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D172)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S172">
+        <f>IF(Scrobbles!D172&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -22244,8 +22928,12 @@
         <f>IF(AND(Scrobbles!$D173&gt;=Calc!P$1+1,Scrobbles!$D173&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D173)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S173">
+        <f>IF(Scrobbles!D173&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -22302,8 +22990,12 @@
         <f>IF(AND(Scrobbles!$D174&gt;=Calc!P$1+1,Scrobbles!$D174&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D174)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S174">
+        <f>IF(Scrobbles!D174&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -22360,8 +23052,12 @@
         <f>IF(AND(Scrobbles!$D175&gt;=Calc!P$1+1,Scrobbles!$D175&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D175)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S175">
+        <f>IF(Scrobbles!D175&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -22418,8 +23114,12 @@
         <f>IF(AND(Scrobbles!$D176&gt;=Calc!P$1+1,Scrobbles!$D176&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D176)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S176">
+        <f>IF(Scrobbles!D176&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -22476,8 +23176,12 @@
         <f>IF(AND(Scrobbles!$D177&gt;=Calc!P$1+1,Scrobbles!$D177&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D177)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S177">
+        <f>IF(Scrobbles!D177&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -22534,8 +23238,12 @@
         <f>IF(AND(Scrobbles!$D178&gt;=Calc!P$1+1,Scrobbles!$D178&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D178)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S178">
+        <f>IF(Scrobbles!D178&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -22592,8 +23300,12 @@
         <f>IF(AND(Scrobbles!$D179&gt;=Calc!P$1+1,Scrobbles!$D179&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D179)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S179">
+        <f>IF(Scrobbles!D179&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -22650,8 +23362,12 @@
         <f>IF(AND(Scrobbles!$D180&gt;=Calc!P$1+1,Scrobbles!$D180&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D180)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S180">
+        <f>IF(Scrobbles!D180&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -22708,8 +23424,12 @@
         <f>IF(AND(Scrobbles!$D181&gt;=Calc!P$1+1,Scrobbles!$D181&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D181)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S181">
+        <f>IF(Scrobbles!D181&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -22766,8 +23486,12 @@
         <f>IF(AND(Scrobbles!$D182&gt;=Calc!P$1+1,Scrobbles!$D182&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D182)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S182">
+        <f>IF(Scrobbles!D182&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -22824,8 +23548,12 @@
         <f>IF(AND(Scrobbles!$D183&gt;=Calc!P$1+1,Scrobbles!$D183&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D183)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S183">
+        <f>IF(Scrobbles!D183&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -22882,8 +23610,12 @@
         <f>IF(AND(Scrobbles!$D184&gt;=Calc!P$1+1,Scrobbles!$D184&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D184)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S184">
+        <f>IF(Scrobbles!D184&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -22940,8 +23672,12 @@
         <f>IF(AND(Scrobbles!$D185&gt;=Calc!P$1+1,Scrobbles!$D185&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D185)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S185">
+        <f>IF(Scrobbles!D185&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -22998,8 +23734,12 @@
         <f>IF(AND(Scrobbles!$D186&gt;=Calc!P$1+1,Scrobbles!$D186&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D186)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S186">
+        <f>IF(Scrobbles!D186&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -23056,8 +23796,12 @@
         <f>IF(AND(Scrobbles!$D187&gt;=Calc!P$1+1,Scrobbles!$D187&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D187)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S187">
+        <f>IF(Scrobbles!D187&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -23114,8 +23858,12 @@
         <f>IF(AND(Scrobbles!$D188&gt;=Calc!P$1+1,Scrobbles!$D188&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D188)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S188">
+        <f>IF(Scrobbles!D188&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -23172,8 +23920,12 @@
         <f>IF(AND(Scrobbles!$D189&gt;=Calc!P$1+1,Scrobbles!$D189&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D189)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S189">
+        <f>IF(Scrobbles!D189&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -23230,8 +23982,12 @@
         <f>IF(AND(Scrobbles!$D190&gt;=Calc!P$1+1,Scrobbles!$D190&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D190)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S190">
+        <f>IF(Scrobbles!D190&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -23288,8 +24044,12 @@
         <f>IF(AND(Scrobbles!$D191&gt;=Calc!P$1+1,Scrobbles!$D191&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D191)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S191">
+        <f>IF(Scrobbles!D191&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -23346,8 +24106,12 @@
         <f>IF(AND(Scrobbles!$D192&gt;=Calc!P$1+1,Scrobbles!$D192&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D192)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S192">
+        <f>IF(Scrobbles!D192&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -23404,8 +24168,12 @@
         <f>IF(AND(Scrobbles!$D193&gt;=Calc!P$1+1,Scrobbles!$D193&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D193)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S193">
+        <f>IF(Scrobbles!D193&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -23462,8 +24230,12 @@
         <f>IF(AND(Scrobbles!$D194&gt;=Calc!P$1+1,Scrobbles!$D194&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D194)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S194">
+        <f>IF(Scrobbles!D194&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -23520,8 +24292,12 @@
         <f>IF(AND(Scrobbles!$D195&gt;=Calc!P$1+1,Scrobbles!$D195&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D195)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S195">
+        <f>IF(Scrobbles!D195&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -23578,8 +24354,12 @@
         <f>IF(AND(Scrobbles!$D196&gt;=Calc!P$1+1,Scrobbles!$D196&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D196)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S196">
+        <f>IF(Scrobbles!D196&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -23636,8 +24416,12 @@
         <f>IF(AND(Scrobbles!$D197&gt;=Calc!P$1+1,Scrobbles!$D197&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D197)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S197">
+        <f>IF(Scrobbles!D197&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -23694,8 +24478,12 @@
         <f>IF(AND(Scrobbles!$D198&gt;=Calc!P$1+1,Scrobbles!$D198&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D198)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S198">
+        <f>IF(Scrobbles!D198&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -23752,8 +24540,12 @@
         <f>IF(AND(Scrobbles!$D199&gt;=Calc!P$1+1,Scrobbles!$D199&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D199)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S199">
+        <f>IF(Scrobbles!D199&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -23810,8 +24602,12 @@
         <f>IF(AND(Scrobbles!$D200&gt;=Calc!P$1+1,Scrobbles!$D200&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D200)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S200">
+        <f>IF(Scrobbles!D200&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -23868,8 +24664,12 @@
         <f>IF(AND(Scrobbles!$D201&gt;=Calc!P$1+1,Scrobbles!$D201&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D201)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S201">
+        <f>IF(Scrobbles!D201&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -23926,8 +24726,12 @@
         <f>IF(AND(Scrobbles!$D202&gt;=Calc!P$1+1,Scrobbles!$D202&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D202)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S202">
+        <f>IF(Scrobbles!D202&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -23984,8 +24788,12 @@
         <f>IF(AND(Scrobbles!$D203&gt;=Calc!P$1+1,Scrobbles!$D203&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D203)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S203">
+        <f>IF(Scrobbles!D203&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -24042,8 +24850,12 @@
         <f>IF(AND(Scrobbles!$D204&gt;=Calc!P$1+1,Scrobbles!$D204&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D204)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S204">
+        <f>IF(Scrobbles!D204&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -24100,8 +24912,12 @@
         <f>IF(AND(Scrobbles!$D205&gt;=Calc!P$1+1,Scrobbles!$D205&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D205)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S205">
+        <f>IF(Scrobbles!D205&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -24158,8 +24974,12 @@
         <f>IF(AND(Scrobbles!$D206&gt;=Calc!P$1+1,Scrobbles!$D206&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D206)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S206">
+        <f>IF(Scrobbles!D206&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -24216,8 +25036,12 @@
         <f>IF(AND(Scrobbles!$D207&gt;=Calc!P$1+1,Scrobbles!$D207&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D207)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S207">
+        <f>IF(Scrobbles!D207&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -24274,8 +25098,12 @@
         <f>IF(AND(Scrobbles!$D208&gt;=Calc!P$1+1,Scrobbles!$D208&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D208)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S208">
+        <f>IF(Scrobbles!D208&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -24332,8 +25160,12 @@
         <f>IF(AND(Scrobbles!$D209&gt;=Calc!P$1+1,Scrobbles!$D209&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D209)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S209">
+        <f>IF(Scrobbles!D209&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -24390,8 +25222,12 @@
         <f>IF(AND(Scrobbles!$D210&gt;=Calc!P$1+1,Scrobbles!$D210&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D210)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S210">
+        <f>IF(Scrobbles!D210&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -24448,8 +25284,12 @@
         <f>IF(AND(Scrobbles!$D211&gt;=Calc!P$1+1,Scrobbles!$D211&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D211)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S211">
+        <f>IF(Scrobbles!D211&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -24506,8 +25346,12 @@
         <f>IF(AND(Scrobbles!$D212&gt;=Calc!P$1+1,Scrobbles!$D212&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D212)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S212">
+        <f>IF(Scrobbles!D212&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -24564,8 +25408,12 @@
         <f>IF(AND(Scrobbles!$D213&gt;=Calc!P$1+1,Scrobbles!$D213&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D213)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S213">
+        <f>IF(Scrobbles!D213&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -24622,8 +25470,12 @@
         <f>IF(AND(Scrobbles!$D214&gt;=Calc!P$1+1,Scrobbles!$D214&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D214)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S214">
+        <f>IF(Scrobbles!D214&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -24680,8 +25532,12 @@
         <f>IF(AND(Scrobbles!$D215&gt;=Calc!P$1+1,Scrobbles!$D215&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D215)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S215">
+        <f>IF(Scrobbles!D215&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -24738,8 +25594,12 @@
         <f>IF(AND(Scrobbles!$D216&gt;=Calc!P$1+1,Scrobbles!$D216&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D216)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S216">
+        <f>IF(Scrobbles!D216&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -24796,8 +25656,12 @@
         <f>IF(AND(Scrobbles!$D217&gt;=Calc!P$1+1,Scrobbles!$D217&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D217)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S217">
+        <f>IF(Scrobbles!D217&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -24854,8 +25718,12 @@
         <f>IF(AND(Scrobbles!$D218&gt;=Calc!P$1+1,Scrobbles!$D218&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D218)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S218">
+        <f>IF(Scrobbles!D218&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -24912,8 +25780,12 @@
         <f>IF(AND(Scrobbles!$D219&gt;=Calc!P$1+1,Scrobbles!$D219&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D219)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S219">
+        <f>IF(Scrobbles!D219&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -24970,8 +25842,12 @@
         <f>IF(AND(Scrobbles!$D220&gt;=Calc!P$1+1,Scrobbles!$D220&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D220)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S220">
+        <f>IF(Scrobbles!D220&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -25028,8 +25904,12 @@
         <f>IF(AND(Scrobbles!$D221&gt;=Calc!P$1+1,Scrobbles!$D221&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D221)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S221">
+        <f>IF(Scrobbles!D221&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -25086,8 +25966,12 @@
         <f>IF(AND(Scrobbles!$D222&gt;=Calc!P$1+1,Scrobbles!$D222&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D222)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S222">
+        <f>IF(Scrobbles!D222&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -25144,8 +26028,12 @@
         <f>IF(AND(Scrobbles!$D223&gt;=Calc!P$1+1,Scrobbles!$D223&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D223)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S223">
+        <f>IF(Scrobbles!D223&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -25202,8 +26090,12 @@
         <f>IF(AND(Scrobbles!$D224&gt;=Calc!P$1+1,Scrobbles!$D224&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D224)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S224">
+        <f>IF(Scrobbles!D224&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -25260,8 +26152,12 @@
         <f>IF(AND(Scrobbles!$D225&gt;=Calc!P$1+1,Scrobbles!$D225&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D225)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S225">
+        <f>IF(Scrobbles!D225&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -25318,8 +26214,12 @@
         <f>IF(AND(Scrobbles!$D226&gt;=Calc!P$1+1,Scrobbles!$D226&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D226)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S226">
+        <f>IF(Scrobbles!D226&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -25376,8 +26276,12 @@
         <f>IF(AND(Scrobbles!$D227&gt;=Calc!P$1+1,Scrobbles!$D227&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D227)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S227">
+        <f>IF(Scrobbles!D227&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -25434,8 +26338,12 @@
         <f>IF(AND(Scrobbles!$D228&gt;=Calc!P$1+1,Scrobbles!$D228&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D228)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S228">
+        <f>IF(Scrobbles!D228&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -25492,8 +26400,12 @@
         <f>IF(AND(Scrobbles!$D229&gt;=Calc!P$1+1,Scrobbles!$D229&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D229)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S229">
+        <f>IF(Scrobbles!D229&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -25550,8 +26462,12 @@
         <f>IF(AND(Scrobbles!$D230&gt;=Calc!P$1+1,Scrobbles!$D230&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D230)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S230">
+        <f>IF(Scrobbles!D230&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -25608,8 +26524,12 @@
         <f>IF(AND(Scrobbles!$D231&gt;=Calc!P$1+1,Scrobbles!$D231&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D231)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S231">
+        <f>IF(Scrobbles!D231&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -25666,8 +26586,12 @@
         <f>IF(AND(Scrobbles!$D232&gt;=Calc!P$1+1,Scrobbles!$D232&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D232)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S232">
+        <f>IF(Scrobbles!D232&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -25724,8 +26648,12 @@
         <f>IF(AND(Scrobbles!$D233&gt;=Calc!P$1+1,Scrobbles!$D233&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D233)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S233">
+        <f>IF(Scrobbles!D233&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -25782,8 +26710,12 @@
         <f>IF(AND(Scrobbles!$D234&gt;=Calc!P$1+1,Scrobbles!$D234&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D234)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S234">
+        <f>IF(Scrobbles!D234&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -25840,8 +26772,12 @@
         <f>IF(AND(Scrobbles!$D235&gt;=Calc!P$1+1,Scrobbles!$D235&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D235)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S235">
+        <f>IF(Scrobbles!D235&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -25898,8 +26834,12 @@
         <f>IF(AND(Scrobbles!$D236&gt;=Calc!P$1+1,Scrobbles!$D236&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D236)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S236">
+        <f>IF(Scrobbles!D236&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -25956,8 +26896,12 @@
         <f>IF(AND(Scrobbles!$D237&gt;=Calc!P$1+1,Scrobbles!$D237&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D237)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S237">
+        <f>IF(Scrobbles!D237&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -26014,8 +26958,12 @@
         <f>IF(AND(Scrobbles!$D238&gt;=Calc!P$1+1,Scrobbles!$D238&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D238)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S238">
+        <f>IF(Scrobbles!D238&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -26072,8 +27020,12 @@
         <f>IF(AND(Scrobbles!$D239&gt;=Calc!P$1+1,Scrobbles!$D239&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D239)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S239">
+        <f>IF(Scrobbles!D239&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -26130,8 +27082,12 @@
         <f>IF(AND(Scrobbles!$D240&gt;=Calc!P$1+1,Scrobbles!$D240&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D240)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S240">
+        <f>IF(Scrobbles!D240&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -26188,8 +27144,12 @@
         <f>IF(AND(Scrobbles!$D241&gt;=Calc!P$1+1,Scrobbles!$D241&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D241)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S241">
+        <f>IF(Scrobbles!D241&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -26246,8 +27206,12 @@
         <f>IF(AND(Scrobbles!$D242&gt;=Calc!P$1+1,Scrobbles!$D242&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D242)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S242">
+        <f>IF(Scrobbles!D242&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -26304,8 +27268,12 @@
         <f>IF(AND(Scrobbles!$D243&gt;=Calc!P$1+1,Scrobbles!$D243&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D243)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S243">
+        <f>IF(Scrobbles!D243&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -26362,8 +27330,12 @@
         <f>IF(AND(Scrobbles!$D244&gt;=Calc!P$1+1,Scrobbles!$D244&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D244)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S244">
+        <f>IF(Scrobbles!D244&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -26420,8 +27392,12 @@
         <f>IF(AND(Scrobbles!$D245&gt;=Calc!P$1+1,Scrobbles!$D245&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D245)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S245">
+        <f>IF(Scrobbles!D245&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -26478,8 +27454,12 @@
         <f>IF(AND(Scrobbles!$D246&gt;=Calc!P$1+1,Scrobbles!$D246&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D246)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S246">
+        <f>IF(Scrobbles!D246&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -26536,8 +27516,12 @@
         <f>IF(AND(Scrobbles!$D247&gt;=Calc!P$1+1,Scrobbles!$D247&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D247)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S247">
+        <f>IF(Scrobbles!D247&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -26594,8 +27578,12 @@
         <f>IF(AND(Scrobbles!$D248&gt;=Calc!P$1+1,Scrobbles!$D248&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D248)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S248">
+        <f>IF(Scrobbles!D248&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -26652,8 +27640,12 @@
         <f>IF(AND(Scrobbles!$D249&gt;=Calc!P$1+1,Scrobbles!$D249&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D249)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S249">
+        <f>IF(Scrobbles!D249&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -26710,8 +27702,12 @@
         <f>IF(AND(Scrobbles!$D250&gt;=Calc!P$1+1,Scrobbles!$D250&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D250)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S250">
+        <f>IF(Scrobbles!D250&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -26768,8 +27764,12 @@
         <f>IF(AND(Scrobbles!$D251&gt;=Calc!P$1+1,Scrobbles!$D251&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D251)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S251">
+        <f>IF(Scrobbles!D251&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -26826,8 +27826,12 @@
         <f>IF(AND(Scrobbles!$D252&gt;=Calc!P$1+1,Scrobbles!$D252&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D252)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S252">
+        <f>IF(Scrobbles!D252&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -26884,8 +27888,12 @@
         <f>IF(AND(Scrobbles!$D253&gt;=Calc!P$1+1,Scrobbles!$D253&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D253)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S253">
+        <f>IF(Scrobbles!D253&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -26942,8 +27950,12 @@
         <f>IF(AND(Scrobbles!$D254&gt;=Calc!P$1+1,Scrobbles!$D254&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D254)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S254">
+        <f>IF(Scrobbles!D254&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -27000,8 +28012,12 @@
         <f>IF(AND(Scrobbles!$D255&gt;=Calc!P$1+1,Scrobbles!$D255&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D255)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S255">
+        <f>IF(Scrobbles!D255&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -27058,8 +28074,12 @@
         <f>IF(AND(Scrobbles!$D256&gt;=Calc!P$1+1,Scrobbles!$D256&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D256)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S256">
+        <f>IF(Scrobbles!D256&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -27116,8 +28136,12 @@
         <f>IF(AND(Scrobbles!$D257&gt;=Calc!P$1+1,Scrobbles!$D257&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D257)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S257">
+        <f>IF(Scrobbles!D257&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -27174,8 +28198,12 @@
         <f>IF(AND(Scrobbles!$D258&gt;=Calc!P$1+1,Scrobbles!$D258&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D258)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S258">
+        <f>IF(Scrobbles!D258&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -27232,8 +28260,12 @@
         <f>IF(AND(Scrobbles!$D259&gt;=Calc!P$1+1,Scrobbles!$D259&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D259)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S259">
+        <f>IF(Scrobbles!D259&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -27290,8 +28322,12 @@
         <f>IF(AND(Scrobbles!$D260&gt;=Calc!P$1+1,Scrobbles!$D260&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D260)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S260">
+        <f>IF(Scrobbles!D260&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -27348,8 +28384,12 @@
         <f>IF(AND(Scrobbles!$D261&gt;=Calc!P$1+1,Scrobbles!$D261&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D261)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S261">
+        <f>IF(Scrobbles!D261&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -27406,8 +28446,12 @@
         <f>IF(AND(Scrobbles!$D262&gt;=Calc!P$1+1,Scrobbles!$D262&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D262)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S262">
+        <f>IF(Scrobbles!D262&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -27464,8 +28508,12 @@
         <f>IF(AND(Scrobbles!$D263&gt;=Calc!P$1+1,Scrobbles!$D263&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D263)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S263">
+        <f>IF(Scrobbles!D263&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -27522,8 +28570,12 @@
         <f>IF(AND(Scrobbles!$D264&gt;=Calc!P$1+1,Scrobbles!$D264&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D264)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S264">
+        <f>IF(Scrobbles!D264&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -27580,8 +28632,12 @@
         <f>IF(AND(Scrobbles!$D265&gt;=Calc!P$1+1,Scrobbles!$D265&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D265)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S265">
+        <f>IF(Scrobbles!D265&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -27638,8 +28694,12 @@
         <f>IF(AND(Scrobbles!$D266&gt;=Calc!P$1+1,Scrobbles!$D266&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D266)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S266">
+        <f>IF(Scrobbles!D266&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -27696,8 +28756,12 @@
         <f>IF(AND(Scrobbles!$D267&gt;=Calc!P$1+1,Scrobbles!$D267&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D267)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S267">
+        <f>IF(Scrobbles!D267&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -27754,8 +28818,12 @@
         <f>IF(AND(Scrobbles!$D268&gt;=Calc!P$1+1,Scrobbles!$D268&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D268)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S268">
+        <f>IF(Scrobbles!D268&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -27812,8 +28880,12 @@
         <f>IF(AND(Scrobbles!$D269&gt;=Calc!P$1+1,Scrobbles!$D269&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D269)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S269">
+        <f>IF(Scrobbles!D269&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -27870,8 +28942,12 @@
         <f>IF(AND(Scrobbles!$D270&gt;=Calc!P$1+1,Scrobbles!$D270&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D270)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S270">
+        <f>IF(Scrobbles!D270&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -27928,8 +29004,12 @@
         <f>IF(AND(Scrobbles!$D271&gt;=Calc!P$1+1,Scrobbles!$D271&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D271)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S271">
+        <f>IF(Scrobbles!D271&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -27986,8 +29066,12 @@
         <f>IF(AND(Scrobbles!$D272&gt;=Calc!P$1+1,Scrobbles!$D272&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D272)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S272">
+        <f>IF(Scrobbles!D272&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -28044,8 +29128,12 @@
         <f>IF(AND(Scrobbles!$D273&gt;=Calc!P$1+1,Scrobbles!$D273&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D273)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S273">
+        <f>IF(Scrobbles!D273&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -28102,8 +29190,12 @@
         <f>IF(AND(Scrobbles!$D274&gt;=Calc!P$1+1,Scrobbles!$D274&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D274)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S274">
+        <f>IF(Scrobbles!D274&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -28160,8 +29252,12 @@
         <f>IF(AND(Scrobbles!$D275&gt;=Calc!P$1+1,Scrobbles!$D275&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D275)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S275">
+        <f>IF(Scrobbles!D275&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -28218,8 +29314,12 @@
         <f>IF(AND(Scrobbles!$D276&gt;=Calc!P$1+1,Scrobbles!$D276&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D276)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S276">
+        <f>IF(Scrobbles!D276&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -28276,8 +29376,12 @@
         <f>IF(AND(Scrobbles!$D277&gt;=Calc!P$1+1,Scrobbles!$D277&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D277)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S277">
+        <f>IF(Scrobbles!D277&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -28334,8 +29438,12 @@
         <f>IF(AND(Scrobbles!$D278&gt;=Calc!P$1+1,Scrobbles!$D278&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D278)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S278">
+        <f>IF(Scrobbles!D278&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -28392,8 +29500,12 @@
         <f>IF(AND(Scrobbles!$D279&gt;=Calc!P$1+1,Scrobbles!$D279&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D279)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S279">
+        <f>IF(Scrobbles!D279&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -28450,8 +29562,12 @@
         <f>IF(AND(Scrobbles!$D280&gt;=Calc!P$1+1,Scrobbles!$D280&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D280)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S280">
+        <f>IF(Scrobbles!D280&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -28508,8 +29624,12 @@
         <f>IF(AND(Scrobbles!$D281&gt;=Calc!P$1+1,Scrobbles!$D281&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D281)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S281">
+        <f>IF(Scrobbles!D281&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -28566,8 +29686,12 @@
         <f>IF(AND(Scrobbles!$D282&gt;=Calc!P$1+1,Scrobbles!$D282&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D282)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S282">
+        <f>IF(Scrobbles!D282&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -28624,8 +29748,12 @@
         <f>IF(AND(Scrobbles!$D283&gt;=Calc!P$1+1,Scrobbles!$D283&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D283)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S283">
+        <f>IF(Scrobbles!D283&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -28682,8 +29810,12 @@
         <f>IF(AND(Scrobbles!$D284&gt;=Calc!P$1+1,Scrobbles!$D284&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D284)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S284">
+        <f>IF(Scrobbles!D284&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -28740,8 +29872,12 @@
         <f>IF(AND(Scrobbles!$D285&gt;=Calc!P$1+1,Scrobbles!$D285&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D285)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S285">
+        <f>IF(Scrobbles!D285&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -28798,8 +29934,12 @@
         <f>IF(AND(Scrobbles!$D286&gt;=Calc!P$1+1,Scrobbles!$D286&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D286)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S286">
+        <f>IF(Scrobbles!D286&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -28856,8 +29996,12 @@
         <f>IF(AND(Scrobbles!$D287&gt;=Calc!P$1+1,Scrobbles!$D287&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D287)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S287">
+        <f>IF(Scrobbles!D287&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -28914,8 +30058,12 @@
         <f>IF(AND(Scrobbles!$D288&gt;=Calc!P$1+1,Scrobbles!$D288&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D288)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S288">
+        <f>IF(Scrobbles!D288&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -28972,8 +30120,12 @@
         <f>IF(AND(Scrobbles!$D289&gt;=Calc!P$1+1,Scrobbles!$D289&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D289)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S289">
+        <f>IF(Scrobbles!D289&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -29030,8 +30182,12 @@
         <f>IF(AND(Scrobbles!$D290&gt;=Calc!P$1+1,Scrobbles!$D290&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D290)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S290">
+        <f>IF(Scrobbles!D290&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -29088,8 +30244,12 @@
         <f>IF(AND(Scrobbles!$D291&gt;=Calc!P$1+1,Scrobbles!$D291&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D291)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S291">
+        <f>IF(Scrobbles!D291&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -29146,8 +30306,12 @@
         <f>IF(AND(Scrobbles!$D292&gt;=Calc!P$1+1,Scrobbles!$D292&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D292)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S292">
+        <f>IF(Scrobbles!D292&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -29204,8 +30368,12 @@
         <f>IF(AND(Scrobbles!$D293&gt;=Calc!P$1+1,Scrobbles!$D293&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D293)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S293">
+        <f>IF(Scrobbles!D293&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -29262,8 +30430,12 @@
         <f>IF(AND(Scrobbles!$D294&gt;=Calc!P$1+1,Scrobbles!$D294&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D294)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S294">
+        <f>IF(Scrobbles!D294&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -29320,8 +30492,12 @@
         <f>IF(AND(Scrobbles!$D295&gt;=Calc!P$1+1,Scrobbles!$D295&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D295)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S295">
+        <f>IF(Scrobbles!D295&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -29378,8 +30554,12 @@
         <f>IF(AND(Scrobbles!$D296&gt;=Calc!P$1+1,Scrobbles!$D296&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D296)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S296">
+        <f>IF(Scrobbles!D296&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -29436,8 +30616,12 @@
         <f>IF(AND(Scrobbles!$D297&gt;=Calc!P$1+1,Scrobbles!$D297&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D297)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S297">
+        <f>IF(Scrobbles!D297&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -29494,8 +30678,12 @@
         <f>IF(AND(Scrobbles!$D298&gt;=Calc!P$1+1,Scrobbles!$D298&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D298)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S298">
+        <f>IF(Scrobbles!D298&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -29552,8 +30740,12 @@
         <f>IF(AND(Scrobbles!$D299&gt;=Calc!P$1+1,Scrobbles!$D299&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D299)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S299">
+        <f>IF(Scrobbles!D299&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -29610,8 +30802,12 @@
         <f>IF(AND(Scrobbles!$D300&gt;=Calc!P$1+1,Scrobbles!$D300&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D300)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S300">
+        <f>IF(Scrobbles!D300&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -29668,8 +30864,12 @@
         <f>IF(AND(Scrobbles!$D301&gt;=Calc!P$1+1,Scrobbles!$D301&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D301)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S301">
+        <f>IF(Scrobbles!D301&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -29726,8 +30926,12 @@
         <f>IF(AND(Scrobbles!$D302&gt;=Calc!P$1+1,Scrobbles!$D302&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D302)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S302">
+        <f>IF(Scrobbles!D302&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -29784,8 +30988,12 @@
         <f>IF(AND(Scrobbles!$D303&gt;=Calc!P$1+1,Scrobbles!$D303&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D303)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S303">
+        <f>IF(Scrobbles!D303&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -29842,8 +31050,12 @@
         <f>IF(AND(Scrobbles!$D304&gt;=Calc!P$1+1,Scrobbles!$D304&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D304)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S304">
+        <f>IF(Scrobbles!D304&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -29900,8 +31112,12 @@
         <f>IF(AND(Scrobbles!$D305&gt;=Calc!P$1+1,Scrobbles!$D305&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D305)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S305">
+        <f>IF(Scrobbles!D305&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -29958,8 +31174,12 @@
         <f>IF(AND(Scrobbles!$D306&gt;=Calc!P$1+1,Scrobbles!$D306&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D306)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S306">
+        <f>IF(Scrobbles!D306&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -30016,8 +31236,12 @@
         <f>IF(AND(Scrobbles!$D307&gt;=Calc!P$1+1,Scrobbles!$D307&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D307)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S307">
+        <f>IF(Scrobbles!D307&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -30074,8 +31298,12 @@
         <f>IF(AND(Scrobbles!$D308&gt;=Calc!P$1+1,Scrobbles!$D308&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D308)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S308">
+        <f>IF(Scrobbles!D308&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -30132,8 +31360,12 @@
         <f>IF(AND(Scrobbles!$D309&gt;=Calc!P$1+1,Scrobbles!$D309&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D309)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S309">
+        <f>IF(Scrobbles!D309&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -30190,8 +31422,12 @@
         <f>IF(AND(Scrobbles!$D310&gt;=Calc!P$1+1,Scrobbles!$D310&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D310)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S310">
+        <f>IF(Scrobbles!D310&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -30248,8 +31484,12 @@
         <f>IF(AND(Scrobbles!$D311&gt;=Calc!P$1+1,Scrobbles!$D311&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D311)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S311">
+        <f>IF(Scrobbles!D311&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -30306,8 +31546,12 @@
         <f>IF(AND(Scrobbles!$D312&gt;=Calc!P$1+1,Scrobbles!$D312&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D312)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S312">
+        <f>IF(Scrobbles!D312&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -30364,8 +31608,12 @@
         <f>IF(AND(Scrobbles!$D313&gt;=Calc!P$1+1,Scrobbles!$D313&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D313)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S313">
+        <f>IF(Scrobbles!D313&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -30422,8 +31670,12 @@
         <f>IF(AND(Scrobbles!$D314&gt;=Calc!P$1+1,Scrobbles!$D314&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D314)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S314">
+        <f>IF(Scrobbles!D314&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -30480,8 +31732,12 @@
         <f>IF(AND(Scrobbles!$D315&gt;=Calc!P$1+1,Scrobbles!$D315&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D315)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S315">
+        <f>IF(Scrobbles!D315&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -30538,8 +31794,12 @@
         <f>IF(AND(Scrobbles!$D316&gt;=Calc!P$1+1,Scrobbles!$D316&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D316)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S316">
+        <f>IF(Scrobbles!D316&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -30596,8 +31856,12 @@
         <f>IF(AND(Scrobbles!$D317&gt;=Calc!P$1+1,Scrobbles!$D317&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D317)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S317">
+        <f>IF(Scrobbles!D317&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -30654,8 +31918,12 @@
         <f>IF(AND(Scrobbles!$D318&gt;=Calc!P$1+1,Scrobbles!$D318&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D318)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S318">
+        <f>IF(Scrobbles!D318&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -30712,8 +31980,12 @@
         <f>IF(AND(Scrobbles!$D319&gt;=Calc!P$1+1,Scrobbles!$D319&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D319)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S319">
+        <f>IF(Scrobbles!D319&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -30770,8 +32042,12 @@
         <f>IF(AND(Scrobbles!$D320&gt;=Calc!P$1+1,Scrobbles!$D320&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D320)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S320">
+        <f>IF(Scrobbles!D320&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -30828,8 +32104,12 @@
         <f>IF(AND(Scrobbles!$D321&gt;=Calc!P$1+1,Scrobbles!$D321&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D321)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S321">
+        <f>IF(Scrobbles!D321&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -30886,8 +32166,12 @@
         <f>IF(AND(Scrobbles!$D322&gt;=Calc!P$1+1,Scrobbles!$D322&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D322)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S322">
+        <f>IF(Scrobbles!D322&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -30944,8 +32228,12 @@
         <f>IF(AND(Scrobbles!$D323&gt;=Calc!P$1+1,Scrobbles!$D323&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D323)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S323">
+        <f>IF(Scrobbles!D323&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -31002,8 +32290,12 @@
         <f>IF(AND(Scrobbles!$D324&gt;=Calc!P$1+1,Scrobbles!$D324&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D324)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S324">
+        <f>IF(Scrobbles!D324&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -31060,8 +32352,12 @@
         <f>IF(AND(Scrobbles!$D325&gt;=Calc!P$1+1,Scrobbles!$D325&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D325)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S325">
+        <f>IF(Scrobbles!D325&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -31118,8 +32414,12 @@
         <f>IF(AND(Scrobbles!$D326&gt;=Calc!P$1+1,Scrobbles!$D326&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D326)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S326">
+        <f>IF(Scrobbles!D326&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -31176,8 +32476,12 @@
         <f>IF(AND(Scrobbles!$D327&gt;=Calc!P$1+1,Scrobbles!$D327&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D327)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S327">
+        <f>IF(Scrobbles!D327&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -31234,8 +32538,12 @@
         <f>IF(AND(Scrobbles!$D328&gt;=Calc!P$1+1,Scrobbles!$D328&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D328)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S328">
+        <f>IF(Scrobbles!D328&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -31292,8 +32600,12 @@
         <f>IF(AND(Scrobbles!$D329&gt;=Calc!P$1+1,Scrobbles!$D329&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D329)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S329">
+        <f>IF(Scrobbles!D329&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -31350,8 +32662,12 @@
         <f>IF(AND(Scrobbles!$D330&gt;=Calc!P$1+1,Scrobbles!$D330&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D330)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S330">
+        <f>IF(Scrobbles!D330&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -31408,8 +32724,12 @@
         <f>IF(AND(Scrobbles!$D331&gt;=Calc!P$1+1,Scrobbles!$D331&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D331)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S331">
+        <f>IF(Scrobbles!D331&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -31466,8 +32786,12 @@
         <f>IF(AND(Scrobbles!$D332&gt;=Calc!P$1+1,Scrobbles!$D332&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D332)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S332">
+        <f>IF(Scrobbles!D332&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -31524,8 +32848,12 @@
         <f>IF(AND(Scrobbles!$D333&gt;=Calc!P$1+1,Scrobbles!$D333&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D333)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S333">
+        <f>IF(Scrobbles!D333&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -31582,8 +32910,12 @@
         <f>IF(AND(Scrobbles!$D334&gt;=Calc!P$1+1,Scrobbles!$D334&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D334)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S334">
+        <f>IF(Scrobbles!D334&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -31640,8 +32972,12 @@
         <f>IF(AND(Scrobbles!$D335&gt;=Calc!P$1+1,Scrobbles!$D335&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D335)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S335">
+        <f>IF(Scrobbles!D335&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -31698,8 +33034,12 @@
         <f>IF(AND(Scrobbles!$D336&gt;=Calc!P$1+1,Scrobbles!$D336&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D336)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S336">
+        <f>IF(Scrobbles!D336&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -31756,8 +33096,12 @@
         <f>IF(AND(Scrobbles!$D337&gt;=Calc!P$1+1,Scrobbles!$D337&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D337)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S337">
+        <f>IF(Scrobbles!D337&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -31814,8 +33158,12 @@
         <f>IF(AND(Scrobbles!$D338&gt;=Calc!P$1+1,Scrobbles!$D338&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D338)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S338">
+        <f>IF(Scrobbles!D338&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -31872,8 +33220,12 @@
         <f>IF(AND(Scrobbles!$D339&gt;=Calc!P$1+1,Scrobbles!$D339&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D339)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S339">
+        <f>IF(Scrobbles!D339&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -31930,8 +33282,12 @@
         <f>IF(AND(Scrobbles!$D340&gt;=Calc!P$1+1,Scrobbles!$D340&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D340)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S340">
+        <f>IF(Scrobbles!D340&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -31988,8 +33344,12 @@
         <f>IF(AND(Scrobbles!$D341&gt;=Calc!P$1+1,Scrobbles!$D341&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D341)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S341">
+        <f>IF(Scrobbles!D341&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -32046,8 +33406,12 @@
         <f>IF(AND(Scrobbles!$D342&gt;=Calc!P$1+1,Scrobbles!$D342&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D342)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S342">
+        <f>IF(Scrobbles!D342&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -32104,8 +33468,12 @@
         <f>IF(AND(Scrobbles!$D343&gt;=Calc!P$1+1,Scrobbles!$D343&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D343)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S343">
+        <f>IF(Scrobbles!D343&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -32162,8 +33530,12 @@
         <f>IF(AND(Scrobbles!$D344&gt;=Calc!P$1+1,Scrobbles!$D344&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D344)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S344">
+        <f>IF(Scrobbles!D344&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -32220,8 +33592,12 @@
         <f>IF(AND(Scrobbles!$D345&gt;=Calc!P$1+1,Scrobbles!$D345&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D345)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S345">
+        <f>IF(Scrobbles!D345&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -32278,8 +33654,12 @@
         <f>IF(AND(Scrobbles!$D346&gt;=Calc!P$1+1,Scrobbles!$D346&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D346)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S346">
+        <f>IF(Scrobbles!D346&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -32336,8 +33716,12 @@
         <f>IF(AND(Scrobbles!$D347&gt;=Calc!P$1+1,Scrobbles!$D347&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D347)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S347">
+        <f>IF(Scrobbles!D347&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -32394,8 +33778,12 @@
         <f>IF(AND(Scrobbles!$D348&gt;=Calc!P$1+1,Scrobbles!$D348&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D348)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S348">
+        <f>IF(Scrobbles!D348&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -32452,8 +33840,12 @@
         <f>IF(AND(Scrobbles!$D349&gt;=Calc!P$1+1,Scrobbles!$D349&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D349)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S349">
+        <f>IF(Scrobbles!D349&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -32510,8 +33902,12 @@
         <f>IF(AND(Scrobbles!$D350&gt;=Calc!P$1+1,Scrobbles!$D350&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D350)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S350">
+        <f>IF(Scrobbles!D350&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -32568,8 +33964,12 @@
         <f>IF(AND(Scrobbles!$D351&gt;=Calc!P$1+1,Scrobbles!$D351&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D351)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S351">
+        <f>IF(Scrobbles!D351&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -32626,8 +34026,12 @@
         <f>IF(AND(Scrobbles!$D352&gt;=Calc!P$1+1,Scrobbles!$D352&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D352)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S352">
+        <f>IF(Scrobbles!D352&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -32684,8 +34088,12 @@
         <f>IF(AND(Scrobbles!$D353&gt;=Calc!P$1+1,Scrobbles!$D353&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D353)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S353">
+        <f>IF(Scrobbles!D353&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -32742,8 +34150,12 @@
         <f>IF(AND(Scrobbles!$D354&gt;=Calc!P$1+1,Scrobbles!$D354&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D354)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S354">
+        <f>IF(Scrobbles!D354&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -32800,8 +34212,12 @@
         <f>IF(AND(Scrobbles!$D355&gt;=Calc!P$1+1,Scrobbles!$D355&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D355)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S355">
+        <f>IF(Scrobbles!D355&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -32858,8 +34274,12 @@
         <f>IF(AND(Scrobbles!$D356&gt;=Calc!P$1+1,Scrobbles!$D356&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D356)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S356">
+        <f>IF(Scrobbles!D356&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -32916,8 +34336,12 @@
         <f>IF(AND(Scrobbles!$D357&gt;=Calc!P$1+1,Scrobbles!$D357&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D357)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S357">
+        <f>IF(Scrobbles!D357&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -32974,8 +34398,12 @@
         <f>IF(AND(Scrobbles!$D358&gt;=Calc!P$1+1,Scrobbles!$D358&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D358)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S358">
+        <f>IF(Scrobbles!D358&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -33032,8 +34460,12 @@
         <f>IF(AND(Scrobbles!$D359&gt;=Calc!P$1+1,Scrobbles!$D359&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D359)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S359">
+        <f>IF(Scrobbles!D359&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -33090,8 +34522,12 @@
         <f>IF(AND(Scrobbles!$D360&gt;=Calc!P$1+1,Scrobbles!$D360&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D360)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S360">
+        <f>IF(Scrobbles!D360&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -33148,8 +34584,12 @@
         <f>IF(AND(Scrobbles!$D361&gt;=Calc!P$1+1,Scrobbles!$D361&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D361)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S361">
+        <f>IF(Scrobbles!D361&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -33206,8 +34646,12 @@
         <f>IF(AND(Scrobbles!$D362&gt;=Calc!P$1+1,Scrobbles!$D362&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D362)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S362">
+        <f>IF(Scrobbles!D362&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -33264,8 +34708,12 @@
         <f>IF(AND(Scrobbles!$D363&gt;=Calc!P$1+1,Scrobbles!$D363&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D363)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S363">
+        <f>IF(Scrobbles!D363&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -33322,8 +34770,12 @@
         <f>IF(AND(Scrobbles!$D364&gt;=Calc!P$1+1,Scrobbles!$D364&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D364)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S364">
+        <f>IF(Scrobbles!D364&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -33380,8 +34832,12 @@
         <f>IF(AND(Scrobbles!$D365&gt;=Calc!P$1+1,Scrobbles!$D365&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D365)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S365">
+        <f>IF(Scrobbles!D365&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -33438,8 +34894,12 @@
         <f>IF(AND(Scrobbles!$D366&gt;=Calc!P$1+1,Scrobbles!$D366&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D366)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S366">
+        <f>IF(Scrobbles!D366&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -33496,8 +34956,12 @@
         <f>IF(AND(Scrobbles!$D367&gt;=Calc!P$1+1,Scrobbles!$D367&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D367)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S367">
+        <f>IF(Scrobbles!D367&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -33554,8 +35018,12 @@
         <f>IF(AND(Scrobbles!$D368&gt;=Calc!P$1+1,Scrobbles!$D368&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D368)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S368">
+        <f>IF(Scrobbles!D368&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -33612,8 +35080,12 @@
         <f>IF(AND(Scrobbles!$D369&gt;=Calc!P$1+1,Scrobbles!$D369&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D369)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S369">
+        <f>IF(Scrobbles!D369&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -33670,8 +35142,12 @@
         <f>IF(AND(Scrobbles!$D370&gt;=Calc!P$1+1,Scrobbles!$D370&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D370)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S370">
+        <f>IF(Scrobbles!D370&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -33728,8 +35204,12 @@
         <f>IF(AND(Scrobbles!$D371&gt;=Calc!P$1+1,Scrobbles!$D371&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D371)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S371">
+        <f>IF(Scrobbles!D371&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -33786,8 +35266,12 @@
         <f>IF(AND(Scrobbles!$D372&gt;=Calc!P$1+1,Scrobbles!$D372&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D372)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S372">
+        <f>IF(Scrobbles!D372&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -33844,8 +35328,12 @@
         <f>IF(AND(Scrobbles!$D373&gt;=Calc!P$1+1,Scrobbles!$D373&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D373)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S373">
+        <f>IF(Scrobbles!D373&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -33902,8 +35390,12 @@
         <f>IF(AND(Scrobbles!$D374&gt;=Calc!P$1+1,Scrobbles!$D374&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D374)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S374">
+        <f>IF(Scrobbles!D374&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -33960,8 +35452,12 @@
         <f>IF(AND(Scrobbles!$D375&gt;=Calc!P$1+1,Scrobbles!$D375&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D375)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S375">
+        <f>IF(Scrobbles!D375&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -34018,8 +35514,12 @@
         <f>IF(AND(Scrobbles!$D376&gt;=Calc!P$1+1,Scrobbles!$D376&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D376)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S376">
+        <f>IF(Scrobbles!D376&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -34076,8 +35576,12 @@
         <f>IF(AND(Scrobbles!$D377&gt;=Calc!P$1+1,Scrobbles!$D377&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D377)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S377">
+        <f>IF(Scrobbles!D377&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -34134,8 +35638,12 @@
         <f>IF(AND(Scrobbles!$D378&gt;=Calc!P$1+1,Scrobbles!$D378&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D378)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S378">
+        <f>IF(Scrobbles!D378&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -34192,8 +35700,12 @@
         <f>IF(AND(Scrobbles!$D379&gt;=Calc!P$1+1,Scrobbles!$D379&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D379)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S379">
+        <f>IF(Scrobbles!D379&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -34250,8 +35762,12 @@
         <f>IF(AND(Scrobbles!$D380&gt;=Calc!P$1+1,Scrobbles!$D380&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D380)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S380">
+        <f>IF(Scrobbles!D380&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -34308,8 +35824,12 @@
         <f>IF(AND(Scrobbles!$D381&gt;=Calc!P$1+1,Scrobbles!$D381&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D381)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S381">
+        <f>IF(Scrobbles!D381&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -34366,8 +35886,12 @@
         <f>IF(AND(Scrobbles!$D382&gt;=Calc!P$1+1,Scrobbles!$D382&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D382)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S382">
+        <f>IF(Scrobbles!D382&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -34424,8 +35948,12 @@
         <f>IF(AND(Scrobbles!$D383&gt;=Calc!P$1+1,Scrobbles!$D383&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D383)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S383">
+        <f>IF(Scrobbles!D383&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -34482,8 +36010,12 @@
         <f>IF(AND(Scrobbles!$D384&gt;=Calc!P$1+1,Scrobbles!$D384&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D384)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S384">
+        <f>IF(Scrobbles!D384&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -34540,8 +36072,12 @@
         <f>IF(AND(Scrobbles!$D385&gt;=Calc!P$1+1,Scrobbles!$D385&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D385)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S385">
+        <f>IF(Scrobbles!D385&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -34598,8 +36134,12 @@
         <f>IF(AND(Scrobbles!$D386&gt;=Calc!P$1+1,Scrobbles!$D386&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D386)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S386">
+        <f>IF(Scrobbles!D386&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -34656,8 +36196,12 @@
         <f>IF(AND(Scrobbles!$D387&gt;=Calc!P$1+1,Scrobbles!$D387&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D387)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S387">
+        <f>IF(Scrobbles!D387&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -34714,8 +36258,12 @@
         <f>IF(AND(Scrobbles!$D388&gt;=Calc!P$1+1,Scrobbles!$D388&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D388)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S388">
+        <f>IF(Scrobbles!D388&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -34772,8 +36320,12 @@
         <f>IF(AND(Scrobbles!$D389&gt;=Calc!P$1+1,Scrobbles!$D389&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D389)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S389">
+        <f>IF(Scrobbles!D389&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -34830,8 +36382,12 @@
         <f>IF(AND(Scrobbles!$D390&gt;=Calc!P$1+1,Scrobbles!$D390&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D390)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S390">
+        <f>IF(Scrobbles!D390&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -34888,8 +36444,12 @@
         <f>IF(AND(Scrobbles!$D391&gt;=Calc!P$1+1,Scrobbles!$D391&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D391)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S391">
+        <f>IF(Scrobbles!D391&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -34946,8 +36506,12 @@
         <f>IF(AND(Scrobbles!$D392&gt;=Calc!P$1+1,Scrobbles!$D392&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D392)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S392">
+        <f>IF(Scrobbles!D392&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -35004,8 +36568,12 @@
         <f>IF(AND(Scrobbles!$D393&gt;=Calc!P$1+1,Scrobbles!$D393&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D393)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S393">
+        <f>IF(Scrobbles!D393&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -35062,8 +36630,12 @@
         <f>IF(AND(Scrobbles!$D394&gt;=Calc!P$1+1,Scrobbles!$D394&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D394)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S394">
+        <f>IF(Scrobbles!D394&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -35120,8 +36692,12 @@
         <f>IF(AND(Scrobbles!$D395&gt;=Calc!P$1+1,Scrobbles!$D395&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D395)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S395">
+        <f>IF(Scrobbles!D395&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -35178,8 +36754,12 @@
         <f>IF(AND(Scrobbles!$D396&gt;=Calc!P$1+1,Scrobbles!$D396&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D396)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S396">
+        <f>IF(Scrobbles!D396&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -35236,8 +36816,12 @@
         <f>IF(AND(Scrobbles!$D397&gt;=Calc!P$1+1,Scrobbles!$D397&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D397)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S397">
+        <f>IF(Scrobbles!D397&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -35294,8 +36878,12 @@
         <f>IF(AND(Scrobbles!$D398&gt;=Calc!P$1+1,Scrobbles!$D398&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D398)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S398">
+        <f>IF(Scrobbles!D398&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -35352,8 +36940,12 @@
         <f>IF(AND(Scrobbles!$D399&gt;=Calc!P$1+1,Scrobbles!$D399&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D399)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S399">
+        <f>IF(Scrobbles!D399&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -35410,8 +37002,12 @@
         <f>IF(AND(Scrobbles!$D400&gt;=Calc!P$1+1,Scrobbles!$D400&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D400)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S400">
+        <f>IF(Scrobbles!D400&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -35468,8 +37064,12 @@
         <f>IF(AND(Scrobbles!$D401&gt;=Calc!P$1+1,Scrobbles!$D401&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D401)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S401">
+        <f>IF(Scrobbles!D401&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -35526,8 +37126,12 @@
         <f>IF(AND(Scrobbles!$D402&gt;=Calc!P$1+1,Scrobbles!$D402&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D402)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S402">
+        <f>IF(Scrobbles!D402&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -35584,8 +37188,12 @@
         <f>IF(AND(Scrobbles!$D403&gt;=Calc!P$1+1,Scrobbles!$D403&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D403)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S403">
+        <f>IF(Scrobbles!D403&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -35642,8 +37250,12 @@
         <f>IF(AND(Scrobbles!$D404&gt;=Calc!P$1+1,Scrobbles!$D404&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D404)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S404">
+        <f>IF(Scrobbles!D404&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -35700,8 +37312,12 @@
         <f>IF(AND(Scrobbles!$D405&gt;=Calc!P$1+1,Scrobbles!$D405&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D405)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="S405">
+        <f>IF(Scrobbles!D405&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>
@@ -35756,6 +37372,10 @@
       </c>
       <c r="Q406">
         <f>IF(AND(Scrobbles!$D406&gt;=Calc!P$1+1,Scrobbles!$D406&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D406)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S406">
+        <f>IF(Scrobbles!D406&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD16C217-F29E-416D-801D-A3F556C055D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318DC8E-DF4E-4FBB-907B-809F5B31A184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>Freq</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Listen?</t>
+  </si>
+  <si>
+    <t>y=mx + c</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
+  <si>
+    <t>140-159</t>
   </si>
 </sst>
 </file>
@@ -468,14 +480,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -603,9 +615,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Scrobbles!$H$4:$H$10</c:f>
+              <c:f>Scrobbles!$H$4:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0-19</c:v>
                 </c:pt>
@@ -626,16 +638,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>120-139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140-159</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$I$4:$I$10</c:f>
+              <c:f>Scrobbles!$I$4:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -656,6 +671,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,9 +728,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scrobbles!$H$4:$H$10</c:f>
+              <c:f>Scrobbles!$H$4:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0-19</c:v>
                 </c:pt>
@@ -733,16 +751,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>120-139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140-159</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$J$4:$J$10</c:f>
+              <c:f>Scrobbles!$J$4:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.755828529582649</c:v>
                 </c:pt>
@@ -763,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.65803605024088829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14009883877104778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,9 +826,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Scrobbles!$H$4:$H$10</c:f>
+              <c:f>Scrobbles!$H$4:$H$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0-19</c:v>
                 </c:pt>
@@ -825,16 +849,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>120-139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140-159</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$K$4:$K$10</c:f>
+              <c:f>Scrobbles!$K$4:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1.9055939425877148E-7</c:v>
                 </c:pt>
@@ -855,6 +882,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.83926618533836E-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0709264603842694E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8558,10 +8588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8692,17 +8722,17 @@
         <v>5</v>
       </c>
       <c r="J4" s="27">
-        <f>SUM('Dist Calc'!B2:B21)*I12</f>
+        <f>SUM('Dist Calc'!B2:B21)*I13</f>
         <v>2.755828529582649</v>
       </c>
       <c r="K4" s="28">
-        <f>SUM('Dist Calc'!C2:C21)*I12</f>
+        <f>SUM('Dist Calc'!C2:C21)*I13</f>
         <v>1.9055939425877148E-7</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8733,17 +8763,17 @@
         <v>5</v>
       </c>
       <c r="J5" s="27">
-        <f>SUM('Dist Calc'!B22:B41)*I12</f>
+        <f>SUM('Dist Calc'!B22:B41)*I13</f>
         <v>5.5207604135885546</v>
       </c>
       <c r="K5" s="28">
-        <f>SUM('Dist Calc'!C22:C41)*I12</f>
+        <f>SUM('Dist Calc'!C22:C41)*I13</f>
         <v>0.2650563305187848</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <f ca="1">TODAY()</f>
         <v>43571</v>
       </c>
@@ -8777,11 +8807,11 @@
         <v>11</v>
       </c>
       <c r="J6" s="27">
-        <f>SUM('Dist Calc'!B42:B61)*I12</f>
+        <f>SUM('Dist Calc'!B42:B61)*I13</f>
         <v>7.6132196578024791</v>
       </c>
       <c r="K6" s="28">
-        <f>SUM('Dist Calc'!C42:C61)*I12</f>
+        <f>SUM('Dist Calc'!C42:C61)*I13</f>
         <v>20.570667985876916</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -8821,11 +8851,11 @@
         <v>3</v>
       </c>
       <c r="J7" s="27">
-        <f>SUM('Dist Calc'!B62:B81)*I12</f>
+        <f>SUM('Dist Calc'!B62:B81)*I13</f>
         <v>7.2281266636418948</v>
       </c>
       <c r="K7" s="28">
-        <f>SUM('Dist Calc'!C62:C81)*I12</f>
+        <f>SUM('Dist Calc'!C62:C81)*I13</f>
         <v>11.098846594600893</v>
       </c>
       <c r="N7" s="4"/>
@@ -8860,11 +8890,11 @@
         <v>5</v>
       </c>
       <c r="J8" s="27">
-        <f>SUM('Dist Calc'!B82:B101)*I12</f>
+        <f>SUM('Dist Calc'!B82:B101)*I13</f>
         <v>4.724550189973888</v>
       </c>
       <c r="K8" s="28">
-        <f>SUM('Dist Calc'!C82:C101)*I12</f>
+        <f>SUM('Dist Calc'!C82:C101)*I13</f>
         <v>6.5424663668853314E-2</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -8904,11 +8934,11 @@
         <v>1</v>
       </c>
       <c r="J9" s="27">
-        <f>SUM('Dist Calc'!B102:B121)*I12</f>
+        <f>SUM('Dist Calc'!B102:B121)*I13</f>
         <v>2.125625750087083</v>
       </c>
       <c r="K9" s="28">
-        <f>SUM('Dist Calc'!C102:C121)*I12</f>
+        <f>SUM('Dist Calc'!C102:C121)*I13</f>
         <v>4.2347693200051773E-6</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -8948,14 +8978,14 @@
         <v>2</v>
       </c>
       <c r="J10" s="27">
-        <f>SUM('Dist Calc'!B122:B141)*I12</f>
+        <f>SUM('Dist Calc'!B122:B141)*I13</f>
         <v>0.65803605024088829</v>
       </c>
       <c r="K10" s="28">
-        <f>SUM('Dist Calc'!C122:C141)*I12</f>
+        <f>SUM('Dist Calc'!C122:C141)*I13</f>
         <v>5.83926618533836E-12</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
@@ -8984,15 +9014,26 @@
         <f>SUM($D$2:D11)</f>
         <v>404</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="27">
+        <f>SUM(Calc!R2:R406)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <f>SUM('Dist Calc'!B142:B161)*I13</f>
+        <v>0.14009883877104778</v>
+      </c>
+      <c r="K11" s="28">
+        <f>SUM('Dist Calc'!C142:C161)*I13</f>
+        <v>3.0709264603842694E-19</v>
+      </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
-        <f ca="1">SUM(Calc!S2:S406)/Scrobbles!O6</f>
+        <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
         <v>0.96875</v>
       </c>
     </row>
@@ -9017,23 +9058,12 @@
         <f>SUM($D$2:D12)</f>
         <v>496</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="27">
-        <f>SUM(I4:I10)</f>
-        <v>32</v>
-      </c>
-      <c r="J12" s="27">
-        <f>SUM(J4:J10)</f>
-        <v>30.626147254917434</v>
-      </c>
-      <c r="K12" s="28">
-        <f>SUM(K4:K10)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9054,22 +9084,23 @@
         <f>SUM($D$2:D13)</f>
         <v>572</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="25">
-        <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>0.16235246744104204</v>
-      </c>
-      <c r="K13" s="26">
-        <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="27">
+        <f>SUM(I4:I10)</f>
+        <v>32</v>
+      </c>
+      <c r="J13" s="27">
+        <f>SUM(J4:J10)</f>
+        <v>30.626147254917434</v>
+      </c>
+      <c r="K13" s="28">
+        <f>SUM(K4:K10)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9090,6 +9121,20 @@
         <f>SUM($D$2:D14)</f>
         <v>603</v>
       </c>
+      <c r="H14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="25">
+        <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
+        <v>0.16235246744104204</v>
+      </c>
+      <c r="K14" s="26">
+        <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9142,7 +9187,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9164,7 +9209,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9186,7 +9231,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9207,12 +9252,11 @@
         <f>SUM($D$2:D19)</f>
         <v>867</v>
       </c>
-      <c r="Y19">
-        <f>SLOPE(F2:F32,A2:A32)</f>
-        <v>54.345564516129031</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9233,8 +9277,15 @@
         <f>SUM($D$2:D20)</f>
         <v>924</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z20">
+        <f>SLOPE(F2:F32,A2:A32)</f>
+        <v>54.345564516129031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9255,8 +9306,15 @@
         <f>SUM($D$2:D21)</f>
         <v>954</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z21">
+        <f>INTERCEPT(F2:F33,A2:A33)</f>
+        <v>-111.66129032258073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9278,7 +9336,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9300,7 +9358,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9322,7 +9380,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9344,7 +9402,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9369,7 +9427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9391,7 +9449,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9413,7 +9471,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9435,7 +9493,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9457,7 +9515,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9479,7 +9537,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9802,7 +9860,7 @@
   <mergeCells count="1">
     <mergeCell ref="N4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="J13:K13">
+  <conditionalFormatting sqref="J14:K14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -9825,7 +9883,7 @@
   <dimension ref="C1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10356,10 +10414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C1144C-9D2E-4C2D-A74C-B7125D4E5999}">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12195,6 +12253,526 @@
         <v>1.4203075569856198E-20</v>
       </c>
     </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>4.3811181315523833E-4</v>
+      </c>
+      <c r="C142">
+        <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
+        <v>5.7541478034127772E-21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>4.0413207400097893E-4</v>
+      </c>
+      <c r="C143">
+        <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
+        <v>2.3146671682611413E-21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.7242873801066989E-4</v>
+      </c>
+      <c r="C144">
+        <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
+        <v>9.2454245387190984E-22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.428819004525533E-4</v>
+      </c>
+      <c r="C145">
+        <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
+        <v>3.6670554059823772E-22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.1537513242828113E-4</v>
+      </c>
+      <c r="C146">
+        <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
+        <v>1.4443805472781634E-22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.897956356164524E-4</v>
+      </c>
+      <c r="C147">
+        <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
+        <v>5.6498937355817243E-23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.6603436790527993E-4</v>
+      </c>
+      <c r="C148">
+        <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
+        <v>2.1948966459933018E-23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.4398614155254778E-4</v>
+      </c>
+      <c r="C149">
+        <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
+        <v>8.4688295333289535E-24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.2354969555645496E-4</v>
+      </c>
+      <c r="C150">
+        <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
+        <v>3.2455501695507056E-24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.046277439502897E-4</v>
+      </c>
+      <c r="C151">
+        <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
+        <v>1.2354600582496545E-24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.8712700174816968E-4</v>
+      </c>
+      <c r="C152">
+        <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
+        <v>4.6715833452564651E-25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.7095819026945985E-4</v>
+      </c>
+      <c r="C153">
+        <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
+        <v>1.7547441580382059E-25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.5603602355708499E-4</v>
+      </c>
+      <c r="C154">
+        <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
+        <v>6.5478220535349487E-26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.4227917758097438E-4</v>
+      </c>
+      <c r="C155">
+        <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
+        <v>2.4273482490126395E-26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.2961024388348372E-4</v>
+      </c>
+      <c r="C156">
+        <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
+        <v>8.9400102921223187E-27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.1795566928003445E-4</v>
+      </c>
+      <c r="C157">
+        <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
+        <v>3.2713948952019831E-27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.0724568317652091E-4</v>
+      </c>
+      <c r="C158">
+        <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
+        <v>1.1894194180271831E-27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>9.7414214006435673E-5</v>
+      </c>
+      <c r="C159">
+        <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
+        <v>4.2969670456196237E-28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>8.8398796226218235E-5</v>
+      </c>
+      <c r="C160">
+        <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
+        <v>1.5425227823971538E-28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>8.0140469238114742E-5</v>
+      </c>
+      <c r="C161">
+        <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
+        <v>5.5025134631500236E-29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>7.2583669536842099E-5</v>
+      </c>
+      <c r="C162">
+        <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
+        <v>1.9505980343002238E-29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>6.5676117300532026E-5</v>
+      </c>
+      <c r="C163">
+        <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
+        <v>6.8717690843456209E-30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>5.9368698568664867E-5</v>
+      </c>
+      <c r="C164">
+        <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
+        <v>2.4059145231650684E-30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>5.3615344070824628E-5</v>
+      </c>
+      <c r="C165">
+        <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
+        <v>8.3718076294951032E-31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>4.8372905690858774E-5</v>
+      </c>
+      <c r="C166">
+        <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
+        <v>2.8953564877159087E-31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>4.3601031472106725E-5</v>
+      </c>
+      <c r="C167">
+        <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
+        <v>9.9527879265234913E-32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.9262039991380851E-5</v>
+      </c>
+      <c r="C168">
+        <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
+        <v>3.4006607843826185E-32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.5320794852898663E-5</v>
+      </c>
+      <c r="C169">
+        <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
+        <v>1.154977418348506E-32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>3.1744579978860551E-5</v>
+      </c>
+      <c r="C170">
+        <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
+        <v>3.8993378242234256E-33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.850297630125675E-5</v>
+      </c>
+      <c r="C171">
+        <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
+        <v>1.3086719953708751E-33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.5567740390131475E-5</v>
+      </c>
+      <c r="C172">
+        <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
+        <v>4.3662493963200084E-34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.2912685487224438E-5</v>
+      </c>
+      <c r="C173">
+        <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
+        <v>1.4482351341960916E-34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>2.0513565350886031E-5</v>
+      </c>
+      <c r="C174">
+        <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
+        <v>4.7757027045165876E-35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.8347961258610066E-5</v>
+      </c>
+      <c r="C175">
+        <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
+        <v>1.5657334553283245E-35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.6395172457576219E-5</v>
+      </c>
+      <c r="C176">
+        <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
+        <v>5.1038186447931066E-36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.4636110301332902E-5</v>
+      </c>
+      <c r="C177">
+        <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
+        <v>1.6541840786249705E-36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.3053196262222345E-5</v>
+      </c>
+      <c r="C178">
+        <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
+        <v>5.3308666596311045E-37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.1630263964360856E-5</v>
+      </c>
+      <c r="C179">
+        <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
+        <v>1.7082491149771871E-37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>1.0352465340906091E-5</v>
+      </c>
+      <c r="C180">
+        <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
+        <v>5.4432446342759841E-38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
+        <v>9.2061809819141421E-6</v>
+      </c>
+      <c r="C181">
+        <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
+        <v>1.7247711262588149E-38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12202,10 +12780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB0E1D8-8D5B-4CEF-AC8E-68B008740A99}">
-  <dimension ref="C1:S406"/>
+  <dimension ref="C1:T406"/>
   <sheetViews>
-    <sheetView topLeftCell="F363" workbookViewId="0">
-      <selection activeCell="R379" sqref="R379"/>
+    <sheetView topLeftCell="F371" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12219,7 +12797,7 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12265,11 +12843,14 @@
       <c r="Q1">
         <v>139</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1">
+        <v>159</v>
+      </c>
+      <c r="T1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -12326,12 +12907,16 @@
         <f>IF(AND(Scrobbles!$D2&gt;=Calc!P$1+1,Scrobbles!$D2&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D2)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="R2">
+        <f>IF(AND(Scrobbles!$D2&gt;=Calc!Q$1+1,Scrobbles!$D2&lt;=Calc!R$1,ISBLANK(Scrobbles!$D2)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
         <f>IF(Scrobbles!D2&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -12388,12 +12973,16 @@
         <f>IF(AND(Scrobbles!$D3&gt;=Calc!P$1+1,Scrobbles!$D3&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D3)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="R3">
+        <f>IF(AND(Scrobbles!$D3&gt;=Calc!Q$1+1,Scrobbles!$D3&lt;=Calc!R$1,ISBLANK(Scrobbles!$D3)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
         <f>IF(Scrobbles!D3&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -12450,12 +13039,16 @@
         <f>IF(AND(Scrobbles!$D4&gt;=Calc!P$1+1,Scrobbles!$D4&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D4)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="R4">
+        <f>IF(AND(Scrobbles!$D4&gt;=Calc!Q$1+1,Scrobbles!$D4&lt;=Calc!R$1,ISBLANK(Scrobbles!$D4)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f>IF(Scrobbles!D4&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -12512,12 +13105,16 @@
         <f>IF(AND(Scrobbles!$D5&gt;=Calc!P$1+1,Scrobbles!$D5&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D5)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="R5">
+        <f>IF(AND(Scrobbles!$D5&gt;=Calc!Q$1+1,Scrobbles!$D5&lt;=Calc!R$1,ISBLANK(Scrobbles!$D5)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f>IF(Scrobbles!D5&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -12574,12 +13171,16 @@
         <f>IF(AND(Scrobbles!$D6&gt;=Calc!P$1+1,Scrobbles!$D6&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D6)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="R6">
+        <f>IF(AND(Scrobbles!$D6&gt;=Calc!Q$1+1,Scrobbles!$D6&lt;=Calc!R$1,ISBLANK(Scrobbles!$D6)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f>IF(Scrobbles!D6&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -12636,12 +13237,16 @@
         <f>IF(AND(Scrobbles!$D7&gt;=Calc!P$1+1,Scrobbles!$D7&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D7)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="R7">
+        <f>IF(AND(Scrobbles!$D7&gt;=Calc!Q$1+1,Scrobbles!$D7&lt;=Calc!R$1,ISBLANK(Scrobbles!$D7)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f>IF(Scrobbles!D7&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -12698,12 +13303,16 @@
         <f>IF(AND(Scrobbles!$D8&gt;=Calc!P$1+1,Scrobbles!$D8&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D8)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="R8">
+        <f>IF(AND(Scrobbles!$D8&gt;=Calc!Q$1+1,Scrobbles!$D8&lt;=Calc!R$1,ISBLANK(Scrobbles!$D8)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f>IF(Scrobbles!D8&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -12760,12 +13369,16 @@
         <f>IF(AND(Scrobbles!$D9&gt;=Calc!P$1+1,Scrobbles!$D9&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D9)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="R9">
+        <f>IF(AND(Scrobbles!$D9&gt;=Calc!Q$1+1,Scrobbles!$D9&lt;=Calc!R$1,ISBLANK(Scrobbles!$D9)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f>IF(Scrobbles!D9&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -12822,12 +13435,16 @@
         <f>IF(AND(Scrobbles!$D10&gt;=Calc!P$1+1,Scrobbles!$D10&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D10)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="R10">
+        <f>IF(AND(Scrobbles!$D10&gt;=Calc!Q$1+1,Scrobbles!$D10&lt;=Calc!R$1,ISBLANK(Scrobbles!$D10)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f>IF(Scrobbles!D10&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -12884,12 +13501,16 @@
         <f>IF(AND(Scrobbles!$D11&gt;=Calc!P$1+1,Scrobbles!$D11&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D11)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="R11">
+        <f>IF(AND(Scrobbles!$D11&gt;=Calc!Q$1+1,Scrobbles!$D11&lt;=Calc!R$1,ISBLANK(Scrobbles!$D11)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f>IF(Scrobbles!D11&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -12946,12 +13567,16 @@
         <f>IF(AND(Scrobbles!$D12&gt;=Calc!P$1+1,Scrobbles!$D12&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D12)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="R12">
+        <f>IF(AND(Scrobbles!$D12&gt;=Calc!Q$1+1,Scrobbles!$D12&lt;=Calc!R$1,ISBLANK(Scrobbles!$D12)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f>IF(Scrobbles!D12&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -13008,12 +13633,16 @@
         <f>IF(AND(Scrobbles!$D13&gt;=Calc!P$1+1,Scrobbles!$D13&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D13)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="R13">
+        <f>IF(AND(Scrobbles!$D13&gt;=Calc!Q$1+1,Scrobbles!$D13&lt;=Calc!R$1,ISBLANK(Scrobbles!$D13)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f>IF(Scrobbles!D13&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13070,12 +13699,16 @@
         <f>IF(AND(Scrobbles!$D14&gt;=Calc!P$1+1,Scrobbles!$D14&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D14)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="R14">
+        <f>IF(AND(Scrobbles!$D14&gt;=Calc!Q$1+1,Scrobbles!$D14&lt;=Calc!R$1,ISBLANK(Scrobbles!$D14)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
         <f>IF(Scrobbles!D14&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13132,12 +13765,16 @@
         <f>IF(AND(Scrobbles!$D15&gt;=Calc!P$1+1,Scrobbles!$D15&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D15)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="R15">
+        <f>IF(AND(Scrobbles!$D15&gt;=Calc!Q$1+1,Scrobbles!$D15&lt;=Calc!R$1,ISBLANK(Scrobbles!$D15)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f>IF(Scrobbles!D15&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13194,12 +13831,16 @@
         <f>IF(AND(Scrobbles!$D16&gt;=Calc!P$1+1,Scrobbles!$D16&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D16)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S16">
+      <c r="R16">
+        <f>IF(AND(Scrobbles!$D16&gt;=Calc!Q$1+1,Scrobbles!$D16&lt;=Calc!R$1,ISBLANK(Scrobbles!$D16)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f>IF(Scrobbles!D16&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13256,12 +13897,16 @@
         <f>IF(AND(Scrobbles!$D17&gt;=Calc!P$1+1,Scrobbles!$D17&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D17)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="R17">
+        <f>IF(AND(Scrobbles!$D17&gt;=Calc!Q$1+1,Scrobbles!$D17&lt;=Calc!R$1,ISBLANK(Scrobbles!$D17)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f>IF(Scrobbles!D17&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -13318,12 +13963,16 @@
         <f>IF(AND(Scrobbles!$D18&gt;=Calc!P$1+1,Scrobbles!$D18&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D18)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="R18">
+        <f>IF(AND(Scrobbles!$D18&gt;=Calc!Q$1+1,Scrobbles!$D18&lt;=Calc!R$1,ISBLANK(Scrobbles!$D18)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f>IF(Scrobbles!D18&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -13380,12 +14029,16 @@
         <f>IF(AND(Scrobbles!$D19&gt;=Calc!P$1+1,Scrobbles!$D19&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D19)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="R19">
+        <f>IF(AND(Scrobbles!$D19&gt;=Calc!Q$1+1,Scrobbles!$D19&lt;=Calc!R$1,ISBLANK(Scrobbles!$D19)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f>IF(Scrobbles!D19&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -13442,12 +14095,16 @@
         <f>IF(AND(Scrobbles!$D20&gt;=Calc!P$1+1,Scrobbles!$D20&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D20)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="R20">
+        <f>IF(AND(Scrobbles!$D20&gt;=Calc!Q$1+1,Scrobbles!$D20&lt;=Calc!R$1,ISBLANK(Scrobbles!$D20)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f>IF(Scrobbles!D20&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -13504,12 +14161,16 @@
         <f>IF(AND(Scrobbles!$D21&gt;=Calc!P$1+1,Scrobbles!$D21&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D21)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="R21">
+        <f>IF(AND(Scrobbles!$D21&gt;=Calc!Q$1+1,Scrobbles!$D21&lt;=Calc!R$1,ISBLANK(Scrobbles!$D21)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f>IF(Scrobbles!D21&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -13566,12 +14227,16 @@
         <f>IF(AND(Scrobbles!$D22&gt;=Calc!P$1+1,Scrobbles!$D22&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D22)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="R22">
+        <f>IF(AND(Scrobbles!$D22&gt;=Calc!Q$1+1,Scrobbles!$D22&lt;=Calc!R$1,ISBLANK(Scrobbles!$D22)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f>IF(Scrobbles!D22&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -13628,12 +14293,16 @@
         <f>IF(AND(Scrobbles!$D23&gt;=Calc!P$1+1,Scrobbles!$D23&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D23)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="R23">
+        <f>IF(AND(Scrobbles!$D23&gt;=Calc!Q$1+1,Scrobbles!$D23&lt;=Calc!R$1,ISBLANK(Scrobbles!$D23)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f>IF(Scrobbles!D23&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -13690,12 +14359,16 @@
         <f>IF(AND(Scrobbles!$D24&gt;=Calc!P$1+1,Scrobbles!$D24&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D24)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="R24">
+        <f>IF(AND(Scrobbles!$D24&gt;=Calc!Q$1+1,Scrobbles!$D24&lt;=Calc!R$1,ISBLANK(Scrobbles!$D24)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f>IF(Scrobbles!D24&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -13752,12 +14425,16 @@
         <f>IF(AND(Scrobbles!$D25&gt;=Calc!P$1+1,Scrobbles!$D25&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D25)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S25">
+      <c r="R25">
+        <f>IF(AND(Scrobbles!$D25&gt;=Calc!Q$1+1,Scrobbles!$D25&lt;=Calc!R$1,ISBLANK(Scrobbles!$D25)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f>IF(Scrobbles!D25&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -13814,12 +14491,16 @@
         <f>IF(AND(Scrobbles!$D26&gt;=Calc!P$1+1,Scrobbles!$D26&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D26)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S26">
+      <c r="R26">
+        <f>IF(AND(Scrobbles!$D26&gt;=Calc!Q$1+1,Scrobbles!$D26&lt;=Calc!R$1,ISBLANK(Scrobbles!$D26)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f>IF(Scrobbles!D26&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -13876,12 +14557,16 @@
         <f>IF(AND(Scrobbles!$D27&gt;=Calc!P$1+1,Scrobbles!$D27&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D27)=FALSE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="S27">
+      <c r="R27">
+        <f>IF(AND(Scrobbles!$D27&gt;=Calc!Q$1+1,Scrobbles!$D27&lt;=Calc!R$1,ISBLANK(Scrobbles!$D27)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f>IF(Scrobbles!D27&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -13938,12 +14623,16 @@
         <f>IF(AND(Scrobbles!$D28&gt;=Calc!P$1+1,Scrobbles!$D28&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D28)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S28">
+      <c r="R28">
+        <f>IF(AND(Scrobbles!$D28&gt;=Calc!Q$1+1,Scrobbles!$D28&lt;=Calc!R$1,ISBLANK(Scrobbles!$D28)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f>IF(Scrobbles!D28&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -14000,12 +14689,16 @@
         <f>IF(AND(Scrobbles!$D29&gt;=Calc!P$1+1,Scrobbles!$D29&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D29)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S29">
+      <c r="R29">
+        <f>IF(AND(Scrobbles!$D29&gt;=Calc!Q$1+1,Scrobbles!$D29&lt;=Calc!R$1,ISBLANK(Scrobbles!$D29)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f>IF(Scrobbles!D29&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -14062,12 +14755,16 @@
         <f>IF(AND(Scrobbles!$D30&gt;=Calc!P$1+1,Scrobbles!$D30&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D30)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S30">
+      <c r="R30">
+        <f>IF(AND(Scrobbles!$D30&gt;=Calc!Q$1+1,Scrobbles!$D30&lt;=Calc!R$1,ISBLANK(Scrobbles!$D30)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f>IF(Scrobbles!D30&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14124,12 +14821,16 @@
         <f>IF(AND(Scrobbles!$D31&gt;=Calc!P$1+1,Scrobbles!$D31&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D31)=FALSE),1,0)</f>
         <v>1</v>
       </c>
-      <c r="S31">
+      <c r="R31">
+        <f>IF(AND(Scrobbles!$D31&gt;=Calc!Q$1+1,Scrobbles!$D31&lt;=Calc!R$1,ISBLANK(Scrobbles!$D31)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f>IF(Scrobbles!D31&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14186,12 +14887,16 @@
         <f>IF(AND(Scrobbles!$D32&gt;=Calc!P$1+1,Scrobbles!$D32&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D32)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S32">
+      <c r="R32">
+        <f>IF(AND(Scrobbles!$D32&gt;=Calc!Q$1+1,Scrobbles!$D32&lt;=Calc!R$1,ISBLANK(Scrobbles!$D32)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f>IF(Scrobbles!D32&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -14248,12 +14953,16 @@
         <f>IF(AND(Scrobbles!$D33&gt;=Calc!P$1+1,Scrobbles!$D33&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D33)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S33">
+      <c r="R33">
+        <f>IF(AND(Scrobbles!$D33&gt;=Calc!Q$1+1,Scrobbles!$D33&lt;=Calc!R$1,ISBLANK(Scrobbles!$D33)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f>IF(Scrobbles!D33&gt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -14310,12 +15019,16 @@
         <f>IF(AND(Scrobbles!$D34&gt;=Calc!P$1+1,Scrobbles!$D34&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="R34">
+        <f>IF(AND(Scrobbles!$D34&gt;=Calc!Q$1+1,Scrobbles!$D34&lt;=Calc!R$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f>IF(Scrobbles!D34&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -14372,12 +15085,16 @@
         <f>IF(AND(Scrobbles!$D35&gt;=Calc!P$1+1,Scrobbles!$D35&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S35">
+      <c r="R35">
+        <f>IF(AND(Scrobbles!$D35&gt;=Calc!Q$1+1,Scrobbles!$D35&lt;=Calc!R$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f>IF(Scrobbles!D35&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -14434,12 +15151,16 @@
         <f>IF(AND(Scrobbles!$D36&gt;=Calc!P$1+1,Scrobbles!$D36&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S36">
+      <c r="R36">
+        <f>IF(AND(Scrobbles!$D36&gt;=Calc!Q$1+1,Scrobbles!$D36&lt;=Calc!R$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f>IF(Scrobbles!D36&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -14496,12 +15217,16 @@
         <f>IF(AND(Scrobbles!$D37&gt;=Calc!P$1+1,Scrobbles!$D37&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S37">
+      <c r="R37">
+        <f>IF(AND(Scrobbles!$D37&gt;=Calc!Q$1+1,Scrobbles!$D37&lt;=Calc!R$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f>IF(Scrobbles!D37&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -14558,12 +15283,16 @@
         <f>IF(AND(Scrobbles!$D38&gt;=Calc!P$1+1,Scrobbles!$D38&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="R38">
+        <f>IF(AND(Scrobbles!$D38&gt;=Calc!Q$1+1,Scrobbles!$D38&lt;=Calc!R$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f>IF(Scrobbles!D38&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -14620,12 +15349,16 @@
         <f>IF(AND(Scrobbles!$D39&gt;=Calc!P$1+1,Scrobbles!$D39&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="R39">
+        <f>IF(AND(Scrobbles!$D39&gt;=Calc!Q$1+1,Scrobbles!$D39&lt;=Calc!R$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
         <f>IF(Scrobbles!D39&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -14682,12 +15415,16 @@
         <f>IF(AND(Scrobbles!$D40&gt;=Calc!P$1+1,Scrobbles!$D40&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D40)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S40">
+      <c r="R40">
+        <f>IF(AND(Scrobbles!$D40&gt;=Calc!Q$1+1,Scrobbles!$D40&lt;=Calc!R$1,ISBLANK(Scrobbles!$D40)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f>IF(Scrobbles!D40&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -14744,12 +15481,16 @@
         <f>IF(AND(Scrobbles!$D41&gt;=Calc!P$1+1,Scrobbles!$D41&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D41)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S41">
+      <c r="R41">
+        <f>IF(AND(Scrobbles!$D41&gt;=Calc!Q$1+1,Scrobbles!$D41&lt;=Calc!R$1,ISBLANK(Scrobbles!$D41)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f>IF(Scrobbles!D41&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -14806,12 +15547,16 @@
         <f>IF(AND(Scrobbles!$D42&gt;=Calc!P$1+1,Scrobbles!$D42&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D42)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S42">
+      <c r="R42">
+        <f>IF(AND(Scrobbles!$D42&gt;=Calc!Q$1+1,Scrobbles!$D42&lt;=Calc!R$1,ISBLANK(Scrobbles!$D42)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
         <f>IF(Scrobbles!D42&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -14868,12 +15613,16 @@
         <f>IF(AND(Scrobbles!$D43&gt;=Calc!P$1+1,Scrobbles!$D43&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D43)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S43">
+      <c r="R43">
+        <f>IF(AND(Scrobbles!$D43&gt;=Calc!Q$1+1,Scrobbles!$D43&lt;=Calc!R$1,ISBLANK(Scrobbles!$D43)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
         <f>IF(Scrobbles!D43&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -14930,12 +15679,16 @@
         <f>IF(AND(Scrobbles!$D44&gt;=Calc!P$1+1,Scrobbles!$D44&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D44)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S44">
+      <c r="R44">
+        <f>IF(AND(Scrobbles!$D44&gt;=Calc!Q$1+1,Scrobbles!$D44&lt;=Calc!R$1,ISBLANK(Scrobbles!$D44)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T44">
         <f>IF(Scrobbles!D44&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -14992,12 +15745,16 @@
         <f>IF(AND(Scrobbles!$D45&gt;=Calc!P$1+1,Scrobbles!$D45&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D45)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S45">
+      <c r="R45">
+        <f>IF(AND(Scrobbles!$D45&gt;=Calc!Q$1+1,Scrobbles!$D45&lt;=Calc!R$1,ISBLANK(Scrobbles!$D45)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f>IF(Scrobbles!D45&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -15054,12 +15811,16 @@
         <f>IF(AND(Scrobbles!$D46&gt;=Calc!P$1+1,Scrobbles!$D46&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D46)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S46">
+      <c r="R46">
+        <f>IF(AND(Scrobbles!$D46&gt;=Calc!Q$1+1,Scrobbles!$D46&lt;=Calc!R$1,ISBLANK(Scrobbles!$D46)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
         <f>IF(Scrobbles!D46&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -15116,12 +15877,16 @@
         <f>IF(AND(Scrobbles!$D47&gt;=Calc!P$1+1,Scrobbles!$D47&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D47)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S47">
+      <c r="R47">
+        <f>IF(AND(Scrobbles!$D47&gt;=Calc!Q$1+1,Scrobbles!$D47&lt;=Calc!R$1,ISBLANK(Scrobbles!$D47)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T47">
         <f>IF(Scrobbles!D47&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -15178,12 +15943,16 @@
         <f>IF(AND(Scrobbles!$D48&gt;=Calc!P$1+1,Scrobbles!$D48&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D48)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S48">
+      <c r="R48">
+        <f>IF(AND(Scrobbles!$D48&gt;=Calc!Q$1+1,Scrobbles!$D48&lt;=Calc!R$1,ISBLANK(Scrobbles!$D48)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
         <f>IF(Scrobbles!D48&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -15240,12 +16009,16 @@
         <f>IF(AND(Scrobbles!$D49&gt;=Calc!P$1+1,Scrobbles!$D49&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D49)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S49">
+      <c r="R49">
+        <f>IF(AND(Scrobbles!$D49&gt;=Calc!Q$1+1,Scrobbles!$D49&lt;=Calc!R$1,ISBLANK(Scrobbles!$D49)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T49">
         <f>IF(Scrobbles!D49&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -15302,12 +16075,16 @@
         <f>IF(AND(Scrobbles!$D50&gt;=Calc!P$1+1,Scrobbles!$D50&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D50)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S50">
+      <c r="R50">
+        <f>IF(AND(Scrobbles!$D50&gt;=Calc!Q$1+1,Scrobbles!$D50&lt;=Calc!R$1,ISBLANK(Scrobbles!$D50)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f>IF(Scrobbles!D50&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -15364,12 +16141,16 @@
         <f>IF(AND(Scrobbles!$D51&gt;=Calc!P$1+1,Scrobbles!$D51&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D51)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S51">
+      <c r="R51">
+        <f>IF(AND(Scrobbles!$D51&gt;=Calc!Q$1+1,Scrobbles!$D51&lt;=Calc!R$1,ISBLANK(Scrobbles!$D51)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
         <f>IF(Scrobbles!D51&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -15426,12 +16207,16 @@
         <f>IF(AND(Scrobbles!$D52&gt;=Calc!P$1+1,Scrobbles!$D52&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D52)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S52">
+      <c r="R52">
+        <f>IF(AND(Scrobbles!$D52&gt;=Calc!Q$1+1,Scrobbles!$D52&lt;=Calc!R$1,ISBLANK(Scrobbles!$D52)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f>IF(Scrobbles!D52&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -15488,12 +16273,16 @@
         <f>IF(AND(Scrobbles!$D53&gt;=Calc!P$1+1,Scrobbles!$D53&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S53">
+      <c r="R53">
+        <f>IF(AND(Scrobbles!$D53&gt;=Calc!Q$1+1,Scrobbles!$D53&lt;=Calc!R$1,ISBLANK(Scrobbles!$D53)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
         <f>IF(Scrobbles!D53&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -15550,12 +16339,16 @@
         <f>IF(AND(Scrobbles!$D54&gt;=Calc!P$1+1,Scrobbles!$D54&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S54">
+      <c r="R54">
+        <f>IF(AND(Scrobbles!$D54&gt;=Calc!Q$1+1,Scrobbles!$D54&lt;=Calc!R$1,ISBLANK(Scrobbles!$D54)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
         <f>IF(Scrobbles!D54&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -15612,12 +16405,16 @@
         <f>IF(AND(Scrobbles!$D55&gt;=Calc!P$1+1,Scrobbles!$D55&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S55">
+      <c r="R55">
+        <f>IF(AND(Scrobbles!$D55&gt;=Calc!Q$1+1,Scrobbles!$D55&lt;=Calc!R$1,ISBLANK(Scrobbles!$D55)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T55">
         <f>IF(Scrobbles!D55&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -15674,12 +16471,16 @@
         <f>IF(AND(Scrobbles!$D56&gt;=Calc!P$1+1,Scrobbles!$D56&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S56">
+      <c r="R56">
+        <f>IF(AND(Scrobbles!$D56&gt;=Calc!Q$1+1,Scrobbles!$D56&lt;=Calc!R$1,ISBLANK(Scrobbles!$D56)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T56">
         <f>IF(Scrobbles!D56&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -15736,12 +16537,16 @@
         <f>IF(AND(Scrobbles!$D57&gt;=Calc!P$1+1,Scrobbles!$D57&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S57">
+      <c r="R57">
+        <f>IF(AND(Scrobbles!$D57&gt;=Calc!Q$1+1,Scrobbles!$D57&lt;=Calc!R$1,ISBLANK(Scrobbles!$D57)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T57">
         <f>IF(Scrobbles!D57&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -15798,12 +16603,16 @@
         <f>IF(AND(Scrobbles!$D58&gt;=Calc!P$1+1,Scrobbles!$D58&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S58">
+      <c r="R58">
+        <f>IF(AND(Scrobbles!$D58&gt;=Calc!Q$1+1,Scrobbles!$D58&lt;=Calc!R$1,ISBLANK(Scrobbles!$D58)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T58">
         <f>IF(Scrobbles!D58&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -15860,12 +16669,16 @@
         <f>IF(AND(Scrobbles!$D59&gt;=Calc!P$1+1,Scrobbles!$D59&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S59">
+      <c r="R59">
+        <f>IF(AND(Scrobbles!$D59&gt;=Calc!Q$1+1,Scrobbles!$D59&lt;=Calc!R$1,ISBLANK(Scrobbles!$D59)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T59">
         <f>IF(Scrobbles!D59&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -15922,12 +16735,16 @@
         <f>IF(AND(Scrobbles!$D60&gt;=Calc!P$1+1,Scrobbles!$D60&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S60">
+      <c r="R60">
+        <f>IF(AND(Scrobbles!$D60&gt;=Calc!Q$1+1,Scrobbles!$D60&lt;=Calc!R$1,ISBLANK(Scrobbles!$D60)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T60">
         <f>IF(Scrobbles!D60&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -15984,12 +16801,16 @@
         <f>IF(AND(Scrobbles!$D61&gt;=Calc!P$1+1,Scrobbles!$D61&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S61">
+      <c r="R61">
+        <f>IF(AND(Scrobbles!$D61&gt;=Calc!Q$1+1,Scrobbles!$D61&lt;=Calc!R$1,ISBLANK(Scrobbles!$D61)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
         <f>IF(Scrobbles!D61&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -16046,12 +16867,16 @@
         <f>IF(AND(Scrobbles!$D62&gt;=Calc!P$1+1,Scrobbles!$D62&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S62">
+      <c r="R62">
+        <f>IF(AND(Scrobbles!$D62&gt;=Calc!Q$1+1,Scrobbles!$D62&lt;=Calc!R$1,ISBLANK(Scrobbles!$D62)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
         <f>IF(Scrobbles!D62&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -16108,12 +16933,16 @@
         <f>IF(AND(Scrobbles!$D63&gt;=Calc!P$1+1,Scrobbles!$D63&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S63">
+      <c r="R63">
+        <f>IF(AND(Scrobbles!$D63&gt;=Calc!Q$1+1,Scrobbles!$D63&lt;=Calc!R$1,ISBLANK(Scrobbles!$D63)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T63">
         <f>IF(Scrobbles!D63&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -16170,12 +16999,16 @@
         <f>IF(AND(Scrobbles!$D64&gt;=Calc!P$1+1,Scrobbles!$D64&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S64">
+      <c r="R64">
+        <f>IF(AND(Scrobbles!$D64&gt;=Calc!Q$1+1,Scrobbles!$D64&lt;=Calc!R$1,ISBLANK(Scrobbles!$D64)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T64">
         <f>IF(Scrobbles!D64&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -16232,12 +17065,16 @@
         <f>IF(AND(Scrobbles!$D65&gt;=Calc!P$1+1,Scrobbles!$D65&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S65">
+      <c r="R65">
+        <f>IF(AND(Scrobbles!$D65&gt;=Calc!Q$1+1,Scrobbles!$D65&lt;=Calc!R$1,ISBLANK(Scrobbles!$D65)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T65">
         <f>IF(Scrobbles!D65&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -16294,12 +17131,16 @@
         <f>IF(AND(Scrobbles!$D66&gt;=Calc!P$1+1,Scrobbles!$D66&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S66">
+      <c r="R66">
+        <f>IF(AND(Scrobbles!$D66&gt;=Calc!Q$1+1,Scrobbles!$D66&lt;=Calc!R$1,ISBLANK(Scrobbles!$D66)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T66">
         <f>IF(Scrobbles!D66&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -16356,12 +17197,16 @@
         <f>IF(AND(Scrobbles!$D67&gt;=Calc!P$1+1,Scrobbles!$D67&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D67)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S67">
+      <c r="R67">
+        <f>IF(AND(Scrobbles!$D67&gt;=Calc!Q$1+1,Scrobbles!$D67&lt;=Calc!R$1,ISBLANK(Scrobbles!$D67)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
         <f>IF(Scrobbles!D67&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -16418,12 +17263,16 @@
         <f>IF(AND(Scrobbles!$D68&gt;=Calc!P$1+1,Scrobbles!$D68&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D68)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S68">
+      <c r="R68">
+        <f>IF(AND(Scrobbles!$D68&gt;=Calc!Q$1+1,Scrobbles!$D68&lt;=Calc!R$1,ISBLANK(Scrobbles!$D68)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T68">
         <f>IF(Scrobbles!D68&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -16480,12 +17329,16 @@
         <f>IF(AND(Scrobbles!$D69&gt;=Calc!P$1+1,Scrobbles!$D69&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D69)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S69">
+      <c r="R69">
+        <f>IF(AND(Scrobbles!$D69&gt;=Calc!Q$1+1,Scrobbles!$D69&lt;=Calc!R$1,ISBLANK(Scrobbles!$D69)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
         <f>IF(Scrobbles!D69&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -16542,12 +17395,16 @@
         <f>IF(AND(Scrobbles!$D70&gt;=Calc!P$1+1,Scrobbles!$D70&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S70">
+      <c r="R70">
+        <f>IF(AND(Scrobbles!$D70&gt;=Calc!Q$1+1,Scrobbles!$D70&lt;=Calc!R$1,ISBLANK(Scrobbles!$D70)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T70">
         <f>IF(Scrobbles!D70&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -16604,12 +17461,16 @@
         <f>IF(AND(Scrobbles!$D71&gt;=Calc!P$1+1,Scrobbles!$D71&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S71">
+      <c r="R71">
+        <f>IF(AND(Scrobbles!$D71&gt;=Calc!Q$1+1,Scrobbles!$D71&lt;=Calc!R$1,ISBLANK(Scrobbles!$D71)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T71">
         <f>IF(Scrobbles!D71&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -16666,12 +17527,16 @@
         <f>IF(AND(Scrobbles!$D72&gt;=Calc!P$1+1,Scrobbles!$D72&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D72)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S72">
+      <c r="R72">
+        <f>IF(AND(Scrobbles!$D72&gt;=Calc!Q$1+1,Scrobbles!$D72&lt;=Calc!R$1,ISBLANK(Scrobbles!$D72)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T72">
         <f>IF(Scrobbles!D72&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -16728,12 +17593,16 @@
         <f>IF(AND(Scrobbles!$D73&gt;=Calc!P$1+1,Scrobbles!$D73&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D73)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S73">
+      <c r="R73">
+        <f>IF(AND(Scrobbles!$D73&gt;=Calc!Q$1+1,Scrobbles!$D73&lt;=Calc!R$1,ISBLANK(Scrobbles!$D73)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T73">
         <f>IF(Scrobbles!D73&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -16790,12 +17659,16 @@
         <f>IF(AND(Scrobbles!$D74&gt;=Calc!P$1+1,Scrobbles!$D74&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S74">
+      <c r="R74">
+        <f>IF(AND(Scrobbles!$D74&gt;=Calc!Q$1+1,Scrobbles!$D74&lt;=Calc!R$1,ISBLANK(Scrobbles!$D74)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T74">
         <f>IF(Scrobbles!D74&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -16852,12 +17725,16 @@
         <f>IF(AND(Scrobbles!$D75&gt;=Calc!P$1+1,Scrobbles!$D75&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S75">
+      <c r="R75">
+        <f>IF(AND(Scrobbles!$D75&gt;=Calc!Q$1+1,Scrobbles!$D75&lt;=Calc!R$1,ISBLANK(Scrobbles!$D75)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T75">
         <f>IF(Scrobbles!D75&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -16914,12 +17791,16 @@
         <f>IF(AND(Scrobbles!$D76&gt;=Calc!P$1+1,Scrobbles!$D76&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S76">
+      <c r="R76">
+        <f>IF(AND(Scrobbles!$D76&gt;=Calc!Q$1+1,Scrobbles!$D76&lt;=Calc!R$1,ISBLANK(Scrobbles!$D76)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T76">
         <f>IF(Scrobbles!D76&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -16976,12 +17857,16 @@
         <f>IF(AND(Scrobbles!$D77&gt;=Calc!P$1+1,Scrobbles!$D77&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S77">
+      <c r="R77">
+        <f>IF(AND(Scrobbles!$D77&gt;=Calc!Q$1+1,Scrobbles!$D77&lt;=Calc!R$1,ISBLANK(Scrobbles!$D77)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T77">
         <f>IF(Scrobbles!D77&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -17038,12 +17923,16 @@
         <f>IF(AND(Scrobbles!$D78&gt;=Calc!P$1+1,Scrobbles!$D78&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S78">
+      <c r="R78">
+        <f>IF(AND(Scrobbles!$D78&gt;=Calc!Q$1+1,Scrobbles!$D78&lt;=Calc!R$1,ISBLANK(Scrobbles!$D78)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T78">
         <f>IF(Scrobbles!D78&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -17100,12 +17989,16 @@
         <f>IF(AND(Scrobbles!$D79&gt;=Calc!P$1+1,Scrobbles!$D79&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S79">
+      <c r="R79">
+        <f>IF(AND(Scrobbles!$D79&gt;=Calc!Q$1+1,Scrobbles!$D79&lt;=Calc!R$1,ISBLANK(Scrobbles!$D79)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T79">
         <f>IF(Scrobbles!D79&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -17162,12 +18055,16 @@
         <f>IF(AND(Scrobbles!$D80&gt;=Calc!P$1+1,Scrobbles!$D80&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S80">
+      <c r="R80">
+        <f>IF(AND(Scrobbles!$D80&gt;=Calc!Q$1+1,Scrobbles!$D80&lt;=Calc!R$1,ISBLANK(Scrobbles!$D80)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T80">
         <f>IF(Scrobbles!D80&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -17224,12 +18121,16 @@
         <f>IF(AND(Scrobbles!$D81&gt;=Calc!P$1+1,Scrobbles!$D81&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S81">
+      <c r="R81">
+        <f>IF(AND(Scrobbles!$D81&gt;=Calc!Q$1+1,Scrobbles!$D81&lt;=Calc!R$1,ISBLANK(Scrobbles!$D81)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T81">
         <f>IF(Scrobbles!D81&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -17286,12 +18187,16 @@
         <f>IF(AND(Scrobbles!$D82&gt;=Calc!P$1+1,Scrobbles!$D82&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S82">
+      <c r="R82">
+        <f>IF(AND(Scrobbles!$D82&gt;=Calc!Q$1+1,Scrobbles!$D82&lt;=Calc!R$1,ISBLANK(Scrobbles!$D82)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T82">
         <f>IF(Scrobbles!D82&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -17348,12 +18253,16 @@
         <f>IF(AND(Scrobbles!$D83&gt;=Calc!P$1+1,Scrobbles!$D83&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S83">
+      <c r="R83">
+        <f>IF(AND(Scrobbles!$D83&gt;=Calc!Q$1+1,Scrobbles!$D83&lt;=Calc!R$1,ISBLANK(Scrobbles!$D83)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T83">
         <f>IF(Scrobbles!D83&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -17410,12 +18319,16 @@
         <f>IF(AND(Scrobbles!$D84&gt;=Calc!P$1+1,Scrobbles!$D84&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D84)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S84">
+      <c r="R84">
+        <f>IF(AND(Scrobbles!$D84&gt;=Calc!Q$1+1,Scrobbles!$D84&lt;=Calc!R$1,ISBLANK(Scrobbles!$D84)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T84">
         <f>IF(Scrobbles!D84&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -17472,12 +18385,16 @@
         <f>IF(AND(Scrobbles!$D85&gt;=Calc!P$1+1,Scrobbles!$D85&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D85)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S85">
+      <c r="R85">
+        <f>IF(AND(Scrobbles!$D85&gt;=Calc!Q$1+1,Scrobbles!$D85&lt;=Calc!R$1,ISBLANK(Scrobbles!$D85)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T85">
         <f>IF(Scrobbles!D85&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -17534,12 +18451,16 @@
         <f>IF(AND(Scrobbles!$D86&gt;=Calc!P$1+1,Scrobbles!$D86&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D86)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S86">
+      <c r="R86">
+        <f>IF(AND(Scrobbles!$D86&gt;=Calc!Q$1+1,Scrobbles!$D86&lt;=Calc!R$1,ISBLANK(Scrobbles!$D86)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T86">
         <f>IF(Scrobbles!D86&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -17596,12 +18517,16 @@
         <f>IF(AND(Scrobbles!$D87&gt;=Calc!P$1+1,Scrobbles!$D87&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D87)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S87">
+      <c r="R87">
+        <f>IF(AND(Scrobbles!$D87&gt;=Calc!Q$1+1,Scrobbles!$D87&lt;=Calc!R$1,ISBLANK(Scrobbles!$D87)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T87">
         <f>IF(Scrobbles!D87&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -17658,12 +18583,16 @@
         <f>IF(AND(Scrobbles!$D88&gt;=Calc!P$1+1,Scrobbles!$D88&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D88)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S88">
+      <c r="R88">
+        <f>IF(AND(Scrobbles!$D88&gt;=Calc!Q$1+1,Scrobbles!$D88&lt;=Calc!R$1,ISBLANK(Scrobbles!$D88)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T88">
         <f>IF(Scrobbles!D88&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -17720,12 +18649,16 @@
         <f>IF(AND(Scrobbles!$D89&gt;=Calc!P$1+1,Scrobbles!$D89&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D89)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S89">
+      <c r="R89">
+        <f>IF(AND(Scrobbles!$D89&gt;=Calc!Q$1+1,Scrobbles!$D89&lt;=Calc!R$1,ISBLANK(Scrobbles!$D89)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T89">
         <f>IF(Scrobbles!D89&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -17782,12 +18715,16 @@
         <f>IF(AND(Scrobbles!$D90&gt;=Calc!P$1+1,Scrobbles!$D90&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D90)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S90">
+      <c r="R90">
+        <f>IF(AND(Scrobbles!$D90&gt;=Calc!Q$1+1,Scrobbles!$D90&lt;=Calc!R$1,ISBLANK(Scrobbles!$D90)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T90">
         <f>IF(Scrobbles!D90&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -17844,12 +18781,16 @@
         <f>IF(AND(Scrobbles!$D91&gt;=Calc!P$1+1,Scrobbles!$D91&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D91)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S91">
+      <c r="R91">
+        <f>IF(AND(Scrobbles!$D91&gt;=Calc!Q$1+1,Scrobbles!$D91&lt;=Calc!R$1,ISBLANK(Scrobbles!$D91)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T91">
         <f>IF(Scrobbles!D91&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -17906,12 +18847,16 @@
         <f>IF(AND(Scrobbles!$D92&gt;=Calc!P$1+1,Scrobbles!$D92&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D92)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S92">
+      <c r="R92">
+        <f>IF(AND(Scrobbles!$D92&gt;=Calc!Q$1+1,Scrobbles!$D92&lt;=Calc!R$1,ISBLANK(Scrobbles!$D92)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T92">
         <f>IF(Scrobbles!D92&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -17968,12 +18913,16 @@
         <f>IF(AND(Scrobbles!$D93&gt;=Calc!P$1+1,Scrobbles!$D93&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D93)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S93">
+      <c r="R93">
+        <f>IF(AND(Scrobbles!$D93&gt;=Calc!Q$1+1,Scrobbles!$D93&lt;=Calc!R$1,ISBLANK(Scrobbles!$D93)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T93">
         <f>IF(Scrobbles!D93&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -18030,12 +18979,16 @@
         <f>IF(AND(Scrobbles!$D94&gt;=Calc!P$1+1,Scrobbles!$D94&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D94)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S94">
+      <c r="R94">
+        <f>IF(AND(Scrobbles!$D94&gt;=Calc!Q$1+1,Scrobbles!$D94&lt;=Calc!R$1,ISBLANK(Scrobbles!$D94)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T94">
         <f>IF(Scrobbles!D94&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -18092,12 +19045,16 @@
         <f>IF(AND(Scrobbles!$D95&gt;=Calc!P$1+1,Scrobbles!$D95&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D95)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S95">
+      <c r="R95">
+        <f>IF(AND(Scrobbles!$D95&gt;=Calc!Q$1+1,Scrobbles!$D95&lt;=Calc!R$1,ISBLANK(Scrobbles!$D95)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T95">
         <f>IF(Scrobbles!D95&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -18154,12 +19111,16 @@
         <f>IF(AND(Scrobbles!$D96&gt;=Calc!P$1+1,Scrobbles!$D96&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D96)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S96">
+      <c r="R96">
+        <f>IF(AND(Scrobbles!$D96&gt;=Calc!Q$1+1,Scrobbles!$D96&lt;=Calc!R$1,ISBLANK(Scrobbles!$D96)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T96">
         <f>IF(Scrobbles!D96&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -18216,12 +19177,16 @@
         <f>IF(AND(Scrobbles!$D97&gt;=Calc!P$1+1,Scrobbles!$D97&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D97)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S97">
+      <c r="R97">
+        <f>IF(AND(Scrobbles!$D97&gt;=Calc!Q$1+1,Scrobbles!$D97&lt;=Calc!R$1,ISBLANK(Scrobbles!$D97)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T97">
         <f>IF(Scrobbles!D97&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -18278,12 +19243,16 @@
         <f>IF(AND(Scrobbles!$D98&gt;=Calc!P$1+1,Scrobbles!$D98&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D98)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S98">
+      <c r="R98">
+        <f>IF(AND(Scrobbles!$D98&gt;=Calc!Q$1+1,Scrobbles!$D98&lt;=Calc!R$1,ISBLANK(Scrobbles!$D98)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T98">
         <f>IF(Scrobbles!D98&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -18340,12 +19309,16 @@
         <f>IF(AND(Scrobbles!$D99&gt;=Calc!P$1+1,Scrobbles!$D99&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D99)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S99">
+      <c r="R99">
+        <f>IF(AND(Scrobbles!$D99&gt;=Calc!Q$1+1,Scrobbles!$D99&lt;=Calc!R$1,ISBLANK(Scrobbles!$D99)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T99">
         <f>IF(Scrobbles!D99&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -18402,12 +19375,16 @@
         <f>IF(AND(Scrobbles!$D100&gt;=Calc!P$1+1,Scrobbles!$D100&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D100)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S100">
+      <c r="R100">
+        <f>IF(AND(Scrobbles!$D100&gt;=Calc!Q$1+1,Scrobbles!$D100&lt;=Calc!R$1,ISBLANK(Scrobbles!$D100)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T100">
         <f>IF(Scrobbles!D100&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -18464,12 +19441,16 @@
         <f>IF(AND(Scrobbles!$D101&gt;=Calc!P$1+1,Scrobbles!$D101&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D101)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S101">
+      <c r="R101">
+        <f>IF(AND(Scrobbles!$D101&gt;=Calc!Q$1+1,Scrobbles!$D101&lt;=Calc!R$1,ISBLANK(Scrobbles!$D101)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T101">
         <f>IF(Scrobbles!D101&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -18526,12 +19507,16 @@
         <f>IF(AND(Scrobbles!$D102&gt;=Calc!P$1+1,Scrobbles!$D102&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D102)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S102">
+      <c r="R102">
+        <f>IF(AND(Scrobbles!$D102&gt;=Calc!Q$1+1,Scrobbles!$D102&lt;=Calc!R$1,ISBLANK(Scrobbles!$D102)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T102">
         <f>IF(Scrobbles!D102&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -18588,12 +19573,16 @@
         <f>IF(AND(Scrobbles!$D103&gt;=Calc!P$1+1,Scrobbles!$D103&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D103)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S103">
+      <c r="R103">
+        <f>IF(AND(Scrobbles!$D103&gt;=Calc!Q$1+1,Scrobbles!$D103&lt;=Calc!R$1,ISBLANK(Scrobbles!$D103)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T103">
         <f>IF(Scrobbles!D103&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -18650,12 +19639,16 @@
         <f>IF(AND(Scrobbles!$D104&gt;=Calc!P$1+1,Scrobbles!$D104&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D104)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S104">
+      <c r="R104">
+        <f>IF(AND(Scrobbles!$D104&gt;=Calc!Q$1+1,Scrobbles!$D104&lt;=Calc!R$1,ISBLANK(Scrobbles!$D104)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T104">
         <f>IF(Scrobbles!D104&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -18712,12 +19705,16 @@
         <f>IF(AND(Scrobbles!$D105&gt;=Calc!P$1+1,Scrobbles!$D105&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D105)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S105">
+      <c r="R105">
+        <f>IF(AND(Scrobbles!$D105&gt;=Calc!Q$1+1,Scrobbles!$D105&lt;=Calc!R$1,ISBLANK(Scrobbles!$D105)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T105">
         <f>IF(Scrobbles!D105&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -18774,12 +19771,16 @@
         <f>IF(AND(Scrobbles!$D106&gt;=Calc!P$1+1,Scrobbles!$D106&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D106)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S106">
+      <c r="R106">
+        <f>IF(AND(Scrobbles!$D106&gt;=Calc!Q$1+1,Scrobbles!$D106&lt;=Calc!R$1,ISBLANK(Scrobbles!$D106)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T106">
         <f>IF(Scrobbles!D106&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -18836,12 +19837,16 @@
         <f>IF(AND(Scrobbles!$D107&gt;=Calc!P$1+1,Scrobbles!$D107&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D107)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S107">
+      <c r="R107">
+        <f>IF(AND(Scrobbles!$D107&gt;=Calc!Q$1+1,Scrobbles!$D107&lt;=Calc!R$1,ISBLANK(Scrobbles!$D107)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T107">
         <f>IF(Scrobbles!D107&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -18898,12 +19903,16 @@
         <f>IF(AND(Scrobbles!$D108&gt;=Calc!P$1+1,Scrobbles!$D108&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D108)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S108">
+      <c r="R108">
+        <f>IF(AND(Scrobbles!$D108&gt;=Calc!Q$1+1,Scrobbles!$D108&lt;=Calc!R$1,ISBLANK(Scrobbles!$D108)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T108">
         <f>IF(Scrobbles!D108&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -18960,12 +19969,16 @@
         <f>IF(AND(Scrobbles!$D109&gt;=Calc!P$1+1,Scrobbles!$D109&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D109)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S109">
+      <c r="R109">
+        <f>IF(AND(Scrobbles!$D109&gt;=Calc!Q$1+1,Scrobbles!$D109&lt;=Calc!R$1,ISBLANK(Scrobbles!$D109)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T109">
         <f>IF(Scrobbles!D109&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -19022,12 +20035,16 @@
         <f>IF(AND(Scrobbles!$D110&gt;=Calc!P$1+1,Scrobbles!$D110&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D110)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S110">
+      <c r="R110">
+        <f>IF(AND(Scrobbles!$D110&gt;=Calc!Q$1+1,Scrobbles!$D110&lt;=Calc!R$1,ISBLANK(Scrobbles!$D110)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T110">
         <f>IF(Scrobbles!D110&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -19084,12 +20101,16 @@
         <f>IF(AND(Scrobbles!$D111&gt;=Calc!P$1+1,Scrobbles!$D111&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D111)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S111">
+      <c r="R111">
+        <f>IF(AND(Scrobbles!$D111&gt;=Calc!Q$1+1,Scrobbles!$D111&lt;=Calc!R$1,ISBLANK(Scrobbles!$D111)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T111">
         <f>IF(Scrobbles!D111&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -19146,12 +20167,16 @@
         <f>IF(AND(Scrobbles!$D112&gt;=Calc!P$1+1,Scrobbles!$D112&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D112)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S112">
+      <c r="R112">
+        <f>IF(AND(Scrobbles!$D112&gt;=Calc!Q$1+1,Scrobbles!$D112&lt;=Calc!R$1,ISBLANK(Scrobbles!$D112)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T112">
         <f>IF(Scrobbles!D112&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -19208,12 +20233,16 @@
         <f>IF(AND(Scrobbles!$D113&gt;=Calc!P$1+1,Scrobbles!$D113&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D113)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S113">
+      <c r="R113">
+        <f>IF(AND(Scrobbles!$D113&gt;=Calc!Q$1+1,Scrobbles!$D113&lt;=Calc!R$1,ISBLANK(Scrobbles!$D113)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T113">
         <f>IF(Scrobbles!D113&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -19270,12 +20299,16 @@
         <f>IF(AND(Scrobbles!$D114&gt;=Calc!P$1+1,Scrobbles!$D114&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D114)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S114">
+      <c r="R114">
+        <f>IF(AND(Scrobbles!$D114&gt;=Calc!Q$1+1,Scrobbles!$D114&lt;=Calc!R$1,ISBLANK(Scrobbles!$D114)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T114">
         <f>IF(Scrobbles!D114&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -19332,12 +20365,16 @@
         <f>IF(AND(Scrobbles!$D115&gt;=Calc!P$1+1,Scrobbles!$D115&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D115)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S115">
+      <c r="R115">
+        <f>IF(AND(Scrobbles!$D115&gt;=Calc!Q$1+1,Scrobbles!$D115&lt;=Calc!R$1,ISBLANK(Scrobbles!$D115)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T115">
         <f>IF(Scrobbles!D115&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -19394,12 +20431,16 @@
         <f>IF(AND(Scrobbles!$D116&gt;=Calc!P$1+1,Scrobbles!$D116&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D116)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S116">
+      <c r="R116">
+        <f>IF(AND(Scrobbles!$D116&gt;=Calc!Q$1+1,Scrobbles!$D116&lt;=Calc!R$1,ISBLANK(Scrobbles!$D116)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T116">
         <f>IF(Scrobbles!D116&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -19456,12 +20497,16 @@
         <f>IF(AND(Scrobbles!$D117&gt;=Calc!P$1+1,Scrobbles!$D117&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D117)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S117">
+      <c r="R117">
+        <f>IF(AND(Scrobbles!$D117&gt;=Calc!Q$1+1,Scrobbles!$D117&lt;=Calc!R$1,ISBLANK(Scrobbles!$D117)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T117">
         <f>IF(Scrobbles!D117&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -19518,12 +20563,16 @@
         <f>IF(AND(Scrobbles!$D118&gt;=Calc!P$1+1,Scrobbles!$D118&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D118)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S118">
+      <c r="R118">
+        <f>IF(AND(Scrobbles!$D118&gt;=Calc!Q$1+1,Scrobbles!$D118&lt;=Calc!R$1,ISBLANK(Scrobbles!$D118)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T118">
         <f>IF(Scrobbles!D118&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -19580,12 +20629,16 @@
         <f>IF(AND(Scrobbles!$D119&gt;=Calc!P$1+1,Scrobbles!$D119&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D119)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S119">
+      <c r="R119">
+        <f>IF(AND(Scrobbles!$D119&gt;=Calc!Q$1+1,Scrobbles!$D119&lt;=Calc!R$1,ISBLANK(Scrobbles!$D119)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T119">
         <f>IF(Scrobbles!D119&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -19642,12 +20695,16 @@
         <f>IF(AND(Scrobbles!$D120&gt;=Calc!P$1+1,Scrobbles!$D120&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D120)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S120">
+      <c r="R120">
+        <f>IF(AND(Scrobbles!$D120&gt;=Calc!Q$1+1,Scrobbles!$D120&lt;=Calc!R$1,ISBLANK(Scrobbles!$D120)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T120">
         <f>IF(Scrobbles!D120&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -19704,12 +20761,16 @@
         <f>IF(AND(Scrobbles!$D121&gt;=Calc!P$1+1,Scrobbles!$D121&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D121)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S121">
+      <c r="R121">
+        <f>IF(AND(Scrobbles!$D121&gt;=Calc!Q$1+1,Scrobbles!$D121&lt;=Calc!R$1,ISBLANK(Scrobbles!$D121)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T121">
         <f>IF(Scrobbles!D121&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -19766,12 +20827,16 @@
         <f>IF(AND(Scrobbles!$D122&gt;=Calc!P$1+1,Scrobbles!$D122&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D122)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S122">
+      <c r="R122">
+        <f>IF(AND(Scrobbles!$D122&gt;=Calc!Q$1+1,Scrobbles!$D122&lt;=Calc!R$1,ISBLANK(Scrobbles!$D122)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T122">
         <f>IF(Scrobbles!D122&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -19828,12 +20893,16 @@
         <f>IF(AND(Scrobbles!$D123&gt;=Calc!P$1+1,Scrobbles!$D123&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D123)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S123">
+      <c r="R123">
+        <f>IF(AND(Scrobbles!$D123&gt;=Calc!Q$1+1,Scrobbles!$D123&lt;=Calc!R$1,ISBLANK(Scrobbles!$D123)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T123">
         <f>IF(Scrobbles!D123&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -19890,12 +20959,16 @@
         <f>IF(AND(Scrobbles!$D124&gt;=Calc!P$1+1,Scrobbles!$D124&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D124)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S124">
+      <c r="R124">
+        <f>IF(AND(Scrobbles!$D124&gt;=Calc!Q$1+1,Scrobbles!$D124&lt;=Calc!R$1,ISBLANK(Scrobbles!$D124)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T124">
         <f>IF(Scrobbles!D124&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -19952,12 +21025,16 @@
         <f>IF(AND(Scrobbles!$D125&gt;=Calc!P$1+1,Scrobbles!$D125&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D125)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S125">
+      <c r="R125">
+        <f>IF(AND(Scrobbles!$D125&gt;=Calc!Q$1+1,Scrobbles!$D125&lt;=Calc!R$1,ISBLANK(Scrobbles!$D125)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T125">
         <f>IF(Scrobbles!D125&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -20014,12 +21091,16 @@
         <f>IF(AND(Scrobbles!$D126&gt;=Calc!P$1+1,Scrobbles!$D126&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D126)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S126">
+      <c r="R126">
+        <f>IF(AND(Scrobbles!$D126&gt;=Calc!Q$1+1,Scrobbles!$D126&lt;=Calc!R$1,ISBLANK(Scrobbles!$D126)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T126">
         <f>IF(Scrobbles!D126&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -20076,12 +21157,16 @@
         <f>IF(AND(Scrobbles!$D127&gt;=Calc!P$1+1,Scrobbles!$D127&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D127)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S127">
+      <c r="R127">
+        <f>IF(AND(Scrobbles!$D127&gt;=Calc!Q$1+1,Scrobbles!$D127&lt;=Calc!R$1,ISBLANK(Scrobbles!$D127)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T127">
         <f>IF(Scrobbles!D127&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -20138,12 +21223,16 @@
         <f>IF(AND(Scrobbles!$D128&gt;=Calc!P$1+1,Scrobbles!$D128&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D128)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S128">
+      <c r="R128">
+        <f>IF(AND(Scrobbles!$D128&gt;=Calc!Q$1+1,Scrobbles!$D128&lt;=Calc!R$1,ISBLANK(Scrobbles!$D128)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T128">
         <f>IF(Scrobbles!D128&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -20200,12 +21289,16 @@
         <f>IF(AND(Scrobbles!$D129&gt;=Calc!P$1+1,Scrobbles!$D129&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D129)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S129">
+      <c r="R129">
+        <f>IF(AND(Scrobbles!$D129&gt;=Calc!Q$1+1,Scrobbles!$D129&lt;=Calc!R$1,ISBLANK(Scrobbles!$D129)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T129">
         <f>IF(Scrobbles!D129&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -20262,12 +21355,16 @@
         <f>IF(AND(Scrobbles!$D130&gt;=Calc!P$1+1,Scrobbles!$D130&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D130)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S130">
+      <c r="R130">
+        <f>IF(AND(Scrobbles!$D130&gt;=Calc!Q$1+1,Scrobbles!$D130&lt;=Calc!R$1,ISBLANK(Scrobbles!$D130)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T130">
         <f>IF(Scrobbles!D130&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -20324,12 +21421,16 @@
         <f>IF(AND(Scrobbles!$D131&gt;=Calc!P$1+1,Scrobbles!$D131&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D131)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S131">
+      <c r="R131">
+        <f>IF(AND(Scrobbles!$D131&gt;=Calc!Q$1+1,Scrobbles!$D131&lt;=Calc!R$1,ISBLANK(Scrobbles!$D131)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T131">
         <f>IF(Scrobbles!D131&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -20386,12 +21487,16 @@
         <f>IF(AND(Scrobbles!$D132&gt;=Calc!P$1+1,Scrobbles!$D132&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D132)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S132">
+      <c r="R132">
+        <f>IF(AND(Scrobbles!$D132&gt;=Calc!Q$1+1,Scrobbles!$D132&lt;=Calc!R$1,ISBLANK(Scrobbles!$D132)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T132">
         <f>IF(Scrobbles!D132&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -20448,12 +21553,16 @@
         <f>IF(AND(Scrobbles!$D133&gt;=Calc!P$1+1,Scrobbles!$D133&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D133)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S133">
+      <c r="R133">
+        <f>IF(AND(Scrobbles!$D133&gt;=Calc!Q$1+1,Scrobbles!$D133&lt;=Calc!R$1,ISBLANK(Scrobbles!$D133)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T133">
         <f>IF(Scrobbles!D133&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -20510,12 +21619,16 @@
         <f>IF(AND(Scrobbles!$D134&gt;=Calc!P$1+1,Scrobbles!$D134&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D134)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S134">
+      <c r="R134">
+        <f>IF(AND(Scrobbles!$D134&gt;=Calc!Q$1+1,Scrobbles!$D134&lt;=Calc!R$1,ISBLANK(Scrobbles!$D134)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T134">
         <f>IF(Scrobbles!D134&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -20572,12 +21685,16 @@
         <f>IF(AND(Scrobbles!$D135&gt;=Calc!P$1+1,Scrobbles!$D135&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D135)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S135">
+      <c r="R135">
+        <f>IF(AND(Scrobbles!$D135&gt;=Calc!Q$1+1,Scrobbles!$D135&lt;=Calc!R$1,ISBLANK(Scrobbles!$D135)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T135">
         <f>IF(Scrobbles!D135&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -20634,12 +21751,16 @@
         <f>IF(AND(Scrobbles!$D136&gt;=Calc!P$1+1,Scrobbles!$D136&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D136)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S136">
+      <c r="R136">
+        <f>IF(AND(Scrobbles!$D136&gt;=Calc!Q$1+1,Scrobbles!$D136&lt;=Calc!R$1,ISBLANK(Scrobbles!$D136)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T136">
         <f>IF(Scrobbles!D136&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -20696,12 +21817,16 @@
         <f>IF(AND(Scrobbles!$D137&gt;=Calc!P$1+1,Scrobbles!$D137&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D137)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S137">
+      <c r="R137">
+        <f>IF(AND(Scrobbles!$D137&gt;=Calc!Q$1+1,Scrobbles!$D137&lt;=Calc!R$1,ISBLANK(Scrobbles!$D137)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T137">
         <f>IF(Scrobbles!D137&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -20758,12 +21883,16 @@
         <f>IF(AND(Scrobbles!$D138&gt;=Calc!P$1+1,Scrobbles!$D138&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D138)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S138">
+      <c r="R138">
+        <f>IF(AND(Scrobbles!$D138&gt;=Calc!Q$1+1,Scrobbles!$D138&lt;=Calc!R$1,ISBLANK(Scrobbles!$D138)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T138">
         <f>IF(Scrobbles!D138&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -20820,12 +21949,16 @@
         <f>IF(AND(Scrobbles!$D139&gt;=Calc!P$1+1,Scrobbles!$D139&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D139)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S139">
+      <c r="R139">
+        <f>IF(AND(Scrobbles!$D139&gt;=Calc!Q$1+1,Scrobbles!$D139&lt;=Calc!R$1,ISBLANK(Scrobbles!$D139)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T139">
         <f>IF(Scrobbles!D139&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -20882,12 +22015,16 @@
         <f>IF(AND(Scrobbles!$D140&gt;=Calc!P$1+1,Scrobbles!$D140&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D140)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S140">
+      <c r="R140">
+        <f>IF(AND(Scrobbles!$D140&gt;=Calc!Q$1+1,Scrobbles!$D140&lt;=Calc!R$1,ISBLANK(Scrobbles!$D140)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T140">
         <f>IF(Scrobbles!D140&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -20944,12 +22081,16 @@
         <f>IF(AND(Scrobbles!$D141&gt;=Calc!P$1+1,Scrobbles!$D141&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D141)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S141">
+      <c r="R141">
+        <f>IF(AND(Scrobbles!$D141&gt;=Calc!Q$1+1,Scrobbles!$D141&lt;=Calc!R$1,ISBLANK(Scrobbles!$D141)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T141">
         <f>IF(Scrobbles!D141&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -21006,12 +22147,16 @@
         <f>IF(AND(Scrobbles!$D142&gt;=Calc!P$1+1,Scrobbles!$D142&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D142)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S142">
+      <c r="R142">
+        <f>IF(AND(Scrobbles!$D142&gt;=Calc!Q$1+1,Scrobbles!$D142&lt;=Calc!R$1,ISBLANK(Scrobbles!$D142)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T142">
         <f>IF(Scrobbles!D142&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -21068,12 +22213,16 @@
         <f>IF(AND(Scrobbles!$D143&gt;=Calc!P$1+1,Scrobbles!$D143&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D143)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S143">
+      <c r="R143">
+        <f>IF(AND(Scrobbles!$D143&gt;=Calc!Q$1+1,Scrobbles!$D143&lt;=Calc!R$1,ISBLANK(Scrobbles!$D143)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T143">
         <f>IF(Scrobbles!D143&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -21130,12 +22279,16 @@
         <f>IF(AND(Scrobbles!$D144&gt;=Calc!P$1+1,Scrobbles!$D144&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D144)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S144">
+      <c r="R144">
+        <f>IF(AND(Scrobbles!$D144&gt;=Calc!Q$1+1,Scrobbles!$D144&lt;=Calc!R$1,ISBLANK(Scrobbles!$D144)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T144">
         <f>IF(Scrobbles!D144&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -21192,12 +22345,16 @@
         <f>IF(AND(Scrobbles!$D145&gt;=Calc!P$1+1,Scrobbles!$D145&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D145)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S145">
+      <c r="R145">
+        <f>IF(AND(Scrobbles!$D145&gt;=Calc!Q$1+1,Scrobbles!$D145&lt;=Calc!R$1,ISBLANK(Scrobbles!$D145)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T145">
         <f>IF(Scrobbles!D145&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -21254,12 +22411,16 @@
         <f>IF(AND(Scrobbles!$D146&gt;=Calc!P$1+1,Scrobbles!$D146&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D146)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S146">
+      <c r="R146">
+        <f>IF(AND(Scrobbles!$D146&gt;=Calc!Q$1+1,Scrobbles!$D146&lt;=Calc!R$1,ISBLANK(Scrobbles!$D146)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T146">
         <f>IF(Scrobbles!D146&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -21316,12 +22477,16 @@
         <f>IF(AND(Scrobbles!$D147&gt;=Calc!P$1+1,Scrobbles!$D147&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D147)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S147">
+      <c r="R147">
+        <f>IF(AND(Scrobbles!$D147&gt;=Calc!Q$1+1,Scrobbles!$D147&lt;=Calc!R$1,ISBLANK(Scrobbles!$D147)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T147">
         <f>IF(Scrobbles!D147&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -21378,12 +22543,16 @@
         <f>IF(AND(Scrobbles!$D148&gt;=Calc!P$1+1,Scrobbles!$D148&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D148)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S148">
+      <c r="R148">
+        <f>IF(AND(Scrobbles!$D148&gt;=Calc!Q$1+1,Scrobbles!$D148&lt;=Calc!R$1,ISBLANK(Scrobbles!$D148)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T148">
         <f>IF(Scrobbles!D148&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -21440,12 +22609,16 @@
         <f>IF(AND(Scrobbles!$D149&gt;=Calc!P$1+1,Scrobbles!$D149&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D149)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S149">
+      <c r="R149">
+        <f>IF(AND(Scrobbles!$D149&gt;=Calc!Q$1+1,Scrobbles!$D149&lt;=Calc!R$1,ISBLANK(Scrobbles!$D149)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T149">
         <f>IF(Scrobbles!D149&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -21502,12 +22675,16 @@
         <f>IF(AND(Scrobbles!$D150&gt;=Calc!P$1+1,Scrobbles!$D150&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D150)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S150">
+      <c r="R150">
+        <f>IF(AND(Scrobbles!$D150&gt;=Calc!Q$1+1,Scrobbles!$D150&lt;=Calc!R$1,ISBLANK(Scrobbles!$D150)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T150">
         <f>IF(Scrobbles!D150&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -21564,12 +22741,16 @@
         <f>IF(AND(Scrobbles!$D151&gt;=Calc!P$1+1,Scrobbles!$D151&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D151)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S151">
+      <c r="R151">
+        <f>IF(AND(Scrobbles!$D151&gt;=Calc!Q$1+1,Scrobbles!$D151&lt;=Calc!R$1,ISBLANK(Scrobbles!$D151)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T151">
         <f>IF(Scrobbles!D151&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -21626,12 +22807,16 @@
         <f>IF(AND(Scrobbles!$D152&gt;=Calc!P$1+1,Scrobbles!$D152&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D152)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S152">
+      <c r="R152">
+        <f>IF(AND(Scrobbles!$D152&gt;=Calc!Q$1+1,Scrobbles!$D152&lt;=Calc!R$1,ISBLANK(Scrobbles!$D152)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T152">
         <f>IF(Scrobbles!D152&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -21688,12 +22873,16 @@
         <f>IF(AND(Scrobbles!$D153&gt;=Calc!P$1+1,Scrobbles!$D153&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D153)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S153">
+      <c r="R153">
+        <f>IF(AND(Scrobbles!$D153&gt;=Calc!Q$1+1,Scrobbles!$D153&lt;=Calc!R$1,ISBLANK(Scrobbles!$D153)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T153">
         <f>IF(Scrobbles!D153&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -21750,12 +22939,16 @@
         <f>IF(AND(Scrobbles!$D154&gt;=Calc!P$1+1,Scrobbles!$D154&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D154)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S154">
+      <c r="R154">
+        <f>IF(AND(Scrobbles!$D154&gt;=Calc!Q$1+1,Scrobbles!$D154&lt;=Calc!R$1,ISBLANK(Scrobbles!$D154)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T154">
         <f>IF(Scrobbles!D154&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -21812,12 +23005,16 @@
         <f>IF(AND(Scrobbles!$D155&gt;=Calc!P$1+1,Scrobbles!$D155&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D155)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S155">
+      <c r="R155">
+        <f>IF(AND(Scrobbles!$D155&gt;=Calc!Q$1+1,Scrobbles!$D155&lt;=Calc!R$1,ISBLANK(Scrobbles!$D155)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T155">
         <f>IF(Scrobbles!D155&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -21874,12 +23071,16 @@
         <f>IF(AND(Scrobbles!$D156&gt;=Calc!P$1+1,Scrobbles!$D156&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D156)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S156">
+      <c r="R156">
+        <f>IF(AND(Scrobbles!$D156&gt;=Calc!Q$1+1,Scrobbles!$D156&lt;=Calc!R$1,ISBLANK(Scrobbles!$D156)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T156">
         <f>IF(Scrobbles!D156&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -21936,12 +23137,16 @@
         <f>IF(AND(Scrobbles!$D157&gt;=Calc!P$1+1,Scrobbles!$D157&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D157)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S157">
+      <c r="R157">
+        <f>IF(AND(Scrobbles!$D157&gt;=Calc!Q$1+1,Scrobbles!$D157&lt;=Calc!R$1,ISBLANK(Scrobbles!$D157)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T157">
         <f>IF(Scrobbles!D157&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -21998,12 +23203,16 @@
         <f>IF(AND(Scrobbles!$D158&gt;=Calc!P$1+1,Scrobbles!$D158&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D158)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S158">
+      <c r="R158">
+        <f>IF(AND(Scrobbles!$D158&gt;=Calc!Q$1+1,Scrobbles!$D158&lt;=Calc!R$1,ISBLANK(Scrobbles!$D158)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T158">
         <f>IF(Scrobbles!D158&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -22060,12 +23269,16 @@
         <f>IF(AND(Scrobbles!$D159&gt;=Calc!P$1+1,Scrobbles!$D159&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D159)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S159">
+      <c r="R159">
+        <f>IF(AND(Scrobbles!$D159&gt;=Calc!Q$1+1,Scrobbles!$D159&lt;=Calc!R$1,ISBLANK(Scrobbles!$D159)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T159">
         <f>IF(Scrobbles!D159&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -22122,12 +23335,16 @@
         <f>IF(AND(Scrobbles!$D160&gt;=Calc!P$1+1,Scrobbles!$D160&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D160)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S160">
+      <c r="R160">
+        <f>IF(AND(Scrobbles!$D160&gt;=Calc!Q$1+1,Scrobbles!$D160&lt;=Calc!R$1,ISBLANK(Scrobbles!$D160)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T160">
         <f>IF(Scrobbles!D160&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -22184,12 +23401,16 @@
         <f>IF(AND(Scrobbles!$D161&gt;=Calc!P$1+1,Scrobbles!$D161&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D161)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S161">
+      <c r="R161">
+        <f>IF(AND(Scrobbles!$D161&gt;=Calc!Q$1+1,Scrobbles!$D161&lt;=Calc!R$1,ISBLANK(Scrobbles!$D161)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T161">
         <f>IF(Scrobbles!D161&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -22246,12 +23467,16 @@
         <f>IF(AND(Scrobbles!$D162&gt;=Calc!P$1+1,Scrobbles!$D162&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D162)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S162">
+      <c r="R162">
+        <f>IF(AND(Scrobbles!$D162&gt;=Calc!Q$1+1,Scrobbles!$D162&lt;=Calc!R$1,ISBLANK(Scrobbles!$D162)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T162">
         <f>IF(Scrobbles!D162&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -22308,12 +23533,16 @@
         <f>IF(AND(Scrobbles!$D163&gt;=Calc!P$1+1,Scrobbles!$D163&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D163)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S163">
+      <c r="R163">
+        <f>IF(AND(Scrobbles!$D163&gt;=Calc!Q$1+1,Scrobbles!$D163&lt;=Calc!R$1,ISBLANK(Scrobbles!$D163)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T163">
         <f>IF(Scrobbles!D163&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -22370,12 +23599,16 @@
         <f>IF(AND(Scrobbles!$D164&gt;=Calc!P$1+1,Scrobbles!$D164&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D164)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S164">
+      <c r="R164">
+        <f>IF(AND(Scrobbles!$D164&gt;=Calc!Q$1+1,Scrobbles!$D164&lt;=Calc!R$1,ISBLANK(Scrobbles!$D164)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T164">
         <f>IF(Scrobbles!D164&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -22432,12 +23665,16 @@
         <f>IF(AND(Scrobbles!$D165&gt;=Calc!P$1+1,Scrobbles!$D165&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D165)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S165">
+      <c r="R165">
+        <f>IF(AND(Scrobbles!$D165&gt;=Calc!Q$1+1,Scrobbles!$D165&lt;=Calc!R$1,ISBLANK(Scrobbles!$D165)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T165">
         <f>IF(Scrobbles!D165&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -22494,12 +23731,16 @@
         <f>IF(AND(Scrobbles!$D166&gt;=Calc!P$1+1,Scrobbles!$D166&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D166)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S166">
+      <c r="R166">
+        <f>IF(AND(Scrobbles!$D166&gt;=Calc!Q$1+1,Scrobbles!$D166&lt;=Calc!R$1,ISBLANK(Scrobbles!$D166)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T166">
         <f>IF(Scrobbles!D166&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -22556,12 +23797,16 @@
         <f>IF(AND(Scrobbles!$D167&gt;=Calc!P$1+1,Scrobbles!$D167&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D167)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S167">
+      <c r="R167">
+        <f>IF(AND(Scrobbles!$D167&gt;=Calc!Q$1+1,Scrobbles!$D167&lt;=Calc!R$1,ISBLANK(Scrobbles!$D167)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T167">
         <f>IF(Scrobbles!D167&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -22618,12 +23863,16 @@
         <f>IF(AND(Scrobbles!$D168&gt;=Calc!P$1+1,Scrobbles!$D168&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D168)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S168">
+      <c r="R168">
+        <f>IF(AND(Scrobbles!$D168&gt;=Calc!Q$1+1,Scrobbles!$D168&lt;=Calc!R$1,ISBLANK(Scrobbles!$D168)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T168">
         <f>IF(Scrobbles!D168&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -22680,12 +23929,16 @@
         <f>IF(AND(Scrobbles!$D169&gt;=Calc!P$1+1,Scrobbles!$D169&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D169)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S169">
+      <c r="R169">
+        <f>IF(AND(Scrobbles!$D169&gt;=Calc!Q$1+1,Scrobbles!$D169&lt;=Calc!R$1,ISBLANK(Scrobbles!$D169)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T169">
         <f>IF(Scrobbles!D169&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -22742,12 +23995,16 @@
         <f>IF(AND(Scrobbles!$D170&gt;=Calc!P$1+1,Scrobbles!$D170&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D170)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S170">
+      <c r="R170">
+        <f>IF(AND(Scrobbles!$D170&gt;=Calc!Q$1+1,Scrobbles!$D170&lt;=Calc!R$1,ISBLANK(Scrobbles!$D170)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T170">
         <f>IF(Scrobbles!D170&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -22804,12 +24061,16 @@
         <f>IF(AND(Scrobbles!$D171&gt;=Calc!P$1+1,Scrobbles!$D171&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D171)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S171">
+      <c r="R171">
+        <f>IF(AND(Scrobbles!$D171&gt;=Calc!Q$1+1,Scrobbles!$D171&lt;=Calc!R$1,ISBLANK(Scrobbles!$D171)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T171">
         <f>IF(Scrobbles!D171&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -22866,12 +24127,16 @@
         <f>IF(AND(Scrobbles!$D172&gt;=Calc!P$1+1,Scrobbles!$D172&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D172)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S172">
+      <c r="R172">
+        <f>IF(AND(Scrobbles!$D172&gt;=Calc!Q$1+1,Scrobbles!$D172&lt;=Calc!R$1,ISBLANK(Scrobbles!$D172)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T172">
         <f>IF(Scrobbles!D172&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -22928,12 +24193,16 @@
         <f>IF(AND(Scrobbles!$D173&gt;=Calc!P$1+1,Scrobbles!$D173&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D173)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S173">
+      <c r="R173">
+        <f>IF(AND(Scrobbles!$D173&gt;=Calc!Q$1+1,Scrobbles!$D173&lt;=Calc!R$1,ISBLANK(Scrobbles!$D173)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T173">
         <f>IF(Scrobbles!D173&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -22990,12 +24259,16 @@
         <f>IF(AND(Scrobbles!$D174&gt;=Calc!P$1+1,Scrobbles!$D174&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D174)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S174">
+      <c r="R174">
+        <f>IF(AND(Scrobbles!$D174&gt;=Calc!Q$1+1,Scrobbles!$D174&lt;=Calc!R$1,ISBLANK(Scrobbles!$D174)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T174">
         <f>IF(Scrobbles!D174&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -23052,12 +24325,16 @@
         <f>IF(AND(Scrobbles!$D175&gt;=Calc!P$1+1,Scrobbles!$D175&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D175)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S175">
+      <c r="R175">
+        <f>IF(AND(Scrobbles!$D175&gt;=Calc!Q$1+1,Scrobbles!$D175&lt;=Calc!R$1,ISBLANK(Scrobbles!$D175)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T175">
         <f>IF(Scrobbles!D175&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -23114,12 +24391,16 @@
         <f>IF(AND(Scrobbles!$D176&gt;=Calc!P$1+1,Scrobbles!$D176&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D176)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S176">
+      <c r="R176">
+        <f>IF(AND(Scrobbles!$D176&gt;=Calc!Q$1+1,Scrobbles!$D176&lt;=Calc!R$1,ISBLANK(Scrobbles!$D176)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T176">
         <f>IF(Scrobbles!D176&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -23176,12 +24457,16 @@
         <f>IF(AND(Scrobbles!$D177&gt;=Calc!P$1+1,Scrobbles!$D177&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D177)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S177">
+      <c r="R177">
+        <f>IF(AND(Scrobbles!$D177&gt;=Calc!Q$1+1,Scrobbles!$D177&lt;=Calc!R$1,ISBLANK(Scrobbles!$D177)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T177">
         <f>IF(Scrobbles!D177&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -23238,12 +24523,16 @@
         <f>IF(AND(Scrobbles!$D178&gt;=Calc!P$1+1,Scrobbles!$D178&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D178)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S178">
+      <c r="R178">
+        <f>IF(AND(Scrobbles!$D178&gt;=Calc!Q$1+1,Scrobbles!$D178&lt;=Calc!R$1,ISBLANK(Scrobbles!$D178)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T178">
         <f>IF(Scrobbles!D178&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -23300,12 +24589,16 @@
         <f>IF(AND(Scrobbles!$D179&gt;=Calc!P$1+1,Scrobbles!$D179&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D179)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S179">
+      <c r="R179">
+        <f>IF(AND(Scrobbles!$D179&gt;=Calc!Q$1+1,Scrobbles!$D179&lt;=Calc!R$1,ISBLANK(Scrobbles!$D179)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T179">
         <f>IF(Scrobbles!D179&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -23362,12 +24655,16 @@
         <f>IF(AND(Scrobbles!$D180&gt;=Calc!P$1+1,Scrobbles!$D180&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D180)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S180">
+      <c r="R180">
+        <f>IF(AND(Scrobbles!$D180&gt;=Calc!Q$1+1,Scrobbles!$D180&lt;=Calc!R$1,ISBLANK(Scrobbles!$D180)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T180">
         <f>IF(Scrobbles!D180&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -23424,12 +24721,16 @@
         <f>IF(AND(Scrobbles!$D181&gt;=Calc!P$1+1,Scrobbles!$D181&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D181)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S181">
+      <c r="R181">
+        <f>IF(AND(Scrobbles!$D181&gt;=Calc!Q$1+1,Scrobbles!$D181&lt;=Calc!R$1,ISBLANK(Scrobbles!$D181)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T181">
         <f>IF(Scrobbles!D181&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -23486,12 +24787,16 @@
         <f>IF(AND(Scrobbles!$D182&gt;=Calc!P$1+1,Scrobbles!$D182&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D182)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S182">
+      <c r="R182">
+        <f>IF(AND(Scrobbles!$D182&gt;=Calc!Q$1+1,Scrobbles!$D182&lt;=Calc!R$1,ISBLANK(Scrobbles!$D182)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T182">
         <f>IF(Scrobbles!D182&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -23548,12 +24853,16 @@
         <f>IF(AND(Scrobbles!$D183&gt;=Calc!P$1+1,Scrobbles!$D183&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D183)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S183">
+      <c r="R183">
+        <f>IF(AND(Scrobbles!$D183&gt;=Calc!Q$1+1,Scrobbles!$D183&lt;=Calc!R$1,ISBLANK(Scrobbles!$D183)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T183">
         <f>IF(Scrobbles!D183&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -23610,12 +24919,16 @@
         <f>IF(AND(Scrobbles!$D184&gt;=Calc!P$1+1,Scrobbles!$D184&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D184)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S184">
+      <c r="R184">
+        <f>IF(AND(Scrobbles!$D184&gt;=Calc!Q$1+1,Scrobbles!$D184&lt;=Calc!R$1,ISBLANK(Scrobbles!$D184)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T184">
         <f>IF(Scrobbles!D184&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -23672,12 +24985,16 @@
         <f>IF(AND(Scrobbles!$D185&gt;=Calc!P$1+1,Scrobbles!$D185&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D185)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S185">
+      <c r="R185">
+        <f>IF(AND(Scrobbles!$D185&gt;=Calc!Q$1+1,Scrobbles!$D185&lt;=Calc!R$1,ISBLANK(Scrobbles!$D185)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T185">
         <f>IF(Scrobbles!D185&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -23734,12 +25051,16 @@
         <f>IF(AND(Scrobbles!$D186&gt;=Calc!P$1+1,Scrobbles!$D186&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D186)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S186">
+      <c r="R186">
+        <f>IF(AND(Scrobbles!$D186&gt;=Calc!Q$1+1,Scrobbles!$D186&lt;=Calc!R$1,ISBLANK(Scrobbles!$D186)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T186">
         <f>IF(Scrobbles!D186&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -23796,12 +25117,16 @@
         <f>IF(AND(Scrobbles!$D187&gt;=Calc!P$1+1,Scrobbles!$D187&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D187)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S187">
+      <c r="R187">
+        <f>IF(AND(Scrobbles!$D187&gt;=Calc!Q$1+1,Scrobbles!$D187&lt;=Calc!R$1,ISBLANK(Scrobbles!$D187)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T187">
         <f>IF(Scrobbles!D187&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -23858,12 +25183,16 @@
         <f>IF(AND(Scrobbles!$D188&gt;=Calc!P$1+1,Scrobbles!$D188&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D188)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S188">
+      <c r="R188">
+        <f>IF(AND(Scrobbles!$D188&gt;=Calc!Q$1+1,Scrobbles!$D188&lt;=Calc!R$1,ISBLANK(Scrobbles!$D188)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T188">
         <f>IF(Scrobbles!D188&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -23920,12 +25249,16 @@
         <f>IF(AND(Scrobbles!$D189&gt;=Calc!P$1+1,Scrobbles!$D189&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D189)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S189">
+      <c r="R189">
+        <f>IF(AND(Scrobbles!$D189&gt;=Calc!Q$1+1,Scrobbles!$D189&lt;=Calc!R$1,ISBLANK(Scrobbles!$D189)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T189">
         <f>IF(Scrobbles!D189&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -23982,12 +25315,16 @@
         <f>IF(AND(Scrobbles!$D190&gt;=Calc!P$1+1,Scrobbles!$D190&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D190)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S190">
+      <c r="R190">
+        <f>IF(AND(Scrobbles!$D190&gt;=Calc!Q$1+1,Scrobbles!$D190&lt;=Calc!R$1,ISBLANK(Scrobbles!$D190)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T190">
         <f>IF(Scrobbles!D190&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -24044,12 +25381,16 @@
         <f>IF(AND(Scrobbles!$D191&gt;=Calc!P$1+1,Scrobbles!$D191&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D191)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S191">
+      <c r="R191">
+        <f>IF(AND(Scrobbles!$D191&gt;=Calc!Q$1+1,Scrobbles!$D191&lt;=Calc!R$1,ISBLANK(Scrobbles!$D191)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T191">
         <f>IF(Scrobbles!D191&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -24106,12 +25447,16 @@
         <f>IF(AND(Scrobbles!$D192&gt;=Calc!P$1+1,Scrobbles!$D192&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D192)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S192">
+      <c r="R192">
+        <f>IF(AND(Scrobbles!$D192&gt;=Calc!Q$1+1,Scrobbles!$D192&lt;=Calc!R$1,ISBLANK(Scrobbles!$D192)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T192">
         <f>IF(Scrobbles!D192&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -24168,12 +25513,16 @@
         <f>IF(AND(Scrobbles!$D193&gt;=Calc!P$1+1,Scrobbles!$D193&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D193)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S193">
+      <c r="R193">
+        <f>IF(AND(Scrobbles!$D193&gt;=Calc!Q$1+1,Scrobbles!$D193&lt;=Calc!R$1,ISBLANK(Scrobbles!$D193)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T193">
         <f>IF(Scrobbles!D193&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -24230,12 +25579,16 @@
         <f>IF(AND(Scrobbles!$D194&gt;=Calc!P$1+1,Scrobbles!$D194&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D194)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S194">
+      <c r="R194">
+        <f>IF(AND(Scrobbles!$D194&gt;=Calc!Q$1+1,Scrobbles!$D194&lt;=Calc!R$1,ISBLANK(Scrobbles!$D194)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T194">
         <f>IF(Scrobbles!D194&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -24292,12 +25645,16 @@
         <f>IF(AND(Scrobbles!$D195&gt;=Calc!P$1+1,Scrobbles!$D195&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D195)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S195">
+      <c r="R195">
+        <f>IF(AND(Scrobbles!$D195&gt;=Calc!Q$1+1,Scrobbles!$D195&lt;=Calc!R$1,ISBLANK(Scrobbles!$D195)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T195">
         <f>IF(Scrobbles!D195&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -24354,12 +25711,16 @@
         <f>IF(AND(Scrobbles!$D196&gt;=Calc!P$1+1,Scrobbles!$D196&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D196)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S196">
+      <c r="R196">
+        <f>IF(AND(Scrobbles!$D196&gt;=Calc!Q$1+1,Scrobbles!$D196&lt;=Calc!R$1,ISBLANK(Scrobbles!$D196)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T196">
         <f>IF(Scrobbles!D196&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -24416,12 +25777,16 @@
         <f>IF(AND(Scrobbles!$D197&gt;=Calc!P$1+1,Scrobbles!$D197&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D197)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S197">
+      <c r="R197">
+        <f>IF(AND(Scrobbles!$D197&gt;=Calc!Q$1+1,Scrobbles!$D197&lt;=Calc!R$1,ISBLANK(Scrobbles!$D197)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T197">
         <f>IF(Scrobbles!D197&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -24478,12 +25843,16 @@
         <f>IF(AND(Scrobbles!$D198&gt;=Calc!P$1+1,Scrobbles!$D198&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D198)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S198">
+      <c r="R198">
+        <f>IF(AND(Scrobbles!$D198&gt;=Calc!Q$1+1,Scrobbles!$D198&lt;=Calc!R$1,ISBLANK(Scrobbles!$D198)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T198">
         <f>IF(Scrobbles!D198&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -24540,12 +25909,16 @@
         <f>IF(AND(Scrobbles!$D199&gt;=Calc!P$1+1,Scrobbles!$D199&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D199)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S199">
+      <c r="R199">
+        <f>IF(AND(Scrobbles!$D199&gt;=Calc!Q$1+1,Scrobbles!$D199&lt;=Calc!R$1,ISBLANK(Scrobbles!$D199)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T199">
         <f>IF(Scrobbles!D199&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -24602,12 +25975,16 @@
         <f>IF(AND(Scrobbles!$D200&gt;=Calc!P$1+1,Scrobbles!$D200&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D200)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S200">
+      <c r="R200">
+        <f>IF(AND(Scrobbles!$D200&gt;=Calc!Q$1+1,Scrobbles!$D200&lt;=Calc!R$1,ISBLANK(Scrobbles!$D200)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T200">
         <f>IF(Scrobbles!D200&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -24664,12 +26041,16 @@
         <f>IF(AND(Scrobbles!$D201&gt;=Calc!P$1+1,Scrobbles!$D201&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D201)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S201">
+      <c r="R201">
+        <f>IF(AND(Scrobbles!$D201&gt;=Calc!Q$1+1,Scrobbles!$D201&lt;=Calc!R$1,ISBLANK(Scrobbles!$D201)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T201">
         <f>IF(Scrobbles!D201&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -24726,12 +26107,16 @@
         <f>IF(AND(Scrobbles!$D202&gt;=Calc!P$1+1,Scrobbles!$D202&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D202)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S202">
+      <c r="R202">
+        <f>IF(AND(Scrobbles!$D202&gt;=Calc!Q$1+1,Scrobbles!$D202&lt;=Calc!R$1,ISBLANK(Scrobbles!$D202)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T202">
         <f>IF(Scrobbles!D202&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -24788,12 +26173,16 @@
         <f>IF(AND(Scrobbles!$D203&gt;=Calc!P$1+1,Scrobbles!$D203&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D203)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S203">
+      <c r="R203">
+        <f>IF(AND(Scrobbles!$D203&gt;=Calc!Q$1+1,Scrobbles!$D203&lt;=Calc!R$1,ISBLANK(Scrobbles!$D203)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T203">
         <f>IF(Scrobbles!D203&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -24850,12 +26239,16 @@
         <f>IF(AND(Scrobbles!$D204&gt;=Calc!P$1+1,Scrobbles!$D204&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D204)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S204">
+      <c r="R204">
+        <f>IF(AND(Scrobbles!$D204&gt;=Calc!Q$1+1,Scrobbles!$D204&lt;=Calc!R$1,ISBLANK(Scrobbles!$D204)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T204">
         <f>IF(Scrobbles!D204&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -24912,12 +26305,16 @@
         <f>IF(AND(Scrobbles!$D205&gt;=Calc!P$1+1,Scrobbles!$D205&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D205)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S205">
+      <c r="R205">
+        <f>IF(AND(Scrobbles!$D205&gt;=Calc!Q$1+1,Scrobbles!$D205&lt;=Calc!R$1,ISBLANK(Scrobbles!$D205)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T205">
         <f>IF(Scrobbles!D205&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -24974,12 +26371,16 @@
         <f>IF(AND(Scrobbles!$D206&gt;=Calc!P$1+1,Scrobbles!$D206&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D206)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S206">
+      <c r="R206">
+        <f>IF(AND(Scrobbles!$D206&gt;=Calc!Q$1+1,Scrobbles!$D206&lt;=Calc!R$1,ISBLANK(Scrobbles!$D206)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T206">
         <f>IF(Scrobbles!D206&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -25036,12 +26437,16 @@
         <f>IF(AND(Scrobbles!$D207&gt;=Calc!P$1+1,Scrobbles!$D207&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D207)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S207">
+      <c r="R207">
+        <f>IF(AND(Scrobbles!$D207&gt;=Calc!Q$1+1,Scrobbles!$D207&lt;=Calc!R$1,ISBLANK(Scrobbles!$D207)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T207">
         <f>IF(Scrobbles!D207&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -25098,12 +26503,16 @@
         <f>IF(AND(Scrobbles!$D208&gt;=Calc!P$1+1,Scrobbles!$D208&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D208)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S208">
+      <c r="R208">
+        <f>IF(AND(Scrobbles!$D208&gt;=Calc!Q$1+1,Scrobbles!$D208&lt;=Calc!R$1,ISBLANK(Scrobbles!$D208)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T208">
         <f>IF(Scrobbles!D208&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -25160,12 +26569,16 @@
         <f>IF(AND(Scrobbles!$D209&gt;=Calc!P$1+1,Scrobbles!$D209&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D209)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S209">
+      <c r="R209">
+        <f>IF(AND(Scrobbles!$D209&gt;=Calc!Q$1+1,Scrobbles!$D209&lt;=Calc!R$1,ISBLANK(Scrobbles!$D209)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T209">
         <f>IF(Scrobbles!D209&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -25222,12 +26635,16 @@
         <f>IF(AND(Scrobbles!$D210&gt;=Calc!P$1+1,Scrobbles!$D210&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D210)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S210">
+      <c r="R210">
+        <f>IF(AND(Scrobbles!$D210&gt;=Calc!Q$1+1,Scrobbles!$D210&lt;=Calc!R$1,ISBLANK(Scrobbles!$D210)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T210">
         <f>IF(Scrobbles!D210&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -25284,12 +26701,16 @@
         <f>IF(AND(Scrobbles!$D211&gt;=Calc!P$1+1,Scrobbles!$D211&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D211)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S211">
+      <c r="R211">
+        <f>IF(AND(Scrobbles!$D211&gt;=Calc!Q$1+1,Scrobbles!$D211&lt;=Calc!R$1,ISBLANK(Scrobbles!$D211)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T211">
         <f>IF(Scrobbles!D211&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -25346,12 +26767,16 @@
         <f>IF(AND(Scrobbles!$D212&gt;=Calc!P$1+1,Scrobbles!$D212&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D212)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S212">
+      <c r="R212">
+        <f>IF(AND(Scrobbles!$D212&gt;=Calc!Q$1+1,Scrobbles!$D212&lt;=Calc!R$1,ISBLANK(Scrobbles!$D212)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T212">
         <f>IF(Scrobbles!D212&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -25408,12 +26833,16 @@
         <f>IF(AND(Scrobbles!$D213&gt;=Calc!P$1+1,Scrobbles!$D213&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D213)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S213">
+      <c r="R213">
+        <f>IF(AND(Scrobbles!$D213&gt;=Calc!Q$1+1,Scrobbles!$D213&lt;=Calc!R$1,ISBLANK(Scrobbles!$D213)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T213">
         <f>IF(Scrobbles!D213&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -25470,12 +26899,16 @@
         <f>IF(AND(Scrobbles!$D214&gt;=Calc!P$1+1,Scrobbles!$D214&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D214)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S214">
+      <c r="R214">
+        <f>IF(AND(Scrobbles!$D214&gt;=Calc!Q$1+1,Scrobbles!$D214&lt;=Calc!R$1,ISBLANK(Scrobbles!$D214)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T214">
         <f>IF(Scrobbles!D214&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -25532,12 +26965,16 @@
         <f>IF(AND(Scrobbles!$D215&gt;=Calc!P$1+1,Scrobbles!$D215&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D215)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S215">
+      <c r="R215">
+        <f>IF(AND(Scrobbles!$D215&gt;=Calc!Q$1+1,Scrobbles!$D215&lt;=Calc!R$1,ISBLANK(Scrobbles!$D215)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T215">
         <f>IF(Scrobbles!D215&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -25594,12 +27031,16 @@
         <f>IF(AND(Scrobbles!$D216&gt;=Calc!P$1+1,Scrobbles!$D216&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D216)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S216">
+      <c r="R216">
+        <f>IF(AND(Scrobbles!$D216&gt;=Calc!Q$1+1,Scrobbles!$D216&lt;=Calc!R$1,ISBLANK(Scrobbles!$D216)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T216">
         <f>IF(Scrobbles!D216&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -25656,12 +27097,16 @@
         <f>IF(AND(Scrobbles!$D217&gt;=Calc!P$1+1,Scrobbles!$D217&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D217)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S217">
+      <c r="R217">
+        <f>IF(AND(Scrobbles!$D217&gt;=Calc!Q$1+1,Scrobbles!$D217&lt;=Calc!R$1,ISBLANK(Scrobbles!$D217)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T217">
         <f>IF(Scrobbles!D217&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -25718,12 +27163,16 @@
         <f>IF(AND(Scrobbles!$D218&gt;=Calc!P$1+1,Scrobbles!$D218&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D218)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S218">
+      <c r="R218">
+        <f>IF(AND(Scrobbles!$D218&gt;=Calc!Q$1+1,Scrobbles!$D218&lt;=Calc!R$1,ISBLANK(Scrobbles!$D218)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T218">
         <f>IF(Scrobbles!D218&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -25780,12 +27229,16 @@
         <f>IF(AND(Scrobbles!$D219&gt;=Calc!P$1+1,Scrobbles!$D219&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D219)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S219">
+      <c r="R219">
+        <f>IF(AND(Scrobbles!$D219&gt;=Calc!Q$1+1,Scrobbles!$D219&lt;=Calc!R$1,ISBLANK(Scrobbles!$D219)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T219">
         <f>IF(Scrobbles!D219&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -25842,12 +27295,16 @@
         <f>IF(AND(Scrobbles!$D220&gt;=Calc!P$1+1,Scrobbles!$D220&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D220)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S220">
+      <c r="R220">
+        <f>IF(AND(Scrobbles!$D220&gt;=Calc!Q$1+1,Scrobbles!$D220&lt;=Calc!R$1,ISBLANK(Scrobbles!$D220)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T220">
         <f>IF(Scrobbles!D220&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -25904,12 +27361,16 @@
         <f>IF(AND(Scrobbles!$D221&gt;=Calc!P$1+1,Scrobbles!$D221&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D221)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S221">
+      <c r="R221">
+        <f>IF(AND(Scrobbles!$D221&gt;=Calc!Q$1+1,Scrobbles!$D221&lt;=Calc!R$1,ISBLANK(Scrobbles!$D221)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T221">
         <f>IF(Scrobbles!D221&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -25966,12 +27427,16 @@
         <f>IF(AND(Scrobbles!$D222&gt;=Calc!P$1+1,Scrobbles!$D222&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D222)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S222">
+      <c r="R222">
+        <f>IF(AND(Scrobbles!$D222&gt;=Calc!Q$1+1,Scrobbles!$D222&lt;=Calc!R$1,ISBLANK(Scrobbles!$D222)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T222">
         <f>IF(Scrobbles!D222&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -26028,12 +27493,16 @@
         <f>IF(AND(Scrobbles!$D223&gt;=Calc!P$1+1,Scrobbles!$D223&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D223)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S223">
+      <c r="R223">
+        <f>IF(AND(Scrobbles!$D223&gt;=Calc!Q$1+1,Scrobbles!$D223&lt;=Calc!R$1,ISBLANK(Scrobbles!$D223)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T223">
         <f>IF(Scrobbles!D223&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -26090,12 +27559,16 @@
         <f>IF(AND(Scrobbles!$D224&gt;=Calc!P$1+1,Scrobbles!$D224&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D224)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S224">
+      <c r="R224">
+        <f>IF(AND(Scrobbles!$D224&gt;=Calc!Q$1+1,Scrobbles!$D224&lt;=Calc!R$1,ISBLANK(Scrobbles!$D224)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T224">
         <f>IF(Scrobbles!D224&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -26152,12 +27625,16 @@
         <f>IF(AND(Scrobbles!$D225&gt;=Calc!P$1+1,Scrobbles!$D225&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D225)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S225">
+      <c r="R225">
+        <f>IF(AND(Scrobbles!$D225&gt;=Calc!Q$1+1,Scrobbles!$D225&lt;=Calc!R$1,ISBLANK(Scrobbles!$D225)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T225">
         <f>IF(Scrobbles!D225&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -26214,12 +27691,16 @@
         <f>IF(AND(Scrobbles!$D226&gt;=Calc!P$1+1,Scrobbles!$D226&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D226)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S226">
+      <c r="R226">
+        <f>IF(AND(Scrobbles!$D226&gt;=Calc!Q$1+1,Scrobbles!$D226&lt;=Calc!R$1,ISBLANK(Scrobbles!$D226)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T226">
         <f>IF(Scrobbles!D226&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -26276,12 +27757,16 @@
         <f>IF(AND(Scrobbles!$D227&gt;=Calc!P$1+1,Scrobbles!$D227&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D227)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S227">
+      <c r="R227">
+        <f>IF(AND(Scrobbles!$D227&gt;=Calc!Q$1+1,Scrobbles!$D227&lt;=Calc!R$1,ISBLANK(Scrobbles!$D227)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T227">
         <f>IF(Scrobbles!D227&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -26338,12 +27823,16 @@
         <f>IF(AND(Scrobbles!$D228&gt;=Calc!P$1+1,Scrobbles!$D228&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D228)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S228">
+      <c r="R228">
+        <f>IF(AND(Scrobbles!$D228&gt;=Calc!Q$1+1,Scrobbles!$D228&lt;=Calc!R$1,ISBLANK(Scrobbles!$D228)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T228">
         <f>IF(Scrobbles!D228&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -26400,12 +27889,16 @@
         <f>IF(AND(Scrobbles!$D229&gt;=Calc!P$1+1,Scrobbles!$D229&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D229)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S229">
+      <c r="R229">
+        <f>IF(AND(Scrobbles!$D229&gt;=Calc!Q$1+1,Scrobbles!$D229&lt;=Calc!R$1,ISBLANK(Scrobbles!$D229)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T229">
         <f>IF(Scrobbles!D229&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -26462,12 +27955,16 @@
         <f>IF(AND(Scrobbles!$D230&gt;=Calc!P$1+1,Scrobbles!$D230&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D230)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S230">
+      <c r="R230">
+        <f>IF(AND(Scrobbles!$D230&gt;=Calc!Q$1+1,Scrobbles!$D230&lt;=Calc!R$1,ISBLANK(Scrobbles!$D230)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T230">
         <f>IF(Scrobbles!D230&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -26524,12 +28021,16 @@
         <f>IF(AND(Scrobbles!$D231&gt;=Calc!P$1+1,Scrobbles!$D231&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D231)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S231">
+      <c r="R231">
+        <f>IF(AND(Scrobbles!$D231&gt;=Calc!Q$1+1,Scrobbles!$D231&lt;=Calc!R$1,ISBLANK(Scrobbles!$D231)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T231">
         <f>IF(Scrobbles!D231&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -26586,12 +28087,16 @@
         <f>IF(AND(Scrobbles!$D232&gt;=Calc!P$1+1,Scrobbles!$D232&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D232)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S232">
+      <c r="R232">
+        <f>IF(AND(Scrobbles!$D232&gt;=Calc!Q$1+1,Scrobbles!$D232&lt;=Calc!R$1,ISBLANK(Scrobbles!$D232)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T232">
         <f>IF(Scrobbles!D232&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -26648,12 +28153,16 @@
         <f>IF(AND(Scrobbles!$D233&gt;=Calc!P$1+1,Scrobbles!$D233&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D233)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S233">
+      <c r="R233">
+        <f>IF(AND(Scrobbles!$D233&gt;=Calc!Q$1+1,Scrobbles!$D233&lt;=Calc!R$1,ISBLANK(Scrobbles!$D233)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T233">
         <f>IF(Scrobbles!D233&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -26710,12 +28219,16 @@
         <f>IF(AND(Scrobbles!$D234&gt;=Calc!P$1+1,Scrobbles!$D234&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D234)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S234">
+      <c r="R234">
+        <f>IF(AND(Scrobbles!$D234&gt;=Calc!Q$1+1,Scrobbles!$D234&lt;=Calc!R$1,ISBLANK(Scrobbles!$D234)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T234">
         <f>IF(Scrobbles!D234&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -26772,12 +28285,16 @@
         <f>IF(AND(Scrobbles!$D235&gt;=Calc!P$1+1,Scrobbles!$D235&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D235)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S235">
+      <c r="R235">
+        <f>IF(AND(Scrobbles!$D235&gt;=Calc!Q$1+1,Scrobbles!$D235&lt;=Calc!R$1,ISBLANK(Scrobbles!$D235)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T235">
         <f>IF(Scrobbles!D235&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -26834,12 +28351,16 @@
         <f>IF(AND(Scrobbles!$D236&gt;=Calc!P$1+1,Scrobbles!$D236&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D236)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S236">
+      <c r="R236">
+        <f>IF(AND(Scrobbles!$D236&gt;=Calc!Q$1+1,Scrobbles!$D236&lt;=Calc!R$1,ISBLANK(Scrobbles!$D236)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T236">
         <f>IF(Scrobbles!D236&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -26896,12 +28417,16 @@
         <f>IF(AND(Scrobbles!$D237&gt;=Calc!P$1+1,Scrobbles!$D237&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D237)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S237">
+      <c r="R237">
+        <f>IF(AND(Scrobbles!$D237&gt;=Calc!Q$1+1,Scrobbles!$D237&lt;=Calc!R$1,ISBLANK(Scrobbles!$D237)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T237">
         <f>IF(Scrobbles!D237&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -26958,12 +28483,16 @@
         <f>IF(AND(Scrobbles!$D238&gt;=Calc!P$1+1,Scrobbles!$D238&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D238)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S238">
+      <c r="R238">
+        <f>IF(AND(Scrobbles!$D238&gt;=Calc!Q$1+1,Scrobbles!$D238&lt;=Calc!R$1,ISBLANK(Scrobbles!$D238)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T238">
         <f>IF(Scrobbles!D238&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -27020,12 +28549,16 @@
         <f>IF(AND(Scrobbles!$D239&gt;=Calc!P$1+1,Scrobbles!$D239&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D239)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S239">
+      <c r="R239">
+        <f>IF(AND(Scrobbles!$D239&gt;=Calc!Q$1+1,Scrobbles!$D239&lt;=Calc!R$1,ISBLANK(Scrobbles!$D239)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T239">
         <f>IF(Scrobbles!D239&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -27082,12 +28615,16 @@
         <f>IF(AND(Scrobbles!$D240&gt;=Calc!P$1+1,Scrobbles!$D240&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D240)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S240">
+      <c r="R240">
+        <f>IF(AND(Scrobbles!$D240&gt;=Calc!Q$1+1,Scrobbles!$D240&lt;=Calc!R$1,ISBLANK(Scrobbles!$D240)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T240">
         <f>IF(Scrobbles!D240&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -27144,12 +28681,16 @@
         <f>IF(AND(Scrobbles!$D241&gt;=Calc!P$1+1,Scrobbles!$D241&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D241)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S241">
+      <c r="R241">
+        <f>IF(AND(Scrobbles!$D241&gt;=Calc!Q$1+1,Scrobbles!$D241&lt;=Calc!R$1,ISBLANK(Scrobbles!$D241)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T241">
         <f>IF(Scrobbles!D241&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -27206,12 +28747,16 @@
         <f>IF(AND(Scrobbles!$D242&gt;=Calc!P$1+1,Scrobbles!$D242&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D242)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S242">
+      <c r="R242">
+        <f>IF(AND(Scrobbles!$D242&gt;=Calc!Q$1+1,Scrobbles!$D242&lt;=Calc!R$1,ISBLANK(Scrobbles!$D242)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T242">
         <f>IF(Scrobbles!D242&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -27268,12 +28813,16 @@
         <f>IF(AND(Scrobbles!$D243&gt;=Calc!P$1+1,Scrobbles!$D243&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D243)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S243">
+      <c r="R243">
+        <f>IF(AND(Scrobbles!$D243&gt;=Calc!Q$1+1,Scrobbles!$D243&lt;=Calc!R$1,ISBLANK(Scrobbles!$D243)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T243">
         <f>IF(Scrobbles!D243&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -27330,12 +28879,16 @@
         <f>IF(AND(Scrobbles!$D244&gt;=Calc!P$1+1,Scrobbles!$D244&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D244)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S244">
+      <c r="R244">
+        <f>IF(AND(Scrobbles!$D244&gt;=Calc!Q$1+1,Scrobbles!$D244&lt;=Calc!R$1,ISBLANK(Scrobbles!$D244)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T244">
         <f>IF(Scrobbles!D244&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -27392,12 +28945,16 @@
         <f>IF(AND(Scrobbles!$D245&gt;=Calc!P$1+1,Scrobbles!$D245&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D245)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S245">
+      <c r="R245">
+        <f>IF(AND(Scrobbles!$D245&gt;=Calc!Q$1+1,Scrobbles!$D245&lt;=Calc!R$1,ISBLANK(Scrobbles!$D245)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T245">
         <f>IF(Scrobbles!D245&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -27454,12 +29011,16 @@
         <f>IF(AND(Scrobbles!$D246&gt;=Calc!P$1+1,Scrobbles!$D246&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D246)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S246">
+      <c r="R246">
+        <f>IF(AND(Scrobbles!$D246&gt;=Calc!Q$1+1,Scrobbles!$D246&lt;=Calc!R$1,ISBLANK(Scrobbles!$D246)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T246">
         <f>IF(Scrobbles!D246&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -27516,12 +29077,16 @@
         <f>IF(AND(Scrobbles!$D247&gt;=Calc!P$1+1,Scrobbles!$D247&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D247)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S247">
+      <c r="R247">
+        <f>IF(AND(Scrobbles!$D247&gt;=Calc!Q$1+1,Scrobbles!$D247&lt;=Calc!R$1,ISBLANK(Scrobbles!$D247)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T247">
         <f>IF(Scrobbles!D247&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -27578,12 +29143,16 @@
         <f>IF(AND(Scrobbles!$D248&gt;=Calc!P$1+1,Scrobbles!$D248&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D248)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S248">
+      <c r="R248">
+        <f>IF(AND(Scrobbles!$D248&gt;=Calc!Q$1+1,Scrobbles!$D248&lt;=Calc!R$1,ISBLANK(Scrobbles!$D248)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T248">
         <f>IF(Scrobbles!D248&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -27640,12 +29209,16 @@
         <f>IF(AND(Scrobbles!$D249&gt;=Calc!P$1+1,Scrobbles!$D249&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D249)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S249">
+      <c r="R249">
+        <f>IF(AND(Scrobbles!$D249&gt;=Calc!Q$1+1,Scrobbles!$D249&lt;=Calc!R$1,ISBLANK(Scrobbles!$D249)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T249">
         <f>IF(Scrobbles!D249&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -27702,12 +29275,16 @@
         <f>IF(AND(Scrobbles!$D250&gt;=Calc!P$1+1,Scrobbles!$D250&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D250)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S250">
+      <c r="R250">
+        <f>IF(AND(Scrobbles!$D250&gt;=Calc!Q$1+1,Scrobbles!$D250&lt;=Calc!R$1,ISBLANK(Scrobbles!$D250)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T250">
         <f>IF(Scrobbles!D250&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -27764,12 +29341,16 @@
         <f>IF(AND(Scrobbles!$D251&gt;=Calc!P$1+1,Scrobbles!$D251&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D251)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S251">
+      <c r="R251">
+        <f>IF(AND(Scrobbles!$D251&gt;=Calc!Q$1+1,Scrobbles!$D251&lt;=Calc!R$1,ISBLANK(Scrobbles!$D251)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T251">
         <f>IF(Scrobbles!D251&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -27826,12 +29407,16 @@
         <f>IF(AND(Scrobbles!$D252&gt;=Calc!P$1+1,Scrobbles!$D252&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D252)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S252">
+      <c r="R252">
+        <f>IF(AND(Scrobbles!$D252&gt;=Calc!Q$1+1,Scrobbles!$D252&lt;=Calc!R$1,ISBLANK(Scrobbles!$D252)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T252">
         <f>IF(Scrobbles!D252&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -27888,12 +29473,16 @@
         <f>IF(AND(Scrobbles!$D253&gt;=Calc!P$1+1,Scrobbles!$D253&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D253)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S253">
+      <c r="R253">
+        <f>IF(AND(Scrobbles!$D253&gt;=Calc!Q$1+1,Scrobbles!$D253&lt;=Calc!R$1,ISBLANK(Scrobbles!$D253)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T253">
         <f>IF(Scrobbles!D253&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -27950,12 +29539,16 @@
         <f>IF(AND(Scrobbles!$D254&gt;=Calc!P$1+1,Scrobbles!$D254&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D254)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S254">
+      <c r="R254">
+        <f>IF(AND(Scrobbles!$D254&gt;=Calc!Q$1+1,Scrobbles!$D254&lt;=Calc!R$1,ISBLANK(Scrobbles!$D254)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T254">
         <f>IF(Scrobbles!D254&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -28012,12 +29605,16 @@
         <f>IF(AND(Scrobbles!$D255&gt;=Calc!P$1+1,Scrobbles!$D255&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D255)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S255">
+      <c r="R255">
+        <f>IF(AND(Scrobbles!$D255&gt;=Calc!Q$1+1,Scrobbles!$D255&lt;=Calc!R$1,ISBLANK(Scrobbles!$D255)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T255">
         <f>IF(Scrobbles!D255&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -28074,12 +29671,16 @@
         <f>IF(AND(Scrobbles!$D256&gt;=Calc!P$1+1,Scrobbles!$D256&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D256)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S256">
+      <c r="R256">
+        <f>IF(AND(Scrobbles!$D256&gt;=Calc!Q$1+1,Scrobbles!$D256&lt;=Calc!R$1,ISBLANK(Scrobbles!$D256)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T256">
         <f>IF(Scrobbles!D256&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -28136,12 +29737,16 @@
         <f>IF(AND(Scrobbles!$D257&gt;=Calc!P$1+1,Scrobbles!$D257&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D257)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S257">
+      <c r="R257">
+        <f>IF(AND(Scrobbles!$D257&gt;=Calc!Q$1+1,Scrobbles!$D257&lt;=Calc!R$1,ISBLANK(Scrobbles!$D257)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T257">
         <f>IF(Scrobbles!D257&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -28198,12 +29803,16 @@
         <f>IF(AND(Scrobbles!$D258&gt;=Calc!P$1+1,Scrobbles!$D258&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D258)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S258">
+      <c r="R258">
+        <f>IF(AND(Scrobbles!$D258&gt;=Calc!Q$1+1,Scrobbles!$D258&lt;=Calc!R$1,ISBLANK(Scrobbles!$D258)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T258">
         <f>IF(Scrobbles!D258&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -28260,12 +29869,16 @@
         <f>IF(AND(Scrobbles!$D259&gt;=Calc!P$1+1,Scrobbles!$D259&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D259)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S259">
+      <c r="R259">
+        <f>IF(AND(Scrobbles!$D259&gt;=Calc!Q$1+1,Scrobbles!$D259&lt;=Calc!R$1,ISBLANK(Scrobbles!$D259)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T259">
         <f>IF(Scrobbles!D259&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -28322,12 +29935,16 @@
         <f>IF(AND(Scrobbles!$D260&gt;=Calc!P$1+1,Scrobbles!$D260&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D260)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S260">
+      <c r="R260">
+        <f>IF(AND(Scrobbles!$D260&gt;=Calc!Q$1+1,Scrobbles!$D260&lt;=Calc!R$1,ISBLANK(Scrobbles!$D260)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T260">
         <f>IF(Scrobbles!D260&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -28384,12 +30001,16 @@
         <f>IF(AND(Scrobbles!$D261&gt;=Calc!P$1+1,Scrobbles!$D261&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D261)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S261">
+      <c r="R261">
+        <f>IF(AND(Scrobbles!$D261&gt;=Calc!Q$1+1,Scrobbles!$D261&lt;=Calc!R$1,ISBLANK(Scrobbles!$D261)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T261">
         <f>IF(Scrobbles!D261&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -28446,12 +30067,16 @@
         <f>IF(AND(Scrobbles!$D262&gt;=Calc!P$1+1,Scrobbles!$D262&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D262)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S262">
+      <c r="R262">
+        <f>IF(AND(Scrobbles!$D262&gt;=Calc!Q$1+1,Scrobbles!$D262&lt;=Calc!R$1,ISBLANK(Scrobbles!$D262)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T262">
         <f>IF(Scrobbles!D262&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -28508,12 +30133,16 @@
         <f>IF(AND(Scrobbles!$D263&gt;=Calc!P$1+1,Scrobbles!$D263&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D263)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S263">
+      <c r="R263">
+        <f>IF(AND(Scrobbles!$D263&gt;=Calc!Q$1+1,Scrobbles!$D263&lt;=Calc!R$1,ISBLANK(Scrobbles!$D263)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T263">
         <f>IF(Scrobbles!D263&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -28570,12 +30199,16 @@
         <f>IF(AND(Scrobbles!$D264&gt;=Calc!P$1+1,Scrobbles!$D264&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D264)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S264">
+      <c r="R264">
+        <f>IF(AND(Scrobbles!$D264&gt;=Calc!Q$1+1,Scrobbles!$D264&lt;=Calc!R$1,ISBLANK(Scrobbles!$D264)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T264">
         <f>IF(Scrobbles!D264&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -28632,12 +30265,16 @@
         <f>IF(AND(Scrobbles!$D265&gt;=Calc!P$1+1,Scrobbles!$D265&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D265)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S265">
+      <c r="R265">
+        <f>IF(AND(Scrobbles!$D265&gt;=Calc!Q$1+1,Scrobbles!$D265&lt;=Calc!R$1,ISBLANK(Scrobbles!$D265)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T265">
         <f>IF(Scrobbles!D265&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -28694,12 +30331,16 @@
         <f>IF(AND(Scrobbles!$D266&gt;=Calc!P$1+1,Scrobbles!$D266&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D266)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S266">
+      <c r="R266">
+        <f>IF(AND(Scrobbles!$D266&gt;=Calc!Q$1+1,Scrobbles!$D266&lt;=Calc!R$1,ISBLANK(Scrobbles!$D266)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T266">
         <f>IF(Scrobbles!D266&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -28756,12 +30397,16 @@
         <f>IF(AND(Scrobbles!$D267&gt;=Calc!P$1+1,Scrobbles!$D267&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D267)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S267">
+      <c r="R267">
+        <f>IF(AND(Scrobbles!$D267&gt;=Calc!Q$1+1,Scrobbles!$D267&lt;=Calc!R$1,ISBLANK(Scrobbles!$D267)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T267">
         <f>IF(Scrobbles!D267&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -28818,12 +30463,16 @@
         <f>IF(AND(Scrobbles!$D268&gt;=Calc!P$1+1,Scrobbles!$D268&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D268)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S268">
+      <c r="R268">
+        <f>IF(AND(Scrobbles!$D268&gt;=Calc!Q$1+1,Scrobbles!$D268&lt;=Calc!R$1,ISBLANK(Scrobbles!$D268)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T268">
         <f>IF(Scrobbles!D268&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -28880,12 +30529,16 @@
         <f>IF(AND(Scrobbles!$D269&gt;=Calc!P$1+1,Scrobbles!$D269&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D269)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S269">
+      <c r="R269">
+        <f>IF(AND(Scrobbles!$D269&gt;=Calc!Q$1+1,Scrobbles!$D269&lt;=Calc!R$1,ISBLANK(Scrobbles!$D269)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T269">
         <f>IF(Scrobbles!D269&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -28942,12 +30595,16 @@
         <f>IF(AND(Scrobbles!$D270&gt;=Calc!P$1+1,Scrobbles!$D270&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D270)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S270">
+      <c r="R270">
+        <f>IF(AND(Scrobbles!$D270&gt;=Calc!Q$1+1,Scrobbles!$D270&lt;=Calc!R$1,ISBLANK(Scrobbles!$D270)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T270">
         <f>IF(Scrobbles!D270&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -29004,12 +30661,16 @@
         <f>IF(AND(Scrobbles!$D271&gt;=Calc!P$1+1,Scrobbles!$D271&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D271)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S271">
+      <c r="R271">
+        <f>IF(AND(Scrobbles!$D271&gt;=Calc!Q$1+1,Scrobbles!$D271&lt;=Calc!R$1,ISBLANK(Scrobbles!$D271)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T271">
         <f>IF(Scrobbles!D271&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -29066,12 +30727,16 @@
         <f>IF(AND(Scrobbles!$D272&gt;=Calc!P$1+1,Scrobbles!$D272&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D272)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S272">
+      <c r="R272">
+        <f>IF(AND(Scrobbles!$D272&gt;=Calc!Q$1+1,Scrobbles!$D272&lt;=Calc!R$1,ISBLANK(Scrobbles!$D272)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T272">
         <f>IF(Scrobbles!D272&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -29128,12 +30793,16 @@
         <f>IF(AND(Scrobbles!$D273&gt;=Calc!P$1+1,Scrobbles!$D273&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D273)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S273">
+      <c r="R273">
+        <f>IF(AND(Scrobbles!$D273&gt;=Calc!Q$1+1,Scrobbles!$D273&lt;=Calc!R$1,ISBLANK(Scrobbles!$D273)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T273">
         <f>IF(Scrobbles!D273&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -29190,12 +30859,16 @@
         <f>IF(AND(Scrobbles!$D274&gt;=Calc!P$1+1,Scrobbles!$D274&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D274)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S274">
+      <c r="R274">
+        <f>IF(AND(Scrobbles!$D274&gt;=Calc!Q$1+1,Scrobbles!$D274&lt;=Calc!R$1,ISBLANK(Scrobbles!$D274)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T274">
         <f>IF(Scrobbles!D274&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -29252,12 +30925,16 @@
         <f>IF(AND(Scrobbles!$D275&gt;=Calc!P$1+1,Scrobbles!$D275&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D275)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S275">
+      <c r="R275">
+        <f>IF(AND(Scrobbles!$D275&gt;=Calc!Q$1+1,Scrobbles!$D275&lt;=Calc!R$1,ISBLANK(Scrobbles!$D275)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T275">
         <f>IF(Scrobbles!D275&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -29314,12 +30991,16 @@
         <f>IF(AND(Scrobbles!$D276&gt;=Calc!P$1+1,Scrobbles!$D276&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D276)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S276">
+      <c r="R276">
+        <f>IF(AND(Scrobbles!$D276&gt;=Calc!Q$1+1,Scrobbles!$D276&lt;=Calc!R$1,ISBLANK(Scrobbles!$D276)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T276">
         <f>IF(Scrobbles!D276&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -29376,12 +31057,16 @@
         <f>IF(AND(Scrobbles!$D277&gt;=Calc!P$1+1,Scrobbles!$D277&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D277)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S277">
+      <c r="R277">
+        <f>IF(AND(Scrobbles!$D277&gt;=Calc!Q$1+1,Scrobbles!$D277&lt;=Calc!R$1,ISBLANK(Scrobbles!$D277)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T277">
         <f>IF(Scrobbles!D277&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -29438,12 +31123,16 @@
         <f>IF(AND(Scrobbles!$D278&gt;=Calc!P$1+1,Scrobbles!$D278&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D278)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S278">
+      <c r="R278">
+        <f>IF(AND(Scrobbles!$D278&gt;=Calc!Q$1+1,Scrobbles!$D278&lt;=Calc!R$1,ISBLANK(Scrobbles!$D278)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T278">
         <f>IF(Scrobbles!D278&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -29500,12 +31189,16 @@
         <f>IF(AND(Scrobbles!$D279&gt;=Calc!P$1+1,Scrobbles!$D279&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D279)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S279">
+      <c r="R279">
+        <f>IF(AND(Scrobbles!$D279&gt;=Calc!Q$1+1,Scrobbles!$D279&lt;=Calc!R$1,ISBLANK(Scrobbles!$D279)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T279">
         <f>IF(Scrobbles!D279&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -29562,12 +31255,16 @@
         <f>IF(AND(Scrobbles!$D280&gt;=Calc!P$1+1,Scrobbles!$D280&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D280)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S280">
+      <c r="R280">
+        <f>IF(AND(Scrobbles!$D280&gt;=Calc!Q$1+1,Scrobbles!$D280&lt;=Calc!R$1,ISBLANK(Scrobbles!$D280)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T280">
         <f>IF(Scrobbles!D280&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -29624,12 +31321,16 @@
         <f>IF(AND(Scrobbles!$D281&gt;=Calc!P$1+1,Scrobbles!$D281&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D281)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S281">
+      <c r="R281">
+        <f>IF(AND(Scrobbles!$D281&gt;=Calc!Q$1+1,Scrobbles!$D281&lt;=Calc!R$1,ISBLANK(Scrobbles!$D281)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T281">
         <f>IF(Scrobbles!D281&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -29686,12 +31387,16 @@
         <f>IF(AND(Scrobbles!$D282&gt;=Calc!P$1+1,Scrobbles!$D282&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D282)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S282">
+      <c r="R282">
+        <f>IF(AND(Scrobbles!$D282&gt;=Calc!Q$1+1,Scrobbles!$D282&lt;=Calc!R$1,ISBLANK(Scrobbles!$D282)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T282">
         <f>IF(Scrobbles!D282&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -29748,12 +31453,16 @@
         <f>IF(AND(Scrobbles!$D283&gt;=Calc!P$1+1,Scrobbles!$D283&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D283)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S283">
+      <c r="R283">
+        <f>IF(AND(Scrobbles!$D283&gt;=Calc!Q$1+1,Scrobbles!$D283&lt;=Calc!R$1,ISBLANK(Scrobbles!$D283)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T283">
         <f>IF(Scrobbles!D283&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -29810,12 +31519,16 @@
         <f>IF(AND(Scrobbles!$D284&gt;=Calc!P$1+1,Scrobbles!$D284&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D284)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S284">
+      <c r="R284">
+        <f>IF(AND(Scrobbles!$D284&gt;=Calc!Q$1+1,Scrobbles!$D284&lt;=Calc!R$1,ISBLANK(Scrobbles!$D284)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T284">
         <f>IF(Scrobbles!D284&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -29872,12 +31585,16 @@
         <f>IF(AND(Scrobbles!$D285&gt;=Calc!P$1+1,Scrobbles!$D285&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D285)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S285">
+      <c r="R285">
+        <f>IF(AND(Scrobbles!$D285&gt;=Calc!Q$1+1,Scrobbles!$D285&lt;=Calc!R$1,ISBLANK(Scrobbles!$D285)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T285">
         <f>IF(Scrobbles!D285&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -29934,12 +31651,16 @@
         <f>IF(AND(Scrobbles!$D286&gt;=Calc!P$1+1,Scrobbles!$D286&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D286)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S286">
+      <c r="R286">
+        <f>IF(AND(Scrobbles!$D286&gt;=Calc!Q$1+1,Scrobbles!$D286&lt;=Calc!R$1,ISBLANK(Scrobbles!$D286)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T286">
         <f>IF(Scrobbles!D286&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -29996,12 +31717,16 @@
         <f>IF(AND(Scrobbles!$D287&gt;=Calc!P$1+1,Scrobbles!$D287&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D287)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S287">
+      <c r="R287">
+        <f>IF(AND(Scrobbles!$D287&gt;=Calc!Q$1+1,Scrobbles!$D287&lt;=Calc!R$1,ISBLANK(Scrobbles!$D287)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T287">
         <f>IF(Scrobbles!D287&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -30058,12 +31783,16 @@
         <f>IF(AND(Scrobbles!$D288&gt;=Calc!P$1+1,Scrobbles!$D288&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D288)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S288">
+      <c r="R288">
+        <f>IF(AND(Scrobbles!$D288&gt;=Calc!Q$1+1,Scrobbles!$D288&lt;=Calc!R$1,ISBLANK(Scrobbles!$D288)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T288">
         <f>IF(Scrobbles!D288&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -30120,12 +31849,16 @@
         <f>IF(AND(Scrobbles!$D289&gt;=Calc!P$1+1,Scrobbles!$D289&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D289)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S289">
+      <c r="R289">
+        <f>IF(AND(Scrobbles!$D289&gt;=Calc!Q$1+1,Scrobbles!$D289&lt;=Calc!R$1,ISBLANK(Scrobbles!$D289)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T289">
         <f>IF(Scrobbles!D289&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -30182,12 +31915,16 @@
         <f>IF(AND(Scrobbles!$D290&gt;=Calc!P$1+1,Scrobbles!$D290&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D290)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S290">
+      <c r="R290">
+        <f>IF(AND(Scrobbles!$D290&gt;=Calc!Q$1+1,Scrobbles!$D290&lt;=Calc!R$1,ISBLANK(Scrobbles!$D290)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T290">
         <f>IF(Scrobbles!D290&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -30244,12 +31981,16 @@
         <f>IF(AND(Scrobbles!$D291&gt;=Calc!P$1+1,Scrobbles!$D291&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D291)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S291">
+      <c r="R291">
+        <f>IF(AND(Scrobbles!$D291&gt;=Calc!Q$1+1,Scrobbles!$D291&lt;=Calc!R$1,ISBLANK(Scrobbles!$D291)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T291">
         <f>IF(Scrobbles!D291&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -30306,12 +32047,16 @@
         <f>IF(AND(Scrobbles!$D292&gt;=Calc!P$1+1,Scrobbles!$D292&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D292)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S292">
+      <c r="R292">
+        <f>IF(AND(Scrobbles!$D292&gt;=Calc!Q$1+1,Scrobbles!$D292&lt;=Calc!R$1,ISBLANK(Scrobbles!$D292)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T292">
         <f>IF(Scrobbles!D292&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -30368,12 +32113,16 @@
         <f>IF(AND(Scrobbles!$D293&gt;=Calc!P$1+1,Scrobbles!$D293&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D293)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S293">
+      <c r="R293">
+        <f>IF(AND(Scrobbles!$D293&gt;=Calc!Q$1+1,Scrobbles!$D293&lt;=Calc!R$1,ISBLANK(Scrobbles!$D293)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T293">
         <f>IF(Scrobbles!D293&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -30430,12 +32179,16 @@
         <f>IF(AND(Scrobbles!$D294&gt;=Calc!P$1+1,Scrobbles!$D294&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D294)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S294">
+      <c r="R294">
+        <f>IF(AND(Scrobbles!$D294&gt;=Calc!Q$1+1,Scrobbles!$D294&lt;=Calc!R$1,ISBLANK(Scrobbles!$D294)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T294">
         <f>IF(Scrobbles!D294&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -30492,12 +32245,16 @@
         <f>IF(AND(Scrobbles!$D295&gt;=Calc!P$1+1,Scrobbles!$D295&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D295)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S295">
+      <c r="R295">
+        <f>IF(AND(Scrobbles!$D295&gt;=Calc!Q$1+1,Scrobbles!$D295&lt;=Calc!R$1,ISBLANK(Scrobbles!$D295)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T295">
         <f>IF(Scrobbles!D295&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -30554,12 +32311,16 @@
         <f>IF(AND(Scrobbles!$D296&gt;=Calc!P$1+1,Scrobbles!$D296&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D296)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S296">
+      <c r="R296">
+        <f>IF(AND(Scrobbles!$D296&gt;=Calc!Q$1+1,Scrobbles!$D296&lt;=Calc!R$1,ISBLANK(Scrobbles!$D296)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T296">
         <f>IF(Scrobbles!D296&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -30616,12 +32377,16 @@
         <f>IF(AND(Scrobbles!$D297&gt;=Calc!P$1+1,Scrobbles!$D297&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D297)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S297">
+      <c r="R297">
+        <f>IF(AND(Scrobbles!$D297&gt;=Calc!Q$1+1,Scrobbles!$D297&lt;=Calc!R$1,ISBLANK(Scrobbles!$D297)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T297">
         <f>IF(Scrobbles!D297&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -30678,12 +32443,16 @@
         <f>IF(AND(Scrobbles!$D298&gt;=Calc!P$1+1,Scrobbles!$D298&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D298)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S298">
+      <c r="R298">
+        <f>IF(AND(Scrobbles!$D298&gt;=Calc!Q$1+1,Scrobbles!$D298&lt;=Calc!R$1,ISBLANK(Scrobbles!$D298)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T298">
         <f>IF(Scrobbles!D298&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -30740,12 +32509,16 @@
         <f>IF(AND(Scrobbles!$D299&gt;=Calc!P$1+1,Scrobbles!$D299&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D299)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S299">
+      <c r="R299">
+        <f>IF(AND(Scrobbles!$D299&gt;=Calc!Q$1+1,Scrobbles!$D299&lt;=Calc!R$1,ISBLANK(Scrobbles!$D299)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T299">
         <f>IF(Scrobbles!D299&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -30802,12 +32575,16 @@
         <f>IF(AND(Scrobbles!$D300&gt;=Calc!P$1+1,Scrobbles!$D300&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D300)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S300">
+      <c r="R300">
+        <f>IF(AND(Scrobbles!$D300&gt;=Calc!Q$1+1,Scrobbles!$D300&lt;=Calc!R$1,ISBLANK(Scrobbles!$D300)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T300">
         <f>IF(Scrobbles!D300&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -30864,12 +32641,16 @@
         <f>IF(AND(Scrobbles!$D301&gt;=Calc!P$1+1,Scrobbles!$D301&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D301)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S301">
+      <c r="R301">
+        <f>IF(AND(Scrobbles!$D301&gt;=Calc!Q$1+1,Scrobbles!$D301&lt;=Calc!R$1,ISBLANK(Scrobbles!$D301)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T301">
         <f>IF(Scrobbles!D301&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -30926,12 +32707,16 @@
         <f>IF(AND(Scrobbles!$D302&gt;=Calc!P$1+1,Scrobbles!$D302&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D302)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S302">
+      <c r="R302">
+        <f>IF(AND(Scrobbles!$D302&gt;=Calc!Q$1+1,Scrobbles!$D302&lt;=Calc!R$1,ISBLANK(Scrobbles!$D302)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T302">
         <f>IF(Scrobbles!D302&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -30988,12 +32773,16 @@
         <f>IF(AND(Scrobbles!$D303&gt;=Calc!P$1+1,Scrobbles!$D303&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D303)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S303">
+      <c r="R303">
+        <f>IF(AND(Scrobbles!$D303&gt;=Calc!Q$1+1,Scrobbles!$D303&lt;=Calc!R$1,ISBLANK(Scrobbles!$D303)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T303">
         <f>IF(Scrobbles!D303&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -31050,12 +32839,16 @@
         <f>IF(AND(Scrobbles!$D304&gt;=Calc!P$1+1,Scrobbles!$D304&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D304)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S304">
+      <c r="R304">
+        <f>IF(AND(Scrobbles!$D304&gt;=Calc!Q$1+1,Scrobbles!$D304&lt;=Calc!R$1,ISBLANK(Scrobbles!$D304)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T304">
         <f>IF(Scrobbles!D304&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -31112,12 +32905,16 @@
         <f>IF(AND(Scrobbles!$D305&gt;=Calc!P$1+1,Scrobbles!$D305&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D305)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S305">
+      <c r="R305">
+        <f>IF(AND(Scrobbles!$D305&gt;=Calc!Q$1+1,Scrobbles!$D305&lt;=Calc!R$1,ISBLANK(Scrobbles!$D305)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T305">
         <f>IF(Scrobbles!D305&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -31174,12 +32971,16 @@
         <f>IF(AND(Scrobbles!$D306&gt;=Calc!P$1+1,Scrobbles!$D306&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D306)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S306">
+      <c r="R306">
+        <f>IF(AND(Scrobbles!$D306&gt;=Calc!Q$1+1,Scrobbles!$D306&lt;=Calc!R$1,ISBLANK(Scrobbles!$D306)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T306">
         <f>IF(Scrobbles!D306&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -31236,12 +33037,16 @@
         <f>IF(AND(Scrobbles!$D307&gt;=Calc!P$1+1,Scrobbles!$D307&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D307)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S307">
+      <c r="R307">
+        <f>IF(AND(Scrobbles!$D307&gt;=Calc!Q$1+1,Scrobbles!$D307&lt;=Calc!R$1,ISBLANK(Scrobbles!$D307)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T307">
         <f>IF(Scrobbles!D307&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -31298,12 +33103,16 @@
         <f>IF(AND(Scrobbles!$D308&gt;=Calc!P$1+1,Scrobbles!$D308&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D308)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S308">
+      <c r="R308">
+        <f>IF(AND(Scrobbles!$D308&gt;=Calc!Q$1+1,Scrobbles!$D308&lt;=Calc!R$1,ISBLANK(Scrobbles!$D308)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T308">
         <f>IF(Scrobbles!D308&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -31360,12 +33169,16 @@
         <f>IF(AND(Scrobbles!$D309&gt;=Calc!P$1+1,Scrobbles!$D309&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D309)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S309">
+      <c r="R309">
+        <f>IF(AND(Scrobbles!$D309&gt;=Calc!Q$1+1,Scrobbles!$D309&lt;=Calc!R$1,ISBLANK(Scrobbles!$D309)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T309">
         <f>IF(Scrobbles!D309&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -31422,12 +33235,16 @@
         <f>IF(AND(Scrobbles!$D310&gt;=Calc!P$1+1,Scrobbles!$D310&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D310)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S310">
+      <c r="R310">
+        <f>IF(AND(Scrobbles!$D310&gt;=Calc!Q$1+1,Scrobbles!$D310&lt;=Calc!R$1,ISBLANK(Scrobbles!$D310)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T310">
         <f>IF(Scrobbles!D310&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -31484,12 +33301,16 @@
         <f>IF(AND(Scrobbles!$D311&gt;=Calc!P$1+1,Scrobbles!$D311&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D311)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S311">
+      <c r="R311">
+        <f>IF(AND(Scrobbles!$D311&gt;=Calc!Q$1+1,Scrobbles!$D311&lt;=Calc!R$1,ISBLANK(Scrobbles!$D311)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T311">
         <f>IF(Scrobbles!D311&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -31546,12 +33367,16 @@
         <f>IF(AND(Scrobbles!$D312&gt;=Calc!P$1+1,Scrobbles!$D312&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D312)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S312">
+      <c r="R312">
+        <f>IF(AND(Scrobbles!$D312&gt;=Calc!Q$1+1,Scrobbles!$D312&lt;=Calc!R$1,ISBLANK(Scrobbles!$D312)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T312">
         <f>IF(Scrobbles!D312&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -31608,12 +33433,16 @@
         <f>IF(AND(Scrobbles!$D313&gt;=Calc!P$1+1,Scrobbles!$D313&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D313)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S313">
+      <c r="R313">
+        <f>IF(AND(Scrobbles!$D313&gt;=Calc!Q$1+1,Scrobbles!$D313&lt;=Calc!R$1,ISBLANK(Scrobbles!$D313)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T313">
         <f>IF(Scrobbles!D313&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -31670,12 +33499,16 @@
         <f>IF(AND(Scrobbles!$D314&gt;=Calc!P$1+1,Scrobbles!$D314&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D314)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S314">
+      <c r="R314">
+        <f>IF(AND(Scrobbles!$D314&gt;=Calc!Q$1+1,Scrobbles!$D314&lt;=Calc!R$1,ISBLANK(Scrobbles!$D314)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T314">
         <f>IF(Scrobbles!D314&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -31732,12 +33565,16 @@
         <f>IF(AND(Scrobbles!$D315&gt;=Calc!P$1+1,Scrobbles!$D315&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D315)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S315">
+      <c r="R315">
+        <f>IF(AND(Scrobbles!$D315&gt;=Calc!Q$1+1,Scrobbles!$D315&lt;=Calc!R$1,ISBLANK(Scrobbles!$D315)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T315">
         <f>IF(Scrobbles!D315&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -31794,12 +33631,16 @@
         <f>IF(AND(Scrobbles!$D316&gt;=Calc!P$1+1,Scrobbles!$D316&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D316)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S316">
+      <c r="R316">
+        <f>IF(AND(Scrobbles!$D316&gt;=Calc!Q$1+1,Scrobbles!$D316&lt;=Calc!R$1,ISBLANK(Scrobbles!$D316)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T316">
         <f>IF(Scrobbles!D316&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -31856,12 +33697,16 @@
         <f>IF(AND(Scrobbles!$D317&gt;=Calc!P$1+1,Scrobbles!$D317&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D317)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S317">
+      <c r="R317">
+        <f>IF(AND(Scrobbles!$D317&gt;=Calc!Q$1+1,Scrobbles!$D317&lt;=Calc!R$1,ISBLANK(Scrobbles!$D317)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T317">
         <f>IF(Scrobbles!D317&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -31918,12 +33763,16 @@
         <f>IF(AND(Scrobbles!$D318&gt;=Calc!P$1+1,Scrobbles!$D318&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D318)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S318">
+      <c r="R318">
+        <f>IF(AND(Scrobbles!$D318&gt;=Calc!Q$1+1,Scrobbles!$D318&lt;=Calc!R$1,ISBLANK(Scrobbles!$D318)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T318">
         <f>IF(Scrobbles!D318&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -31980,12 +33829,16 @@
         <f>IF(AND(Scrobbles!$D319&gt;=Calc!P$1+1,Scrobbles!$D319&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D319)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S319">
+      <c r="R319">
+        <f>IF(AND(Scrobbles!$D319&gt;=Calc!Q$1+1,Scrobbles!$D319&lt;=Calc!R$1,ISBLANK(Scrobbles!$D319)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T319">
         <f>IF(Scrobbles!D319&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -32042,12 +33895,16 @@
         <f>IF(AND(Scrobbles!$D320&gt;=Calc!P$1+1,Scrobbles!$D320&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D320)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S320">
+      <c r="R320">
+        <f>IF(AND(Scrobbles!$D320&gt;=Calc!Q$1+1,Scrobbles!$D320&lt;=Calc!R$1,ISBLANK(Scrobbles!$D320)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T320">
         <f>IF(Scrobbles!D320&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -32104,12 +33961,16 @@
         <f>IF(AND(Scrobbles!$D321&gt;=Calc!P$1+1,Scrobbles!$D321&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D321)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S321">
+      <c r="R321">
+        <f>IF(AND(Scrobbles!$D321&gt;=Calc!Q$1+1,Scrobbles!$D321&lt;=Calc!R$1,ISBLANK(Scrobbles!$D321)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T321">
         <f>IF(Scrobbles!D321&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -32166,12 +34027,16 @@
         <f>IF(AND(Scrobbles!$D322&gt;=Calc!P$1+1,Scrobbles!$D322&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D322)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S322">
+      <c r="R322">
+        <f>IF(AND(Scrobbles!$D322&gt;=Calc!Q$1+1,Scrobbles!$D322&lt;=Calc!R$1,ISBLANK(Scrobbles!$D322)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T322">
         <f>IF(Scrobbles!D322&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -32228,12 +34093,16 @@
         <f>IF(AND(Scrobbles!$D323&gt;=Calc!P$1+1,Scrobbles!$D323&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D323)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S323">
+      <c r="R323">
+        <f>IF(AND(Scrobbles!$D323&gt;=Calc!Q$1+1,Scrobbles!$D323&lt;=Calc!R$1,ISBLANK(Scrobbles!$D323)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T323">
         <f>IF(Scrobbles!D323&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -32290,12 +34159,16 @@
         <f>IF(AND(Scrobbles!$D324&gt;=Calc!P$1+1,Scrobbles!$D324&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D324)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S324">
+      <c r="R324">
+        <f>IF(AND(Scrobbles!$D324&gt;=Calc!Q$1+1,Scrobbles!$D324&lt;=Calc!R$1,ISBLANK(Scrobbles!$D324)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T324">
         <f>IF(Scrobbles!D324&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -32352,12 +34225,16 @@
         <f>IF(AND(Scrobbles!$D325&gt;=Calc!P$1+1,Scrobbles!$D325&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D325)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S325">
+      <c r="R325">
+        <f>IF(AND(Scrobbles!$D325&gt;=Calc!Q$1+1,Scrobbles!$D325&lt;=Calc!R$1,ISBLANK(Scrobbles!$D325)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T325">
         <f>IF(Scrobbles!D325&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -32414,12 +34291,16 @@
         <f>IF(AND(Scrobbles!$D326&gt;=Calc!P$1+1,Scrobbles!$D326&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D326)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S326">
+      <c r="R326">
+        <f>IF(AND(Scrobbles!$D326&gt;=Calc!Q$1+1,Scrobbles!$D326&lt;=Calc!R$1,ISBLANK(Scrobbles!$D326)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T326">
         <f>IF(Scrobbles!D326&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -32476,12 +34357,16 @@
         <f>IF(AND(Scrobbles!$D327&gt;=Calc!P$1+1,Scrobbles!$D327&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D327)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S327">
+      <c r="R327">
+        <f>IF(AND(Scrobbles!$D327&gt;=Calc!Q$1+1,Scrobbles!$D327&lt;=Calc!R$1,ISBLANK(Scrobbles!$D327)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T327">
         <f>IF(Scrobbles!D327&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -32538,12 +34423,16 @@
         <f>IF(AND(Scrobbles!$D328&gt;=Calc!P$1+1,Scrobbles!$D328&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D328)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S328">
+      <c r="R328">
+        <f>IF(AND(Scrobbles!$D328&gt;=Calc!Q$1+1,Scrobbles!$D328&lt;=Calc!R$1,ISBLANK(Scrobbles!$D328)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T328">
         <f>IF(Scrobbles!D328&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -32600,12 +34489,16 @@
         <f>IF(AND(Scrobbles!$D329&gt;=Calc!P$1+1,Scrobbles!$D329&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D329)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S329">
+      <c r="R329">
+        <f>IF(AND(Scrobbles!$D329&gt;=Calc!Q$1+1,Scrobbles!$D329&lt;=Calc!R$1,ISBLANK(Scrobbles!$D329)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T329">
         <f>IF(Scrobbles!D329&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -32662,12 +34555,16 @@
         <f>IF(AND(Scrobbles!$D330&gt;=Calc!P$1+1,Scrobbles!$D330&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D330)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S330">
+      <c r="R330">
+        <f>IF(AND(Scrobbles!$D330&gt;=Calc!Q$1+1,Scrobbles!$D330&lt;=Calc!R$1,ISBLANK(Scrobbles!$D330)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T330">
         <f>IF(Scrobbles!D330&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -32724,12 +34621,16 @@
         <f>IF(AND(Scrobbles!$D331&gt;=Calc!P$1+1,Scrobbles!$D331&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D331)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S331">
+      <c r="R331">
+        <f>IF(AND(Scrobbles!$D331&gt;=Calc!Q$1+1,Scrobbles!$D331&lt;=Calc!R$1,ISBLANK(Scrobbles!$D331)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T331">
         <f>IF(Scrobbles!D331&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -32786,12 +34687,16 @@
         <f>IF(AND(Scrobbles!$D332&gt;=Calc!P$1+1,Scrobbles!$D332&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D332)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S332">
+      <c r="R332">
+        <f>IF(AND(Scrobbles!$D332&gt;=Calc!Q$1+1,Scrobbles!$D332&lt;=Calc!R$1,ISBLANK(Scrobbles!$D332)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T332">
         <f>IF(Scrobbles!D332&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -32848,12 +34753,16 @@
         <f>IF(AND(Scrobbles!$D333&gt;=Calc!P$1+1,Scrobbles!$D333&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D333)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S333">
+      <c r="R333">
+        <f>IF(AND(Scrobbles!$D333&gt;=Calc!Q$1+1,Scrobbles!$D333&lt;=Calc!R$1,ISBLANK(Scrobbles!$D333)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T333">
         <f>IF(Scrobbles!D333&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -32910,12 +34819,16 @@
         <f>IF(AND(Scrobbles!$D334&gt;=Calc!P$1+1,Scrobbles!$D334&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D334)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S334">
+      <c r="R334">
+        <f>IF(AND(Scrobbles!$D334&gt;=Calc!Q$1+1,Scrobbles!$D334&lt;=Calc!R$1,ISBLANK(Scrobbles!$D334)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T334">
         <f>IF(Scrobbles!D334&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -32972,12 +34885,16 @@
         <f>IF(AND(Scrobbles!$D335&gt;=Calc!P$1+1,Scrobbles!$D335&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D335)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S335">
+      <c r="R335">
+        <f>IF(AND(Scrobbles!$D335&gt;=Calc!Q$1+1,Scrobbles!$D335&lt;=Calc!R$1,ISBLANK(Scrobbles!$D335)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T335">
         <f>IF(Scrobbles!D335&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -33034,12 +34951,16 @@
         <f>IF(AND(Scrobbles!$D336&gt;=Calc!P$1+1,Scrobbles!$D336&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D336)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S336">
+      <c r="R336">
+        <f>IF(AND(Scrobbles!$D336&gt;=Calc!Q$1+1,Scrobbles!$D336&lt;=Calc!R$1,ISBLANK(Scrobbles!$D336)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T336">
         <f>IF(Scrobbles!D336&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -33096,12 +35017,16 @@
         <f>IF(AND(Scrobbles!$D337&gt;=Calc!P$1+1,Scrobbles!$D337&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D337)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S337">
+      <c r="R337">
+        <f>IF(AND(Scrobbles!$D337&gt;=Calc!Q$1+1,Scrobbles!$D337&lt;=Calc!R$1,ISBLANK(Scrobbles!$D337)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T337">
         <f>IF(Scrobbles!D337&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -33158,12 +35083,16 @@
         <f>IF(AND(Scrobbles!$D338&gt;=Calc!P$1+1,Scrobbles!$D338&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D338)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S338">
+      <c r="R338">
+        <f>IF(AND(Scrobbles!$D338&gt;=Calc!Q$1+1,Scrobbles!$D338&lt;=Calc!R$1,ISBLANK(Scrobbles!$D338)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T338">
         <f>IF(Scrobbles!D338&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -33220,12 +35149,16 @@
         <f>IF(AND(Scrobbles!$D339&gt;=Calc!P$1+1,Scrobbles!$D339&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D339)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S339">
+      <c r="R339">
+        <f>IF(AND(Scrobbles!$D339&gt;=Calc!Q$1+1,Scrobbles!$D339&lt;=Calc!R$1,ISBLANK(Scrobbles!$D339)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T339">
         <f>IF(Scrobbles!D339&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -33282,12 +35215,16 @@
         <f>IF(AND(Scrobbles!$D340&gt;=Calc!P$1+1,Scrobbles!$D340&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D340)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S340">
+      <c r="R340">
+        <f>IF(AND(Scrobbles!$D340&gt;=Calc!Q$1+1,Scrobbles!$D340&lt;=Calc!R$1,ISBLANK(Scrobbles!$D340)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T340">
         <f>IF(Scrobbles!D340&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -33344,12 +35281,16 @@
         <f>IF(AND(Scrobbles!$D341&gt;=Calc!P$1+1,Scrobbles!$D341&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D341)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S341">
+      <c r="R341">
+        <f>IF(AND(Scrobbles!$D341&gt;=Calc!Q$1+1,Scrobbles!$D341&lt;=Calc!R$1,ISBLANK(Scrobbles!$D341)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T341">
         <f>IF(Scrobbles!D341&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -33406,12 +35347,16 @@
         <f>IF(AND(Scrobbles!$D342&gt;=Calc!P$1+1,Scrobbles!$D342&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D342)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S342">
+      <c r="R342">
+        <f>IF(AND(Scrobbles!$D342&gt;=Calc!Q$1+1,Scrobbles!$D342&lt;=Calc!R$1,ISBLANK(Scrobbles!$D342)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T342">
         <f>IF(Scrobbles!D342&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -33468,12 +35413,16 @@
         <f>IF(AND(Scrobbles!$D343&gt;=Calc!P$1+1,Scrobbles!$D343&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D343)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S343">
+      <c r="R343">
+        <f>IF(AND(Scrobbles!$D343&gt;=Calc!Q$1+1,Scrobbles!$D343&lt;=Calc!R$1,ISBLANK(Scrobbles!$D343)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T343">
         <f>IF(Scrobbles!D343&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -33530,12 +35479,16 @@
         <f>IF(AND(Scrobbles!$D344&gt;=Calc!P$1+1,Scrobbles!$D344&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D344)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S344">
+      <c r="R344">
+        <f>IF(AND(Scrobbles!$D344&gt;=Calc!Q$1+1,Scrobbles!$D344&lt;=Calc!R$1,ISBLANK(Scrobbles!$D344)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T344">
         <f>IF(Scrobbles!D344&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -33592,12 +35545,16 @@
         <f>IF(AND(Scrobbles!$D345&gt;=Calc!P$1+1,Scrobbles!$D345&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D345)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S345">
+      <c r="R345">
+        <f>IF(AND(Scrobbles!$D345&gt;=Calc!Q$1+1,Scrobbles!$D345&lt;=Calc!R$1,ISBLANK(Scrobbles!$D345)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T345">
         <f>IF(Scrobbles!D345&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -33654,12 +35611,16 @@
         <f>IF(AND(Scrobbles!$D346&gt;=Calc!P$1+1,Scrobbles!$D346&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D346)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S346">
+      <c r="R346">
+        <f>IF(AND(Scrobbles!$D346&gt;=Calc!Q$1+1,Scrobbles!$D346&lt;=Calc!R$1,ISBLANK(Scrobbles!$D346)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T346">
         <f>IF(Scrobbles!D346&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -33716,12 +35677,16 @@
         <f>IF(AND(Scrobbles!$D347&gt;=Calc!P$1+1,Scrobbles!$D347&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D347)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S347">
+      <c r="R347">
+        <f>IF(AND(Scrobbles!$D347&gt;=Calc!Q$1+1,Scrobbles!$D347&lt;=Calc!R$1,ISBLANK(Scrobbles!$D347)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T347">
         <f>IF(Scrobbles!D347&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -33778,12 +35743,16 @@
         <f>IF(AND(Scrobbles!$D348&gt;=Calc!P$1+1,Scrobbles!$D348&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D348)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S348">
+      <c r="R348">
+        <f>IF(AND(Scrobbles!$D348&gt;=Calc!Q$1+1,Scrobbles!$D348&lt;=Calc!R$1,ISBLANK(Scrobbles!$D348)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T348">
         <f>IF(Scrobbles!D348&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -33840,12 +35809,16 @@
         <f>IF(AND(Scrobbles!$D349&gt;=Calc!P$1+1,Scrobbles!$D349&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D349)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S349">
+      <c r="R349">
+        <f>IF(AND(Scrobbles!$D349&gt;=Calc!Q$1+1,Scrobbles!$D349&lt;=Calc!R$1,ISBLANK(Scrobbles!$D349)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T349">
         <f>IF(Scrobbles!D349&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -33902,12 +35875,16 @@
         <f>IF(AND(Scrobbles!$D350&gt;=Calc!P$1+1,Scrobbles!$D350&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D350)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S350">
+      <c r="R350">
+        <f>IF(AND(Scrobbles!$D350&gt;=Calc!Q$1+1,Scrobbles!$D350&lt;=Calc!R$1,ISBLANK(Scrobbles!$D350)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T350">
         <f>IF(Scrobbles!D350&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -33964,12 +35941,16 @@
         <f>IF(AND(Scrobbles!$D351&gt;=Calc!P$1+1,Scrobbles!$D351&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D351)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S351">
+      <c r="R351">
+        <f>IF(AND(Scrobbles!$D351&gt;=Calc!Q$1+1,Scrobbles!$D351&lt;=Calc!R$1,ISBLANK(Scrobbles!$D351)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T351">
         <f>IF(Scrobbles!D351&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -34026,12 +36007,16 @@
         <f>IF(AND(Scrobbles!$D352&gt;=Calc!P$1+1,Scrobbles!$D352&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D352)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S352">
+      <c r="R352">
+        <f>IF(AND(Scrobbles!$D352&gt;=Calc!Q$1+1,Scrobbles!$D352&lt;=Calc!R$1,ISBLANK(Scrobbles!$D352)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T352">
         <f>IF(Scrobbles!D352&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -34088,12 +36073,16 @@
         <f>IF(AND(Scrobbles!$D353&gt;=Calc!P$1+1,Scrobbles!$D353&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D353)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S353">
+      <c r="R353">
+        <f>IF(AND(Scrobbles!$D353&gt;=Calc!Q$1+1,Scrobbles!$D353&lt;=Calc!R$1,ISBLANK(Scrobbles!$D353)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T353">
         <f>IF(Scrobbles!D353&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -34150,12 +36139,16 @@
         <f>IF(AND(Scrobbles!$D354&gt;=Calc!P$1+1,Scrobbles!$D354&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D354)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S354">
+      <c r="R354">
+        <f>IF(AND(Scrobbles!$D354&gt;=Calc!Q$1+1,Scrobbles!$D354&lt;=Calc!R$1,ISBLANK(Scrobbles!$D354)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T354">
         <f>IF(Scrobbles!D354&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -34212,12 +36205,16 @@
         <f>IF(AND(Scrobbles!$D355&gt;=Calc!P$1+1,Scrobbles!$D355&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D355)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S355">
+      <c r="R355">
+        <f>IF(AND(Scrobbles!$D355&gt;=Calc!Q$1+1,Scrobbles!$D355&lt;=Calc!R$1,ISBLANK(Scrobbles!$D355)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T355">
         <f>IF(Scrobbles!D355&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -34274,12 +36271,16 @@
         <f>IF(AND(Scrobbles!$D356&gt;=Calc!P$1+1,Scrobbles!$D356&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D356)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S356">
+      <c r="R356">
+        <f>IF(AND(Scrobbles!$D356&gt;=Calc!Q$1+1,Scrobbles!$D356&lt;=Calc!R$1,ISBLANK(Scrobbles!$D356)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T356">
         <f>IF(Scrobbles!D356&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -34336,12 +36337,16 @@
         <f>IF(AND(Scrobbles!$D357&gt;=Calc!P$1+1,Scrobbles!$D357&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D357)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S357">
+      <c r="R357">
+        <f>IF(AND(Scrobbles!$D357&gt;=Calc!Q$1+1,Scrobbles!$D357&lt;=Calc!R$1,ISBLANK(Scrobbles!$D357)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T357">
         <f>IF(Scrobbles!D357&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -34398,12 +36403,16 @@
         <f>IF(AND(Scrobbles!$D358&gt;=Calc!P$1+1,Scrobbles!$D358&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D358)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S358">
+      <c r="R358">
+        <f>IF(AND(Scrobbles!$D358&gt;=Calc!Q$1+1,Scrobbles!$D358&lt;=Calc!R$1,ISBLANK(Scrobbles!$D358)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T358">
         <f>IF(Scrobbles!D358&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -34460,12 +36469,16 @@
         <f>IF(AND(Scrobbles!$D359&gt;=Calc!P$1+1,Scrobbles!$D359&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D359)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S359">
+      <c r="R359">
+        <f>IF(AND(Scrobbles!$D359&gt;=Calc!Q$1+1,Scrobbles!$D359&lt;=Calc!R$1,ISBLANK(Scrobbles!$D359)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T359">
         <f>IF(Scrobbles!D359&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -34522,12 +36535,16 @@
         <f>IF(AND(Scrobbles!$D360&gt;=Calc!P$1+1,Scrobbles!$D360&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D360)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S360">
+      <c r="R360">
+        <f>IF(AND(Scrobbles!$D360&gt;=Calc!Q$1+1,Scrobbles!$D360&lt;=Calc!R$1,ISBLANK(Scrobbles!$D360)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T360">
         <f>IF(Scrobbles!D360&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -34584,12 +36601,16 @@
         <f>IF(AND(Scrobbles!$D361&gt;=Calc!P$1+1,Scrobbles!$D361&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D361)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S361">
+      <c r="R361">
+        <f>IF(AND(Scrobbles!$D361&gt;=Calc!Q$1+1,Scrobbles!$D361&lt;=Calc!R$1,ISBLANK(Scrobbles!$D361)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T361">
         <f>IF(Scrobbles!D361&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -34646,12 +36667,16 @@
         <f>IF(AND(Scrobbles!$D362&gt;=Calc!P$1+1,Scrobbles!$D362&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D362)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S362">
+      <c r="R362">
+        <f>IF(AND(Scrobbles!$D362&gt;=Calc!Q$1+1,Scrobbles!$D362&lt;=Calc!R$1,ISBLANK(Scrobbles!$D362)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T362">
         <f>IF(Scrobbles!D362&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -34708,12 +36733,16 @@
         <f>IF(AND(Scrobbles!$D363&gt;=Calc!P$1+1,Scrobbles!$D363&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D363)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S363">
+      <c r="R363">
+        <f>IF(AND(Scrobbles!$D363&gt;=Calc!Q$1+1,Scrobbles!$D363&lt;=Calc!R$1,ISBLANK(Scrobbles!$D363)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T363">
         <f>IF(Scrobbles!D363&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -34770,12 +36799,16 @@
         <f>IF(AND(Scrobbles!$D364&gt;=Calc!P$1+1,Scrobbles!$D364&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D364)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S364">
+      <c r="R364">
+        <f>IF(AND(Scrobbles!$D364&gt;=Calc!Q$1+1,Scrobbles!$D364&lt;=Calc!R$1,ISBLANK(Scrobbles!$D364)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T364">
         <f>IF(Scrobbles!D364&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -34832,12 +36865,16 @@
         <f>IF(AND(Scrobbles!$D365&gt;=Calc!P$1+1,Scrobbles!$D365&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D365)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S365">
+      <c r="R365">
+        <f>IF(AND(Scrobbles!$D365&gt;=Calc!Q$1+1,Scrobbles!$D365&lt;=Calc!R$1,ISBLANK(Scrobbles!$D365)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T365">
         <f>IF(Scrobbles!D365&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -34894,12 +36931,16 @@
         <f>IF(AND(Scrobbles!$D366&gt;=Calc!P$1+1,Scrobbles!$D366&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D366)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S366">
+      <c r="R366">
+        <f>IF(AND(Scrobbles!$D366&gt;=Calc!Q$1+1,Scrobbles!$D366&lt;=Calc!R$1,ISBLANK(Scrobbles!$D366)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T366">
         <f>IF(Scrobbles!D366&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -34956,12 +36997,16 @@
         <f>IF(AND(Scrobbles!$D367&gt;=Calc!P$1+1,Scrobbles!$D367&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D367)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S367">
+      <c r="R367">
+        <f>IF(AND(Scrobbles!$D367&gt;=Calc!Q$1+1,Scrobbles!$D367&lt;=Calc!R$1,ISBLANK(Scrobbles!$D367)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T367">
         <f>IF(Scrobbles!D367&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -35018,12 +37063,16 @@
         <f>IF(AND(Scrobbles!$D368&gt;=Calc!P$1+1,Scrobbles!$D368&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D368)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S368">
+      <c r="R368">
+        <f>IF(AND(Scrobbles!$D368&gt;=Calc!Q$1+1,Scrobbles!$D368&lt;=Calc!R$1,ISBLANK(Scrobbles!$D368)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T368">
         <f>IF(Scrobbles!D368&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -35080,12 +37129,16 @@
         <f>IF(AND(Scrobbles!$D369&gt;=Calc!P$1+1,Scrobbles!$D369&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D369)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S369">
+      <c r="R369">
+        <f>IF(AND(Scrobbles!$D369&gt;=Calc!Q$1+1,Scrobbles!$D369&lt;=Calc!R$1,ISBLANK(Scrobbles!$D369)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T369">
         <f>IF(Scrobbles!D369&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -35142,12 +37195,16 @@
         <f>IF(AND(Scrobbles!$D370&gt;=Calc!P$1+1,Scrobbles!$D370&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D370)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S370">
+      <c r="R370">
+        <f>IF(AND(Scrobbles!$D370&gt;=Calc!Q$1+1,Scrobbles!$D370&lt;=Calc!R$1,ISBLANK(Scrobbles!$D370)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T370">
         <f>IF(Scrobbles!D370&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -35204,12 +37261,16 @@
         <f>IF(AND(Scrobbles!$D371&gt;=Calc!P$1+1,Scrobbles!$D371&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D371)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S371">
+      <c r="R371">
+        <f>IF(AND(Scrobbles!$D371&gt;=Calc!Q$1+1,Scrobbles!$D371&lt;=Calc!R$1,ISBLANK(Scrobbles!$D371)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T371">
         <f>IF(Scrobbles!D371&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -35266,12 +37327,16 @@
         <f>IF(AND(Scrobbles!$D372&gt;=Calc!P$1+1,Scrobbles!$D372&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D372)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S372">
+      <c r="R372">
+        <f>IF(AND(Scrobbles!$D372&gt;=Calc!Q$1+1,Scrobbles!$D372&lt;=Calc!R$1,ISBLANK(Scrobbles!$D372)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T372">
         <f>IF(Scrobbles!D372&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -35328,12 +37393,16 @@
         <f>IF(AND(Scrobbles!$D373&gt;=Calc!P$1+1,Scrobbles!$D373&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D373)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S373">
+      <c r="R373">
+        <f>IF(AND(Scrobbles!$D373&gt;=Calc!Q$1+1,Scrobbles!$D373&lt;=Calc!R$1,ISBLANK(Scrobbles!$D373)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T373">
         <f>IF(Scrobbles!D373&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -35390,12 +37459,16 @@
         <f>IF(AND(Scrobbles!$D374&gt;=Calc!P$1+1,Scrobbles!$D374&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D374)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S374">
+      <c r="R374">
+        <f>IF(AND(Scrobbles!$D374&gt;=Calc!Q$1+1,Scrobbles!$D374&lt;=Calc!R$1,ISBLANK(Scrobbles!$D374)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T374">
         <f>IF(Scrobbles!D374&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -35452,12 +37525,16 @@
         <f>IF(AND(Scrobbles!$D375&gt;=Calc!P$1+1,Scrobbles!$D375&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D375)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S375">
+      <c r="R375">
+        <f>IF(AND(Scrobbles!$D375&gt;=Calc!Q$1+1,Scrobbles!$D375&lt;=Calc!R$1,ISBLANK(Scrobbles!$D375)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T375">
         <f>IF(Scrobbles!D375&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -35514,12 +37591,16 @@
         <f>IF(AND(Scrobbles!$D376&gt;=Calc!P$1+1,Scrobbles!$D376&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D376)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S376">
+      <c r="R376">
+        <f>IF(AND(Scrobbles!$D376&gt;=Calc!Q$1+1,Scrobbles!$D376&lt;=Calc!R$1,ISBLANK(Scrobbles!$D376)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T376">
         <f>IF(Scrobbles!D376&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -35576,12 +37657,16 @@
         <f>IF(AND(Scrobbles!$D377&gt;=Calc!P$1+1,Scrobbles!$D377&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D377)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S377">
+      <c r="R377">
+        <f>IF(AND(Scrobbles!$D377&gt;=Calc!Q$1+1,Scrobbles!$D377&lt;=Calc!R$1,ISBLANK(Scrobbles!$D377)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T377">
         <f>IF(Scrobbles!D377&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -35638,12 +37723,16 @@
         <f>IF(AND(Scrobbles!$D378&gt;=Calc!P$1+1,Scrobbles!$D378&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D378)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S378">
+      <c r="R378">
+        <f>IF(AND(Scrobbles!$D378&gt;=Calc!Q$1+1,Scrobbles!$D378&lt;=Calc!R$1,ISBLANK(Scrobbles!$D378)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T378">
         <f>IF(Scrobbles!D378&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -35700,12 +37789,16 @@
         <f>IF(AND(Scrobbles!$D379&gt;=Calc!P$1+1,Scrobbles!$D379&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D379)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S379">
+      <c r="R379">
+        <f>IF(AND(Scrobbles!$D379&gt;=Calc!Q$1+1,Scrobbles!$D379&lt;=Calc!R$1,ISBLANK(Scrobbles!$D379)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T379">
         <f>IF(Scrobbles!D379&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -35762,12 +37855,16 @@
         <f>IF(AND(Scrobbles!$D380&gt;=Calc!P$1+1,Scrobbles!$D380&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D380)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S380">
+      <c r="R380">
+        <f>IF(AND(Scrobbles!$D380&gt;=Calc!Q$1+1,Scrobbles!$D380&lt;=Calc!R$1,ISBLANK(Scrobbles!$D380)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T380">
         <f>IF(Scrobbles!D380&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -35824,12 +37921,16 @@
         <f>IF(AND(Scrobbles!$D381&gt;=Calc!P$1+1,Scrobbles!$D381&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D381)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S381">
+      <c r="R381">
+        <f>IF(AND(Scrobbles!$D381&gt;=Calc!Q$1+1,Scrobbles!$D381&lt;=Calc!R$1,ISBLANK(Scrobbles!$D381)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T381">
         <f>IF(Scrobbles!D381&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -35886,12 +37987,16 @@
         <f>IF(AND(Scrobbles!$D382&gt;=Calc!P$1+1,Scrobbles!$D382&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D382)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S382">
+      <c r="R382">
+        <f>IF(AND(Scrobbles!$D382&gt;=Calc!Q$1+1,Scrobbles!$D382&lt;=Calc!R$1,ISBLANK(Scrobbles!$D382)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T382">
         <f>IF(Scrobbles!D382&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -35948,12 +38053,16 @@
         <f>IF(AND(Scrobbles!$D383&gt;=Calc!P$1+1,Scrobbles!$D383&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D383)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S383">
+      <c r="R383">
+        <f>IF(AND(Scrobbles!$D383&gt;=Calc!Q$1+1,Scrobbles!$D383&lt;=Calc!R$1,ISBLANK(Scrobbles!$D383)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T383">
         <f>IF(Scrobbles!D383&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -36010,12 +38119,16 @@
         <f>IF(AND(Scrobbles!$D384&gt;=Calc!P$1+1,Scrobbles!$D384&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D384)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S384">
+      <c r="R384">
+        <f>IF(AND(Scrobbles!$D384&gt;=Calc!Q$1+1,Scrobbles!$D384&lt;=Calc!R$1,ISBLANK(Scrobbles!$D384)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T384">
         <f>IF(Scrobbles!D384&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -36072,12 +38185,16 @@
         <f>IF(AND(Scrobbles!$D385&gt;=Calc!P$1+1,Scrobbles!$D385&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D385)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S385">
+      <c r="R385">
+        <f>IF(AND(Scrobbles!$D385&gt;=Calc!Q$1+1,Scrobbles!$D385&lt;=Calc!R$1,ISBLANK(Scrobbles!$D385)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T385">
         <f>IF(Scrobbles!D385&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -36134,12 +38251,16 @@
         <f>IF(AND(Scrobbles!$D386&gt;=Calc!P$1+1,Scrobbles!$D386&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D386)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S386">
+      <c r="R386">
+        <f>IF(AND(Scrobbles!$D386&gt;=Calc!Q$1+1,Scrobbles!$D386&lt;=Calc!R$1,ISBLANK(Scrobbles!$D386)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T386">
         <f>IF(Scrobbles!D386&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -36196,12 +38317,16 @@
         <f>IF(AND(Scrobbles!$D387&gt;=Calc!P$1+1,Scrobbles!$D387&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D387)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S387">
+      <c r="R387">
+        <f>IF(AND(Scrobbles!$D387&gt;=Calc!Q$1+1,Scrobbles!$D387&lt;=Calc!R$1,ISBLANK(Scrobbles!$D387)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T387">
         <f>IF(Scrobbles!D387&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -36258,12 +38383,16 @@
         <f>IF(AND(Scrobbles!$D388&gt;=Calc!P$1+1,Scrobbles!$D388&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D388)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S388">
+      <c r="R388">
+        <f>IF(AND(Scrobbles!$D388&gt;=Calc!Q$1+1,Scrobbles!$D388&lt;=Calc!R$1,ISBLANK(Scrobbles!$D388)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T388">
         <f>IF(Scrobbles!D388&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -36320,12 +38449,16 @@
         <f>IF(AND(Scrobbles!$D389&gt;=Calc!P$1+1,Scrobbles!$D389&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D389)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S389">
+      <c r="R389">
+        <f>IF(AND(Scrobbles!$D389&gt;=Calc!Q$1+1,Scrobbles!$D389&lt;=Calc!R$1,ISBLANK(Scrobbles!$D389)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T389">
         <f>IF(Scrobbles!D389&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -36382,12 +38515,16 @@
         <f>IF(AND(Scrobbles!$D390&gt;=Calc!P$1+1,Scrobbles!$D390&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D390)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S390">
+      <c r="R390">
+        <f>IF(AND(Scrobbles!$D390&gt;=Calc!Q$1+1,Scrobbles!$D390&lt;=Calc!R$1,ISBLANK(Scrobbles!$D390)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T390">
         <f>IF(Scrobbles!D390&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -36444,12 +38581,16 @@
         <f>IF(AND(Scrobbles!$D391&gt;=Calc!P$1+1,Scrobbles!$D391&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D391)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S391">
+      <c r="R391">
+        <f>IF(AND(Scrobbles!$D391&gt;=Calc!Q$1+1,Scrobbles!$D391&lt;=Calc!R$1,ISBLANK(Scrobbles!$D391)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T391">
         <f>IF(Scrobbles!D391&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -36506,12 +38647,16 @@
         <f>IF(AND(Scrobbles!$D392&gt;=Calc!P$1+1,Scrobbles!$D392&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D392)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S392">
+      <c r="R392">
+        <f>IF(AND(Scrobbles!$D392&gt;=Calc!Q$1+1,Scrobbles!$D392&lt;=Calc!R$1,ISBLANK(Scrobbles!$D392)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T392">
         <f>IF(Scrobbles!D392&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -36568,12 +38713,16 @@
         <f>IF(AND(Scrobbles!$D393&gt;=Calc!P$1+1,Scrobbles!$D393&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D393)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S393">
+      <c r="R393">
+        <f>IF(AND(Scrobbles!$D393&gt;=Calc!Q$1+1,Scrobbles!$D393&lt;=Calc!R$1,ISBLANK(Scrobbles!$D393)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T393">
         <f>IF(Scrobbles!D393&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -36630,12 +38779,16 @@
         <f>IF(AND(Scrobbles!$D394&gt;=Calc!P$1+1,Scrobbles!$D394&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D394)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S394">
+      <c r="R394">
+        <f>IF(AND(Scrobbles!$D394&gt;=Calc!Q$1+1,Scrobbles!$D394&lt;=Calc!R$1,ISBLANK(Scrobbles!$D394)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T394">
         <f>IF(Scrobbles!D394&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -36692,12 +38845,16 @@
         <f>IF(AND(Scrobbles!$D395&gt;=Calc!P$1+1,Scrobbles!$D395&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D395)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S395">
+      <c r="R395">
+        <f>IF(AND(Scrobbles!$D395&gt;=Calc!Q$1+1,Scrobbles!$D395&lt;=Calc!R$1,ISBLANK(Scrobbles!$D395)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T395">
         <f>IF(Scrobbles!D395&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -36754,12 +38911,16 @@
         <f>IF(AND(Scrobbles!$D396&gt;=Calc!P$1+1,Scrobbles!$D396&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D396)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S396">
+      <c r="R396">
+        <f>IF(AND(Scrobbles!$D396&gt;=Calc!Q$1+1,Scrobbles!$D396&lt;=Calc!R$1,ISBLANK(Scrobbles!$D396)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T396">
         <f>IF(Scrobbles!D396&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -36816,12 +38977,16 @@
         <f>IF(AND(Scrobbles!$D397&gt;=Calc!P$1+1,Scrobbles!$D397&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D397)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S397">
+      <c r="R397">
+        <f>IF(AND(Scrobbles!$D397&gt;=Calc!Q$1+1,Scrobbles!$D397&lt;=Calc!R$1,ISBLANK(Scrobbles!$D397)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T397">
         <f>IF(Scrobbles!D397&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -36878,12 +39043,16 @@
         <f>IF(AND(Scrobbles!$D398&gt;=Calc!P$1+1,Scrobbles!$D398&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D398)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S398">
+      <c r="R398">
+        <f>IF(AND(Scrobbles!$D398&gt;=Calc!Q$1+1,Scrobbles!$D398&lt;=Calc!R$1,ISBLANK(Scrobbles!$D398)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T398">
         <f>IF(Scrobbles!D398&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -36940,12 +39109,16 @@
         <f>IF(AND(Scrobbles!$D399&gt;=Calc!P$1+1,Scrobbles!$D399&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D399)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S399">
+      <c r="R399">
+        <f>IF(AND(Scrobbles!$D399&gt;=Calc!Q$1+1,Scrobbles!$D399&lt;=Calc!R$1,ISBLANK(Scrobbles!$D399)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T399">
         <f>IF(Scrobbles!D399&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -37002,12 +39175,16 @@
         <f>IF(AND(Scrobbles!$D400&gt;=Calc!P$1+1,Scrobbles!$D400&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D400)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S400">
+      <c r="R400">
+        <f>IF(AND(Scrobbles!$D400&gt;=Calc!Q$1+1,Scrobbles!$D400&lt;=Calc!R$1,ISBLANK(Scrobbles!$D400)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T400">
         <f>IF(Scrobbles!D400&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -37064,12 +39241,16 @@
         <f>IF(AND(Scrobbles!$D401&gt;=Calc!P$1+1,Scrobbles!$D401&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D401)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S401">
+      <c r="R401">
+        <f>IF(AND(Scrobbles!$D401&gt;=Calc!Q$1+1,Scrobbles!$D401&lt;=Calc!R$1,ISBLANK(Scrobbles!$D401)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T401">
         <f>IF(Scrobbles!D401&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -37126,12 +39307,16 @@
         <f>IF(AND(Scrobbles!$D402&gt;=Calc!P$1+1,Scrobbles!$D402&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D402)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S402">
+      <c r="R402">
+        <f>IF(AND(Scrobbles!$D402&gt;=Calc!Q$1+1,Scrobbles!$D402&lt;=Calc!R$1,ISBLANK(Scrobbles!$D402)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T402">
         <f>IF(Scrobbles!D402&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -37188,12 +39373,16 @@
         <f>IF(AND(Scrobbles!$D403&gt;=Calc!P$1+1,Scrobbles!$D403&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D403)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S403">
+      <c r="R403">
+        <f>IF(AND(Scrobbles!$D403&gt;=Calc!Q$1+1,Scrobbles!$D403&lt;=Calc!R$1,ISBLANK(Scrobbles!$D403)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T403">
         <f>IF(Scrobbles!D403&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -37250,12 +39439,16 @@
         <f>IF(AND(Scrobbles!$D404&gt;=Calc!P$1+1,Scrobbles!$D404&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D404)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S404">
+      <c r="R404">
+        <f>IF(AND(Scrobbles!$D404&gt;=Calc!Q$1+1,Scrobbles!$D404&lt;=Calc!R$1,ISBLANK(Scrobbles!$D404)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T404">
         <f>IF(Scrobbles!D404&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -37312,12 +39505,16 @@
         <f>IF(AND(Scrobbles!$D405&gt;=Calc!P$1+1,Scrobbles!$D405&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D405)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S405">
+      <c r="R405">
+        <f>IF(AND(Scrobbles!$D405&gt;=Calc!Q$1+1,Scrobbles!$D405&lt;=Calc!R$1,ISBLANK(Scrobbles!$D405)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T405">
         <f>IF(Scrobbles!D405&gt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>
@@ -37374,7 +39571,11 @@
         <f>IF(AND(Scrobbles!$D406&gt;=Calc!P$1+1,Scrobbles!$D406&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D406)=FALSE),1,0)</f>
         <v>0</v>
       </c>
-      <c r="S406">
+      <c r="R406">
+        <f>IF(AND(Scrobbles!$D406&gt;=Calc!Q$1+1,Scrobbles!$D406&lt;=Calc!R$1,ISBLANK(Scrobbles!$D406)=FALSE),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T406">
         <f>IF(Scrobbles!D406&gt;0,1,0)</f>
         <v>0</v>
       </c>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318DC8E-DF4E-4FBB-907B-809F5B31A184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D129D50-DADB-4EEC-B507-443583843DAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -670,7 +670,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.755828529582649</c:v>
+                  <c:v>2.7289751276999734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5207604135885546</c:v>
+                  <c:v>5.35729544160177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6132196578024791</c:v>
+                  <c:v>7.4520674069076431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2281266636418948</c:v>
+                  <c:v>7.3459054648138888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.724550189973888</c:v>
+                  <c:v>5.131554996395673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.125625750087083</c:v>
+                  <c:v>2.5399844452467337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65803605024088829</c:v>
+                  <c:v>0.89060208638500837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14009883877104778</c:v>
+                  <c:v>0.2211331588941933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9055939425877148E-7</c:v>
+                  <c:v>5.2401254338108119E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2650563305187848</c:v>
+                  <c:v>0.13752112156218133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.570667985876916</c:v>
+                  <c:v>18.072971492424205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.098846594600893</c:v>
+                  <c:v>14.635527205051899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5424663668853314E-2</c:v>
+                  <c:v>0.15396110877233121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2347693200051773E-6</c:v>
+                  <c:v>1.9019737253358506E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.83926618533836E-12</c:v>
+                  <c:v>5.0878367680500174E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0709264603842694E-19</c:v>
+                  <c:v>5.2206593580291682E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,6 +1409,9 @@
                 <c:pt idx="31">
                   <c:v>56.71875</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.666666666666664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1979,6 +1982,9 @@
                 <c:pt idx="31">
                   <c:v>1815</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>1936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2664,424 +2670,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.6285451541680936E-3</c:v>
+                  <c:v>2.5827803041721053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7748687484299614E-3</c:v>
+                  <c:v>2.7194908043728476E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9265163803984954E-3</c:v>
+                  <c:v>2.8608996255719251E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0834789111246984E-3</c:v>
+                  <c:v>3.0069938829894488E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2457309392008348E-3</c:v>
+                  <c:v>3.1577472520688738E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4132300292549662E-3</c:v>
+                  <c:v>3.3131193780425068E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5859159836310549E-3</c:v>
+                  <c:v>3.4730553193459586E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7637101638420822E-3</c:v>
+                  <c:v>3.6374850296097033E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9465148683827788E-3</c:v>
+                  <c:v>3.8063228829455422E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1342127734355864E-3</c:v>
+                  <c:v>3.9794672472006224E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3266664428963063E-3</c:v>
+                  <c:v>4.1568001097705455E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5237179139827393E-3</c:v>
+                  <c:v>4.3381867604447236E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7251883644690686E-3</c:v>
+                  <c:v>4.5234755356009281E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9308778673102707E-3</c:v>
+                  <c:v>4.7124976278713872E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1405652380838171E-3</c:v>
+                  <c:v>4.9050669651696469E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3540079802809944E-3</c:v>
+                  <c:v>5.1009801626959294E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5709423330279843E-3</c:v>
+                  <c:v>5.3000165512296195E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7910834253089667E-3</c:v>
+                  <c:v>5.5019382846713356E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0141255402021213E-3</c:v>
+                  <c:v>5.7064905294155364E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2397424920269699E-3</c:v>
+                  <c:v>5.9134017377191136E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.4675881186417221E-3</c:v>
+                  <c:v>6.1223840067841095E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.6972968904256743E-3</c:v>
+                  <c:v>6.3331335247959284E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9284846367391089E-3</c:v>
+                  <c:v>6.545331104655017E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.1607493898764567E-3</c:v>
+                  <c:v>6.7586428056130221E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3936723457232742E-3</c:v>
+                  <c:v>6.9727206424772051E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.6268189395000772E-3</c:v>
+                  <c:v>7.1872033814835423E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8597400341325913E-3</c:v>
+                  <c:v>7.4017174213628894E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0919732179355313E-3</c:v>
+                  <c:v>7.6158777575405859E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3230442074428528E-3</c:v>
+                  <c:v>7.8292890268222212E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.5524683503687051E-3</c:v>
+                  <c:v>8.041546629331443E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.7797522228481861E-3</c:v>
+                  <c:v>8.2522379238848358E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.0043953142926823E-3</c:v>
+                  <c:v>8.4609434924183859E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.2258917924091313E-3</c:v>
+                  <c:v>8.6672384685253668E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.4437323401837005E-3</c:v>
+                  <c:v>8.870693924630961E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.6574060559254504E-3</c:v>
+                  <c:v>9.0708783118199111E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.8664024068120838E-3</c:v>
+                  <c:v>9.2673589458544484E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0070213225784956E-2</c:v>
+                  <c:v>9.4597035324753675E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0268334741110349E-2</c:v>
+                  <c:v>9.6474817246738412E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0460269627465331E-2</c:v>
+                  <c:v>9.8302667042595715E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0645529067024463E-2</c:v>
+                  <c:v>1.0007636779735919E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0823634808723195E-2</c:v>
+                  <c:v>1.0179176992228445E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0994121213659681E-2</c:v>
+                  <c:v>1.0344480721002832E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.1156537274471849E-2</c:v>
+                  <c:v>1.0503151279954298E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1310448596494119E-2</c:v>
+                  <c:v>1.0654803496355496E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.145543932855978E-2</c:v>
+                  <c:v>1.0799065263115559E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.159111403147179E-2</c:v>
+                  <c:v>1.0935579055830341E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1717099472416682E-2</c:v>
+                  <c:v>1.106400340599414E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1833046333942554E-2</c:v>
+                  <c:v>1.1184014321896203E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1938630826561054E-2</c:v>
+                  <c:v>1.1295306648940892E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2033556194562046E-2</c:v>
+                  <c:v>1.1397595361407616E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2117554105244769E-2</c:v>
+                  <c:v>1.1490616778003941E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2190385912466347E-2</c:v>
+                  <c:v>1.1574129693960839E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2251843786182088E-2</c:v>
+                  <c:v>1.1647916422869968E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2301751700496025E-2</c:v>
+                  <c:v>1.1711783741966528E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2339966273647989E-2</c:v>
+                  <c:v>1.1765563735113525E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2366377454327459E-2</c:v>
+                  <c:v>1.1809114528340657E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2380909049716501E-2</c:v>
+                  <c:v>1.1842320913428576E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2383519091715926E-2</c:v>
+                  <c:v>1.1865094855702623E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2374200038890981E-2</c:v>
+                  <c:v>1.1877375882903501E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2352978812776633E-2</c:v>
+                  <c:v>1.1879131352730788E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2319916668297808E-2</c:v>
+                  <c:v>1.187035659740265E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2275108899177484E-2</c:v>
+                  <c:v>1.1851074944335731E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2218684380315483E-2</c:v>
+                  <c:v>1.1821337612816979E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2150804950213629E-2</c:v>
+                  <c:v>1.1781223487308017E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2071664637589092E-2</c:v>
+                  <c:v>1.1730838768786294E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1981488737348368E-2</c:v>
+                  <c:v>1.1670316506279848E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1880532742080311E-2</c:v>
+                  <c:v>1.1599816011487822E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1769081136160002E-2</c:v>
+                  <c:v>1.1519522160091325E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1647446060428026E-2</c:v>
+                  <c:v>1.1429644584043136E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1515965856214973E-2</c:v>
+                  <c:v>1.133041675977476E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.137500349821215E-2</c:v>
+                  <c:v>1.1222094997870637E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1224944926341098E-2</c:v>
+                  <c:v>1.1104957340327154E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1066197287341499E-2</c:v>
+                  <c:v>1.0979302372034294E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0899187097275798E-2</c:v>
+                  <c:v>1.0845447953586726E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0724358336535759E-2</c:v>
+                  <c:v>1.0703729882945384E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0542170489229785E-2</c:v>
+                  <c:v>1.0554500493827602E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0353096539028071E-2</c:v>
+                  <c:v>1.0398127199001309E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0157620933645913E-2</c:v>
+                  <c:v>1.0234990986895039E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.9562375301540124E-3</c:v>
+                  <c:v>1.0065484880109428E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.7494475332199054E-3</c:v>
+                  <c:v>9.8900123645270736E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.5377574382091244E-3</c:v>
+                  <c:v>9.7089857977658931E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.3216769908116039E-3</c:v>
+                  <c:v>9.522824805707238E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.1017171745119349E-3</c:v>
+                  <c:v>9.3319546757549762E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.8783882367962069E-3</c:v>
+                  <c:v>9.1368047553473265E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.6521977644886134E-3</c:v>
+                  <c:v>8.937806864051193E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.4236488180435762E-3</c:v>
+                  <c:v>8.7353937273223214E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.19323813399047E-3</c:v>
+                  <c:v>8.5299974397160042E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.9614544040446985E-3</c:v>
+                  <c:v>8.3220479649864613E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.7287766386683662E-3</c:v>
+                  <c:v>8.1119716801216404E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.4956726220934021E-3</c:v>
+                  <c:v>7.9001899699284034E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.2625974650173059E-3</c:v>
+                  <c:v>7.6871178783150763E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.0299922603548051E-3</c:v>
+                  <c:v>7.4731628219187191E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.7982828465848709E-3</c:v>
+                  <c:v>7.2587233711980349E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.5678786823799616E-3</c:v>
+                  <c:v>7.0441881035641996E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.3391718353501391E-3</c:v>
+                  <c:v>6.8299345325562337E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.1125360868864989E-3</c:v>
+                  <c:v>6.6163281164894816E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.8883261542530272E-3</c:v>
+                  <c:v>6.4037213494204546E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.6668770302602239E-3</c:v>
+                  <c:v>6.1924529366833968E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.4485034400640064E-3</c:v>
+                  <c:v>5.9828470566681054E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.2334994138751693E-3</c:v>
+                  <c:v>5.7752127099294712E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.0221379736434604E-3</c:v>
+                  <c:v>5.5698431561511264E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.8146709311008779E-3</c:v>
+                  <c:v>5.3670154389324921E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.6113287939151312E-3</c:v>
+                  <c:v>5.1669899978344829E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.4123207761201898E-3</c:v>
+                  <c:v>4.9700103666074939E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.217834908459242E-3</c:v>
+                  <c:v>4.776302956039276E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.0280382437985606E-3</c:v>
+                  <c:v>4.5860769194029415E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.8430771523507317E-3</c:v>
+                  <c:v>4.3995240980590064E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.6630777010832243E-3</c:v>
+                  <c:v>4.2168190443722551E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.488146111384185E-3</c:v>
+                  <c:v>4.0381191187461949E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.3183692888115609E-3</c:v>
+                  <c:v>3.8635646572562142E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.1538154185634763E-3</c:v>
+                  <c:v>3.6932792060785044E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.9945346201763383E-3</c:v>
+                  <c:v>3.5273698186658164E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.8405596548807294E-3</c:v>
+                  <c:v>3.3659274114136912E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.6919066790217481E-3</c:v>
+                  <c:v>3.209027173391844E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.5485760369777389E-3</c:v>
+                  <c:v>3.0567290255844406E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.4105530870865573E-3</c:v>
+                  <c:v>2.9090781249896131E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.2778090542084155E-3</c:v>
+                  <c:v>2.7661054088715022E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.150301902715875E-3</c:v>
+                  <c:v>2.6278281744363747E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.0279772239008894E-3</c:v>
+                  <c:v>2.4942506892162955E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.9107691320224115E-3</c:v>
+                  <c:v>2.3653648274878261E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.7986011634820399E-3</c:v>
+                  <c:v>2.2411507281273101E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.6913871739056292E-3</c:v>
+                  <c:v>2.1215774694064676E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.5890322282217624E-3</c:v>
+                  <c:v>2.0066037563600645E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.491433479159575E-3</c:v>
+                  <c:v>1.8961786165088942E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.3984810299347598E-3</c:v>
+                  <c:v>1.7902420998940536E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.3100587772498606E-3</c:v>
+                  <c:v>1.6887259795697988E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.226045231099569E-3</c:v>
+                  <c:v>1.5915544489098056E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.1463143082401353E-3</c:v>
+                  <c:v>1.4986448123028987E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.0707360965508702E-3</c:v>
+                  <c:v>1.4099081660467467E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9.9917758788192084E-4</c:v>
+                  <c:v>1.3252500664892816E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>9.3150337734319345E-4</c:v>
+                  <c:v>1.2445711827152285E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8.6757632734173553E-4</c:v>
+                  <c:v>1.1677679313269781E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8.0725819501671961E-4</c:v>
+                  <c:v>1.0947330911227227E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.5041022205021824E-4</c:v>
+                  <c:v>1.0253563957284312E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.9689368614634468E-4</c:v>
+                  <c:v>9.595251024917161E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.4657041376936248E-4</c:v>
+                  <c:v>8.9712453619332131E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.9930325401180598E-4</c:v>
+                  <c:v>8.3803860637396313E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5.5495651372525114E-4</c:v>
+                  <c:v>7.8215029730926337E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.1339635428836758E-4</c:v>
+                  <c:v>7.2934212989202152E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>4.7449115060863516E-4</c:v>
+                  <c:v>6.7949659489795287E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,424 +3775,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.3300211035429017E-25</c:v>
+                  <c:v>3.3219293749889573E-26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.32155884466574E-23</c:v>
+                  <c:v>1.9488652333268554E-24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7478582860442362E-22</c:v>
+                  <c:v>5.7166713510920818E-23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0857945720524005E-21</c:v>
+                  <c:v>1.1179268419913459E-21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.004743527208994E-19</c:v>
+                  <c:v>1.6396260349206355E-20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1397559386777092E-18</c:v>
+                  <c:v>1.9238278809735617E-19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0774255357812653E-17</c:v>
+                  <c:v>1.8810761502852402E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7300328010847857E-17</c:v>
+                  <c:v>1.576520964048594E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1894568492066082E-16</c:v>
+                  <c:v>1.1561153736356324E-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9006472851770871E-15</c:v>
+                  <c:v>7.5361594725878038E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2123983820613835E-14</c:v>
+                  <c:v>4.4212135572515314E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1407679157503955E-13</c:v>
+                  <c:v>2.3579805638674868E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3919108517889815E-13</c:v>
+                  <c:v>1.1527904978907666E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3524803355762056E-12</c:v>
+                  <c:v>5.2023366058660269E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5306960023902106E-12</c:v>
+                  <c:v>2.1800267681724287E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6037944259037853E-11</c:v>
+                  <c:v>8.5263269155188238E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2775169693389464E-10</c:v>
+                  <c:v>3.1263198690235707E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2623038590995957E-10</c:v>
+                  <c:v>1.078886856761075E-10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3430697056016935E-9</c:v>
+                  <c:v>3.5163719775916547E-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0093281507682242E-9</c:v>
+                  <c:v>1.0857569615019903E-9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1370204052569236E-8</c:v>
+                  <c:v>3.184887087072484E-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.0709702909841095E-8</c:v>
+                  <c:v>8.8974623384882229E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.9173452814433973E-8</c:v>
+                  <c:v>2.3726566235968541E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9524431638342006E-7</c:v>
+                  <c:v>6.0519937065658843E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6141723207800546E-7</c:v>
+                  <c:v>1.4793762393827734E-7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0468403452769762E-6</c:v>
+                  <c:v>3.4716029084182543E-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2836721474491775E-6</c:v>
+                  <c:v>7.8333604087386066E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7972973930789917E-6</c:v>
+                  <c:v>1.7020634962197471E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.7177396969177976E-6</c:v>
+                  <c:v>3.5662282777937561E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9006139601191644E-5</c:v>
+                  <c:v>7.2144388148471239E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5933482683502905E-5</c:v>
+                  <c:v>1.4108235904589951E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.5745232934029936E-5</c:v>
+                  <c:v>2.6699457195783161E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1653085720240702E-4</c:v>
+                  <c:v>4.8949004858935603E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0028741081663695E-4</c:v>
+                  <c:v>8.7020453082552654E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3411916418400284E-4</c:v>
+                  <c:v>1.5015293865224718E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4145203838746887E-4</c:v>
+                  <c:v>2.5168492574091016E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.5306896673025706E-4</c:v>
+                  <c:v>4.1015321231851999E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3077028501819457E-3</c:v>
+                  <c:v>6.5033302133386827E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.951875553519924E-3</c:v>
+                  <c:v>1.0040229101294861E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.8386651679796968E-3</c:v>
+                  <c:v>1.51032506139136E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0251384999087153E-3</c:v>
+                  <c:v>2.2151434233739927E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.5683127876023607E-3</c:v>
+                  <c:v>3.1696361179985567E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.5197081171862338E-3</c:v>
+                  <c:v>4.427428228315441E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9188010412013267E-3</c:v>
+                  <c:v>6.0405222339807527E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2785954467173564E-2</c:v>
+                  <c:v>8.0540296453076813E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6115630109666677E-2</c:v>
+                  <c:v>1.0500068278327055E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.9870834680057781E-2</c:v>
+                  <c:v>1.339139142743161E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3979763925734605E-2</c:v>
+                  <c:v>1.6715495682467812E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.8335463232557482E-2</c:v>
+                  <c:v>2.0430050278571765E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.2799021535135094E-2</c:v>
+                  <c:v>2.4460468360739028E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.7206390053918875E-2</c:v>
+                  <c:v>2.8700282876600411E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.1378430115111997E-2</c:v>
+                  <c:v>3.3014704485501131E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.5133323713298257E-2</c:v>
+                  <c:v>3.7247358906719222E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.8300107629502549E-2</c:v>
+                  <c:v>4.1229780928192357E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.0731883881682364E-2</c:v>
+                  <c:v>4.4792848415813956E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2317255252984932E-2</c:v>
+                  <c:v>4.7779038310201506E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.2988737881789989E-2</c:v>
+                  <c:v>5.0054230610687304E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.2727280293557471E-2</c:v>
+                  <c:v>5.1517804605151846E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.1562507399141588E-2</c:v>
+                  <c:v>5.210996327877427E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9568829941441718E-2</c:v>
+                  <c:v>5.1815556706577802E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.685803455401915E-2</c:v>
+                  <c:v>5.0664099890876085E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.3569330284602845E-2</c:v>
+                  <c:v>4.8726128856798855E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.9858031485158332E-2</c:v>
+                  <c:v>4.610644450965911E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.5884090846013086E-2</c:v>
+                  <c:v>4.2935101765608476E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.1801574651129781E-2</c:v>
+                  <c:v>3.9357176618474439E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.774993172682717E-2</c:v>
+                  <c:v>3.5522374794110245E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3847597577742102E-2</c:v>
+                  <c:v>3.1575444261431343E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0188148136008367E-2</c:v>
+                  <c:v>2.7648150199064282E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6838919516018E-2</c:v>
+                  <c:v>2.3853306054094654E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3841774873900679E-2</c:v>
+                  <c:v>2.0281071814109475E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1215545266129326E-2</c:v>
+                  <c:v>1.6997469710872716E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.9596015220179369E-3</c:v>
+                  <c:v>1.4044857601472284E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.0580194281521496E-3</c:v>
+                  <c:v>1.1443958045644071E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.4838635539795275E-3</c:v>
+                  <c:v>9.1969708494673875E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.2032146750307555E-3</c:v>
+                  <c:v>7.2912922049831706E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1786810979920156E-3</c:v>
+                  <c:v>5.7034107914534929E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.372247612193866E-3</c:v>
+                  <c:v>4.4026328916483039E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.7474145357678017E-3</c:v>
+                  <c:v>3.3543869650653852E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.27065600257154E-3</c:v>
+                  <c:v>2.5229577173141293E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.1227873602347609E-4</c:v>
+                  <c:v>1.8735888533640793E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.4679136948539385E-4</c:v>
+                  <c:v>1.3739651591336529E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.5290367886419353E-4</c:v>
+                  <c:v>9.9513525929022196E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.132698845802248E-4</c:v>
+                  <c:v>7.1196668957349126E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.1407561766306803E-4</c:v>
+                  <c:v>5.0323749945756951E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.4454882665865644E-4</c:v>
+                  <c:v>3.5146745993861844E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.6454456024067339E-5</c:v>
+                  <c:v>2.4258146254587068E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.3613676483896179E-5</c:v>
+                  <c:v>1.6548192793826812E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.1472278311160161E-5</c:v>
+                  <c:v>1.1158934604266263E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.6730179380240066E-5</c:v>
+                  <c:v>7.4392897361776129E-5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.7034857996887696E-5</c:v>
+                  <c:v>4.9038014740346686E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.073550946678849E-5</c:v>
+                  <c:v>3.196552071963318E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.6912601930705152E-6</c:v>
+                  <c:v>2.0607808229507109E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.1252164573447176E-6</c:v>
+                  <c:v>1.3141211044903052E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.5158830208604514E-6</c:v>
+                  <c:v>8.289796214705934E-6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5180610647811708E-6</c:v>
+                  <c:v>5.1737735240718136E-6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.0634237913743163E-7</c:v>
+                  <c:v>3.1950320710057216E-6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.3548548767397647E-7</c:v>
+                  <c:v>1.9525195989479388E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.1311409797946212E-7</c:v>
+                  <c:v>1.1809053244496117E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.812187780078856E-7</c:v>
+                  <c:v>7.0693652075895495E-7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.0382325823368469E-7</c:v>
+                  <c:v>4.1892534563493538E-7</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.8887254279417652E-8</c:v>
+                  <c:v>2.4576953610582948E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.306942033327462E-8</c:v>
+                  <c:v>1.4275722229249405E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.8388786122822667E-8</c:v>
+                  <c:v>8.2108729161695817E-8</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.01261064359597E-8</c:v>
+                  <c:v>4.6767431496629161E-8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.5225009559095766E-9</c:v>
+                  <c:v>2.6381628023739903E-8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.9831366770761024E-9</c:v>
+                  <c:v>1.4740211213264186E-8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5962243717255942E-9</c:v>
+                  <c:v>8.1581043192908076E-9</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.4612944938140682E-10</c:v>
+                  <c:v>4.472979315249775E-9</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.443648583990935E-10</c:v>
+                  <c:v>2.4297665416171682E-9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.3122770011306024E-10</c:v>
+                  <c:v>1.3077642548153498E-9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.1922678287079519E-10</c:v>
+                  <c:v>6.97474269234861E-10</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.0922469287864261E-11</c:v>
+                  <c:v>3.6863504920521122E-10</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.085219915108075E-11</c:v>
+                  <c:v>1.9309454958368352E-10</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.5485824518587362E-11</c:v>
+                  <c:v>1.0024967765996422E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7.7047071001194498E-12</c:v>
+                  <c:v>5.1590477392262214E-11</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.8000117898686558E-12</c:v>
+                  <c:v>2.6318620350835568E-11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.8580337819535755E-12</c:v>
+                  <c:v>1.3310566614215562E-11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9.0072951769386208E-13</c:v>
+                  <c:v>6.674244228210685E-12</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.3295129094659668E-13</c:v>
+                  <c:v>3.3182683168505201E-12</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.0635677338971971E-13</c:v>
+                  <c:v>1.6358969853380686E-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9.7535818672486468E-14</c:v>
+                  <c:v>7.9977185949861079E-13</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.5719915002728218E-14</c:v>
+                  <c:v>3.8776817430235654E-13</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.1255544500499958E-14</c:v>
+                  <c:v>1.8646775594867362E-13</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.8015277612824458E-15</c:v>
+                  <c:v>8.893855026278289E-14</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.4833096992760378E-15</c:v>
+                  <c:v>4.2078453887768484E-14</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.0343017760464982E-15</c:v>
+                  <c:v>1.9748821024658936E-14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.157385226995073E-16</c:v>
+                  <c:v>9.195218254867659E-15</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.0897279003435184E-16</c:v>
+                  <c:v>4.2476598762643217E-15</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.8122207370907144E-16</c:v>
+                  <c:v>1.9468441099544858E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>7.9679763513072296E-17</c:v>
+                  <c:v>8.8538646860980405E-16</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.4764127590438298E-17</c:v>
+                  <c:v>3.9955902173160694E-16</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.5051739402826132E-17</c:v>
+                  <c:v>1.7893737359990409E-16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6.4675442746518394E-18</c:v>
+                  <c:v>7.9527721599957974E-17</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.7581280212624805E-18</c:v>
+                  <c:v>3.5079897247099182E-17</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.167444579895364E-18</c:v>
+                  <c:v>1.5358362973854266E-17</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.9048886863659144E-19</c:v>
+                  <c:v>6.6742515639465785E-18</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.0455820233810486E-19</c:v>
+                  <c:v>2.8790889099377056E-18</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.4688215612149116E-20</c:v>
+                  <c:v>1.2328945210438825E-18</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.4807316878634558E-20</c:v>
+                  <c:v>5.2412907174812014E-19</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.4203075569856198E-20</c:v>
+                  <c:v>2.2121514778817593E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,7 +4570,7 @@
                   <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.25</c:v>
+                  <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56.25</c:v>
@@ -8591,27 +8597,27 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8659,7 +8665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8693,7 +8699,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8723,18 +8729,18 @@
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.755828529582649</v>
+        <v>2.7289751276999734</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>1.9055939425877148E-7</v>
+        <v>5.2401254338108119E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8764,21 +8770,21 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.5207604135885546</v>
+        <v>5.35729544160177</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>0.2650563305187848</v>
+        <v>0.13752112156218133</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8808,21 +8814,21 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>7.6132196578024791</v>
+        <v>7.4520674069076431</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>20.570667985876916</v>
+        <v>18.072971492424205</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8852,16 +8858,16 @@
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>7.2281266636418948</v>
+        <v>7.3459054648138888</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>11.098846594600893</v>
+        <v>14.635527205051899</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8891,21 +8897,21 @@
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>4.724550189973888</v>
+        <v>5.131554996395673</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>6.5424663668853314E-2</v>
+        <v>0.15396110877233121</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>32.214354695345058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33.581801228304798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8935,21 +8941,21 @@
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>2.125625750087083</v>
+        <v>2.5399844452467337</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>4.2347693200051773E-6</v>
+        <v>1.9019737253358506E-5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>56.71875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58.666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8975,25 +8981,25 @@
       </c>
       <c r="I10" s="27">
         <f>SUM(Calc!Q2:Q406)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>0.65803605024088829</v>
+        <v>0.89060208638500837</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>5.83926618533836E-12</v>
+        <v>5.0878367680500174E-11</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9023,21 +9029,21 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.14009883877104778</v>
+        <v>0.2211331588941933</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>3.0709264603842694E-19</v>
+        <v>5.2206593580291682E-18</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.96969696969696972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9063,7 +9069,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9089,18 +9095,18 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>30.626147254917434</v>
+        <v>31.446384969050687</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32.999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9129,14 +9135,14 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>0.16235246744104204</v>
+        <v>5.9619844866787487E-2</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9162,10 +9168,10 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>20702.34375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21413.333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9187,7 +9193,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9231,7 +9237,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9285,7 +9291,7 @@
         <v>54.345564516129031</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>-111.66129032258073</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9358,7 +9364,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9427,7 +9433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9449,7 +9455,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9471,7 +9477,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9515,7 +9521,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9559,7 +9565,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9581,7 +9587,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9591,8 +9597,19 @@
       <c r="C34" s="1">
         <v>43571</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>121</v>
+      </c>
+      <c r="E34" s="3">
+        <f>AVERAGE(D$2:D34)</f>
+        <v>58.666666666666664</v>
+      </c>
+      <c r="F34">
+        <f>SUM($D$2:D34)</f>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9603,7 +9620,7 @@
         <v>43572</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9614,7 +9631,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9625,7 +9642,7 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9636,7 +9653,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9647,7 +9664,7 @@
         <v>43576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9658,7 +9675,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9669,7 +9686,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9680,7 +9697,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9688,7 +9705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9696,7 +9713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9704,7 +9721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9712,7 +9729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9720,7 +9737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9728,7 +9745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9736,7 +9753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9744,7 +9761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9752,7 +9769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9760,7 +9777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9768,7 +9785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9776,7 +9793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9784,7 +9801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9792,7 +9809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9800,7 +9817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9808,7 +9825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9816,7 +9833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9824,7 +9841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9832,7 +9849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9840,7 +9857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9848,7 +9865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9872,7 +9889,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9886,14 +9903,14 @@
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>11</v>
       </c>
@@ -9904,10 +9921,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -9915,10 +9932,10 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -9938,7 +9955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
@@ -9956,39 +9973,39 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>15.481250000000003</v>
+        <v>13.533333333333339</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.2729476584022039</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.2306818181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(Calc!D2:D1000)</f>
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>81.25</v>
+        <v>89.2</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>24.53125</v>
+        <v>30.533333333333339</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.4325068870523416</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.5204545454545455</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
@@ -10006,14 +10023,14 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.46875</v>
+        <v>-2.4166666666666643</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99173553719008267</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.95880681818181823</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -10031,14 +10048,14 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.71875</v>
+        <v>-19.666666666666664</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68760330578512396</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.66477272727272729</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
@@ -10056,14 +10073,14 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.518749999999997</v>
+        <v>-15.466666666666661</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76165289256198354</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.73636363636363644</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -10081,14 +10098,14 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9187500000000028</v>
+        <v>-3.8666666666666671</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96617079889807156</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.93409090909090908</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -10106,14 +10123,14 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1187499999999986</v>
+        <v>-7.0666666666666629</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90975206611570247</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.87954545454545463</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10121,26 +10138,26 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>1815</v>
+        <v>1936</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>56.71875</v>
+        <v>58.666666666666664</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10148,26 +10165,26 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>63.918953785721683</v>
+        <v>90.278706780498268</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>13.979755771420756</v>
+        <v>16.077373503638913</v>
       </c>
       <c r="G15" s="16">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>13.979755771420738</v>
+        <v>16.077373503638903</v>
       </c>
       <c r="H15" s="17"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -10179,7 +10196,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
@@ -10187,7 +10204,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
@@ -10207,7 +10224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
@@ -10217,7 +10234,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>283.59375</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10228,34 +10245,34 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>40.513392857142854</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="11">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>226.875</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>81.25</v>
+        <v>89.2</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>32.410714285714285</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
@@ -10265,7 +10282,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>226.875</v>
+        <v>234.66666666666666</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
@@ -10276,10 +10293,10 @@
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>32.410714285714285</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+        <v>33.523809523809526</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
@@ -10289,7 +10306,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>226.875</v>
+        <v>234.66666666666666</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -10300,10 +10317,10 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>32.410714285714285</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+        <v>33.523809523809526</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
@@ -10313,7 +10330,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>283.59375</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
@@ -10324,10 +10341,10 @@
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>40.513392857142854</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
@@ -10337,7 +10354,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>283.59375</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -10348,10 +10365,10 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>40.513392857142854</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
@@ -10361,7 +10378,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>283.59375</v>
+        <v>293.33333333333331</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -10372,10 +10389,10 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>40.513392857142854</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>41.904761904761905</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="14"/>
@@ -10383,13 +10400,13 @@
       <c r="H30" s="11"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>2.9261016701966115E-20</v>
+        <v>2.3097013106765367E-29</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10397,11 +10414,11 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>1.1363437124929802E-24</v>
+        <v>7.101746561860256E-19</v>
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -10420,9 +10437,9 @@
       <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10433,2344 +10450,2344 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6285451541680936E-3</v>
+        <v>2.5827803041721053E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3300211035429017E-25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3219293749889573E-26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7748687484299614E-3</v>
+        <v>2.7194908043728476E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>1.32155884466574E-23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9488652333268554E-24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9265163803984954E-3</v>
+        <v>2.8608996255719251E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7478582860442362E-22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.7166713510920818E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0834789111246984E-3</v>
+        <v>3.0069938829894488E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0857945720524005E-21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1179268419913459E-21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2457309392008348E-3</v>
+        <v>3.1577472520688738E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>1.004743527208994E-19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6396260349206355E-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4132300292549662E-3</v>
+        <v>3.3131193780425068E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1397559386777092E-18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9238278809735617E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5859159836310549E-3</v>
+        <v>3.4730553193459586E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0774255357812653E-17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8810761502852402E-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7637101638420822E-3</v>
+        <v>3.6374850296097033E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7300328010847857E-17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.576520964048594E-17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9465148683827788E-3</v>
+        <v>3.8063228829455422E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1894568492066082E-16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1561153736356324E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1342127734355864E-3</v>
+        <v>3.9794672472006224E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9006472851770871E-15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.5361594725878038E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3266664428963063E-3</v>
+        <v>4.1568001097705455E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2123983820613835E-14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4212135572515314E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5237179139827393E-3</v>
+        <v>4.3381867604447236E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1407679157503955E-13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3579805638674868E-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7251883644690686E-3</v>
+        <v>4.5234755356009281E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3919108517889815E-13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1527904978907666E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9308778673102707E-3</v>
+        <v>4.7124976278713872E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3524803355762056E-12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2023366058660269E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1405652380838171E-3</v>
+        <v>4.9050669651696469E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5306960023902106E-12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1800267681724287E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3540079802809944E-3</v>
+        <v>5.1009801626959294E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6037944259037853E-11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.5263269155188238E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5709423330279843E-3</v>
+        <v>5.3000165512296195E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2775169693389464E-10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1263198690235707E-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7910834253089667E-3</v>
+        <v>5.5019382846713356E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2623038590995957E-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.078886856761075E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0141255402021213E-3</v>
+        <v>5.7064905294155364E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3430697056016935E-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5163719775916547E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.2397424920269699E-3</v>
+        <v>5.9134017377191136E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0093281507682242E-9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0857569615019903E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4675881186417221E-3</v>
+        <v>6.1223840067841095E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1370204052569236E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.184887087072484E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.6972968904256743E-3</v>
+        <v>6.3331335247959284E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0709702909841095E-8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8974623384882229E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9284846367391089E-3</v>
+        <v>6.545331104655017E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9173452814433973E-8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3726566235968541E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1607493898764567E-3</v>
+        <v>6.7586428056130221E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9524431638342006E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0519937065658843E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.3936723457232742E-3</v>
+        <v>6.9727206424772051E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6141723207800546E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4793762393827734E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6268189395000772E-3</v>
+        <v>7.1872033814835423E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0468403452769762E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4716029084182543E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8597400341325913E-3</v>
+        <v>7.4017174213628894E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2836721474491775E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.8333604087386066E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0919732179355313E-3</v>
+        <v>7.6158777575405859E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7972973930789917E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7020634962197471E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3230442074428528E-3</v>
+        <v>7.8292890268222212E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>9.7177396969177976E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5662282777937561E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5524683503687051E-3</v>
+        <v>8.041546629331443E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9006139601191644E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2144388148471239E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.7797522228481861E-3</v>
+        <v>8.2522379238848358E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5933482683502905E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4108235904589951E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0043953142926823E-3</v>
+        <v>8.4609434924183859E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5745232934029936E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6699457195783161E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2258917924091313E-3</v>
+        <v>8.6672384685253668E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1653085720240702E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8949004858935603E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4437323401837005E-3</v>
+        <v>8.870693924630961E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0028741081663695E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.7020453082552654E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6574060559254504E-3</v>
+        <v>9.0708783118199111E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3411916418400284E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5015293865224718E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8664024068120838E-3</v>
+        <v>9.2673589458544484E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4145203838746887E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5168492574091016E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0070213225784956E-2</v>
+        <v>9.4597035324753675E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>8.5306896673025706E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1015321231851999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0268334741110349E-2</v>
+        <v>9.6474817246738412E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3077028501819457E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.5033302133386827E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0460269627465331E-2</v>
+        <v>9.8302667042595715E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>1.951875553519924E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0040229101294861E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0645529067024463E-2</v>
+        <v>1.0007636779735919E-2</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8386651679796968E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.51032506139136E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0823634808723195E-2</v>
+        <v>1.0179176992228445E-2</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0251384999087153E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2151434233739927E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0994121213659681E-2</v>
+        <v>1.0344480721002832E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5683127876023607E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1696361179985567E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1156537274471849E-2</v>
+        <v>1.0503151279954298E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5197081171862338E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.427428228315441E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1310448596494119E-2</v>
+        <v>1.0654803496355496E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>9.9188010412013267E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0405222339807527E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.145543932855978E-2</v>
+        <v>1.0799065263115559E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2785954467173564E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.0540296453076813E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.159111403147179E-2</v>
+        <v>1.0935579055830341E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6115630109666677E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0500068278327055E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1717099472416682E-2</v>
+        <v>1.106400340599414E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9870834680057781E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.339139142743161E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1833046333942554E-2</v>
+        <v>1.1184014321896203E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3979763925734605E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6715495682467812E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1938630826561054E-2</v>
+        <v>1.1295306648940892E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8335463232557482E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0430050278571765E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2033556194562046E-2</v>
+        <v>1.1397595361407616E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2799021535135094E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4460468360739028E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2117554105244769E-2</v>
+        <v>1.1490616778003941E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7206390053918875E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8700282876600411E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2190385912466347E-2</v>
+        <v>1.1574129693960839E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1378430115111997E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3014704485501131E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2251843786182088E-2</v>
+        <v>1.1647916422869968E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5133323713298257E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.7247358906719222E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2301751700496025E-2</v>
+        <v>1.1711783741966528E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8300107629502549E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1229780928192357E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2339966273647989E-2</v>
+        <v>1.1765563735113525E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0731883881682364E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4792848415813956E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2366377454327459E-2</v>
+        <v>1.1809114528340657E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2317255252984932E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7779038310201506E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2380909049716501E-2</v>
+        <v>1.1842320913428576E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2988737881789989E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0054230610687304E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2383519091715926E-2</v>
+        <v>1.1865094855702623E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2727280293557471E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1517804605151846E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2374200038890981E-2</v>
+        <v>1.1877375882903501E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1562507399141588E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.210996327877427E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2352978812776633E-2</v>
+        <v>1.1879131352730788E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9568829941441718E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1815556706577802E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2319916668297808E-2</v>
+        <v>1.187035659740265E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>4.685803455401915E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0664099890876085E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2275108899177484E-2</v>
+        <v>1.1851074944335731E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3569330284602845E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8726128856798855E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2218684380315483E-2</v>
+        <v>1.1821337612816979E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9858031485158332E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.610644450965911E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2150804950213629E-2</v>
+        <v>1.1781223487308017E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5884090846013086E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2935101765608476E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2071664637589092E-2</v>
+        <v>1.1730838768786294E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1801574651129781E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.9357176618474439E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1981488737348368E-2</v>
+        <v>1.1670316506279848E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>2.774993172682717E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5522374794110245E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1880532742080311E-2</v>
+        <v>1.1599816011487822E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3847597577742102E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1575444261431343E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1769081136160002E-2</v>
+        <v>1.1519522160091325E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0188148136008367E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.7648150199064282E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1647446060428026E-2</v>
+        <v>1.1429644584043136E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6838919516018E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3853306054094654E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1515965856214973E-2</v>
+        <v>1.133041675977476E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3841774873900679E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0281071814109475E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.137500349821215E-2</v>
+        <v>1.1222094997870637E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1215545266129326E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6997469710872716E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1224944926341098E-2</v>
+        <v>1.1104957340327154E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9596015220179369E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4044857601472284E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1066197287341499E-2</v>
+        <v>1.0979302372034294E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0580194281521496E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1443958045644071E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0899187097275798E-2</v>
+        <v>1.0845447953586726E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4838635539795275E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1969708494673875E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0724358336535759E-2</v>
+        <v>1.0703729882945384E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2032146750307555E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2912922049831706E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0542170489229785E-2</v>
+        <v>1.0554500493827602E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1786810979920156E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.7034107914534929E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0353096539028071E-2</v>
+        <v>1.0398127199001309E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>2.372247612193866E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4026328916483039E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0157620933645913E-2</v>
+        <v>1.0234990986895039E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7474145357678017E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3543869650653852E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.9562375301540124E-3</v>
+        <v>1.0065484880109428E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>1.27065600257154E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5229577173141293E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.7494475332199054E-3</v>
+        <v>9.8900123645270736E-3</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>9.1227873602347609E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8735888533640793E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.5377574382091244E-3</v>
+        <v>9.7089857977658931E-3</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>6.4679136948539385E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3739651591336529E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3216769908116039E-3</v>
+        <v>9.522824805707238E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5290367886419353E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.9513525929022196E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.1017171745119349E-3</v>
+        <v>9.3319546757549762E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>3.132698845802248E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.1196668957349126E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.8783882367962069E-3</v>
+        <v>9.1368047553473265E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1407561766306803E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0323749945756951E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6521977644886134E-3</v>
+        <v>8.937806864051193E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4454882665865644E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5146745993861844E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.4236488180435762E-3</v>
+        <v>8.7353937273223214E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>9.6454456024067339E-5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4258146254587068E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.19323813399047E-3</v>
+        <v>8.5299974397160042E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>6.3613676483896179E-5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6548192793826812E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9614544040446985E-3</v>
+        <v>8.3220479649864613E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1472278311160161E-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1158934604266263E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.7287766386683662E-3</v>
+        <v>8.1119716801216404E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6730179380240066E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.4392897361776129E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4956726220934021E-3</v>
+        <v>7.9001899699284034E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7034857996887696E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9038014740346686E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2625974650173059E-3</v>
+        <v>7.6871178783150763E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>1.073550946678849E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.196552071963318E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0299922603548051E-3</v>
+        <v>7.4731628219187191E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>6.6912601930705152E-6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0607808229507109E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7982828465848709E-3</v>
+        <v>7.2587233711980349E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1252164573447176E-6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3141211044903052E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5678786823799616E-3</v>
+        <v>7.0441881035641996E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5158830208604514E-6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.289796214705934E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3391718353501391E-3</v>
+        <v>6.8299345325562337E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5180610647811708E-6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1737735240718136E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1125360868864989E-3</v>
+        <v>6.6163281164894816E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>9.0634237913743163E-7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1950320710057216E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.8883261542530272E-3</v>
+        <v>6.4037213494204546E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3548548767397647E-7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9525195989479388E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6668770302602239E-3</v>
+        <v>6.1924529366833968E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1311409797946212E-7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1809053244496117E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4485034400640064E-3</v>
+        <v>5.9828470566681054E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>1.812187780078856E-7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.0693652075895495E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2334994138751693E-3</v>
+        <v>5.7752127099294712E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0382325823368469E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1892534563493538E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0221379736434604E-3</v>
+        <v>5.5698431561511264E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8887254279417652E-8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4576953610582948E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8146709311008779E-3</v>
+        <v>5.3670154389324921E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>3.306942033327462E-8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4275722229249405E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6113287939151312E-3</v>
+        <v>5.1669899978344829E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8388786122822667E-8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2108729161695817E-8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4123207761201898E-3</v>
+        <v>4.9700103666074939E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>1.01261064359597E-8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6767431496629161E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.217834908459242E-3</v>
+        <v>4.776302956039276E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5225009559095766E-9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6381628023739903E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0280382437985606E-3</v>
+        <v>4.5860769194029415E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9831366770761024E-9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4740211213264186E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8430771523507317E-3</v>
+        <v>4.3995240980590064E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5962243717255942E-9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1581043192908076E-9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6630777010832243E-3</v>
+        <v>4.2168190443722551E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4612944938140682E-10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.472979315249775E-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.488146111384185E-3</v>
+        <v>4.0381191187461949E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>4.443648583990935E-10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4297665416171682E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3183692888115609E-3</v>
+        <v>3.8635646572562142E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3122770011306024E-10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3077642548153498E-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1538154185634763E-3</v>
+        <v>3.6932792060785044E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1922678287079519E-10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.97474269234861E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9945346201763383E-3</v>
+        <v>3.5273698186658164E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>6.0922469287864261E-11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.6863504920521122E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8405596548807294E-3</v>
+        <v>3.3659274114136912E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>3.085219915108075E-11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9309454958368352E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6919066790217481E-3</v>
+        <v>3.209027173391844E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5485824518587362E-11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0024967765996422E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5485760369777389E-3</v>
+        <v>3.0567290255844406E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7047071001194498E-12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1590477392262214E-11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4105530870865573E-3</v>
+        <v>2.9090781249896131E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8000117898686558E-12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6318620350835568E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2778090542084155E-3</v>
+        <v>2.7661054088715022E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8580337819535755E-12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3310566614215562E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.150301902715875E-3</v>
+        <v>2.6278281744363747E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>9.0072951769386208E-13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.674244228210685E-12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0279772239008894E-3</v>
+        <v>2.4942506892162955E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3295129094659668E-13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3182683168505201E-12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9107691320224115E-3</v>
+        <v>2.3653648274878261E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0635677338971971E-13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6358969853380686E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7986011634820399E-3</v>
+        <v>2.2411507281273101E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>9.7535818672486468E-14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9977185949861079E-13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6913871739056292E-3</v>
+        <v>2.1215774694064676E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5719915002728218E-14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8776817430235654E-13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5890322282217624E-3</v>
+        <v>2.0066037563600645E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1255544500499958E-14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8646775594867362E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.491433479159575E-3</v>
+        <v>1.8961786165088942E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>9.8015277612824458E-15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.893855026278289E-14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3984810299347598E-3</v>
+        <v>1.7902420998940536E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4833096992760378E-15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2078453887768484E-14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3100587772498606E-3</v>
+        <v>1.6887259795697988E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0343017760464982E-15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9748821024658936E-14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.226045231099569E-3</v>
+        <v>1.5915544489098056E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>9.157385226995073E-16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.195218254867659E-15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1463143082401353E-3</v>
+        <v>1.4986448123028987E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0897279003435184E-16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2476598762643217E-15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0707360965508702E-3</v>
+        <v>1.4099081660467467E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8122207370907144E-16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9468441099544858E-15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.9917758788192084E-4</v>
+        <v>1.3252500664892816E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9679763513072296E-17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8538646860980405E-16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3150337734319345E-4</v>
+        <v>1.2445711827152285E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4764127590438298E-17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.9955902173160694E-16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6757632734173553E-4</v>
+        <v>1.1677679313269781E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5051739402826132E-17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7893737359990409E-16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0725819501671961E-4</v>
+        <v>1.0947330911227227E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>6.4675442746518394E-18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9527721599957974E-17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5041022205021824E-4</v>
+        <v>1.0253563957284312E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7581280212624805E-18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5079897247099182E-17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9689368614634468E-4</v>
+        <v>9.595251024917161E-4</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>1.167444579895364E-18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5358362973854266E-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4657041376936248E-4</v>
+        <v>8.9712453619332131E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9048886863659144E-19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.6742515639465785E-18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9930325401180598E-4</v>
+        <v>8.3803860637396313E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0455820233810486E-19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8790889099377056E-18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5495651372525114E-4</v>
+        <v>7.8215029730926337E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4688215612149116E-20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2328945210438825E-18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1339635428836758E-4</v>
+        <v>7.2934212989202152E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4807316878634558E-20</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2412907174812014E-19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7449115060863516E-4</v>
+        <v>6.7949659489795287E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4203075569856198E-20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2121514778817593E-19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3811181315523833E-4</v>
+        <v>6.3249655731720462E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7541478034127772E-21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.2699680977904078E-20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0413207400097893E-4</v>
+        <v>5.8822563162858326E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3146671682611413E-21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.85700800286316E-20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7242873801066989E-4</v>
+        <v>5.4656852807576648E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2454245387190984E-22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5935056537650717E-20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.428819004525533E-4</v>
+        <v>5.0741137017422258E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6670554059823772E-22</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.5374590923694784E-21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1537513242828113E-4</v>
+        <v>4.7064198383377502E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4443805472781634E-22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6634092598541632E-21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.897956356164524E-4</v>
+        <v>4.3615015862436891E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>5.6498937355817243E-23</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0776092637570883E-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6603436790527993E-4</v>
+        <v>4.0382788184153864E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1948966459933018E-23</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3301194160102077E-22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4398614155254778E-4</v>
+        <v>3.7356954614329148E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4688295333289535E-24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7281202204485279E-22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2354969555645496E-4</v>
+        <v>3.4527213163174168E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2455501695507056E-24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8502062792555332E-23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.046277439502897E-4</v>
+        <v>3.1883536334102085E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2354600582496545E-24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6971729421676711E-23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8712700174816968E-4</v>
+        <v>2.9416184516812665E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6715833452564651E-25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0548943062700233E-23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7095819026945985E-4</v>
+        <v>2.7115717134578679E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7547441580382059E-25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0984856049342922E-24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5603602355708499E-4</v>
+        <v>2.4973001660663586E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5478220535349487E-26</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5818716369922259E-24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4227917758097438E-4</v>
+        <v>2.2979220622653719E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4273482490126395E-26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.0655644468547555E-25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2961024388348372E-4</v>
+        <v>2.1125876716236982E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9400102921223187E-27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3106912178494202E-25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1795566928003445E-4</v>
+        <v>1.940479615166465E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2713948952019831E-27</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.7458420288494117E-26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0724568317652091E-4</v>
+        <v>1.7808130356867049E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1894194180271831E-27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2890346091399422E-26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.7414214006435673E-5</v>
+        <v>1.6328356161024875E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2969670456196237E-28</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2290235482136415E-26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.8398796226218235E-5</v>
+        <v>1.4958274581402414E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5425227823971538E-28</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5634629638312574E-27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0140469238114742E-5</v>
+        <v>1.3691008334499341E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5025134631500236E-29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6837934625457075E-27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2583669536842099E-5</v>
+        <v>1.2519998190151552E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9505980343002238E-29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1739093626673892E-28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5676117300532026E-5</v>
+        <v>1.1438998284179572E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>6.8717690843456209E-30</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2497061031665797E-28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9368698568664867E-5</v>
+        <v>1.0442070501623739E-4</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4059145231650684E-30</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1470838303976076E-29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3615344070824628E-5</v>
+        <v>9.523578038585547E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>8.3718076294951032E-31</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9322837508180127E-29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8372905690858774E-5</v>
+        <v>8.6781782462877011E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8953564877159087E-31</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0489470328129512E-29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3601031472106725E-5</v>
+        <v>7.9008148562359571E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>9.9527879265234913E-32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.7295894500015555E-30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9262039991380851E-5</v>
+        <v>7.1867096803796121E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4006607843826185E-32</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3180878377515533E-30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5320794852898663E-5</v>
+        <v>6.5313538749829148E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>1.154977418348506E-32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6304083721412036E-31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1744579978860551E-5</v>
+        <v>5.9304988515961693E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8993378242234256E-33</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6169680029699405E-31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.850297630125675E-5</v>
+        <v>5.380146913103359E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3086719953708751E-33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.6131433633669254E-32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5567740390131475E-5</v>
+        <v>4.8765416873734627E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3662493963200084E-34</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9370847685344983E-32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2912685487224438E-5</v>
+        <v>4.4161584255995492E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4482351341960916E-34</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.6457489134907184E-33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0513565350886031E-5</v>
+        <v>3.9956942270139019E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7757027045165876E-35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2667670712681297E-33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8347961258610066E-5</v>
+        <v>3.6120582463556302E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5657334553283245E-35</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6869172358994853E-34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6395172457576219E-5</v>
+        <v>3.2623619352719511E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1038186447931066E-36</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5917575354758368E-34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4636110301332902E-5</v>
+        <v>2.9439093637840368E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6541840786249705E-36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.6885585951189111E-35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3053196262222345E-5</v>
+        <v>2.6541876630674656E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3308666596311045E-37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.896186198372918E-35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1630263964360856E-5</v>
+        <v>2.3908576261069626E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7082491149771871E-37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.5994118816128329E-36</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0352465340906091E-5</v>
+        <v>2.1517444983022686E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4432446342759841E-38</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.1638511070484617E-36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2061809819141421E-6</v>
+        <v>1.9348289858403964E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7247711262588149E-38</v>
+        <v>1.0369418898333538E-36</v>
       </c>
     </row>
   </sheetData>
@@ -12786,18 +12803,18 @@
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12850,7 +12867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -12916,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -12982,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -13048,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -13114,7 +13131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -13180,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -13246,7 +13263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -13312,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -13378,7 +13395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -13444,7 +13461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -13510,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -13576,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -13642,7 +13659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13708,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13774,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13840,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13906,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -13972,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -14038,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -14104,7 +14121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -14170,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -14236,7 +14253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -14302,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -14368,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -14434,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -14500,7 +14517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -14566,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -14632,7 +14649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -14698,7 +14715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -14764,7 +14781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14830,7 +14847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14896,7 +14913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -14962,14 +14979,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
       </c>
       <c r="D34">
         <f>IF(Scrobbles!$B34=D$1,Scrobbles!$D34,0)</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <f>IF(Scrobbles!$B34=E$1,Scrobbles!$D34,0)</f>
@@ -15017,7 +15034,7 @@
       </c>
       <c r="Q34">
         <f>IF(AND(Scrobbles!$D34&gt;=Calc!P$1+1,Scrobbles!$D34&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <f>IF(AND(Scrobbles!$D34&gt;=Calc!Q$1+1,Scrobbles!$D34&lt;=Calc!R$1,ISBLANK(Scrobbles!$D34)=FALSE),1,0)</f>
@@ -15025,10 +15042,10 @@
       </c>
       <c r="T34">
         <f>IF(Scrobbles!D34&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -15094,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -15160,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -15226,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -15292,7 +15309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -15358,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -15424,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -15490,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -15556,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -15622,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -15688,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -15754,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -15820,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -15886,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -15952,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -16018,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -16084,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -16150,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -16216,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -16282,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -16348,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -16414,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -16480,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -16546,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -16612,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -16678,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -16744,7 +16761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -16810,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -16876,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -16942,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -17008,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -17074,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -17140,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -17206,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -17272,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -17338,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -17404,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -17470,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -17536,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -17602,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -17668,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -17734,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -17800,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -17866,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -17932,7 +17949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -17998,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -18064,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -18130,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -18196,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -18262,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -18328,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -18394,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -18460,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -18526,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -18592,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -18658,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -18724,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -18790,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -18856,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -18922,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -18988,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -19054,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -19120,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -19186,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -19252,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -19318,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -19384,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -19450,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -19516,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -19582,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -19648,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -19714,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -19780,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -19846,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -19912,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -19978,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -20044,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -20110,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -20176,7 +20193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -20242,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -20308,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -20374,7 +20391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -20440,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -20506,7 +20523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -20572,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -20638,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -20704,7 +20721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -20770,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -20836,7 +20853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -20902,7 +20919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -20968,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -21034,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -21100,7 +21117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -21166,7 +21183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -21232,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -21298,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -21364,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -21430,7 +21447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -21496,7 +21513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -21562,7 +21579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -21628,7 +21645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -21694,7 +21711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -21760,7 +21777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -21826,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -21892,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -21958,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -22024,7 +22041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -22090,7 +22107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -22156,7 +22173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -22222,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -22288,7 +22305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -22354,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -22420,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -22486,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -22552,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -22618,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -22684,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -22750,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -22816,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -22882,7 +22899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -22948,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -23014,7 +23031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -23080,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -23146,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -23212,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -23278,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -23344,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -23410,7 +23427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -23476,7 +23493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -23542,7 +23559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -23608,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -23674,7 +23691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -23740,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -23806,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -23872,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -23938,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -24004,7 +24021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -24070,7 +24087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -24136,7 +24153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -24202,7 +24219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -24268,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -24334,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -24400,7 +24417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -24466,7 +24483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -24532,7 +24549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -24598,7 +24615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -24664,7 +24681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -24730,7 +24747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -24796,7 +24813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -24862,7 +24879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -24928,7 +24945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -24994,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -25060,7 +25077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -25126,7 +25143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -25192,7 +25209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -25258,7 +25275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -25324,7 +25341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -25390,7 +25407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -25456,7 +25473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -25522,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -25588,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -25654,7 +25671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -25720,7 +25737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -25786,7 +25803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -25852,7 +25869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -25918,7 +25935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -25984,7 +26001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -26050,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -26116,7 +26133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -26182,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -26248,7 +26265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -26314,7 +26331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -26380,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -26446,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -26512,7 +26529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -26578,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -26644,7 +26661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -26710,7 +26727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -26776,7 +26793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -26842,7 +26859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -26908,7 +26925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -26974,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -27040,7 +27057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -27106,7 +27123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -27172,7 +27189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -27238,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -27304,7 +27321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -27370,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -27436,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -27502,7 +27519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -27568,7 +27585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -27634,7 +27651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -27700,7 +27717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -27766,7 +27783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -27832,7 +27849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -27898,7 +27915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -27964,7 +27981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -28030,7 +28047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -28096,7 +28113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -28162,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -28228,7 +28245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -28294,7 +28311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -28360,7 +28377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -28426,7 +28443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -28492,7 +28509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -28558,7 +28575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -28624,7 +28641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -28690,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -28756,7 +28773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -28822,7 +28839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -28888,7 +28905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -28954,7 +28971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -29020,7 +29037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -29086,7 +29103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -29152,7 +29169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -29218,7 +29235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -29284,7 +29301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -29350,7 +29367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -29416,7 +29433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -29482,7 +29499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -29548,7 +29565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -29614,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -29680,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -29746,7 +29763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -29812,7 +29829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -29878,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -29944,7 +29961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -30010,7 +30027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -30076,7 +30093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -30142,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -30208,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -30274,7 +30291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -30340,7 +30357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -30406,7 +30423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -30472,7 +30489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -30538,7 +30555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -30604,7 +30621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -30670,7 +30687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -30736,7 +30753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -30802,7 +30819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -30868,7 +30885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -30934,7 +30951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -31000,7 +31017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -31066,7 +31083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -31132,7 +31149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -31198,7 +31215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -31264,7 +31281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -31330,7 +31347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -31396,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -31462,7 +31479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -31528,7 +31545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -31594,7 +31611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -31660,7 +31677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -31726,7 +31743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -31792,7 +31809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -31858,7 +31875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -31924,7 +31941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -31990,7 +32007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -32056,7 +32073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -32122,7 +32139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -32188,7 +32205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -32254,7 +32271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -32320,7 +32337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -32386,7 +32403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -32452,7 +32469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -32518,7 +32535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -32584,7 +32601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -32650,7 +32667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -32716,7 +32733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -32782,7 +32799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -32848,7 +32865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -32914,7 +32931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -32980,7 +32997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -33046,7 +33063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -33112,7 +33129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -33178,7 +33195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -33244,7 +33261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -33310,7 +33327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -33376,7 +33393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -33442,7 +33459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -33508,7 +33525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -33574,7 +33591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -33640,7 +33657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -33706,7 +33723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -33772,7 +33789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -33838,7 +33855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -33904,7 +33921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -33970,7 +33987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -34036,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -34102,7 +34119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -34168,7 +34185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -34234,7 +34251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -34300,7 +34317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -34366,7 +34383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -34432,7 +34449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -34498,7 +34515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -34564,7 +34581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -34630,7 +34647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -34696,7 +34713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -34762,7 +34779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -34828,7 +34845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -34894,7 +34911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -34960,7 +34977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -35026,7 +35043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -35092,7 +35109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -35158,7 +35175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -35224,7 +35241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -35290,7 +35307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -35356,7 +35373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -35422,7 +35439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -35488,7 +35505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -35554,7 +35571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -35620,7 +35637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -35686,7 +35703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -35752,7 +35769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -35818,7 +35835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -35884,7 +35901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -35950,7 +35967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -36016,7 +36033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -36082,7 +36099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -36148,7 +36165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -36214,7 +36231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -36280,7 +36297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -36346,7 +36363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -36412,7 +36429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -36478,7 +36495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -36544,7 +36561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -36610,7 +36627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -36676,7 +36693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -36742,7 +36759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -36808,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -36874,7 +36891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -36940,7 +36957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -37006,7 +37023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -37072,7 +37089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -37138,7 +37155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -37204,7 +37221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -37270,7 +37287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -37336,7 +37353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -37402,7 +37419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -37468,7 +37485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -37534,7 +37551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -37600,7 +37617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -37666,7 +37683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -37732,7 +37749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -37798,7 +37815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -37864,7 +37881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -37930,7 +37947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -37996,7 +38013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -38062,7 +38079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -38128,7 +38145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -38194,7 +38211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -38260,7 +38277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -38326,7 +38343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -38392,7 +38409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -38458,7 +38475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -38524,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -38590,7 +38607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -38656,7 +38673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -38722,7 +38739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -38788,7 +38805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -38854,7 +38871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -38920,7 +38937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -38986,7 +39003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -39052,7 +39069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -39118,7 +39135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -39184,7 +39201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -39250,7 +39267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -39316,7 +39333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -39382,7 +39399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -39448,7 +39465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -39514,7 +39531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D129D50-DADB-4EEC-B507-443583843DAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A5143-1745-4FC7-9BA9-BD07E227CF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -661,7 +661,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7289751276999734</c:v>
+                  <c:v>2.7490056095273738</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.35729544160177</c:v>
+                  <c:v>5.5172815974949891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4520674069076431</c:v>
+                  <c:v>7.7690645789321602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3459054648138888</c:v>
+                  <c:v>7.6765379250875956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.131554996395673</c:v>
+                  <c:v>5.3224681260491309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5399844452467337</c:v>
+                  <c:v>2.5890990370444786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89060208638500837</c:v>
+                  <c:v>0.88338884499456682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2211331588941933</c:v>
+                  <c:v>0.21132570227330144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.2401254338108119E-8</c:v>
+                  <c:v>4.8495096452302653E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13752112156218133</c:v>
+                  <c:v>0.13384184871480589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.072971492424205</c:v>
+                  <c:v>18.352030470749956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.635527205051899</c:v>
+                  <c:v>15.345213321825549</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15396110877233121</c:v>
+                  <c:v>0.16889235516074758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9019737253358506E-5</c:v>
+                  <c:v>2.1954991961689981E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0878367680500174E-11</c:v>
+                  <c:v>6.1886680026047247E-11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2206593580291682E-18</c:v>
+                  <c:v>6.6947359730063813E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,6 +1412,9 @@
                 <c:pt idx="32">
                   <c:v>58.666666666666664</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>58.823529411764703</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1985,6 +1988,9 @@
                 <c:pt idx="32">
                   <c:v>1936</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>2000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2670,424 +2676,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.5827803041721053E-3</c:v>
+                  <c:v>2.484157823388533E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7194908043728476E-3</c:v>
+                  <c:v>2.6200114479744754E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8608996255719251E-3</c:v>
+                  <c:v>2.7607731069645793E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0069938829894488E-3</c:v>
+                  <c:v>2.9064426942499518E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1577472520688738E-3</c:v>
+                  <c:v>3.0570063090369281E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3131193780425068E-3</c:v>
+                  <c:v>3.212435580263922E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4730553193459586E-3</c:v>
+                  <c:v>3.3726870234161502E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6374850296097033E-3</c:v>
+                  <c:v>3.537701435025715E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8063228829455422E-3</c:v>
+                  <c:v>3.7074033301690893E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9794672472006224E-3</c:v>
+                  <c:v>3.8817004282601097E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1568001097705455E-3</c:v>
+                  <c:v>4.0604831923823931E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3381867604447236E-3</c:v>
+                  <c:v>4.2436244273090264E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5234755356009281E-3</c:v>
+                  <c:v>4.4309789412182929E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7124976278713872E-3</c:v>
+                  <c:v>4.6223832759312135E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9050669651696469E-3</c:v>
+                  <c:v>4.8176555102692042E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1009801626959294E-3</c:v>
+                  <c:v>5.0165951408582326E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3000165512296195E-3</c:v>
+                  <c:v>5.2189830443895536E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5019382846713356E-3</c:v>
+                  <c:v>5.4245815249874237E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7064905294155364E-3</c:v>
+                  <c:v>5.6331344499320323E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9134017377191136E-3</c:v>
+                  <c:v>5.84436747654298E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1223840067841095E-3</c:v>
+                  <c:v>6.0579883725470473E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.3331335247959284E-3</c:v>
+                  <c:v>6.273687431736074E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.545331104655017E-3</c:v>
+                  <c:v>6.491137986169627E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.7586428056130221E-3</c:v>
+                  <c:v>6.7099970155959417E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9727206424772051E-3</c:v>
+                  <c:v>6.9299058541572138E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.1872033814835423E-3</c:v>
+                  <c:v>7.1504909938158393E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.4017174213628894E-3</c:v>
+                  <c:v>7.3713649832910719E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.6158777575405859E-3</c:v>
+                  <c:v>7.5921274206355686E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8292890268222212E-3</c:v>
+                  <c:v>7.8123660369136321E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.041546629331443E-3</c:v>
+                  <c:v>8.0316578677728252E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2522379238848358E-3</c:v>
+                  <c:v>8.2495705090334971E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.4609434924183859E-3</c:v>
+                  <c:v>8.4656634517625111E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.6672384685253668E-3</c:v>
+                  <c:v>8.6794894916534891E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.870693924630961E-3</c:v>
+                  <c:v>8.890596206912316E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0708783118199111E-3</c:v>
+                  <c:v>9.0985274982488921E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.2673589458544484E-3</c:v>
+                  <c:v>9.3028251840101307E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.4597035324753675E-3</c:v>
+                  <c:v>9.5030306429603039E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6474817246738412E-3</c:v>
+                  <c:v>9.69868649672837E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.8302667042595715E-3</c:v>
+                  <c:v>9.8893383235030725E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0007636779735919E-2</c:v>
+                  <c:v>1.007453639416989E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0179176992228445E-2</c:v>
+                  <c:v>1.0253837421753882E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0344480721002832E-2</c:v>
+                  <c:v>1.0426806314762938E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0503151279954298E-2</c:v>
+                  <c:v>1.0593017924820387E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0654803496355496E-2</c:v>
+                  <c:v>1.0752058778837283E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0799065263115559E-2</c:v>
+                  <c:v>1.090352878590535E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0935579055830341E-2</c:v>
+                  <c:v>1.1047042909093176E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.106400340599414E-2</c:v>
+                  <c:v>1.1182232792402271E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1184014321896203E-2</c:v>
+                  <c:v>1.1308748333286069E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1295306648940892E-2</c:v>
+                  <c:v>1.1426259191354234E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1397595361407616E-2</c:v>
+                  <c:v>1.1534456224175397E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1490616778003941E-2</c:v>
+                  <c:v>1.1633052841452716E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1574129693960839E-2</c:v>
+                  <c:v>1.1721786269275751E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1647916422869968E-2</c:v>
+                  <c:v>1.1800418716646706E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1711783741966528E-2</c:v>
+                  <c:v>1.1868738437035474E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1765563735113525E-2</c:v>
+                  <c:v>1.192656067833203E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1809114528340657E-2</c:v>
+                  <c:v>1.1973728515232202E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.1842320913428576E-2</c:v>
+                  <c:v>1.2010113558808395E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1865094855702623E-2</c:v>
+                  <c:v>1.2035616538774847E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1877375882903501E-2</c:v>
+                  <c:v>1.2050167754751696E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1879131352730788E-2</c:v>
+                  <c:v>1.2053727393656805E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.187035659740265E-2</c:v>
+                  <c:v>1.2046285711202562E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1851074944335731E-2</c:v>
+                  <c:v>1.2027863076339639E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1821337612816979E-2</c:v>
+                  <c:v>1.1998509878364037E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1781223487308017E-2</c:v>
+                  <c:v>1.1958306297280296E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1730838768786294E-2</c:v>
+                  <c:v>1.190736193888558E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1670316506279848E-2</c:v>
+                  <c:v>1.1845815336899006E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1599816011487822E-2</c:v>
+                  <c:v>1.1773833325301426E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1519522160091325E-2</c:v>
+                  <c:v>1.1691610284865605E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1429644584043136E-2</c:v>
+                  <c:v>1.1599367268639226E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.133041675977476E-2</c:v>
+                  <c:v>1.1497351011886878E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1222094997870637E-2</c:v>
+                  <c:v>1.1385832832696336E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1104957340327154E-2</c:v>
+                  <c:v>1.1265107430103631E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.0979302372034294E-2</c:v>
+                  <c:v>1.1135491587185726E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0845447953586726E-2</c:v>
+                  <c:v>1.0997322787104495E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0703729882945384E-2</c:v>
+                  <c:v>1.0850957750557586E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0554500493827602E-2</c:v>
+                  <c:v>1.0696770903497221E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0398127199001309E-2</c:v>
+                  <c:v>1.0535152784314472E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0234990986895039E-2</c:v>
+                  <c:v>1.0366508399952352E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0065484880109428E-2</c:v>
+                  <c:v>1.0191255540604608E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.8900123645270736E-3</c:v>
+                  <c:v>1.0009823062778044E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.7089857977658931E-3</c:v>
+                  <c:v>9.8226491505445102E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.522824805707238E-3</c:v>
+                  <c:v>9.6301795647851934E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.3319546757549762E-3</c:v>
+                  <c:v>9.432865890135712E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.1368047553473265E-3</c:v>
+                  <c:v>9.2311637891780429E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.937806864051193E-3</c:v>
+                  <c:v>9.0255312731967671E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.7353937273223214E-3</c:v>
+                  <c:v>8.8164269985258371E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5299974397160042E-3</c:v>
+                  <c:v>8.6043085971615196E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3220479649864613E-3</c:v>
+                  <c:v>8.3896310499116198E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1119716801216404E-3</c:v>
+                  <c:v>8.1728451098947632E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.9001899699284034E-3</c:v>
+                  <c:v>7.9543957837016153E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.6871178783150763E-3</c:v>
+                  <c:v>7.7347208769871743E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.4731628219187191E-3</c:v>
+                  <c:v>7.5142496106855505E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.2587233711980349E-3</c:v>
+                  <c:v>7.2934013134310603E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.0441881035641996E-3</c:v>
+                  <c:v>7.0725841951380297E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.8299345325562337E-3</c:v>
+                  <c:v>6.8521942060420686E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.6163281164894816E-3</c:v>
+                  <c:v>6.6326139848435313E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.4037213494204546E-3</c:v>
+                  <c:v>6.4142118989249921E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.1924529366833968E-3</c:v>
+                  <c:v>6.1973411789447656E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.9828470566681054E-3</c:v>
+                  <c:v>5.9823391494428875E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.7752127099294712E-3</c:v>
+                  <c:v>5.7695265564399849E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.5698431561511264E-3</c:v>
+                  <c:v>5.5592069923679922E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.3670154389324921E-3</c:v>
+                  <c:v>5.351666418049553E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.1669899978344829E-3</c:v>
+                  <c:v>5.1471727808442566E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.9700103666074939E-3</c:v>
+                  <c:v>4.9459757275089394E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.776302956039276E-3</c:v>
+                  <c:v>4.7483064097794446E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.5860769194029415E-3</c:v>
+                  <c:v>4.5543773801758848E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.3995240980590064E-3</c:v>
+                  <c:v>4.3643825750651682E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.2168190443722551E-3</c:v>
+                  <c:v>4.1784973815859085E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.0381191187461949E-3</c:v>
+                  <c:v>3.9968787846534513E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.8635646572562142E-3</c:v>
+                  <c:v>3.8196655899182751E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.6932792060785044E-3</c:v>
+                  <c:v>3.6469787182503459E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.5273698186658164E-3</c:v>
+                  <c:v>3.478921567065738E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.3659274114136912E-3</c:v>
+                  <c:v>3.315580433600137E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.209027173391844E-3</c:v>
+                  <c:v>3.1570249950663419E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0567290255844406E-3</c:v>
+                  <c:v>3.0033088405092057E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.9090781249896131E-3</c:v>
+                  <c:v>2.854470049090225E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.7661054088715022E-3</c:v>
+                  <c:v>2.7105318094942741E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.6278281744363747E-3</c:v>
+                  <c:v>2.5715030751507968E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4942506892162955E-3</c:v>
+                  <c:v>2.437379249999443E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.3653648274878261E-3</c:v>
+                  <c:v>2.3081428996034122E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.2411507281273101E-3</c:v>
+                  <c:v>2.1837644825202476E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.1215774694064676E-3</c:v>
+                  <c:v>2.0642030969770767E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.0066037563600645E-3</c:v>
+                  <c:v>1.9494072380625161E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.8961786165088942E-3</c:v>
+                  <c:v>1.8393155608379531E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.7902420998940536E-3</c:v>
+                  <c:v>1.7338576449837473E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.6887259795697988E-3</c:v>
+                  <c:v>1.6329547568281768E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5915544489098056E-3</c:v>
+                  <c:v>1.5365206048557943E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.4986448123028987E-3</c:v>
+                  <c:v>1.444462085054273E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.4099081660467467E-3</c:v>
+                  <c:v>1.3566800127320061E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.3252500664892816E-3</c:v>
+                  <c:v>1.2730698377198502E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.2445711827152285E-3</c:v>
+                  <c:v>1.1935223401568448E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.1677679313269781E-3</c:v>
+                  <c:v>1.1179243043486799E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0947330911227227E-3</c:v>
+                  <c:v>1.0461591684770564E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.0253563957284312E-3</c:v>
+                  <c:v>9.7810764822509337E-4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9.595251024917161E-4</c:v>
+                  <c:v>9.1364833266690062E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.9712453619332131E-4</c:v>
+                  <c:v>8.5265825104599037E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8.3803860637396313E-4</c:v>
+                  <c:v>7.9501340933583369E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.8215029730926337E-4</c:v>
+                  <c:v>7.4058929573475444E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.2934212989202152E-4</c:v>
+                  <c:v>6.8926135449524863E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.7949659489795287E-4</c:v>
+                  <c:v>6.4090542772332853E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,424 +3781,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>3.3219293749889573E-26</c:v>
+                  <c:v>2.8396562499021538E-26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9488652333268554E-24</c:v>
+                  <c:v>1.6703860293542077E-24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7166713510920818E-23</c:v>
+                  <c:v>4.9129000863358795E-23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1179268419913459E-21</c:v>
+                  <c:v>9.6331374241880416E-22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6396260349206355E-20</c:v>
+                  <c:v>1.416637856498246E-20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9238278809735617E-19</c:v>
+                  <c:v>1.6666327723508791E-19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8810761502852402E-18</c:v>
+                  <c:v>1.6339536983832082E-18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.576520964048594E-17</c:v>
+                  <c:v>1.3730703347758051E-17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1561153736356324E-16</c:v>
+                  <c:v>1.009610540276324E-16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5361594725878038E-16</c:v>
+                  <c:v>6.5987617011524684E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4212135572515314E-15</c:v>
+                  <c:v>3.8816245300896897E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3579805638674868E-14</c:v>
+                  <c:v>2.0757350428287128E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1527904978907666E-13</c:v>
+                  <c:v>1.0175171778572074E-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2023366058660269E-13</c:v>
+                  <c:v>4.6041501260507296E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1800267681724287E-12</c:v>
+                  <c:v>1.9345168596851782E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5263269155188238E-12</c:v>
+                  <c:v>7.5863406262163737E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1263198690235707E-11</c:v>
+                  <c:v>2.7890958184619123E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.078886856761075E-10</c:v>
+                  <c:v>9.6508505829131823E-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5163719775916547E-10</c:v>
+                  <c:v>3.1538727395141136E-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0857569615019903E-9</c:v>
+                  <c:v>9.7643118870405762E-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.184887087072484E-9</c:v>
+                  <c:v>2.8718564373648651E-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8974623384882229E-9</c:v>
+                  <c:v>8.0444157909380074E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3726566235968541E-8</c:v>
+                  <c:v>2.1509133130850375E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0519937065658843E-8</c:v>
+                  <c:v>5.5010570667136434E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4793762393827734E-7</c:v>
+                  <c:v>1.348298300665105E-7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4716029084182543E-7</c:v>
+                  <c:v>3.172466589800246E-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8333604087386066E-7</c:v>
+                  <c:v>7.1775262212675553E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7020634962197471E-6</c:v>
+                  <c:v>1.5637312028905347E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5662282777937561E-6</c:v>
+                  <c:v>3.2851495859044714E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2144388148471239E-6</c:v>
+                  <c:v>6.6635894237413278E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4108235904589951E-5</c:v>
+                  <c:v>1.3065861615179133E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.6699457195783161E-5</c:v>
+                  <c:v>2.4792906290662423E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8949004858935603E-5</c:v>
+                  <c:v>4.5575195387247048E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7020453082552654E-5</c:v>
+                  <c:v>8.1239207463898599E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5015293865224718E-4</c:v>
+                  <c:v>1.4055226204826688E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.5168492574091016E-4</c:v>
+                  <c:v>2.3622228915675072E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.1015321231851999E-4</c:v>
+                  <c:v>3.8598413260907343E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5033302133386827E-4</c:v>
+                  <c:v>6.1364726964876408E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0040229101294861E-3</c:v>
+                  <c:v>9.4991837406929172E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.51032506139136E-3</c:v>
+                  <c:v>1.4327577286113032E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2151434233739927E-3</c:v>
+                  <c:v>2.1069966597224983E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.1696361179985567E-3</c:v>
+                  <c:v>3.0229507313091855E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.427428228315441E-3</c:v>
+                  <c:v>4.233824553654314E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.0405222339807527E-3</c:v>
+                  <c:v>5.7918256547938671E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.0540296453076813E-3</c:v>
+                  <c:v>7.7430824261949987E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0500068278327055E-2</c:v>
+                  <c:v>1.0121676374111127E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.339139142743161E-2</c:v>
+                  <c:v>1.2943320171497586E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6715495682467812E-2</c:v>
+                  <c:v>1.6199399463701622E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0430050278571765E-2</c:v>
+                  <c:v>1.9852205225124573E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.4460468360739028E-2</c:v>
+                  <c:v>2.3832179141806197E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8700282876600411E-2</c:v>
+                  <c:v>2.8037857813889608E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3014704485501131E-2</c:v>
+                  <c:v>3.2338936348200231E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.7247358906719222E-2</c:v>
+                  <c:v>3.658250718122201E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1229780928192357E-2</c:v>
+                  <c:v>4.0602116738315194E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4792848415813956E-2</c:v>
+                  <c:v>4.4228885335855332E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.7779038310201506E-2</c:v>
+                  <c:v>4.7303620680059187E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.0054230610687304E-2</c:v>
+                  <c:v>4.9688677184936123E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.1517804605151846E-2</c:v>
+                  <c:v>5.1278304628417037E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.210996327877427E-2</c:v>
+                  <c:v>5.2006394146467579E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1815556706577802E-2</c:v>
+                  <c:v>5.1850841621602771E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0664099890876085E-2</c:v>
+                  <c:v>5.0834158452551736E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.8726128856798855E-2</c:v>
+                  <c:v>4.9020403522229243E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.610644450965911E-2</c:v>
+                  <c:v>4.6508921747845579E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2935101765608476E-2</c:v>
+                  <c:v>4.3425697243553336E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.9357176618474439E-2</c:v>
+                  <c:v>3.9913324672383552E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.5522374794110245E-2</c:v>
+                  <c:v>3.6120655812111803E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.1575444261431343E-2</c:v>
+                  <c:v>3.2193097871757399E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.7648150199064282E-2</c:v>
+                  <c:v>2.8264352828584225E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.3853306054094654E-2</c:v>
+                  <c:v>2.4450132204657596E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0281071814109475E-2</c:v>
+                  <c:v>2.0844102476263952E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6997469710872716E-2</c:v>
+                  <c:v>1.7516052501062133E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4044857601472284E-2</c:v>
+                  <c:v>1.4512056753158335E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1443958045644071E-2</c:v>
+                  <c:v>1.1856255517286241E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.1969708494673875E-3</c:v>
+                  <c:v>9.5537917141710182E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.2912922049831706E-3</c:v>
+                  <c:v>7.5944290255731441E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.7034107914534929E-3</c:v>
+                  <c:v>5.9564149220181451E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.4026328916483039E-3</c:v>
+                  <c:v>4.610228267815911E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.3543869650653852E-3</c:v>
+                  <c:v>3.5219467286599711E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.5229577173141293E-3</c:v>
+                  <c:v>2.6560684228204984E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.8735888533640793E-3</c:v>
+                  <c:v>1.9777128986005173E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3739651591336529E-3</c:v>
+                  <c:v>1.4542006607356718E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9513525929022196E-4</c:v>
+                  <c:v>1.0560643868813911E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.1196668957349126E-4</c:v>
+                  <c:v>7.575784697857863E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.0323749945756951E-4</c:v>
+                  <c:v>5.3690890842366464E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.5146745993861844E-4</c:v>
+                  <c:v>3.7598663054878428E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4258146254587068E-4</c:v>
+                  <c:v>2.6019836024137314E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.6548192793826812E-4</c:v>
+                  <c:v>1.7797425461106182E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1158934604266263E-4</c:v>
+                  <c:v>1.2033418161667477E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.4392897361776129E-5</c:v>
+                  <c:v>8.0437287176922083E-5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.9038014740346686E-5</c:v>
+                  <c:v>5.316410256240675E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.196552071963318E-5</c:v>
+                  <c:v>3.4747779452553666E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0607808229507109E-5</c:v>
+                  <c:v>2.2461395896931751E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3141211044903052E-5</c:v>
+                  <c:v>1.4361506327961524E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.289796214705934E-6</c:v>
+                  <c:v>9.0838117191406956E-6</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.1737735240718136E-6</c:v>
+                  <c:v>5.6844879343809361E-6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.1950320710057216E-6</c:v>
+                  <c:v>3.5198067705145513E-6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.9525195989479388E-6</c:v>
+                  <c:v>2.1567443446780151E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.1809053244496117E-6</c:v>
+                  <c:v>1.3079104576579916E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.0693652075895495E-7</c:v>
+                  <c:v>7.8506029871427333E-7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.1892534563493538E-7</c:v>
+                  <c:v>4.6646482395381858E-7</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.4576953610582948E-7</c:v>
+                  <c:v>2.7439107291400973E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.4275722229249405E-7</c:v>
+                  <c:v>1.5980842918696073E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.2108729161695817E-8</c:v>
+                  <c:v>9.2161723867912603E-8</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.6767431496629161E-8</c:v>
+                  <c:v>5.263376577265118E-8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.6381628023739903E-8</c:v>
+                  <c:v>2.9770229509418292E-8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4740211213264186E-8</c:v>
+                  <c:v>1.6677999725164284E-8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.1581043192908076E-9</c:v>
+                  <c:v>9.2552717675718017E-9</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.472979315249775E-9</c:v>
+                  <c:v>5.0881098227441656E-9</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.4297665416171682E-9</c:v>
+                  <c:v>2.7713016463748432E-9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.3077642548153498E-9</c:v>
+                  <c:v>1.4955756321504842E-9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.97474269234861E-10</c:v>
+                  <c:v>7.9977306532110606E-10</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.6863504920521122E-10</c:v>
+                  <c:v>4.2383310297886663E-10</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.9309454958368352E-10</c:v>
+                  <c:v>2.2260141963175455E-10</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.0024967765996422E-10</c:v>
+                  <c:v>1.1587788632574511E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.1590477392262214E-11</c:v>
+                  <c:v>5.9792511003995906E-11</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6318620350835568E-11</c:v>
+                  <c:v>3.0584404605624675E-11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.3310566614215562E-11</c:v>
+                  <c:v>1.5509332964312672E-11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.674244228210685E-12</c:v>
+                  <c:v>7.797553023787145E-12</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.3182683168505201E-12</c:v>
+                  <c:v>3.8871151663943717E-12</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.6358969853380686E-12</c:v>
+                  <c:v>1.921460784179135E-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.9977185949861079E-13</c:v>
+                  <c:v>9.4189254126428752E-13</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.8776817430235654E-13</c:v>
+                  <c:v>4.5789622813042942E-13</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.8646775594867362E-13</c:v>
+                  <c:v>2.2077928068004725E-13</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.893855026278289E-14</c:v>
+                  <c:v>1.0558550008610757E-13</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.2078453887768484E-14</c:v>
+                  <c:v>5.0087998143314694E-14</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.9748821024658936E-14</c:v>
+                  <c:v>2.3570822655677842E-14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.195218254867659E-15</c:v>
+                  <c:v>1.1004118886871156E-14</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.2476598762643217E-15</c:v>
+                  <c:v>5.0968591416724892E-15</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.9468441099544858E-15</c:v>
+                  <c:v>2.3423065908421581E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.8538646860980405E-16</c:v>
+                  <c:v>1.0680832607579447E-15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.9955902173160694E-16</c:v>
+                  <c:v>4.8329559310314233E-16</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.7893737359990409E-16</c:v>
+                  <c:v>2.170164315685354E-16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.9527721599957974E-17</c:v>
+                  <c:v>9.670963973642672E-17</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.5079897247099182E-17</c:v>
+                  <c:v>4.2772949905539923E-17</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.5358362973854266E-17</c:v>
+                  <c:v>1.8776536394003749E-17</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.6742515639465785E-18</c:v>
+                  <c:v>8.1814973394351616E-18</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.8790889099377056E-18</c:v>
+                  <c:v>3.5387099219009531E-18</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.2328945210438825E-18</c:v>
+                  <c:v>1.5194117311726162E-18</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.2412907174812014E-19</c:v>
+                  <c:v>6.4766058447255564E-19</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.2121514778817593E-19</c:v>
+                  <c:v>2.740840391335427E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,7 +4579,7 @@
                   <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.25</c:v>
+                  <c:v>57.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>39</c:v>
@@ -8597,27 +8603,27 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8665,7 +8671,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8729,18 +8735,18 @@
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.7289751276999734</v>
+        <v>2.7490056095273738</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>5.2401254338108119E-8</v>
+        <v>4.8495096452302653E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8770,21 +8776,21 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.35729544160177</v>
+        <v>5.5172815974949891</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>0.13752112156218133</v>
+        <v>0.13384184871480589</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8814,21 +8820,21 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>7.4520674069076431</v>
+        <v>7.7690645789321602</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>18.072971492424205</v>
+        <v>18.352030470749956</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8854,20 +8860,20 @@
       </c>
       <c r="I7" s="27">
         <f>SUM(Calc!N2:N406)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>7.3459054648138888</v>
+        <v>7.6765379250875956</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>14.635527205051899</v>
+        <v>15.345213321825549</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8897,21 +8903,21 @@
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>5.131554996395673</v>
+        <v>5.3224681260491309</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>0.15396110877233121</v>
+        <v>0.16889235516074758</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>33.581801228304798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>33.096534906805125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8941,21 +8947,21 @@
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>2.5399844452467337</v>
+        <v>2.5890990370444786</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>1.9019737253358506E-5</v>
+        <v>2.1954991961689981E-5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>58.666666666666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>58.823529411764703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8985,21 +8991,21 @@
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>0.89060208638500837</v>
+        <v>0.88338884499456682</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>5.0878367680500174E-11</v>
+        <v>6.1886680026047247E-11</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9029,21 +9035,21 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.2211331588941933</v>
+        <v>0.21132570227330144</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>5.2206593580291682E-18</v>
+        <v>6.6947359730063813E-18</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.96969696969696972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9069,7 +9075,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9095,18 +9101,18 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>31.446384969050687</v>
+        <v>32.506845719130297</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>32.999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>34.000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9135,14 +9141,14 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>5.9619844866787487E-2</v>
+        <v>8.6464911918324477E-2</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9168,10 +9174,10 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>21413.333333333332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21470.588235294115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9193,7 +9199,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9215,7 +9221,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9237,7 +9243,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9287,11 +9293,11 @@
         <v>50</v>
       </c>
       <c r="Z20">
-        <f>SLOPE(F2:F32,A2:A32)</f>
-        <v>54.345564516129031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <f>SLOPE(F2:F35,A2:A35)</f>
+        <v>57.554927425515672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9316,11 +9322,11 @@
         <v>51</v>
       </c>
       <c r="Z21">
-        <f>INTERCEPT(F2:F33,A2:A33)</f>
-        <v>-111.66129032258073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <f>INTERCEPT(F2:F35,A2:A35)</f>
+        <v>-137.005347593583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9342,7 +9348,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9386,7 +9392,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9455,7 +9461,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9565,7 +9571,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9609,7 +9615,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9619,8 +9625,19 @@
       <c r="C35" s="1">
         <v>43572</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>64</v>
+      </c>
+      <c r="E35" s="3">
+        <f>AVERAGE(D$2:D35)</f>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="F35">
+        <f>SUM($D$2:D35)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9631,7 +9648,7 @@
         <v>43573</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9642,7 +9659,7 @@
         <v>43574</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9653,7 +9670,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9664,7 +9681,7 @@
         <v>43576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9675,7 +9692,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9686,7 +9703,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9697,7 +9714,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9705,7 +9722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9713,7 +9730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9721,7 +9738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9729,7 +9746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9737,7 +9754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9745,7 +9762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9753,7 +9770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9761,7 +9778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9769,7 +9786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9777,7 +9794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9785,7 +9802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9793,7 +9810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9801,7 +9818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9809,7 +9826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9817,7 +9834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9825,7 +9842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9833,7 +9850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9841,7 +9858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9849,7 +9866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9857,7 +9874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9865,7 +9882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9889,7 +9906,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9903,14 +9920,14 @@
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>11</v>
       </c>
@@ -9921,10 +9938,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -9932,10 +9949,10 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -9955,7 +9972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
@@ -9973,14 +9990,14 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>13.533333333333339</v>
+        <v>13.3764705882353</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.2306818181818182</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.2274</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -9998,39 +10015,39 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>30.533333333333339</v>
+        <v>30.3764705882353</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.5204545454545455</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.5164000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>56.25</v>
+        <v>57.8</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4166666666666643</v>
+        <v>-1.0235294117647058</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95880681818181823</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -10048,14 +10065,14 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.666666666666664</v>
+        <v>-19.823529411764703</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66477272727272729</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
@@ -10073,14 +10090,14 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.466666666666661</v>
+        <v>-15.6235294117647</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73636363636363644</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -10098,14 +10115,14 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8666666666666671</v>
+        <v>-4.0235294117647058</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93409090909090908</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.93159999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -10123,14 +10140,14 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0666666666666629</v>
+        <v>-7.2235294117647015</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87954545454545463</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.87720000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10138,26 +10155,26 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>1936</v>
+        <v>2000</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>58.666666666666664</v>
+        <v>58.823529411764703</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10165,26 +10182,26 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>90.278706780498268</v>
+        <v>87.799632745268823</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>16.077373503638913</v>
+        <v>16.061920997267094</v>
       </c>
       <c r="G15" s="16">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>16.077373503638903</v>
+        <v>16.061920997267077</v>
       </c>
       <c r="H15" s="17"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -10196,7 +10213,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
@@ -10204,7 +10221,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
@@ -10224,7 +10241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10251,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>293.33333333333331</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10245,10 +10262,10 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
@@ -10258,7 +10275,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>293.33333333333331</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
@@ -10269,34 +10286,34 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>234.66666666666666</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>56.25</v>
+        <v>57.8</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>33.523809523809526</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
@@ -10306,7 +10323,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>234.66666666666666</v>
+        <v>235.29411764705881</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -10317,10 +10334,10 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>33.523809523809526</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+        <v>33.613445378151262</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
@@ -10330,7 +10347,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>293.33333333333331</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
@@ -10341,10 +10358,10 @@
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
@@ -10354,7 +10371,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>293.33333333333331</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -10365,10 +10382,10 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
@@ -10378,7 +10395,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>293.33333333333331</v>
+        <v>294.11764705882354</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -10389,10 +10406,10 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>41.904761904761905</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.016806722689076</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="14"/>
@@ -10400,13 +10417,13 @@
       <c r="H30" s="11"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>2.3097013106765367E-29</v>
+        <v>3.3133328743217938E-29</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10414,11 +10431,11 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>7.101746561860256E-19</v>
+        <v>9.6916575722318521E-17</v>
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -10437,9 +10454,9 @@
       <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10450,2344 +10467,2344 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5827803041721053E-3</v>
+        <v>2.484157823388533E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3219293749889573E-26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8396562499021538E-26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7194908043728476E-3</v>
+        <v>2.6200114479744754E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9488652333268554E-24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6703860293542077E-24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8608996255719251E-3</v>
+        <v>2.7607731069645793E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7166713510920818E-23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9129000863358795E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0069938829894488E-3</v>
+        <v>2.9064426942499518E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1179268419913459E-21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.6331374241880416E-22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1577472520688738E-3</v>
+        <v>3.0570063090369281E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6396260349206355E-20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.416637856498246E-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3131193780425068E-3</v>
+        <v>3.212435580263922E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9238278809735617E-19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6666327723508791E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4730553193459586E-3</v>
+        <v>3.3726870234161502E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8810761502852402E-18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6339536983832082E-18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6374850296097033E-3</v>
+        <v>3.537701435025715E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>1.576520964048594E-17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3730703347758051E-17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8063228829455422E-3</v>
+        <v>3.7074033301690893E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1561153736356324E-16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.009610540276324E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9794672472006224E-3</v>
+        <v>3.8817004282601097E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5361594725878038E-16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.5987617011524684E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1568001097705455E-3</v>
+        <v>4.0604831923823931E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4212135572515314E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8816245300896897E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3381867604447236E-3</v>
+        <v>4.2436244273090264E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3579805638674868E-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0757350428287128E-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5234755356009281E-3</v>
+        <v>4.4309789412182929E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1527904978907666E-13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0175171778572074E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7124976278713872E-3</v>
+        <v>4.6223832759312135E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2023366058660269E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6041501260507296E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9050669651696469E-3</v>
+        <v>4.8176555102692042E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1800267681724287E-12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9345168596851782E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1009801626959294E-3</v>
+        <v>5.0165951408582326E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>8.5263269155188238E-12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.5863406262163737E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3000165512296195E-3</v>
+        <v>5.2189830443895536E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1263198690235707E-11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7890958184619123E-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5019382846713356E-3</v>
+        <v>5.4245815249874237E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>1.078886856761075E-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.6508505829131823E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7064905294155364E-3</v>
+        <v>5.6331344499320323E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5163719775916547E-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.1538727395141136E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9134017377191136E-3</v>
+        <v>5.84436747654298E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0857569615019903E-9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.7643118870405762E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1223840067841095E-3</v>
+        <v>6.0579883725470473E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>3.184887087072484E-9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8718564373648651E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3331335247959284E-3</v>
+        <v>6.273687431736074E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>8.8974623384882229E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0444157909380074E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.545331104655017E-3</v>
+        <v>6.491137986169627E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3726566235968541E-8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1509133130850375E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7586428056130221E-3</v>
+        <v>6.7099970155959417E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>6.0519937065658843E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.5010570667136434E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9727206424772051E-3</v>
+        <v>6.9299058541572138E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4793762393827734E-7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.348298300665105E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1872033814835423E-3</v>
+        <v>7.1504909938158393E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4716029084182543E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.172466589800246E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4017174213628894E-3</v>
+        <v>7.3713649832910719E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8333604087386066E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.1775262212675553E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6158777575405859E-3</v>
+        <v>7.5921274206355686E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7020634962197471E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5637312028905347E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8292890268222212E-3</v>
+        <v>7.8123660369136321E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5662282777937561E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2851495859044714E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.041546629331443E-3</v>
+        <v>8.0316578677728252E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>7.2144388148471239E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.6635894237413278E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.2522379238848358E-3</v>
+        <v>8.2495705090334971E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4108235904589951E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3065861615179133E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.4609434924183859E-3</v>
+        <v>8.4656634517625111E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6699457195783161E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4792906290662423E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6672384685253668E-3</v>
+        <v>8.6794894916534891E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8949004858935603E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5575195387247048E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.870693924630961E-3</v>
+        <v>8.890596206912316E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7020453082552654E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.1239207463898599E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0708783118199111E-3</v>
+        <v>9.0985274982488921E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5015293865224718E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4055226204826688E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2673589458544484E-3</v>
+        <v>9.3028251840101307E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5168492574091016E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3622228915675072E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4597035324753675E-3</v>
+        <v>9.5030306429603039E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1015321231851999E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8598413260907343E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6474817246738412E-3</v>
+        <v>9.69868649672837E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5033302133386827E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1364726964876408E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8302667042595715E-3</v>
+        <v>9.8893383235030725E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0040229101294861E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.4991837406929172E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0007636779735919E-2</v>
+        <v>1.007453639416989E-2</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>1.51032506139136E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4327577286113032E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0179176992228445E-2</v>
+        <v>1.0253837421753882E-2</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2151434233739927E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1069966597224983E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0344480721002832E-2</v>
+        <v>1.0426806314762938E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1696361179985567E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0229507313091855E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0503151279954298E-2</v>
+        <v>1.0593017924820387E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>4.427428228315441E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.233824553654314E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0654803496355496E-2</v>
+        <v>1.0752058778837283E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>6.0405222339807527E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.7918256547938671E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0799065263115559E-2</v>
+        <v>1.090352878590535E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>8.0540296453076813E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7430824261949987E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0935579055830341E-2</v>
+        <v>1.1047042909093176E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0500068278327055E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0121676374111127E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.106400340599414E-2</v>
+        <v>1.1182232792402271E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>1.339139142743161E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2943320171497586E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1184014321896203E-2</v>
+        <v>1.1308748333286069E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6715495682467812E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6199399463701622E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1295306648940892E-2</v>
+        <v>1.1426259191354234E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0430050278571765E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9852205225124573E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1397595361407616E-2</v>
+        <v>1.1534456224175397E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4460468360739028E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3832179141806197E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1490616778003941E-2</v>
+        <v>1.1633052841452716E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8700282876600411E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8037857813889608E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1574129693960839E-2</v>
+        <v>1.1721786269275751E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3014704485501131E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2338936348200231E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1647916422869968E-2</v>
+        <v>1.1800418716646706E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7247358906719222E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.658250718122201E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1711783741966528E-2</v>
+        <v>1.1868738437035474E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1229780928192357E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0602116738315194E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1765563735113525E-2</v>
+        <v>1.192656067833203E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4792848415813956E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4228885335855332E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1809114528340657E-2</v>
+        <v>1.1973728515232202E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7779038310201506E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.7303620680059187E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1842320913428576E-2</v>
+        <v>1.2010113558808395E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0054230610687304E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9688677184936123E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1865094855702623E-2</v>
+        <v>1.2035616538774847E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1517804605151846E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1278304628417037E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1877375882903501E-2</v>
+        <v>1.2050167754751696E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>5.210996327877427E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.2006394146467579E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1879131352730788E-2</v>
+        <v>1.2053727393656805E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1815556706577802E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1850841621602771E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.187035659740265E-2</v>
+        <v>1.2046285711202562E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0664099890876085E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0834158452551736E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1851074944335731E-2</v>
+        <v>1.2027863076339639E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8726128856798855E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9020403522229243E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1821337612816979E-2</v>
+        <v>1.1998509878364037E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>4.610644450965911E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6508921747845579E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1781223487308017E-2</v>
+        <v>1.1958306297280296E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2935101765608476E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3425697243553336E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1730838768786294E-2</v>
+        <v>1.190736193888558E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9357176618474439E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9913324672383552E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1670316506279848E-2</v>
+        <v>1.1845815336899006E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5522374794110245E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6120655812111803E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1599816011487822E-2</v>
+        <v>1.1773833325301426E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1575444261431343E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2193097871757399E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1519522160091325E-2</v>
+        <v>1.1691610284865605E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7648150199064282E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8264352828584225E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1429644584043136E-2</v>
+        <v>1.1599367268639226E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3853306054094654E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4450132204657596E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.133041675977476E-2</v>
+        <v>1.1497351011886878E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0281071814109475E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0844102476263952E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1222094997870637E-2</v>
+        <v>1.1385832832696336E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6997469710872716E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7516052501062133E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1104957340327154E-2</v>
+        <v>1.1265107430103631E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4044857601472284E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4512056753158335E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0979302372034294E-2</v>
+        <v>1.1135491587185726E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1443958045644071E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1856255517286241E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0845447953586726E-2</v>
+        <v>1.0997322787104495E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>9.1969708494673875E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.5537917141710182E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0703729882945384E-2</v>
+        <v>1.0850957750557586E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>7.2912922049831706E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.5944290255731441E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0554500493827602E-2</v>
+        <v>1.0696770903497221E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7034107914534929E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.9564149220181451E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0398127199001309E-2</v>
+        <v>1.0535152784314472E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4026328916483039E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.610228267815911E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0234990986895039E-2</v>
+        <v>1.0366508399952352E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3543869650653852E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5219467286599711E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0065484880109428E-2</v>
+        <v>1.0191255540604608E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5229577173141293E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6560684228204984E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8900123645270736E-3</v>
+        <v>1.0009823062778044E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8735888533640793E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9777128986005173E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.7089857977658931E-3</v>
+        <v>9.8226491505445102E-3</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3739651591336529E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4542006607356718E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.522824805707238E-3</v>
+        <v>9.6301795647851934E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>9.9513525929022196E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0560643868813911E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3319546757549762E-3</v>
+        <v>9.432865890135712E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>7.1196668957349126E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.575784697857863E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.1368047553473265E-3</v>
+        <v>9.2311637891780429E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0323749945756951E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3690890842366464E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.937806864051193E-3</v>
+        <v>9.0255312731967671E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5146745993861844E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7598663054878428E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.7353937273223214E-3</v>
+        <v>8.8164269985258371E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4258146254587068E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6019836024137314E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5299974397160042E-3</v>
+        <v>8.6043085971615196E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6548192793826812E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7797425461106182E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3220479649864613E-3</v>
+        <v>8.3896310499116198E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1158934604266263E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2033418161667477E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1119716801216404E-3</v>
+        <v>8.1728451098947632E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>7.4392897361776129E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0437287176922083E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9001899699284034E-3</v>
+        <v>7.9543957837016153E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9038014740346686E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.316410256240675E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6871178783150763E-3</v>
+        <v>7.7347208769871743E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>3.196552071963318E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.4747779452553666E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4731628219187191E-3</v>
+        <v>7.5142496106855505E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0607808229507109E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2461395896931751E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2587233711980349E-3</v>
+        <v>7.2934013134310603E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3141211044903052E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4361506327961524E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0441881035641996E-3</v>
+        <v>7.0725841951380297E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>8.289796214705934E-6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.0838117191406956E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.8299345325562337E-3</v>
+        <v>6.8521942060420686E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1737735240718136E-6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.6844879343809361E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.6163281164894816E-3</v>
+        <v>6.6326139848435313E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1950320710057216E-6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5198067705145513E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4037213494204546E-3</v>
+        <v>6.4142118989249921E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9525195989479388E-6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1567443446780151E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1924529366833968E-3</v>
+        <v>6.1973411789447656E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1809053244496117E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3079104576579916E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9828470566681054E-3</v>
+        <v>5.9823391494428875E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0693652075895495E-7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.8506029871427333E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7752127099294712E-3</v>
+        <v>5.7695265564399849E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1892534563493538E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6646482395381858E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5698431561511264E-3</v>
+        <v>5.5592069923679922E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4576953610582948E-7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7439107291400973E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3670154389324921E-3</v>
+        <v>5.351666418049553E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4275722229249405E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5980842918696073E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1669899978344829E-3</v>
+        <v>5.1471727808442566E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2108729161695817E-8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.2161723867912603E-8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9700103666074939E-3</v>
+        <v>4.9459757275089394E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6767431496629161E-8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.263376577265118E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.776302956039276E-3</v>
+        <v>4.7483064097794446E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6381628023739903E-8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9770229509418292E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5860769194029415E-3</v>
+        <v>4.5543773801758848E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4740211213264186E-8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6677999725164284E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3995240980590064E-3</v>
+        <v>4.3643825750651682E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1581043192908076E-9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.2552717675718017E-9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2168190443722551E-3</v>
+        <v>4.1784973815859085E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>4.472979315249775E-9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0881098227441656E-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0381191187461949E-3</v>
+        <v>3.9968787846534513E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4297665416171682E-9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7713016463748432E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8635646572562142E-3</v>
+        <v>3.8196655899182751E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3077642548153498E-9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4955756321504842E-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6932792060785044E-3</v>
+        <v>3.6469787182503459E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>6.97474269234861E-10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.9977306532110606E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5273698186658164E-3</v>
+        <v>3.478921567065738E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6863504920521122E-10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.2383310297886663E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3659274114136912E-3</v>
+        <v>3.315580433600137E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9309454958368352E-10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2260141963175455E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.209027173391844E-3</v>
+        <v>3.1570249950663419E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0024967765996422E-10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1587788632574511E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0567290255844406E-3</v>
+        <v>3.0033088405092057E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1590477392262214E-11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.9792511003995906E-11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9090781249896131E-3</v>
+        <v>2.854470049090225E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6318620350835568E-11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0584404605624675E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7661054088715022E-3</v>
+        <v>2.7105318094942741E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3310566614215562E-11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5509332964312672E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6278281744363747E-3</v>
+        <v>2.5715030751507968E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>6.674244228210685E-12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.797553023787145E-12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4942506892162955E-3</v>
+        <v>2.437379249999443E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3182683168505201E-12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8871151663943717E-12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3653648274878261E-3</v>
+        <v>2.3081428996034122E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6358969853380686E-12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.921460784179135E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2411507281273101E-3</v>
+        <v>2.1837644825202476E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9977185949861079E-13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.4189254126428752E-13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1215774694064676E-3</v>
+        <v>2.0642030969770767E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8776817430235654E-13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.5789622813042942E-13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0066037563600645E-3</v>
+        <v>1.9494072380625161E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8646775594867362E-13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2077928068004725E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8961786165088942E-3</v>
+        <v>1.8393155608379531E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>8.893855026278289E-14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0558550008610757E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7902420998940536E-3</v>
+        <v>1.7338576449837473E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2078453887768484E-14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0087998143314694E-14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6887259795697988E-3</v>
+        <v>1.6329547568281768E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9748821024658936E-14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3570822655677842E-14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5915544489098056E-3</v>
+        <v>1.5365206048557943E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>9.195218254867659E-15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1004118886871156E-14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4986448123028987E-3</v>
+        <v>1.444462085054273E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2476598762643217E-15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0968591416724892E-15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4099081660467467E-3</v>
+        <v>1.3566800127320061E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9468441099544858E-15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3423065908421581E-15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3252500664892816E-3</v>
+        <v>1.2730698377198502E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>8.8538646860980405E-16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0680832607579447E-15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2445711827152285E-3</v>
+        <v>1.1935223401568448E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9955902173160694E-16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8329559310314233E-16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1677679313269781E-3</v>
+        <v>1.1179243043486799E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7893737359990409E-16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.170164315685354E-16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0947330911227227E-3</v>
+        <v>1.0461591684770564E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9527721599957974E-17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.670963973642672E-17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0253563957284312E-3</v>
+        <v>9.7810764822509337E-4</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5079897247099182E-17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.2772949905539923E-17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.595251024917161E-4</v>
+        <v>9.1364833266690062E-4</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5358362973854266E-17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8776536394003749E-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.9712453619332131E-4</v>
+        <v>8.5265825104599037E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>6.6742515639465785E-18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.1814973394351616E-18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3803860637396313E-4</v>
+        <v>7.9501340933583369E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8790889099377056E-18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5387099219009531E-18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8215029730926337E-4</v>
+        <v>7.4058929573475444E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2328945210438825E-18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5194117311726162E-18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2934212989202152E-4</v>
+        <v>6.8926135449524863E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2412907174812014E-19</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.4766058447255564E-19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7949659489795287E-4</v>
+        <v>6.4090542772332853E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2121514778817593E-19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.740840391335427E-19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3249655731720462E-4</v>
+        <v>5.9539816500570129E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2699680977904078E-20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1516136098047818E-19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.8822563162858326E-4</v>
+        <v>5.5261740093060212E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>3.85700800286316E-20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8043955352722574E-20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4656852807576648E-4</v>
+        <v>5.1244250076119846E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5935056537650717E-20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9902218455974816E-20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0741137017422258E-4</v>
+        <v>4.7475467469827926E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5374590923694784E-21</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.1868442846462724E-21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7064198383377502E-4</v>
+        <v>4.3943726133099307E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6634092598541632E-21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.3442991358848984E-21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3615015862436891E-4</v>
+        <v>4.0637598102065257E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0776092637570883E-21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3567136453894028E-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0382788184153864E-4</v>
+        <v>3.7545916009297314E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3301194160102077E-22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.4662113029387165E-22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7356954614329148E-4</v>
+        <v>3.465779268287807E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7281202204485279E-22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1873594649614667E-22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4527213163174168E-4</v>
+        <v>3.1962638034236339E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>6.8502062792555332E-23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.6937975554910425E-23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1883536334102085E-4</v>
+        <v>2.9450173352074362E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6971729421676711E-23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.432213800035944E-23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9416184516812665E-4</v>
+        <v>2.711044312665697E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0548943062700233E-23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3459661960924797E-23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7115717134578679E-4</v>
+        <v>2.4933824534274757E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0984856049342922E-24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.2433431869594958E-24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4973001660663586E-4</v>
+        <v>2.2911034715891599E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5818716369922259E-24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0291575800926663E-24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2979220622653719E-4</v>
+        <v>2.1033135986919669E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>6.0655644468547555E-25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.8014516727899348E-25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1125876716236982E-4</v>
+        <v>1.929153911680347E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3106912178494202E-25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9799280644728198E-25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.940479615166465E-4</v>
+        <v>1.7678004817726304E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7458420288494117E-26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1309024912610546E-25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7808130356867049E-4</v>
+        <v>1.6184643581354952E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2890346091399422E-26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.2643382023417935E-26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6328356161024875E-4</v>
+        <v>1.4803914001206285E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2290235482136415E-26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.597728813166672E-26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4958274581402414E-4</v>
+        <v>1.3528619716032393E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5634629638312574E-27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.9483574578059016E-27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3691008334499341E-4</v>
+        <v>1.2351905106673945E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6837934625457075E-27</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2006501878675046E-27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2519998190151552E-4</v>
+        <v>1.1267249875206593E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1739093626673892E-28</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0906256906894832E-28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1438998284179572E-4</v>
+        <v>1.0268462630991579E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2497061031665797E-28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9560196166201691E-28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0442070501623739E-4</v>
+        <v>9.3496736035212461E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1470838303976076E-29</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0733549806173223E-28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.523578038585547E-5</v>
+        <v>8.5053265968037186E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9322837508180127E-29</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8735293418164418E-29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6781782462877011E-5</v>
+        <v>7.7301702945379271E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0489470328129512E-29</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3893577266199518E-29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9008148562359571E-5</v>
+        <v>7.0192490195606256E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7295894500015555E-30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9531469754722378E-30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1867096803796121E-5</v>
+        <v>6.3678930450752533E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3180878377515533E-30</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.755190281882423E-30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5313538749829148E-5</v>
+        <v>5.7717085490589532E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6304083721412036E-31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1824243814105903E-31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9304988515961693E-5</v>
+        <v>5.2265672970532404E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6169680029699405E-31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1647144192613282E-31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.380146913103359E-5</v>
+        <v>4.7285961323283203E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>5.6131433633669254E-32</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.5346829768928809E-32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8765416873734627E-5</v>
+        <v>4.2741663462239144E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9370847685344983E-32</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.607156739409396E-32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4161584255995492E-5</v>
+        <v>3.8598829953546859E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>6.6457489134907184E-33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.9685474351885734E-33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9956942270139019E-5</v>
+        <v>3.4825742263685547E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2667670712681297E-33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0672186850851327E-33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6120582463556302E-5</v>
+        <v>3.1392806630954522E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>7.6869172358994853E-34</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.042916927944594E-33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2623619352719511E-5</v>
+        <v>2.827244905255972E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5917575354758368E-34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5257502635043492E-34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9439093637840368E-5</v>
+        <v>2.5439011824382912E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>8.6885585951189111E-35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1851261389930718E-34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6541876630674656E-5</v>
+        <v>2.286865201822063E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>2.896186198372918E-35</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9609830848700159E-35</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3908576261069626E-5</v>
+        <v>2.0539242231463052E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5994118816128329E-36</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3163785592787712E-35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1517444983022686E-5</v>
+        <v>1.8430273897000317E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1638511070484617E-36</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3502265673457166E-36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9348289858403964E-5</v>
+        <v>1.6522763396690079E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0369418898333538E-36</v>
+        <v>1.4295848068832286E-36</v>
       </c>
     </row>
   </sheetData>
@@ -12803,18 +12820,18 @@
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12867,7 +12884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -12933,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -12999,7 +13016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -13065,7 +13082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -13131,7 +13148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -13197,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -13263,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -13329,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -13395,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -13461,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -13527,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -13593,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -13659,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13725,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13791,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13857,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13923,7 +13940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -13989,7 +14006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -14055,7 +14072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -14121,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -14187,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -14253,7 +14270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -14319,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -14385,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -14451,7 +14468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -14517,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -14583,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -14649,7 +14666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -14715,7 +14732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -14781,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14847,7 +14864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14913,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -14979,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -15045,7 +15062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -15056,7 +15073,7 @@
       </c>
       <c r="E35">
         <f>IF(Scrobbles!$B35=E$1,Scrobbles!$D35,0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <f>IF(Scrobbles!$B35=F$1,Scrobbles!$D35,0)</f>
@@ -15088,7 +15105,7 @@
       </c>
       <c r="N35">
         <f>IF(AND(Scrobbles!$D35&gt;=Calc!M$1+1,Scrobbles!$D35&lt;=Calc!N$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <f>IF(AND(Scrobbles!$D35&gt;=Calc!N$1+1,Scrobbles!$D35&lt;=Calc!O$1,ISBLANK(Scrobbles!$D35)=FALSE),1,0)</f>
@@ -15108,10 +15125,10 @@
       </c>
       <c r="T35">
         <f>IF(Scrobbles!D35&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -15177,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -15243,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -15309,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -15375,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -15441,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -15507,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -15573,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -15639,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -15705,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -15771,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -15837,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -15903,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -15969,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -16035,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -16101,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -16167,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -16233,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -16299,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -16365,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -16431,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -16497,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -16563,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -16629,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -16695,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -16761,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -16827,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -16893,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -16959,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -17025,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -17091,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -17157,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -17223,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -17289,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -17355,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -17421,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -17487,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -17553,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -17619,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -17685,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -17751,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -17817,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -17883,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -17949,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -18015,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -18081,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -18147,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -18213,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -18279,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -18345,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -18411,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -18477,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -18543,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -18609,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -18675,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -18741,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -18807,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -18873,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -18939,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -19005,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -19071,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -19137,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -19203,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -19269,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -19335,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -19401,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -19467,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -19533,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -19599,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -19665,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -19731,7 +19748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -19797,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -19863,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -19929,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -19995,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -20061,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -20127,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -20193,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -20259,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -20325,7 +20342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -20391,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -20457,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -20523,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -20589,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -20655,7 +20672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -20721,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -20787,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -20853,7 +20870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -20919,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -20985,7 +21002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -21051,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -21117,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -21183,7 +21200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -21249,7 +21266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -21315,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -21381,7 +21398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -21447,7 +21464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -21513,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -21579,7 +21596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -21645,7 +21662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -21711,7 +21728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -21777,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -21843,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -21909,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -21975,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -22041,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -22107,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -22173,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -22239,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -22305,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -22371,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -22437,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -22503,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -22569,7 +22586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -22635,7 +22652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -22701,7 +22718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -22767,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -22833,7 +22850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -22899,7 +22916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -22965,7 +22982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -23031,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -23097,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -23163,7 +23180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -23229,7 +23246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -23295,7 +23312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -23361,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -23427,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -23493,7 +23510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -23559,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -23625,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -23691,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -23757,7 +23774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -23823,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -23889,7 +23906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -23955,7 +23972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -24021,7 +24038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -24087,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -24153,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -24219,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -24285,7 +24302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -24351,7 +24368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -24417,7 +24434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -24483,7 +24500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -24549,7 +24566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -24615,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -24681,7 +24698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -24747,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -24813,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -24879,7 +24896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -24945,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -25011,7 +25028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -25077,7 +25094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -25143,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -25209,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -25275,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -25341,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -25407,7 +25424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -25473,7 +25490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -25539,7 +25556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -25605,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -25671,7 +25688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -25737,7 +25754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -25803,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -25869,7 +25886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -25935,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -26001,7 +26018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -26067,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -26133,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -26199,7 +26216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -26265,7 +26282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -26331,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -26397,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -26463,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -26529,7 +26546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -26595,7 +26612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -26661,7 +26678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -26727,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -26793,7 +26810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -26859,7 +26876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -26925,7 +26942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -26991,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -27057,7 +27074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -27123,7 +27140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -27189,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -27255,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -27321,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -27387,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -27453,7 +27470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -27519,7 +27536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -27585,7 +27602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -27651,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -27717,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -27783,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -27849,7 +27866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -27915,7 +27932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -27981,7 +27998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -28047,7 +28064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -28113,7 +28130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -28179,7 +28196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -28245,7 +28262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -28311,7 +28328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -28377,7 +28394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -28443,7 +28460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -28509,7 +28526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -28575,7 +28592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -28641,7 +28658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -28707,7 +28724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -28773,7 +28790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -28839,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -28905,7 +28922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -28971,7 +28988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -29037,7 +29054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -29103,7 +29120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -29169,7 +29186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -29235,7 +29252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -29301,7 +29318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -29367,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -29433,7 +29450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -29499,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -29565,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -29631,7 +29648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -29697,7 +29714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -29763,7 +29780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -29829,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -29895,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -29961,7 +29978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -30027,7 +30044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -30093,7 +30110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -30159,7 +30176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -30225,7 +30242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -30291,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -30357,7 +30374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -30423,7 +30440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -30489,7 +30506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -30555,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -30621,7 +30638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -30687,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -30753,7 +30770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -30819,7 +30836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -30885,7 +30902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -30951,7 +30968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -31017,7 +31034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -31083,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -31149,7 +31166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -31215,7 +31232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -31281,7 +31298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -31347,7 +31364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -31413,7 +31430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -31479,7 +31496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -31545,7 +31562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -31611,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -31677,7 +31694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -31743,7 +31760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -31809,7 +31826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -31875,7 +31892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -31941,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -32007,7 +32024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -32073,7 +32090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -32139,7 +32156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -32205,7 +32222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -32271,7 +32288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -32337,7 +32354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -32403,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -32469,7 +32486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -32535,7 +32552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -32601,7 +32618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -32667,7 +32684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -32733,7 +32750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -32799,7 +32816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -32865,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -32931,7 +32948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -32997,7 +33014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -33063,7 +33080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -33129,7 +33146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -33195,7 +33212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -33261,7 +33278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -33327,7 +33344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -33393,7 +33410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -33459,7 +33476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -33525,7 +33542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -33591,7 +33608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -33657,7 +33674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -33723,7 +33740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -33789,7 +33806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -33855,7 +33872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -33921,7 +33938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -33987,7 +34004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -34053,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -34119,7 +34136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -34185,7 +34202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -34251,7 +34268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -34317,7 +34334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -34383,7 +34400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -34449,7 +34466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -34515,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -34581,7 +34598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -34647,7 +34664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -34713,7 +34730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -34779,7 +34796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -34845,7 +34862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -34911,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -34977,7 +34994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -35043,7 +35060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -35109,7 +35126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -35175,7 +35192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -35241,7 +35258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -35307,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -35373,7 +35390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -35439,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -35505,7 +35522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -35571,7 +35588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -35637,7 +35654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -35703,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -35769,7 +35786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -35835,7 +35852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -35901,7 +35918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -35967,7 +35984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -36033,7 +36050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -36099,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -36165,7 +36182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -36231,7 +36248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -36297,7 +36314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -36363,7 +36380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -36429,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -36495,7 +36512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -36561,7 +36578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -36627,7 +36644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -36693,7 +36710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -36759,7 +36776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -36825,7 +36842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -36891,7 +36908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -36957,7 +36974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -37023,7 +37040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -37089,7 +37106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -37155,7 +37172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -37221,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -37287,7 +37304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -37353,7 +37370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -37419,7 +37436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -37485,7 +37502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -37551,7 +37568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -37617,7 +37634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -37683,7 +37700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -37749,7 +37766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -37815,7 +37832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -37881,7 +37898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -37947,7 +37964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -38013,7 +38030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -38079,7 +38096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -38145,7 +38162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -38211,7 +38228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -38277,7 +38294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -38343,7 +38360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -38409,7 +38426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -38475,7 +38492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -38541,7 +38558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -38607,7 +38624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -38673,7 +38690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -38739,7 +38756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -38805,7 +38822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -38871,7 +38888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -38937,7 +38954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -39003,7 +39020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -39069,7 +39086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -39135,7 +39152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -39201,7 +39218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -39267,7 +39284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -39333,7 +39350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -39399,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -39465,7 +39482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -39531,7 +39548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A5143-1745-4FC7-9BA9-BD07E227CF9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29868C1F-D992-4682-88BA-02CA08EA7657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -8602,8 +8602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9917,7 +9917,7 @@
   <dimension ref="C1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10171,8 +10171,8 @@
         <f ca="1">D13/E13</f>
         <v>58.823529411764703</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29868C1F-D992-4682-88BA-02CA08EA7657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5E4DE-3302-4DA8-9544-A0351DB047B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -664,7 +664,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7490056095273738</c:v>
+                  <c:v>2.7242072823834773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5172815974949891</c:v>
+                  <c:v>5.595078606091743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7690645789321602</c:v>
+                  <c:v>8.0147329266841414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6765379250875956</c:v>
+                  <c:v>8.0085501042798644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3224681260491309</c:v>
+                  <c:v>5.5821381048721559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5890990370444786</c:v>
+                  <c:v>2.7137114144061405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88338884499456682</c:v>
+                  <c:v>0.91984890843618128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21132570227330144</c:v>
+                  <c:v>0.21730954472023378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8495096452302653E-8</c:v>
+                  <c:v>3.2319100103369133E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13384184871480589</c:v>
+                  <c:v>0.10918836672666168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.352030470749956</c:v>
+                  <c:v>17.770729275353961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.345213321825549</c:v>
+                  <c:v>16.897288898056196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16889235516074758</c:v>
+                  <c:v>0.22275791008481335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1954991961689981E-5</c:v>
+                  <c:v>3.5517335758049597E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1886680026047247E-11</c:v>
+                  <c:v>1.2350614580290135E-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6947359730063813E-18</c:v>
+                  <c:v>1.6514562852446025E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1413,10 @@
                   <c:v>58.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.823529411764703</c:v>
+                  <c:v>58.852941176470587</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59.457142857142856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +1992,10 @@
                   <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2000</c:v>
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,424 +2682,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.484157823388533E-3</c:v>
+                  <c:v>2.3547979756161175E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6200114479744754E-3</c:v>
+                  <c:v>2.4873207274239192E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7607731069645793E-3</c:v>
+                  <c:v>2.6248628235899922E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9064426942499518E-3</c:v>
+                  <c:v>2.7674394191270556E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0570063090369281E-3</c:v>
+                  <c:v>2.9150521003760733E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.212435580263922E-3</c:v>
+                  <c:v>3.0676881421739244E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3726870234161502E-3</c:v>
+                  <c:v>3.225319793218352E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.537701435025715E-3</c:v>
+                  <c:v>3.3879035952165421E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7074033301690893E-3</c:v>
+                  <c:v>3.5553797414736494E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8817004282601097E-3</c:v>
+                  <c:v>3.7276714806081285E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0604831923823931E-3</c:v>
+                  <c:v>3.9046845710696749E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2436244273090264E-3</c:v>
+                  <c:v>4.086306792080675E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4309789412182929E-3</c:v>
+                  <c:v>4.2724075165217999E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6223832759312135E-3</c:v>
+                  <c:v>4.4628373511353091E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8176555102692042E-3</c:v>
+                  <c:v>4.6574278492247509E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0165951408582326E-3</c:v>
+                  <c:v>4.8559913007865021E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2189830443895536E-3</c:v>
+                  <c:v>5.0583206047168476E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4245815249874237E-3</c:v>
+                  <c:v>5.2641892273983144E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6331344499320323E-3</c:v>
+                  <c:v>5.4733512515816023E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.84436747654298E-3</c:v>
+                  <c:v>5.6855415190458364E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0579883725470473E-3</c:v>
+                  <c:v>5.9004758700418984E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.273687431736074E-3</c:v>
+                  <c:v>6.1178514820033397E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.491137986169627E-3</c:v>
+                  <c:v>6.3373473094498131E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.7099970155959417E-3</c:v>
+                  <c:v>6.558624626411969E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9299058541572138E-3</c:v>
+                  <c:v>6.7813276720784408E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.1504909938158393E-3</c:v>
+                  <c:v>7.0050843997084989E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3713649832910719E-3</c:v>
+                  <c:v>7.2295073281733839E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.5921274206355686E-3</c:v>
+                  <c:v>7.4541944947894853E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8123660369136321E-3</c:v>
+                  <c:v>7.6787305073931968E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0316578677728252E-3</c:v>
+                  <c:v>7.9026876928859069E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2495705090334971E-3</c:v>
+                  <c:v>8.1256273387538859E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.4656634517625111E-3</c:v>
+                  <c:v>8.3471010233480795E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.6794894916534891E-3</c:v>
+                  <c:v>8.566652029999124E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.890596206912316E-3</c:v>
+                  <c:v>8.7838168393495897E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0985274982488921E-3</c:v>
+                  <c:v>8.9981266936147962E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.3028251840101307E-3</c:v>
+                  <c:v>9.209109225842069E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.5030306429603039E-3</c:v>
+                  <c:v>9.4162901466318828E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.69868649672837E-3</c:v>
+                  <c:v>9.6191949802192801E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.8893383235030725E-3</c:v>
+                  <c:v>9.817350841295933E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.007453639416989E-2</c:v>
+                  <c:v>1.0010288243487752E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0253837421753882E-2</c:v>
+                  <c:v>1.0197542929995166E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0426806314762938E-2</c:v>
+                  <c:v>1.0378657716557884E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0593017924820387E-2</c:v>
+                  <c:v>1.055318433662714E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0752058778837283E-2</c:v>
+                  <c:v>1.0720685278420128E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.090352878590535E-2</c:v>
+                  <c:v>1.0880735603396269E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1047042909093176E-2</c:v>
+                  <c:v>1.1032924735635951E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1182232792402271E-2</c:v>
+                  <c:v>1.117685821162095E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1308748333286069E-2</c:v>
+                  <c:v>1.1312159380013261E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1426259191354234E-2</c:v>
+                  <c:v>1.1438471041205727E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1534456224175397E-2</c:v>
+                  <c:v>1.1555457016673378E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1633052841452716E-2</c:v>
+                  <c:v>1.1662803638487771E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1721786269275751E-2</c:v>
+                  <c:v>1.1760221149765937E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1800418716646706E-2</c:v>
+                  <c:v>1.1847445007308255E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1868738437035474E-2</c:v>
+                  <c:v>1.1924237078232461E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.192656067833203E-2</c:v>
+                  <c:v>1.1990386723030143E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1973728515232202E-2</c:v>
+                  <c:v>1.2045711758152691E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2010113558808395E-2</c:v>
+                  <c:v>1.2090059291970774E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2035616538774847E-2</c:v>
+                  <c:v>1.2123306428739095E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2050167754751696E-2</c:v>
+                  <c:v>1.2145360836030045E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2053727393656805E-2</c:v>
+                  <c:v>1.2156161171969585E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2046285711202562E-2</c:v>
+                  <c:v>1.2155677369508497E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2027863076339639E-2</c:v>
+                  <c:v>1.2143910775885306E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1998509878364037E-2</c:v>
+                  <c:v>1.2120894146375473E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1958306297280296E-2</c:v>
+                  <c:v>1.2086691492367494E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.190736193888558E-2</c:v>
+                  <c:v>1.2041397784752057E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1845815336899006E-2</c:v>
+                  <c:v>1.1985138514547888E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1773833325301426E-2</c:v>
+                  <c:v>1.1918069113609153E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1691610284865605E-2</c:v>
+                  <c:v>1.1840374239157087E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1599367268639226E-2</c:v>
+                  <c:v>1.1752266926744952E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1497351011886878E-2</c:v>
+                  <c:v>1.1653987617094037E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1385832832696336E-2</c:v>
+                  <c:v>1.1545803063021793E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1265107430103631E-2</c:v>
+                  <c:v>1.1428005123415805E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1135491587185726E-2</c:v>
+                  <c:v>1.1300909451882779E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.0997322787104495E-2</c:v>
+                  <c:v>1.1164854088315416E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0850957750557586E-2</c:v>
+                  <c:v>1.1020197962166977E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0696770903497221E-2</c:v>
+                  <c:v>1.0867319316699965E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0535152784314472E-2</c:v>
+                  <c:v>1.0706614063878232E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0366508399952352E-2</c:v>
+                  <c:v>1.0538494079898538E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0191255540604608E-2</c:v>
+                  <c:v>1.0363385451606413E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0009823062778044E-2</c:v>
+                  <c:v>1.018172668421111E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.8226491505445102E-3</c:v>
+                  <c:v>9.9939668808050348E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.6301795647851934E-3</c:v>
+                  <c:v>9.8005639042050372E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.432865890135712E-3</c:v>
+                  <c:v>9.6019825315672592E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.2311637891780429E-3</c:v>
+                  <c:v>9.3986926120858127E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.0255312731967671E-3</c:v>
+                  <c:v>9.1911672378711274E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.8164269985258371E-3</c:v>
+                  <c:v>8.9798809378190819E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.6043085971615196E-3</c:v>
+                  <c:v>8.7653079039312215E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.3896310499116198E-3</c:v>
+                  <c:v>8.5479202591334843E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1728451098947632E-3</c:v>
+                  <c:v>8.3281863751706181E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.9543957837016153E-3</c:v>
+                  <c:v>8.1065692486312537E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.7347208769871743E-3</c:v>
+                  <c:v>7.8835249425897036E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.5142496106855505E-3</c:v>
+                  <c:v>7.6595011007409867E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.2934013134310603E-3</c:v>
+                  <c:v>7.4349355402612526E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.0725841951380297E-3</c:v>
+                  <c:v>7.2102549289529737E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.8521942060420686E-3</c:v>
+                  <c:v>6.985873551539336E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.6326139848435313E-3</c:v>
+                  <c:v>6.7621921692614167E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.4142118989249921E-3</c:v>
+                  <c:v>6.539596976211412E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.1973411789447656E-3</c:v>
+                  <c:v>6.3184586551114866E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.9823391494428875E-3</c:v>
+                  <c:v>6.0991315345268271E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.7695265564399849E-3</c:v>
+                  <c:v>5.8819528487891537E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.5592069923679922E-3</c:v>
+                  <c:v>5.6672421012085574E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.351666418049553E-3</c:v>
+                  <c:v>5.4553005304727236E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.1471727808442566E-3</c:v>
+                  <c:v>5.2464106794779019E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.9459757275089394E-3</c:v>
+                  <c:v>5.0408360652102477E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.7483064097794446E-3</c:v>
+                  <c:v>4.8388209477032091E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.5543773801758848E-3</c:v>
+                  <c:v>4.6405901955402099E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.3643825750651682E-3</c:v>
+                  <c:v>4.4463492448552711E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.1784973815859085E-3</c:v>
+                  <c:v>4.2562841483098739E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.9968787846534513E-3</c:v>
+                  <c:v>4.070561710094716E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.8196655899182751E-3</c:v>
+                  <c:v>3.8893297026216006E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.6469787182503459E-3</c:v>
+                  <c:v>3.7127171602348934E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.478921567065738E-3</c:v>
+                  <c:v>3.5408347449843013E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.315580433600137E-3</c:v>
+                  <c:v>3.3737751792617568E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.1570249950663419E-3</c:v>
+                  <c:v>3.2116137399143116E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0033088405092057E-3</c:v>
+                  <c:v>3.0544088083020483E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.854470049090225E-3</c:v>
+                  <c:v>2.9022024706735912E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.7105318094942741E-3</c:v>
+                  <c:v>2.7550211631808363E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.5715030751507968E-3</c:v>
+                  <c:v>2.6128763558470104E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.437379249999443E-3</c:v>
+                  <c:v>2.4757652698362545E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.3081428996034122E-3</c:v>
+                  <c:v>2.3436716224461258E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1837644825202476E-3</c:v>
+                  <c:v>2.2165663943542954E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.0642030969770767E-3</c:v>
+                  <c:v>2.0944086137944093E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.9494072380625161E-3</c:v>
+                  <c:v>1.9771461525107097E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.8393155608379531E-3</c:v>
+                  <c:v>1.8647165285435544E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.7338576449837473E-3</c:v>
+                  <c:v>1.7570477111251673E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.6329547568281768E-3</c:v>
+                  <c:v>1.6540589232137794E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5365206048557943E-3</c:v>
+                  <c:v>1.5556614374613654E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.444462085054273E-3</c:v>
+                  <c:v>1.4617593616924344E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.3566800127320061E-3</c:v>
+                  <c:v>1.3722504102655307E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.2730698377198502E-3</c:v>
+                  <c:v>1.2870266579921286E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1935223401568448E-3</c:v>
+                  <c:v>1.2059752735966724E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.1179243043486799E-3</c:v>
+                  <c:v>1.128979230013497E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0461591684770564E-3</c:v>
+                  <c:v>1.0559179891288053E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.7810764822509337E-4</c:v>
+                  <c:v>9.8666815888605558E-4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9.1364833266690062E-4</c:v>
+                  <c:v>9.2110412097873285E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.5265825104599037E-4</c:v>
+                  <c:v>8.5909862765339191E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7.9501340933583369E-4</c:v>
+                  <c:v>8.0052336643595919E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.4058929573475444E-4</c:v>
+                  <c:v>7.4524949187396671E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.8926135449524863E-4</c:v>
+                  <c:v>6.931481236549593E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.4090542772332853E-4</c:v>
+                  <c:v>6.4409081071547863E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,424 +3787,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.8396562499021538E-26</c:v>
+                  <c:v>1.5069226040618702E-26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6703860293542077E-24</c:v>
+                  <c:v>8.9597312544364373E-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9129000863358795E-23</c:v>
+                  <c:v>2.6636001057831625E-23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6331374241880416E-22</c:v>
+                  <c:v>5.2790017334617021E-22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.416637856498246E-20</c:v>
+                  <c:v>7.8468590052384624E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6666327723508791E-19</c:v>
+                  <c:v>9.3310363370864333E-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6339536983832082E-18</c:v>
+                  <c:v>9.246612674988953E-19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3730703347758051E-17</c:v>
+                  <c:v>7.8539595823069447E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.009610540276324E-16</c:v>
+                  <c:v>5.8371749609931115E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5987617011524684E-16</c:v>
+                  <c:v>3.8562416170878186E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8816245300896897E-15</c:v>
+                  <c:v>2.2928110871885109E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0757350428287128E-14</c:v>
+                  <c:v>1.2393090577764408E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0175171778572074E-13</c:v>
+                  <c:v>6.1404813076970553E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6041501260507296E-13</c:v>
+                  <c:v>2.8084267255643024E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9345168596851782E-12</c:v>
+                  <c:v>1.1927216358978185E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.5863406262163737E-12</c:v>
+                  <c:v>4.7277213796254429E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7890958184619123E-11</c:v>
+                  <c:v>1.7568550341072416E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.6508505829131823E-11</c:v>
+                  <c:v>6.1445635730709148E-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1538727395141136E-10</c:v>
+                  <c:v>2.0296566342159517E-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7643118870405762E-10</c:v>
+                  <c:v>6.3514518132381774E-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8718564373648651E-9</c:v>
+                  <c:v>1.8881958890498146E-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0444157909380074E-9</c:v>
+                  <c:v>5.3460348913097363E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.1509133130850375E-8</c:v>
+                  <c:v>1.4448180011448799E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5010570667136434E-8</c:v>
+                  <c:v>3.7349891433322887E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.348298300665105E-7</c:v>
+                  <c:v>9.2529909610410412E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.172466589800246E-7</c:v>
+                  <c:v>2.2006256217058836E-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1775262212675553E-7</c:v>
+                  <c:v>5.0324196909559698E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5637312028905347E-6</c:v>
+                  <c:v>1.1081973943787702E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2851495859044714E-6</c:v>
+                  <c:v>2.3532232425532862E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.6635894237413278E-6</c:v>
+                  <c:v>4.8246872588703237E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3065861615179133E-5</c:v>
+                  <c:v>9.5620706530563417E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.4792906290662423E-5</c:v>
+                  <c:v>1.8339787123511784E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.5575195387247048E-5</c:v>
+                  <c:v>3.4075979467882121E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.1239207463898599E-5</c:v>
+                  <c:v>6.1395769067240316E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4055226204826688E-4</c:v>
+                  <c:v>1.0736520624279626E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.3622228915675072E-4</c:v>
+                  <c:v>1.823893830132725E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8598413260907343E-4</c:v>
+                  <c:v>3.0123198892906337E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1364726964876408E-4</c:v>
+                  <c:v>4.8406468645666384E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.4991837406929172E-4</c:v>
+                  <c:v>7.57397453019786E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4327577286113032E-3</c:v>
+                  <c:v>1.1546843221495857E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1069966597224983E-3</c:v>
+                  <c:v>1.7163557674237707E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.0229507313091855E-3</c:v>
+                  <c:v>2.4890148794486917E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.233824553654314E-3</c:v>
+                  <c:v>3.5235646014508334E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.7918256547938671E-3</c:v>
+                  <c:v>4.8721182296473028E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.7430824261949987E-3</c:v>
+                  <c:v>6.5836870362961071E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0121676374111127E-2</c:v>
+                  <c:v>8.6988271254172921E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2943320171497586E-2</c:v>
+                  <c:v>1.1243639284467945E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6199399463701622E-2</c:v>
+                  <c:v>1.4223716322782826E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9852205225124573E-2</c:v>
+                  <c:v>1.7618781945066136E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3832179141806197E-2</c:v>
+                  <c:v>2.1378825205645824E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.8037857813889608E-2</c:v>
+                  <c:v>2.5422477287399436E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.2338936348200231E-2</c:v>
+                  <c:v>2.9638193409007384E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.658250718122201E-2</c:v>
+                  <c:v>3.3888505760518862E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.0602116738315194E-2</c:v>
+                  <c:v>3.8017240155061895E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4228885335855332E-2</c:v>
+                  <c:v>4.1859194054330015E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.7303620680059187E-2</c:v>
+                  <c:v>4.525141965042119E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9688677184936123E-2</c:v>
+                  <c:v>4.8045002190064537E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.1278304628417037E-2</c:v>
+                  <c:v>5.0116115066428234E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.2006394146467579E-2</c:v>
+                  <c:v>5.1375189878441939E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1850841621602771E-2</c:v>
+                  <c:v>5.1773254303650207E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0834158452551736E-2</c:v>
+                  <c:v>5.1304829621855279E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.9020403522229243E-2</c:v>
+                  <c:v>5.0007189903082352E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.6508921747845579E-2</c:v>
+                  <c:v>4.795620377341675E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3425697243553336E-2</c:v>
+                  <c:v>4.5259346962576087E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.9913324672383552E-2</c:v>
+                  <c:v>4.2046741530857509E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.6120655812111803E-2</c:v>
+                  <c:v>3.8461217198116272E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.2193097871757399E-2</c:v>
+                  <c:v>3.4648395233454525E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.8264352828584225E-2</c:v>
+                  <c:v>3.0747680375615743E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4450132204657596E-2</c:v>
+                  <c:v>2.6884841538511037E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0844102476263952E-2</c:v>
+                  <c:v>2.3166606725317385E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.7516052501062133E-2</c:v>
+                  <c:v>1.9677432079749198E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4512056753158335E-2</c:v>
+                  <c:v>1.6478364651089754E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1856255517286241E-2</c:v>
+                  <c:v>1.3607728904332447E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.5537917141710182E-3</c:v>
+                  <c:v>1.1083242211317361E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.5944290255731441E-3</c:v>
+                  <c:v>8.9051069659271901E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.9564149220181451E-3</c:v>
+                  <c:v>7.0596295604169312E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.610228267815911E-3</c:v>
+                  <c:v>5.5229658327923519E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.5219467286599711E-3</c:v>
+                  <c:v>4.2646723183825197E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.6560684228204984E-3</c:v>
+                  <c:v>3.2508362983714335E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9777128986005173E-3</c:v>
+                  <c:v>2.4466511164234904E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.4542006607356718E-3</c:v>
+                  <c:v>1.8183860618847488E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0560643868813911E-3</c:v>
+                  <c:v>1.3347659240854162E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.575784697857863E-4</c:v>
+                  <c:v>9.678215637706454E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.3690890842366464E-4</c:v>
+                  <c:v>6.9330005996788503E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.7598663054878428E-4</c:v>
+                  <c:v>4.9073381795686026E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.6019836024137314E-4</c:v>
+                  <c:v>3.4326624375402749E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7797425461106182E-4</c:v>
+                  <c:v>2.3732128015020872E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2033418161667477E-4</c:v>
+                  <c:v>1.6218902594173563E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.0437287176922083E-5</c:v>
+                  <c:v>1.0958291005998429E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.316410256240675E-5</c:v>
+                  <c:v>7.320771615885339E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.4747779452553666E-5</c:v>
+                  <c:v>4.8363573754467918E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.2461395896931751E-5</c:v>
+                  <c:v>3.1599559492322467E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.4361506327961524E-5</c:v>
+                  <c:v>2.0421951336497921E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.0838117191406956E-6</c:v>
+                  <c:v>1.3056246000384622E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.6844879343809361E-6</c:v>
+                  <c:v>8.2583732300304975E-6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.5198067705145513E-6</c:v>
+                  <c:v>5.1686239674266312E-6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.1567443446780151E-6</c:v>
+                  <c:v>3.2011626417305971E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3079104576579916E-6</c:v>
+                  <c:v>1.9621854071992253E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.8506029871427333E-7</c:v>
+                  <c:v>1.1904687557963875E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.6646482395381858E-7</c:v>
+                  <c:v>7.1496839273081573E-7</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.7439107291400973E-7</c:v>
+                  <c:v>4.2509977864938072E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.5980842918696073E-7</c:v>
+                  <c:v>2.5024968581877093E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.2161723867912603E-8</c:v>
+                  <c:v>1.4587383646746823E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.263376577265118E-8</c:v>
+                  <c:v>8.4206228485105298E-8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.9770229509418292E-8</c:v>
+                  <c:v>4.8140978427885073E-8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.6677999725164284E-8</c:v>
+                  <c:v>2.7260238396851549E-8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9.2552717675718017E-9</c:v>
+                  <c:v>1.5290715930956349E-8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.0881098227441656E-9</c:v>
+                  <c:v>8.4966568364005507E-9</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.7713016463748432E-9</c:v>
+                  <c:v>4.6776568456480981E-9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.4955756321504842E-9</c:v>
+                  <c:v>2.551560654205397E-9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.9977306532110606E-10</c:v>
+                  <c:v>1.379168239325053E-9</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.2383310297886663E-10</c:v>
+                  <c:v>7.3875137864489318E-10</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.2260141963175455E-10</c:v>
+                  <c:v>3.9217898442858302E-10</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1587788632574511E-10</c:v>
+                  <c:v>2.0635258321007967E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.9792511003995906E-11</c:v>
+                  <c:v>1.0762399139352992E-10</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.0584404605624675E-11</c:v>
+                  <c:v>5.5643608966443225E-11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.5509332964312672E-11</c:v>
+                  <c:v>2.8520775925903062E-11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.797553023787145E-12</c:v>
+                  <c:v>1.4493708107888886E-11</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.8871151663943717E-12</c:v>
+                  <c:v>7.3030040127159993E-12</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.921460784179135E-12</c:v>
+                  <c:v>3.6488718728600416E-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9.4189254126428752E-13</c:v>
+                  <c:v>1.807929135100402E-12</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.5789622813042942E-13</c:v>
+                  <c:v>8.8838265174590505E-13</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.2077928068004725E-13</c:v>
+                  <c:v>4.329565101365892E-13</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.0558550008610757E-13</c:v>
+                  <c:v>2.0928745588716337E-13</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.0087998143314694E-14</c:v>
+                  <c:v>1.0035188841041302E-13</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.3570822655677842E-14</c:v>
+                  <c:v>4.7733092521615247E-14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.1004118886871156E-14</c:v>
+                  <c:v>2.2524391278340615E-14</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.0968591416724892E-15</c:v>
+                  <c:v>1.0545164960680864E-14</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.3423065908421581E-15</c:v>
+                  <c:v>4.8983232774948173E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.0680832607579447E-15</c:v>
+                  <c:v>2.2576767974455455E-15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.8329559310314233E-16</c:v>
+                  <c:v>1.0325770143921279E-15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.170164315685354E-16</c:v>
+                  <c:v>4.6865709202835894E-16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.670963973642672E-17</c:v>
+                  <c:v>2.1109857327078478E-16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>4.2772949905539923E-17</c:v>
+                  <c:v>9.4370812239852108E-17</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.8776536394003749E-17</c:v>
+                  <c:v>4.1873275111115643E-17</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.1814973394351616E-18</c:v>
+                  <c:v>1.8441965186503747E-17</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.5387099219009531E-18</c:v>
+                  <c:v>8.0625482254442592E-18</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.5194117311726162E-18</c:v>
+                  <c:v>3.4990954863710874E-18</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.4766058447255564E-19</c:v>
+                  <c:v>1.5075813058257213E-18</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.740840391335427E-19</c:v>
+                  <c:v>6.448667415053055E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,10 +4585,10 @@
                   <c:v>89.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.2</c:v>
@@ -8602,8 +8608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8735,11 +8741,11 @@
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.7490056095273738</v>
+        <v>2.7242072823834773</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>4.8495096452302653E-8</v>
+        <v>3.2319100103369133E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
@@ -8776,18 +8782,18 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.5172815974949891</v>
+        <v>5.595078606091743</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>0.13384184871480589</v>
+        <v>0.10918836672666168</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43573</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -8820,18 +8826,18 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>7.7690645789321602</v>
+        <v>8.0147329266841414</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>18.352030470749956</v>
+        <v>17.770729275353961</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -8864,11 +8870,11 @@
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>7.6765379250875956</v>
+        <v>8.0085501042798644</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>15.345213321825549</v>
+        <v>16.897288898056196</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
@@ -8899,22 +8905,22 @@
       </c>
       <c r="I8" s="27">
         <f>SUM(Calc!O2:O406)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>5.3224681260491309</v>
+        <v>5.5821381048721559</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>0.16889235516074758</v>
+        <v>0.22275791008481335</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>33.096534906805125</v>
+        <v>32.814929404719656</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -8947,18 +8953,18 @@
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>2.5890990370444786</v>
+        <v>2.7137114144061405</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>2.1954991961689981E-5</v>
+        <v>3.5517335758049597E-5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>58.823529411764703</v>
+        <v>59.457142857142856</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8991,18 +8997,18 @@
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>0.88338884499456682</v>
+        <v>0.91984890843618128</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>6.1886680026047247E-11</v>
+        <v>1.2350614580290135E-10</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>2000</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9035,18 +9041,18 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.21132570227330144</v>
+        <v>0.21730954472023378</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>6.6947359730063813E-18</v>
+        <v>1.6514562852446025E-17</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.97058823529411764</v>
+        <v>0.97142857142857142</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9101,15 +9107,15 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>32.506845719130297</v>
+        <v>33.558267347153702</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>34.000000000000007</v>
+        <v>35.000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9141,7 +9147,7 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>8.6464911918324477E-2</v>
+        <v>9.1504562119647456E-2</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
@@ -9174,7 +9180,7 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>21470.588235294115</v>
+        <v>21701.857142857141</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9294,7 +9300,7 @@
       </c>
       <c r="Z20">
         <f>SLOPE(F2:F35,A2:A35)</f>
-        <v>57.554927425515672</v>
+        <v>57.559969442322391</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -9323,7 +9329,7 @@
       </c>
       <c r="Z21">
         <f>INTERCEPT(F2:F35,A2:A35)</f>
-        <v>-137.005347593583</v>
+        <v>-137.06417112299482</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -9626,15 +9632,15 @@
         <v>43572</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3">
         <f>AVERAGE(D$2:D35)</f>
-        <v>58.823529411764703</v>
+        <v>58.852941176470587</v>
       </c>
       <c r="F35">
         <f>SUM($D$2:D35)</f>
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -9646,6 +9652,17 @@
       </c>
       <c r="C36" s="1">
         <v>43573</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3">
+        <f>AVERAGE(D$2:D36)</f>
+        <v>59.457142857142856</v>
+      </c>
+      <c r="F36">
+        <f>SUM($D$2:D36)</f>
+        <v>2081</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -9906,7 +9923,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9941,15 +9958,15 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
@@ -9990,11 +10007,11 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>13.3764705882353</v>
+        <v>12.742857142857147</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.2274</v>
+        <v>1.2143200384430564</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -10015,11 +10032,11 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>30.3764705882353</v>
+        <v>29.742857142857147</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.5164000000000002</v>
+        <v>1.5002402691013936</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
@@ -10028,7 +10045,7 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
@@ -10036,15 +10053,15 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>57.8</v>
+        <v>58</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0235294117647058</v>
+        <v>-1.4571428571428555</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98260000000000003</v>
+        <v>0.97549255165785687</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
@@ -10053,23 +10070,23 @@
       </c>
       <c r="D8" s="11">
         <f>SUM(Calc!F2:F1000)</f>
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>47.2</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-19.823529411764703</v>
+        <v>-12.257142857142853</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66300000000000003</v>
+        <v>0.79384911100432487</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -10090,11 +10107,11 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.6235294117647</v>
+        <v>-16.257142857142853</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73440000000000005</v>
+        <v>0.72657376261412787</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -10115,11 +10132,11 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0235294117647058</v>
+        <v>-4.6571428571428584</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93159999999999998</v>
+        <v>0.9216722729456992</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
@@ -10140,11 +10157,11 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.2235294117647015</v>
+        <v>-7.8571428571428541</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87720000000000009</v>
+        <v>0.86785199423354165</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
@@ -10161,15 +10178,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>2000</v>
+        <v>2081</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>58.823529411764703</v>
+        <v>59.457142857142856</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -10188,16 +10205,16 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>87.799632745268823</v>
+        <v>74.332677462711587</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>16.061920997267094</v>
+        <v>14.866535492542312</v>
       </c>
       <c r="G15" s="16">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>16.061920997267077</v>
+        <v>14.866535492542317</v>
       </c>
       <c r="H15" s="17"/>
     </row>
@@ -10251,7 +10268,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10262,7 +10279,7 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -10275,7 +10292,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
@@ -10286,7 +10303,7 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -10295,22 +10312,22 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>57.8</v>
+        <v>58</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -10319,22 +10336,22 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>235.29411764705881</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>39</v>
+        <v>47.2</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>33.613445378151262</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -10347,7 +10364,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
@@ -10358,7 +10375,7 @@
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -10371,7 +10388,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -10382,7 +10399,7 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -10395,7 +10412,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>294.11764705882354</v>
+        <v>297.28571428571428</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -10406,7 +10423,7 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.016806722689076</v>
+        <v>42.469387755102041</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -10423,7 +10440,7 @@
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>3.3133328743217938E-29</v>
+        <v>1.2233888069867503E-25</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10431,7 +10448,7 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>9.6916575722318521E-17</v>
+        <v>5.332935306064023E-16</v>
       </c>
       <c r="I31" s="17"/>
     </row>
@@ -10473,11 +10490,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.484157823388533E-3</v>
+        <v>2.3547979756161175E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8396562499021538E-26</v>
+        <v>1.5069226040618702E-26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10486,11 +10503,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6200114479744754E-3</v>
+        <v>2.4873207274239192E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6703860293542077E-24</v>
+        <v>8.9597312544364373E-25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10499,11 +10516,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7607731069645793E-3</v>
+        <v>2.6248628235899922E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9129000863358795E-23</v>
+        <v>2.6636001057831625E-23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10512,11 +10529,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9064426942499518E-3</v>
+        <v>2.7674394191270556E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>9.6331374241880416E-22</v>
+        <v>5.2790017334617021E-22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10525,11 +10542,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0570063090369281E-3</v>
+        <v>2.9150521003760733E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>1.416637856498246E-20</v>
+        <v>7.8468590052384624E-21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10538,11 +10555,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.212435580263922E-3</v>
+        <v>3.0676881421739244E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6666327723508791E-19</v>
+        <v>9.3310363370864333E-20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10551,11 +10568,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3726870234161502E-3</v>
+        <v>3.225319793218352E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6339536983832082E-18</v>
+        <v>9.246612674988953E-19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,11 +10581,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.537701435025715E-3</v>
+        <v>3.3879035952165421E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3730703347758051E-17</v>
+        <v>7.8539595823069447E-18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10577,11 +10594,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7074033301690893E-3</v>
+        <v>3.5553797414736494E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>1.009610540276324E-16</v>
+        <v>5.8371749609931115E-17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,11 +10607,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8817004282601097E-3</v>
+        <v>3.7276714806081285E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5987617011524684E-16</v>
+        <v>3.8562416170878186E-16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10603,11 +10620,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0604831923823931E-3</v>
+        <v>3.9046845710696749E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8816245300896897E-15</v>
+        <v>2.2928110871885109E-15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10616,11 +10633,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2436244273090264E-3</v>
+        <v>4.086306792080675E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0757350428287128E-14</v>
+        <v>1.2393090577764408E-14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10629,11 +10646,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4309789412182929E-3</v>
+        <v>4.2724075165217999E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0175171778572074E-13</v>
+        <v>6.1404813076970553E-14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10642,11 +10659,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6223832759312135E-3</v>
+        <v>4.4628373511353091E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6041501260507296E-13</v>
+        <v>2.8084267255643024E-13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10655,11 +10672,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8176555102692042E-3</v>
+        <v>4.6574278492247509E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9345168596851782E-12</v>
+        <v>1.1927216358978185E-12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10668,11 +10685,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0165951408582326E-3</v>
+        <v>4.8559913007865021E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5863406262163737E-12</v>
+        <v>4.7277213796254429E-12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10681,11 +10698,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2189830443895536E-3</v>
+        <v>5.0583206047168476E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7890958184619123E-11</v>
+        <v>1.7568550341072416E-11</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10694,11 +10711,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4245815249874237E-3</v>
+        <v>5.2641892273983144E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>9.6508505829131823E-11</v>
+        <v>6.1445635730709148E-11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10707,11 +10724,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6331344499320323E-3</v>
+        <v>5.4733512515816023E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1538727395141136E-10</v>
+        <v>2.0296566342159517E-10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,11 +10737,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.84436747654298E-3</v>
+        <v>5.6855415190458364E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>9.7643118870405762E-10</v>
+        <v>6.3514518132381774E-10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -10733,11 +10750,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0579883725470473E-3</v>
+        <v>5.9004758700418984E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8718564373648651E-9</v>
+        <v>1.8881958890498146E-9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -10746,11 +10763,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.273687431736074E-3</v>
+        <v>6.1178514820033397E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>8.0444157909380074E-9</v>
+        <v>5.3460348913097363E-9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10759,11 +10776,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.491137986169627E-3</v>
+        <v>6.3373473094498131E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1509133130850375E-8</v>
+        <v>1.4448180011448799E-8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10772,11 +10789,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7099970155959417E-3</v>
+        <v>6.558624626411969E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5010570667136434E-8</v>
+        <v>3.7349891433322887E-8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10785,11 +10802,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9299058541572138E-3</v>
+        <v>6.7813276720784408E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>1.348298300665105E-7</v>
+        <v>9.2529909610410412E-8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -10798,11 +10815,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1504909938158393E-3</v>
+        <v>7.0050843997084989E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>3.172466589800246E-7</v>
+        <v>2.2006256217058836E-7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10811,11 +10828,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.3713649832910719E-3</v>
+        <v>7.2295073281733839E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>7.1775262212675553E-7</v>
+        <v>5.0324196909559698E-7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -10824,11 +10841,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5921274206355686E-3</v>
+        <v>7.4541944947894853E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5637312028905347E-6</v>
+        <v>1.1081973943787702E-6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10837,11 +10854,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8123660369136321E-3</v>
+        <v>7.6787305073931968E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2851495859044714E-6</v>
+        <v>2.3532232425532862E-6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10850,11 +10867,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0316578677728252E-3</v>
+        <v>7.9026876928859069E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>6.6635894237413278E-6</v>
+        <v>4.8246872588703237E-6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,11 +10880,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.2495705090334971E-3</v>
+        <v>8.1256273387538859E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3065861615179133E-5</v>
+        <v>9.5620706530563417E-6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -10876,11 +10893,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.4656634517625111E-3</v>
+        <v>8.3471010233480795E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4792906290662423E-5</v>
+        <v>1.8339787123511784E-5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -10889,11 +10906,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6794894916534891E-3</v>
+        <v>8.566652029999124E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5575195387247048E-5</v>
+        <v>3.4075979467882121E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -10902,11 +10919,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.890596206912316E-3</v>
+        <v>8.7838168393495897E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1239207463898599E-5</v>
+        <v>6.1395769067240316E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -10915,11 +10932,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0985274982488921E-3</v>
+        <v>8.9981266936147962E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4055226204826688E-4</v>
+        <v>1.0736520624279626E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -10928,11 +10945,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3028251840101307E-3</v>
+        <v>9.209109225842069E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3622228915675072E-4</v>
+        <v>1.823893830132725E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -10941,11 +10958,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.5030306429603039E-3</v>
+        <v>9.4162901466318828E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8598413260907343E-4</v>
+        <v>3.0123198892906337E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10954,11 +10971,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.69868649672837E-3</v>
+        <v>9.6191949802192801E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1364726964876408E-4</v>
+        <v>4.8406468645666384E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10967,11 +10984,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8893383235030725E-3</v>
+        <v>9.817350841295933E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4991837406929172E-4</v>
+        <v>7.57397453019786E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10980,11 +10997,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.007453639416989E-2</v>
+        <v>1.0010288243487752E-2</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4327577286113032E-3</v>
+        <v>1.1546843221495857E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10993,11 +11010,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0253837421753882E-2</v>
+        <v>1.0197542929995166E-2</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1069966597224983E-3</v>
+        <v>1.7163557674237707E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -11006,11 +11023,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0426806314762938E-2</v>
+        <v>1.0378657716557884E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0229507313091855E-3</v>
+        <v>2.4890148794486917E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -11019,11 +11036,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0593017924820387E-2</v>
+        <v>1.055318433662714E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>4.233824553654314E-3</v>
+        <v>3.5235646014508334E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -11032,11 +11049,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0752058778837283E-2</v>
+        <v>1.0720685278420128E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7918256547938671E-3</v>
+        <v>4.8721182296473028E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11045,11 +11062,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.090352878590535E-2</v>
+        <v>1.0880735603396269E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7430824261949987E-3</v>
+        <v>6.5836870362961071E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -11058,11 +11075,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1047042909093176E-2</v>
+        <v>1.1032924735635951E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0121676374111127E-2</v>
+        <v>8.6988271254172921E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -11071,11 +11088,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1182232792402271E-2</v>
+        <v>1.117685821162095E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2943320171497586E-2</v>
+        <v>1.1243639284467945E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -11084,11 +11101,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1308748333286069E-2</v>
+        <v>1.1312159380013261E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6199399463701622E-2</v>
+        <v>1.4223716322782826E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11097,11 +11114,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1426259191354234E-2</v>
+        <v>1.1438471041205727E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9852205225124573E-2</v>
+        <v>1.7618781945066136E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -11110,11 +11127,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1534456224175397E-2</v>
+        <v>1.1555457016673378E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3832179141806197E-2</v>
+        <v>2.1378825205645824E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -11123,11 +11140,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1633052841452716E-2</v>
+        <v>1.1662803638487771E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8037857813889608E-2</v>
+        <v>2.5422477287399436E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11136,11 +11153,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1721786269275751E-2</v>
+        <v>1.1760221149765937E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2338936348200231E-2</v>
+        <v>2.9638193409007384E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,11 +11166,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1800418716646706E-2</v>
+        <v>1.1847445007308255E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>3.658250718122201E-2</v>
+        <v>3.3888505760518862E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -11162,11 +11179,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1868738437035474E-2</v>
+        <v>1.1924237078232461E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0602116738315194E-2</v>
+        <v>3.8017240155061895E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -11175,11 +11192,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.192656067833203E-2</v>
+        <v>1.1990386723030143E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4228885335855332E-2</v>
+        <v>4.1859194054330015E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11188,11 +11205,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1973728515232202E-2</v>
+        <v>1.2045711758152691E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7303620680059187E-2</v>
+        <v>4.525141965042119E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -11201,11 +11218,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2010113558808395E-2</v>
+        <v>1.2090059291970774E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9688677184936123E-2</v>
+        <v>4.8045002190064537E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -11214,11 +11231,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2035616538774847E-2</v>
+        <v>1.2123306428739095E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1278304628417037E-2</v>
+        <v>5.0116115066428234E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -11227,11 +11244,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2050167754751696E-2</v>
+        <v>1.2145360836030045E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2006394146467579E-2</v>
+        <v>5.1375189878441939E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11240,11 +11257,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2053727393656805E-2</v>
+        <v>1.2156161171969585E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1850841621602771E-2</v>
+        <v>5.1773254303650207E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -11253,11 +11270,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2046285711202562E-2</v>
+        <v>1.2155677369508497E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0834158452551736E-2</v>
+        <v>5.1304829621855279E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -11266,11 +11283,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2027863076339639E-2</v>
+        <v>1.2143910775885306E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9020403522229243E-2</v>
+        <v>5.0007189903082352E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -11279,11 +11296,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1998509878364037E-2</v>
+        <v>1.2120894146375473E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6508921747845579E-2</v>
+        <v>4.795620377341675E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,11 +11309,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1958306297280296E-2</v>
+        <v>1.2086691492367494E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3425697243553336E-2</v>
+        <v>4.5259346962576087E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -11305,11 +11322,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.190736193888558E-2</v>
+        <v>1.2041397784752057E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9913324672383552E-2</v>
+        <v>4.2046741530857509E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -11318,11 +11335,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1845815336899006E-2</v>
+        <v>1.1985138514547888E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6120655812111803E-2</v>
+        <v>3.8461217198116272E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11331,11 +11348,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1773833325301426E-2</v>
+        <v>1.1918069113609153E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2193097871757399E-2</v>
+        <v>3.4648395233454525E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -11344,11 +11361,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1691610284865605E-2</v>
+        <v>1.1840374239157087E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8264352828584225E-2</v>
+        <v>3.0747680375615743E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -11357,11 +11374,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1599367268639226E-2</v>
+        <v>1.1752266926744952E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4450132204657596E-2</v>
+        <v>2.6884841538511037E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -11370,11 +11387,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1497351011886878E-2</v>
+        <v>1.1653987617094037E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0844102476263952E-2</v>
+        <v>2.3166606725317385E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -11383,11 +11400,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1385832832696336E-2</v>
+        <v>1.1545803063021793E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7516052501062133E-2</v>
+        <v>1.9677432079749198E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -11396,11 +11413,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1265107430103631E-2</v>
+        <v>1.1428005123415805E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4512056753158335E-2</v>
+        <v>1.6478364651089754E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -11409,11 +11426,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1135491587185726E-2</v>
+        <v>1.1300909451882779E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1856255517286241E-2</v>
+        <v>1.3607728904332447E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -11422,11 +11439,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0997322787104495E-2</v>
+        <v>1.1164854088315416E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5537917141710182E-3</v>
+        <v>1.1083242211317361E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -11435,11 +11452,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0850957750557586E-2</v>
+        <v>1.1020197962166977E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5944290255731441E-3</v>
+        <v>8.9051069659271901E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -11448,11 +11465,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0696770903497221E-2</v>
+        <v>1.0867319316699965E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>5.9564149220181451E-3</v>
+        <v>7.0596295604169312E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -11461,11 +11478,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0535152784314472E-2</v>
+        <v>1.0706614063878232E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>4.610228267815911E-3</v>
+        <v>5.5229658327923519E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -11474,11 +11491,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0366508399952352E-2</v>
+        <v>1.0538494079898538E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5219467286599711E-3</v>
+        <v>4.2646723183825197E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -11487,11 +11504,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0191255540604608E-2</v>
+        <v>1.0363385451606413E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6560684228204984E-3</v>
+        <v>3.2508362983714335E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -11500,11 +11517,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0009823062778044E-2</v>
+        <v>1.018172668421111E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9777128986005173E-3</v>
+        <v>2.4466511164234904E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -11513,11 +11530,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8226491505445102E-3</v>
+        <v>9.9939668808050348E-3</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4542006607356718E-3</v>
+        <v>1.8183860618847488E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -11526,11 +11543,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6301795647851934E-3</v>
+        <v>9.8005639042050372E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0560643868813911E-3</v>
+        <v>1.3347659240854162E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -11539,11 +11556,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.432865890135712E-3</v>
+        <v>9.6019825315672592E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>7.575784697857863E-4</v>
+        <v>9.678215637706454E-4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -11552,11 +11569,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2311637891780429E-3</v>
+        <v>9.3986926120858127E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3690890842366464E-4</v>
+        <v>6.9330005996788503E-4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -11565,11 +11582,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0255312731967671E-3</v>
+        <v>9.1911672378711274E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7598663054878428E-4</v>
+        <v>4.9073381795686026E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -11578,11 +11595,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.8164269985258371E-3</v>
+        <v>8.9798809378190819E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6019836024137314E-4</v>
+        <v>3.4326624375402749E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -11591,11 +11608,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6043085971615196E-3</v>
+        <v>8.7653079039312215E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7797425461106182E-4</v>
+        <v>2.3732128015020872E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -11604,11 +11621,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3896310499116198E-3</v>
+        <v>8.5479202591334843E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2033418161667477E-4</v>
+        <v>1.6218902594173563E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -11617,11 +11634,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1728451098947632E-3</v>
+        <v>8.3281863751706181E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>8.0437287176922083E-5</v>
+        <v>1.0958291005998429E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -11630,11 +11647,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9543957837016153E-3</v>
+        <v>8.1065692486312537E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>5.316410256240675E-5</v>
+        <v>7.320771615885339E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -11643,11 +11660,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.7347208769871743E-3</v>
+        <v>7.8835249425897036E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4747779452553666E-5</v>
+        <v>4.8363573754467918E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -11656,11 +11673,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5142496106855505E-3</v>
+        <v>7.6595011007409867E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2461395896931751E-5</v>
+        <v>3.1599559492322467E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -11669,11 +11686,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2934013134310603E-3</v>
+        <v>7.4349355402612526E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4361506327961524E-5</v>
+        <v>2.0421951336497921E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -11682,11 +11699,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0725841951380297E-3</v>
+        <v>7.2102549289529737E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>9.0838117191406956E-6</v>
+        <v>1.3056246000384622E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -11695,11 +11712,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.8521942060420686E-3</v>
+        <v>6.985873551539336E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>5.6844879343809361E-6</v>
+        <v>8.2583732300304975E-6</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -11708,11 +11725,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.6326139848435313E-3</v>
+        <v>6.7621921692614167E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5198067705145513E-6</v>
+        <v>5.1686239674266312E-6</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -11721,11 +11738,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4142118989249921E-3</v>
+        <v>6.539596976211412E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1567443446780151E-6</v>
+        <v>3.2011626417305971E-6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -11734,11 +11751,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1973411789447656E-3</v>
+        <v>6.3184586551114866E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3079104576579916E-6</v>
+        <v>1.9621854071992253E-6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,11 +11764,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9823391494428875E-3</v>
+        <v>6.0991315345268271E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8506029871427333E-7</v>
+        <v>1.1904687557963875E-6</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -11760,11 +11777,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7695265564399849E-3</v>
+        <v>5.8819528487891537E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6646482395381858E-7</v>
+        <v>7.1496839273081573E-7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -11773,11 +11790,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5592069923679922E-3</v>
+        <v>5.6672421012085574E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7439107291400973E-7</v>
+        <v>4.2509977864938072E-7</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -11786,11 +11803,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.351666418049553E-3</v>
+        <v>5.4553005304727236E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5980842918696073E-7</v>
+        <v>2.5024968581877093E-7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -11799,11 +11816,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1471727808442566E-3</v>
+        <v>5.2464106794779019E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2161723867912603E-8</v>
+        <v>1.4587383646746823E-7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -11812,11 +11829,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9459757275089394E-3</v>
+        <v>5.0408360652102477E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>5.263376577265118E-8</v>
+        <v>8.4206228485105298E-8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -11825,11 +11842,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7483064097794446E-3</v>
+        <v>4.8388209477032091E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9770229509418292E-8</v>
+        <v>4.8140978427885073E-8</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -11838,11 +11855,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5543773801758848E-3</v>
+        <v>4.6405901955402099E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6677999725164284E-8</v>
+        <v>2.7260238396851549E-8</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -11851,11 +11868,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3643825750651682E-3</v>
+        <v>4.4463492448552711E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2552717675718017E-9</v>
+        <v>1.5290715930956349E-8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -11864,11 +11881,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1784973815859085E-3</v>
+        <v>4.2562841483098739E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0881098227441656E-9</v>
+        <v>8.4966568364005507E-9</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -11877,11 +11894,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9968787846534513E-3</v>
+        <v>4.070561710094716E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7713016463748432E-9</v>
+        <v>4.6776568456480981E-9</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -11890,11 +11907,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8196655899182751E-3</v>
+        <v>3.8893297026216006E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4955756321504842E-9</v>
+        <v>2.551560654205397E-9</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -11903,11 +11920,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6469787182503459E-3</v>
+        <v>3.7127171602348934E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9977306532110606E-10</v>
+        <v>1.379168239325053E-9</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -11916,11 +11933,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.478921567065738E-3</v>
+        <v>3.5408347449843013E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2383310297886663E-10</v>
+        <v>7.3875137864489318E-10</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -11929,11 +11946,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.315580433600137E-3</v>
+        <v>3.3737751792617568E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2260141963175455E-10</v>
+        <v>3.9217898442858302E-10</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -11942,11 +11959,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1570249950663419E-3</v>
+        <v>3.2116137399143116E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1587788632574511E-10</v>
+        <v>2.0635258321007967E-10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -11955,11 +11972,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0033088405092057E-3</v>
+        <v>3.0544088083020483E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>5.9792511003995906E-11</v>
+        <v>1.0762399139352992E-10</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -11968,11 +11985,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.854470049090225E-3</v>
+        <v>2.9022024706735912E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0584404605624675E-11</v>
+        <v>5.5643608966443225E-11</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -11981,11 +11998,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7105318094942741E-3</v>
+        <v>2.7550211631808363E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5509332964312672E-11</v>
+        <v>2.8520775925903062E-11</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11994,11 +12011,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5715030751507968E-3</v>
+        <v>2.6128763558470104E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>7.797553023787145E-12</v>
+        <v>1.4493708107888886E-11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -12007,11 +12024,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.437379249999443E-3</v>
+        <v>2.4757652698362545E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8871151663943717E-12</v>
+        <v>7.3030040127159993E-12</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12020,11 +12037,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3081428996034122E-3</v>
+        <v>2.3436716224461258E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>1.921460784179135E-12</v>
+        <v>3.6488718728600416E-12</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -12033,11 +12050,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1837644825202476E-3</v>
+        <v>2.2165663943542954E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4189254126428752E-13</v>
+        <v>1.807929135100402E-12</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -12046,11 +12063,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0642030969770767E-3</v>
+        <v>2.0944086137944093E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5789622813042942E-13</v>
+        <v>8.8838265174590505E-13</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12059,11 +12076,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9494072380625161E-3</v>
+        <v>1.9771461525107097E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2077928068004725E-13</v>
+        <v>4.329565101365892E-13</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -12072,11 +12089,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8393155608379531E-3</v>
+        <v>1.8647165285435544E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0558550008610757E-13</v>
+        <v>2.0928745588716337E-13</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -12085,11 +12102,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7338576449837473E-3</v>
+        <v>1.7570477111251673E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0087998143314694E-14</v>
+        <v>1.0035188841041302E-13</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -12098,11 +12115,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6329547568281768E-3</v>
+        <v>1.6540589232137794E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3570822655677842E-14</v>
+        <v>4.7733092521615247E-14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -12111,11 +12128,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5365206048557943E-3</v>
+        <v>1.5556614374613654E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1004118886871156E-14</v>
+        <v>2.2524391278340615E-14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -12124,11 +12141,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.444462085054273E-3</v>
+        <v>1.4617593616924344E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0968591416724892E-15</v>
+        <v>1.0545164960680864E-14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -12137,11 +12154,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3566800127320061E-3</v>
+        <v>1.3722504102655307E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3423065908421581E-15</v>
+        <v>4.8983232774948173E-15</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -12150,11 +12167,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2730698377198502E-3</v>
+        <v>1.2870266579921286E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0680832607579447E-15</v>
+        <v>2.2576767974455455E-15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -12163,11 +12180,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1935223401568448E-3</v>
+        <v>1.2059752735966724E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8329559310314233E-16</v>
+        <v>1.0325770143921279E-15</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -12176,11 +12193,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1179243043486799E-3</v>
+        <v>1.128979230013497E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>2.170164315685354E-16</v>
+        <v>4.6865709202835894E-16</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -12189,11 +12206,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0461591684770564E-3</v>
+        <v>1.0559179891288053E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>9.670963973642672E-17</v>
+        <v>2.1109857327078478E-16</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -12202,11 +12219,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.7810764822509337E-4</v>
+        <v>9.8666815888605558E-4</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2772949905539923E-17</v>
+        <v>9.4370812239852108E-17</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -12215,11 +12232,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.1364833266690062E-4</v>
+        <v>9.2110412097873285E-4</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8776536394003749E-17</v>
+        <v>4.1873275111115643E-17</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -12228,11 +12245,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5265825104599037E-4</v>
+        <v>8.5909862765339191E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1814973394351616E-18</v>
+        <v>1.8441965186503747E-17</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -12241,11 +12258,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9501340933583369E-4</v>
+        <v>8.0052336643595919E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5387099219009531E-18</v>
+        <v>8.0625482254442592E-18</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -12254,11 +12271,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4058929573475444E-4</v>
+        <v>7.4524949187396671E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5194117311726162E-18</v>
+        <v>3.4990954863710874E-18</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -12267,11 +12284,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.8926135449524863E-4</v>
+        <v>6.931481236549593E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>6.4766058447255564E-19</v>
+        <v>1.5075813058257213E-18</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -12280,11 +12297,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4090542772332853E-4</v>
+        <v>6.4409081071547863E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>2.740840391335427E-19</v>
+        <v>6.448667415053055E-19</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -12293,11 +12310,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9539816500570129E-4</v>
+        <v>5.9794996119463784E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1516136098047818E-19</v>
+        <v>2.7387095695357914E-19</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -12306,11 +12323,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5261740093060212E-4</v>
+        <v>5.5459923831042372E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8043955352722574E-20</v>
+        <v>1.1548641568802511E-19</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -12319,11 +12336,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1244250076119846E-4</v>
+        <v>5.1391392244475628E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9902218455974816E-20</v>
+        <v>4.8355579687480225E-20</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -12332,11 +12349,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7475467469827926E-4</v>
+        <v>4.7577123991449517E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1868442846462724E-21</v>
+        <v>2.0105486779150119E-20</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -12345,11 +12362,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3943726133099307E-4</v>
+        <v>4.400506590796203E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3442991358848984E-21</v>
+        <v>8.3014916641690077E-21</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -12358,11 +12375,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0637598102065257E-4</v>
+        <v>4.066341545966127E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3567136453894028E-21</v>
+        <v>3.4040205227852933E-21</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -12371,11 +12388,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7545916009297314E-4</v>
+        <v>3.7540644076457404E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4662113029387165E-22</v>
+        <v>1.3862557158348981E-21</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -12384,11 +12401,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.465779268287807E-4</v>
+        <v>3.4625517503402694E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1873594649614667E-22</v>
+        <v>5.606993478430358E-22</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -12397,11 +12414,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1962638034236339E-4</v>
+        <v>3.1907113285392278E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>8.6937975554910425E-23</v>
+        <v>2.2525392719330774E-22</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -12410,11 +12427,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9450173352074362E-4</v>
+        <v>2.937483551215624E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>3.432213800035944E-23</v>
+        <v>8.9885603545402451E-23</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -12423,11 +12440,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.711044312665697E-4</v>
+        <v>2.7018426957345967E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3459661960924797E-23</v>
+        <v>3.5628941138663112E-23</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -12436,11 +12453,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4933824534274757E-4</v>
+        <v>2.4827978751326425E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2433431869594958E-24</v>
+        <v>1.4029106245895788E-23</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -12449,11 +12466,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2911034715891599E-4</v>
+        <v>2.2793937731645437E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0291575800926663E-24</v>
+        <v>5.4877011461858824E-24</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -12462,11 +12479,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1033135986919669E-4</v>
+        <v>2.0907111618137934E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8014516727899348E-25</v>
+        <v>2.1325688301050986E-24</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -12475,11 +12492,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.929153911680347E-4</v>
+        <v>1.915867216132626E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9799280644728198E-25</v>
+        <v>8.2335356872892612E-25</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -12488,11 +12505,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7678004817726304E-4</v>
+        <v>1.754015641328353E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1309024912610546E-25</v>
+        <v>3.1583387585712102E-25</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12501,11 +12518,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6184643581354952E-4</v>
+        <v>1.6043466269531799E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2643382023417935E-26</v>
+        <v>1.2037551202539609E-25</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -12514,11 +12531,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4803914001206285E-4</v>
+        <v>1.466086642894406E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>1.597728813166672E-26</v>
+        <v>4.5587159331182074E-26</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -12527,11 +12544,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3528619716032393E-4</v>
+        <v>1.3384980916106545E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>5.9483574578059016E-27</v>
+        <v>1.715495091648997E-26</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -12540,11 +12557,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2351905106673945E-4</v>
+        <v>1.2208788307271044E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2006501878675046E-27</v>
+        <v>6.4149960210629703E-27</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -12553,11 +12570,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1267249875206593E-4</v>
+        <v>1.1125615796982889E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>8.0906256906894832E-28</v>
+        <v>2.3838583428271889E-27</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -12566,11 +12583,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0268462630991579E-4</v>
+        <v>1.0129132237800538E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9560196166201691E-28</v>
+        <v>8.803565592587991E-28</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -12579,11 +12596,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3496736035212461E-5</v>
+        <v>9.2133402803215689E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0733549806173223E-28</v>
+        <v>3.2310793647576276E-28</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -12592,11 +12609,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5053265968037186E-5</v>
+        <v>8.3725677350825279E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8735293418164418E-29</v>
+        <v>1.1785935421666119E-28</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -12605,11 +12622,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.7301702945379271E-5</v>
+        <v>7.6014582718927223E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3893577266199518E-29</v>
+        <v>4.2729149150674401E-29</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -12618,11 +12635,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0192490195606256E-5</v>
+        <v>6.8949615658738447E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9531469754722378E-30</v>
+        <v>1.5397291667975295E-29</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -12631,11 +12648,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3678930450752533E-5</v>
+        <v>6.2483229929836934E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>1.755190281882423E-30</v>
+        <v>5.5149335561197749E-30</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -12644,11 +12661,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7717085490589532E-5</v>
+        <v>5.6570729711737611E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1824243814105903E-31</v>
+        <v>1.9634861814003372E-30</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -12657,11 +12674,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2265672970532404E-5</v>
+        <v>5.1170160366320185E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1647144192613282E-31</v>
+        <v>6.9490046658064277E-31</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -12670,11 +12687,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7285961323283203E-5</v>
+        <v>4.6242197378534532E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5346829768928809E-32</v>
+        <v>2.4447808469219202E-31</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -12683,11 +12700,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2741663462239144E-5</v>
+        <v>4.1750034236166783E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>2.607156739409396E-32</v>
+        <v>8.5505696511670841E-32</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -12696,11 +12713,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8598829953546859E-5</v>
+        <v>3.7659269943730936E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9685474351885734E-33</v>
+        <v>2.973055212043307E-32</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -12709,11 +12726,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4825742263685547E-5</v>
+        <v>3.3937796801200294E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0672186850851327E-33</v>
+        <v>1.0277288864222621E-32</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -12722,11 +12739,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1392806630954522E-5</v>
+        <v>3.0555689015682171E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>1.042916927944594E-33</v>
+        <v>3.5321285097352131E-33</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -12735,11 +12752,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.827244905255972E-5</v>
+        <v>2.7485092653602427E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5257502635043492E-34</v>
+        <v>1.2069555712248517E-33</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -12748,11 +12765,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5439011824382912E-5</v>
+        <v>2.4700117382777398E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1851261389930718E-34</v>
+        <v>4.100693132602243E-34</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -12761,11 +12778,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.286865201822063E-5</v>
+        <v>2.2176730398144553E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9609830848700159E-35</v>
+        <v>1.3853153261274833E-34</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -12774,11 +12791,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0539242231463052E-5</v>
+        <v>1.9892652872077589E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3163785592787712E-35</v>
+        <v>4.6534966806639502E-35</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -12787,11 +12804,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8430273897000317E-5</v>
+        <v>1.7827259220278161E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3502265673457166E-36</v>
+        <v>1.5544023422892015E-35</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -12800,11 +12817,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6522763396690079E-5</v>
+        <v>1.5961479427307592E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4295848068832286E-36</v>
+        <v>5.1631464873165057E-36</v>
       </c>
     </row>
   </sheetData>
@@ -15073,7 +15090,7 @@
       </c>
       <c r="E35">
         <f>IF(Scrobbles!$B35=E$1,Scrobbles!$D35,0)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <f>IF(Scrobbles!$B35=F$1,Scrobbles!$D35,0)</f>
@@ -15143,7 +15160,7 @@
       </c>
       <c r="F36">
         <f>IF(Scrobbles!$B36=F$1,Scrobbles!$D36,0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G36">
         <f>IF(Scrobbles!$B36=G$1,Scrobbles!$D36,0)</f>
@@ -15175,7 +15192,7 @@
       </c>
       <c r="O36">
         <f>IF(AND(Scrobbles!$D36&gt;=Calc!N$1+1,Scrobbles!$D36&lt;=Calc!O$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <f>IF(AND(Scrobbles!$D36&gt;=Calc!O$1+1,Scrobbles!$D36&lt;=Calc!P$1,ISBLANK(Scrobbles!$D36)=FALSE),1,0)</f>
@@ -15191,7 +15208,7 @@
       </c>
       <c r="T36">
         <f>IF(Scrobbles!D36&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.25">

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5E4DE-3302-4DA8-9544-A0351DB047B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9DF14-9129-45F3-B92D-4537EB338F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -661,7 +661,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7242072823834773</c:v>
+                  <c:v>2.7384520516120539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.595078606091743</c:v>
+                  <c:v>5.7487514355890337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0147329266841414</c:v>
+                  <c:v>8.335005208070049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0085501042798644</c:v>
+                  <c:v>8.3478618392985684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5821381048721559</c:v>
+                  <c:v>5.7753986790648391</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7137114144061405</c:v>
+                  <c:v>2.7596470447432049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91984890843618128</c:v>
+                  <c:v>0.91043604775072262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21730954472023378</c:v>
+                  <c:v>0.20728600955737317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.2319100103369133E-8</c:v>
+                  <c:v>3.0477573705860205E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10918836672666168</c:v>
+                  <c:v>0.10717486475302905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.770729275353961</c:v>
+                  <c:v>18.04852353199508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.897288898056196</c:v>
+                  <c:v>17.603794785554364</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22275791008481335</c:v>
+                  <c:v>0.24046686704559833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5517335758049597E-5</c:v>
+                  <c:v>3.9920029657401715E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2350614580290135E-10</c:v>
+                  <c:v>1.4470251056043228E-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6514562852446025E-17</c:v>
+                  <c:v>2.0177403453490165E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,6 +1418,9 @@
                 <c:pt idx="34">
                   <c:v>59.457142857142856</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.583333333333336</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1997,6 +2000,9 @@
                 <c:pt idx="34">
                   <c:v>2081</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2682,424 +2688,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.3547979756161175E-3</c:v>
+                  <c:v>2.2639310640399949E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4873207274239192E-3</c:v>
+                  <c:v>2.3953005598212665E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6248628235899922E-3</c:v>
+                  <c:v>2.5318747561812148E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7674394191270556E-3</c:v>
+                  <c:v>2.6736823353476938E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9150521003760733E-3</c:v>
+                  <c:v>2.8207382003978456E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0676881421739244E-3</c:v>
+                  <c:v>2.9730426453070898E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.225319793218352E-3</c:v>
+                  <c:v>3.1305805505404813E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3879035952165421E-3</c:v>
+                  <c:v>3.2933206103190021E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5553797414736494E-3</c:v>
+                  <c:v>3.4612145978102295E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7276714806081285E-3</c:v>
+                  <c:v>3.6341966745670785E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9046845710696749E-3</c:v>
+                  <c:v>3.8121827505669774E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.086306792080675E-3</c:v>
+                  <c:v>3.9950699011843732E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2724075165217999E-3</c:v>
+                  <c:v>4.1827358473593527E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4628373511353091E-3</c:v>
+                  <c:v>4.3750385051027699E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6574278492247509E-3</c:v>
+                  <c:v>4.5718156103017223E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8559913007865021E-3</c:v>
+                  <c:v>4.7728844245578236E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0583206047168476E-3</c:v>
+                  <c:v>4.9780415275035754E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2641892273983144E-3</c:v>
+                  <c:v>5.1870627006994361E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4733512515816023E-3</c:v>
+                  <c:v>5.3997029078161913E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6855415190458364E-3</c:v>
+                  <c:v>5.6156963753551375E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9004758700418984E-3</c:v>
+                  <c:v>5.834756777653956E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1178514820033397E-3</c:v>
+                  <c:v>6.0565775293711663E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.3373473094498131E-3</c:v>
+                  <c:v>6.2808321880393463E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.558624626411969E-3</c:v>
+                  <c:v>6.5071749686306437E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7813276720784408E-3</c:v>
+                  <c:v>6.7352413713907726E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0050843997084989E-3</c:v>
+                  <c:v>6.9646489234748213E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.2295073281733839E-3</c:v>
+                  <c:v>7.1949980341641222E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4541944947894853E-3</c:v>
+                  <c:v>7.4258729626642322E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6787305073931968E-3</c:v>
+                  <c:v>7.6568428966850002E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9026876928859069E-3</c:v>
+                  <c:v>7.8874631391917527E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.1256273387538859E-3</c:v>
+                  <c:v>8.1172763998976927E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.3471010233480795E-3</c:v>
+                  <c:v>8.3458141872493636E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.566652029999124E-3</c:v>
+                  <c:v>8.5725982958459335E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.7838168393495897E-3</c:v>
+                  <c:v>8.797142383436974E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.9981266936147962E-3</c:v>
+                  <c:v>9.0189536308692368E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.209109225842069E-3</c:v>
+                  <c:v>9.2375344776084237E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.4162901466318828E-3</c:v>
+                  <c:v>9.4523844247540959E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6191949802192801E-3</c:v>
+                  <c:v>9.6630018968020034E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.817350841295933E-3</c:v>
+                  <c:v>9.8688861527950721E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0010288243487752E-2</c:v>
+                  <c:v>1.0069539236948553E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0197542929995166E-2</c:v>
+                  <c:v>1.0264467958342814E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0378657716557884E-2</c:v>
+                  <c:v>1.0453185888854391E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.055318433662714E-2</c:v>
+                  <c:v>1.0635215368147617E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0720685278420128E-2</c:v>
+                  <c:v>1.0810089504279861E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0880735603396269E-2</c:v>
+                  <c:v>1.0977354158287059E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1032924735635951E-2</c:v>
+                  <c:v>1.113656990101594E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.117685821162095E-2</c:v>
+                  <c:v>1.1287313930457728E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1312159380013261E-2</c:v>
+                  <c:v>1.1429181937916462E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1438471041205727E-2</c:v>
+                  <c:v>1.1561789911514351E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1555457016673378E-2</c:v>
+                  <c:v>1.1684775865796797E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1662803638487771E-2</c:v>
+                  <c:v>1.17978014865494E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1760221149765937E-2</c:v>
+                  <c:v>1.1900553680377355E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1847445007308255E-2</c:v>
+                  <c:v>1.1992746019120482E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1924237078232461E-2</c:v>
+                  <c:v>1.2074120069782125E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1990386723030143E-2</c:v>
+                  <c:v>1.2144446601332041E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2045711758152691E-2</c:v>
+                  <c:v>1.220352666049764E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2090059291970774E-2</c:v>
+                  <c:v>1.2251192509478337E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2123306428739095E-2</c:v>
+                  <c:v>1.2287308419397741E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2145360836030045E-2</c:v>
+                  <c:v>1.2311771314240929E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2156161171969585E-2</c:v>
+                  <c:v>1.2324511261001151E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2155677369508497E-2</c:v>
+                  <c:v>1.232549180277398E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2143910775885306E-2</c:v>
+                  <c:v>1.2314710132578439E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2120894146375473E-2</c:v>
+                  <c:v>1.2292197106745246E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2086691492367494E-2</c:v>
+                  <c:v>1.225801709778278E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2041397784752057E-2</c:v>
+                  <c:v>1.2212267687702696E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1985138514547888E-2</c:v>
+                  <c:v>1.2155079203849945E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1918069113609153E-2</c:v>
+                  <c:v>1.2086614100327318E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1840374239157087E-2</c:v>
+                  <c:v>1.2007066189123504E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1752266926744952E-2</c:v>
+                  <c:v>1.1916659726037473E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1653987617094037E-2</c:v>
+                  <c:v>1.1815648357432483E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1545803063021793E-2</c:v>
+                  <c:v>1.1704313934742206E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1428005123415805E-2</c:v>
+                  <c:v>1.1582965204482366E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1300909451882779E-2</c:v>
+                  <c:v>1.1451936382286844E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1164854088315416E-2</c:v>
+                  <c:v>1.1311585620181698E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1020197962166977E-2</c:v>
+                  <c:v>1.1162293376928478E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.0867319316699965E-2</c:v>
+                  <c:v>1.1004460701805226E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0706614063878232E-2</c:v>
+                  <c:v>1.0838507442645801E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0538494079898538E-2</c:v>
+                  <c:v>1.0664870389322845E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0363385451606413E-2</c:v>
+                  <c:v>1.0484001364134908E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.018172668421111E-2</c:v>
+                  <c:v>1.0296365270742642E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.9939668808050348E-3</c:v>
+                  <c:v>1.0102438113392587E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.8005639042050372E-3</c:v>
+                  <c:v>9.9027049981702132E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.6019825315672592E-3</c:v>
+                  <c:v>9.6976581279383557E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.3986926120858127E-3</c:v>
+                  <c:v>9.4877948024448943E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.1911672378711274E-3</c:v>
+                  <c:v>9.2736154348278602E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.9798809378190819E-3</c:v>
+                  <c:v>9.0556215954106997E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.7653079039312215E-3</c:v>
+                  <c:v>8.8343140932696448E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.5479202591334843E-3</c:v>
+                  <c:v>8.610191105574273E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.3281863751706181E-3</c:v>
+                  <c:v>8.3837463641567977E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.1065692486312537E-3</c:v>
+                  <c:v>8.1554674081616985E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.8835249425897036E-3</c:v>
+                  <c:v>7.9258339109714096E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.6595011007409867E-3</c:v>
+                  <c:v>7.6953160889028241E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.4349355402612526E-3</c:v>
+                  <c:v>7.46437319843041E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2102549289529737E-3</c:v>
+                  <c:v>7.2334521279220658E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.985873551539336E-3</c:v>
+                  <c:v>7.0029860890808105E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.7621921692614167E-3</c:v>
+                  <c:v>6.7733934124764297E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.539596976211412E-3</c:v>
+                  <c:v>6.5450764507334726E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.3184586551114866E-3</c:v>
+                  <c:v>6.3184205921228767E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0991315345268271E-3</c:v>
+                  <c:v>6.0937933864907605E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8819528487891537E-3</c:v>
+                  <c:v>5.8715437846563598E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.6672421012085574E-3</c:v>
+                  <c:v>5.6520014916280701E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.4553005304727236E-3</c:v>
+                  <c:v>5.4354764332280089E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.2464106794779019E-3</c:v>
+                  <c:v>5.2222583349869379E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.0408360652102477E-3</c:v>
+                  <c:v>5.0126164114779751E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.8388209477032091E-3</c:v>
+                  <c:v>4.8067991636036407E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.6405901955402099E-3</c:v>
+                  <c:v>4.6050342807406096E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.4463492448552711E-3</c:v>
+                  <c:v>4.4075286440833682E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.2562841483098739E-3</c:v>
+                  <c:v>4.2144684270147628E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.070561710094716E-3</c:v>
+                  <c:v>4.0260192878704536E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.8893297026216006E-3</c:v>
+                  <c:v>3.8423266500572E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.7127171602348934E-3</c:v>
+                  <c:v>3.6635160641329385E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.5408347449843013E-3</c:v>
+                  <c:v>3.4896936461602042E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.3737751792617568E-3</c:v>
+                  <c:v>3.3209465864037302E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.2116137399143116E-3</c:v>
+                  <c:v>3.1573437222575341E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0544088083020483E-3</c:v>
+                  <c:v>2.9989361691553813E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.9022024706735912E-3</c:v>
+                  <c:v>2.8457580031398572E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.7550211631808363E-3</c:v>
+                  <c:v>2.6978269887375185E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.6128763558470104E-3</c:v>
+                  <c:v>2.5551453458084084E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4757652698362545E-3</c:v>
+                  <c:v>2.4177005491050761E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.3436716224461258E-3</c:v>
+                  <c:v>2.2854661543862394E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.2165663943542954E-3</c:v>
+                  <c:v>2.1584026450802191E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.0944086137944093E-3</c:v>
+                  <c:v>2.0364582936799403E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.9771461525107097E-3</c:v>
+                  <c:v>1.919570032271063E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.8647165285435544E-3</c:v>
+                  <c:v>1.8076643268440957E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.7570477111251673E-3</c:v>
+                  <c:v>1.7006580503164689E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.6540589232137794E-3</c:v>
+                  <c:v>1.5984593494876749E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5556614374613654E-3</c:v>
+                  <c:v>1.5009685014661051E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.4617593616924344E-3</c:v>
+                  <c:v>1.4080787554363369E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.3722504102655307E-3</c:v>
+                  <c:v>1.3196771559768061E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.2870266579921286E-3</c:v>
+                  <c:v>1.2356453444865166E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.2059752735966724E-3</c:v>
+                  <c:v>1.1558603356323638E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.128979230013497E-3</c:v>
+                  <c:v>1.0801952660824915E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0559179891288053E-3</c:v>
+                  <c:v>1.0085201131430595E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.8666815888605558E-4</c:v>
+                  <c:v>9.4070238126281219E-4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>9.2110412097873285E-4</c:v>
+                  <c:v>8.7660775470958937E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.5909862765339191E-4</c:v>
+                  <c:v>8.1610071505289921E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8.0052336643595919E-4</c:v>
+                  <c:v>7.5904512240482116E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.4524949187396671E-4</c:v>
+                  <c:v>7.0530475967604562E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.931481236549593E-4</c:v>
+                  <c:v>6.5474383939310326E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.4409081071547863E-4</c:v>
+                  <c:v>6.0722747289544113E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,424 +3793,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.5069226040618702E-26</c:v>
+                  <c:v>1.3282723123473232E-26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9597312544364373E-25</c:v>
+                  <c:v>7.9142891944028022E-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6636001057831625E-23</c:v>
+                  <c:v>2.3577986558324986E-23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2790017334617021E-22</c:v>
+                  <c:v>4.6828501081117825E-22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8468590052384624E-21</c:v>
+                  <c:v>6.975495473541525E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3310363370864333E-20</c:v>
+                  <c:v>8.3124654393036466E-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.246612674988953E-19</c:v>
+                  <c:v>8.2547399848639947E-19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8539595823069447E-18</c:v>
+                  <c:v>7.0263560585449374E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8371749609931115E-17</c:v>
+                  <c:v>5.2331714394371291E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8562416170878186E-16</c:v>
+                  <c:v>3.4645533140718119E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2928110871885109E-15</c:v>
+                  <c:v>2.0642963496344528E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2393090577764408E-14</c:v>
+                  <c:v>1.1181605227186615E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1404813076970553E-14</c:v>
+                  <c:v>5.5519775954433617E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8084267255643024E-13</c:v>
+                  <c:v>2.5446563979115376E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1927216358978185E-12</c:v>
+                  <c:v>1.082993645539733E-12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7277213796254429E-12</c:v>
+                  <c:v>4.3018914253383883E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7568550341072416E-11</c:v>
+                  <c:v>1.6020064422484083E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1445635730709148E-11</c:v>
+                  <c:v>5.614875520625556E-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0296566342159517E-10</c:v>
+                  <c:v>1.8586277765033592E-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3514518132381774E-10</c:v>
+                  <c:v>5.8285914921048323E-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8881958890498146E-9</c:v>
+                  <c:v>1.7364345486895622E-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3460348913097363E-9</c:v>
+                  <c:v>4.9267885012422098E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4448180011448799E-8</c:v>
+                  <c:v>1.3343385524197693E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7349891433322887E-8</c:v>
+                  <c:v>3.4567103803627992E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2529909610410412E-8</c:v>
+                  <c:v>8.5817636179146143E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2006256217058836E-7</c:v>
+                  <c:v>2.0453203289363133E-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0324196909559698E-7</c:v>
+                  <c:v>4.6871924204790483E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1081973943787702E-6</c:v>
+                  <c:v>1.0343649940254712E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3532232425532862E-6</c:v>
+                  <c:v>2.2011040795482459E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8246872588703237E-6</c:v>
+                  <c:v>4.5223833818304631E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.5620706530563417E-6</c:v>
+                  <c:v>8.9819558833577214E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8339787123511784E-5</c:v>
+                  <c:v>1.7263705528496703E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.4075979467882121E-5</c:v>
+                  <c:v>3.214466003352892E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1395769067240316E-5</c:v>
+                  <c:v>5.8038969504982781E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0736520624279626E-4</c:v>
+                  <c:v>1.0171044900995774E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.823893830132725E-4</c:v>
+                  <c:v>1.731499310526663E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0123198892906337E-4</c:v>
+                  <c:v>2.8657916829318534E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.8406468645666384E-4</c:v>
+                  <c:v>4.6149573272438808E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.57397453019786E-4</c:v>
+                  <c:v>7.2361721249547669E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1546843221495857E-3</c:v>
+                  <c:v>1.1055262968680862E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7163557674237707E-3</c:v>
+                  <c:v>1.6467735463764224E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4890148794486917E-3</c:v>
+                  <c:v>2.3931770033722415E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.5235646014508334E-3</c:v>
+                  <c:v>3.3950824551808555E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.8721182296473028E-3</c:v>
+                  <c:v>4.7044262702602884E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.5836870362961071E-3</c:v>
+                  <c:v>6.3705772409774842E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.6988271254172921E-3</c:v>
+                  <c:v>8.4351161616646204E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1243639284467945E-2</c:v>
+                  <c:v>1.0925920390561974E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4223716322782826E-2</c:v>
+                  <c:v>1.385112248094292E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7618781945066136E-2</c:v>
+                  <c:v>1.7193667662976031E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1378825205645824E-2</c:v>
+                  <c:v>2.0907265950727682E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5422477287399436E-2</c:v>
+                  <c:v>2.4914491924617144E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.9638193409007384E-2</c:v>
+                  <c:v>2.910761719951184E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3888505760518862E-2</c:v>
+                  <c:v>3.3352478041107338E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.8017240155061895E-2</c:v>
+                  <c:v>3.749531729464109E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.1859194054330015E-2</c:v>
+                  <c:v>4.1372147940846225E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.525141965042119E-2</c:v>
+                  <c:v>4.4819826935916796E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.8045002190064537E-2</c:v>
+                  <c:v>4.7687762290447189E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.0116115066428234E-2</c:v>
+                  <c:v>4.9849049762675054E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.1375189878441939E-2</c:v>
+                  <c:v>5.1209871523437728E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1773254303650207E-2</c:v>
+                  <c:v>5.1716183812511272E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1304829621855279E-2</c:v>
+                  <c:v>5.1357043647146619E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0007189903082352E-2</c:v>
+                  <c:v>5.0164325420368631E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.795620377341675E-2</c:v>
+                  <c:v>4.8208995531671461E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.5259346962576087E-2</c:v>
+                  <c:v>4.5594486514742183E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2046741530857509E-2</c:v>
+                  <c:v>4.2447992002657128E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8461217198116272E-2</c:v>
+                  <c:v>3.8910659335769017E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.4648395233454525E-2</c:v>
+                  <c:v>3.5127678567013737E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0747680375615743E-2</c:v>
+                  <c:v>3.123916688484428E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.6884841538511037E-2</c:v>
+                  <c:v>2.7372554316989761E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.3166606725317385E-2</c:v>
+                  <c:v>2.3636927942811227E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9677432079749198E-2</c:v>
+                  <c:v>2.0119527951321468E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.6478364651089754E-2</c:v>
+                  <c:v>1.6884345639900041E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3607728904332447E-2</c:v>
+                  <c:v>1.3972577699685821E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1083242211317361E-2</c:v>
+                  <c:v>1.1404558282277818E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.9051069659271901E-3</c:v>
+                  <c:v>9.1827242925997827E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.0596295604169312E-3</c:v>
+                  <c:v>7.2951642991209787E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.5229658327923519E-3</c:v>
+                  <c:v>5.7193448178415335E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.2646723183825197E-3</c:v>
+                  <c:v>4.4256834899964355E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.2508362983714335E-3</c:v>
+                  <c:v>3.3807304437472748E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.4466511164234904E-3</c:v>
+                  <c:v>2.5498125182271125E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8183860618847488E-3</c:v>
+                  <c:v>1.8990791151378922E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3347659240854162E-3</c:v>
+                  <c:v>1.3969563449831226E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.678215637706454E-4</c:v>
+                  <c:v>1.0150648238444505E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.9330005996788503E-4</c:v>
+                  <c:v>7.2868609342246766E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9073381795686026E-4</c:v>
+                  <c:v>5.1687555237803868E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.4326624375402749E-4</c:v>
+                  <c:v>3.6231962740225466E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.3732128015020872E-4</c:v>
+                  <c:v>2.5102571084555445E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.6218902594173563E-4</c:v>
+                  <c:v>1.7191894947755844E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.0958291005998429E-4</c:v>
+                  <c:v>1.1640345537543082E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.320771615885339E-5</c:v>
+                  <c:v>7.7929279581865789E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.8363573754467918E-5</c:v>
+                  <c:v>5.1592069352809137E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.1599559492322467E-5</c:v>
+                  <c:v>3.3780521600054034E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0421951336497921E-5</c:v>
+                  <c:v>2.1877783463802844E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.3056246000384622E-5</c:v>
+                  <c:v>1.4016680265787678E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.2583732300304975E-6</c:v>
+                  <c:v>8.8846865159912599E-6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.1686239674266312E-6</c:v>
+                  <c:v>5.5724130341524294E-6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.2011626417305971E-6</c:v>
+                  <c:v>3.4585723258845524E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.9621854071992253E-6</c:v>
+                  <c:v>2.1244666778414509E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.1904687557963875E-6</c:v>
+                  <c:v>1.2916612879733359E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1496839273081573E-7</c:v>
+                  <c:v>7.7738873813210821E-7</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.2509977864938072E-7</c:v>
+                  <c:v>4.6319412313704187E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.5024968581877093E-7</c:v>
+                  <c:v>2.732539587813403E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.4587383646746823E-7</c:v>
+                  <c:v>1.5962138932079989E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.4206228485105298E-8</c:v>
+                  <c:v>9.2337615990591687E-8</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.8140978427885073E-8</c:v>
+                  <c:v>5.2901759161276779E-8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.7260238396851549E-8</c:v>
+                  <c:v>3.0019649047867298E-8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5290715930956349E-8</c:v>
+                  <c:v>1.6874252412912793E-8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8.4966568364005507E-9</c:v>
+                  <c:v>9.3964879090597158E-9</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.6776568456480981E-9</c:v>
+                  <c:v>5.1840191782236E-9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.551560654205397E-9</c:v>
+                  <c:v>2.8337719513989312E-9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.379168239325053E-9</c:v>
+                  <c:v>1.5349598070077689E-9</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.3875137864489318E-10</c:v>
+                  <c:v>8.2394614265056379E-10</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.9217898442858302E-10</c:v>
+                  <c:v>4.3833444344877726E-10</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.0635258321007967E-10</c:v>
+                  <c:v>2.3112767482734193E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.0762399139352992E-10</c:v>
+                  <c:v>1.2080137975259429E-10</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5.5643608966443225E-11</c:v>
+                  <c:v>6.2589120668916427E-11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.8520775925903062E-11</c:v>
+                  <c:v>3.2148865860830014E-11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.4493708107888886E-11</c:v>
+                  <c:v>1.6372107614311636E-11</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.3030040127159993E-12</c:v>
+                  <c:v>8.2669893673960701E-12</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.6488718728600416E-12</c:v>
+                  <c:v>4.1392838919384932E-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.807929135100402E-12</c:v>
+                  <c:v>2.0552694324555958E-12</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.8838265174590505E-13</c:v>
+                  <c:v>1.0120644932546471E-12</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.329565101365892E-13</c:v>
+                  <c:v>4.9428013161001296E-13</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.0928745588716337E-13</c:v>
+                  <c:v>2.3943786863222538E-13</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.0035188841041302E-13</c:v>
+                  <c:v>1.150524704785203E-13</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.7733092521615247E-14</c:v>
+                  <c:v>5.4841677594761671E-14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.2524391278340615E-14</c:v>
+                  <c:v>2.5933729814983542E-14</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.0545164960680864E-14</c:v>
+                  <c:v>1.2167071402698765E-14</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.8983232774948173E-15</c:v>
+                  <c:v>5.6637083677927248E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.2576767974455455E-15</c:v>
+                  <c:v>2.6159893300851724E-15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.0325770143921279E-15</c:v>
+                  <c:v>1.1989951096223603E-15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.6865709202835894E-16</c:v>
+                  <c:v>5.4534446779897147E-16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.1109857327078478E-16</c:v>
+                  <c:v>2.4616243338147721E-16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.4370812239852108E-17</c:v>
+                  <c:v>1.1027953625799375E-16</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4.1873275111115643E-17</c:v>
+                  <c:v>4.9035987826160451E-17</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.8441965186503747E-17</c:v>
+                  <c:v>2.1642426725743107E-17</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8.0625482254442592E-18</c:v>
+                  <c:v>9.4818229833987576E-18</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.4990954863710874E-18</c:v>
+                  <c:v>4.1237855432664805E-18</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.5075813058257213E-18</c:v>
+                  <c:v>1.7804991928958377E-18</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.448667415053055E-19</c:v>
+                  <c:v>7.6322357489241179E-19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4591,7 +4597,7 @@
                   <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.2</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.8</c:v>
@@ -8608,28 +8614,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8741,18 +8747,18 @@
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.7242072823834773</v>
+        <v>2.7384520516120539</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>3.2319100103369133E-8</v>
+        <v>3.0477573705860205E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8782,21 +8788,21 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.595078606091743</v>
+        <v>5.7487514355890337</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>0.10918836672666168</v>
+        <v>0.10717486475302905</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8826,21 +8832,21 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>8.0147329266841414</v>
+        <v>8.335005208070049</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>17.770729275353961</v>
+        <v>18.04852353199508</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8866,20 +8872,20 @@
       </c>
       <c r="I7" s="27">
         <f>SUM(Calc!N2:N406)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>8.0085501042798644</v>
+        <v>8.3478618392985684</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>16.897288898056196</v>
+        <v>17.603794785554364</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8909,21 +8915,21 @@
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>5.5821381048721559</v>
+        <v>5.7753986790648391</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>0.22275791008481335</v>
+        <v>0.24046686704559833</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>32.814929404719656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32.364568246429272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8953,21 +8959,21 @@
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>2.7137114144061405</v>
+        <v>2.7596470447432049</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>3.5517335758049597E-5</v>
+        <v>3.9920029657401715E-5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>59.457142857142856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>59.583333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8997,21 +9003,21 @@
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>0.91984890843618128</v>
+        <v>0.91043604775072262</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>1.2350614580290135E-10</v>
+        <v>1.4470251056043228E-10</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9041,21 +9047,21 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.21730954472023378</v>
+        <v>0.20728600955737317</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>1.6514562852446025E-17</v>
+        <v>2.0177403453490165E-17</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.97142857142857142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9081,7 +9087,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9107,18 +9113,18 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>33.558267347153702</v>
+        <v>34.615552306128471</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>35.000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9147,14 +9153,14 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>9.1504562119647456E-2</v>
+        <v>0.12105592173896725</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9180,10 +9186,10 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>21701.857142857141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21747.916666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9227,7 +9233,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9249,7 +9255,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9274,7 +9280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>57.559969442322391</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9332,7 +9338,7 @@
         <v>-137.06417112299482</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9376,7 +9382,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9420,7 +9426,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9445,7 +9451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9467,7 +9473,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9489,7 +9495,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9511,7 +9517,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9533,7 +9539,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9555,7 +9561,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9577,7 +9583,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9675,8 +9681,19 @@
       <c r="C37" s="1">
         <v>43574</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37" s="3">
+        <f>AVERAGE(D$2:D37)</f>
+        <v>59.583333333333336</v>
+      </c>
+      <c r="F37">
+        <f>SUM($D$2:D37)</f>
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9687,7 +9704,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9698,7 +9715,7 @@
         <v>43576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9709,7 +9726,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9720,7 +9737,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9731,7 +9748,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9739,7 +9756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9747,7 +9764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9755,7 +9772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9763,7 +9780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9771,7 +9788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9779,7 +9796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9787,7 +9804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9795,7 +9812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9803,7 +9820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9811,7 +9828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9819,7 +9836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9827,7 +9844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9835,7 +9852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9843,7 +9860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9851,7 +9868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9859,7 +9876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9867,7 +9884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9875,7 +9892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9883,7 +9900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9891,7 +9908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9899,7 +9916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9923,7 +9940,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35 E36:F36" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9937,14 +9954,14 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>11</v>
       </c>
@@ -9955,10 +9972,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -9966,10 +9983,10 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -9989,7 +10006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
@@ -10007,14 +10024,14 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>12.742857142857147</v>
+        <v>12.616666666666667</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.2143200384430564</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.2117482517482518</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -10032,14 +10049,14 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>29.742857142857147</v>
+        <v>29.616666666666667</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.5002402691013936</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.4970629370629371</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
@@ -10057,14 +10074,14 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4571428571428555</v>
+        <v>-1.5833333333333357</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97549255165785687</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.97342657342657335</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -10082,39 +10099,39 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.257142857142853</v>
+        <v>-12.383333333333333</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79384911100432487</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.79216783216783215</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="11">
         <f>SUM(Calc!G2:G1000)</f>
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="E9" s="11">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>43.2</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-16.257142857142853</v>
+        <v>-12.916666666666671</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72657376261412787</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.78321678321678312</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -10132,14 +10149,14 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6571428571428584</v>
+        <v>-4.7833333333333385</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9216722729456992</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.91972027972027959</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
@@ -10157,14 +10174,14 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8571428571428541</v>
+        <v>-7.9833333333333343</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86785199423354165</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <v>0.86601398601398605</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10172,26 +10189,26 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>2081</v>
+        <v>2145</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>59.457142857142856</v>
+        <v>59.583333333333336</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10199,26 +10216,26 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>74.332677462711587</v>
+        <v>67.383459485580715</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>14.866535492542312</v>
+        <v>14.366040834262554</v>
       </c>
       <c r="G15" s="16">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>14.866535492542317</v>
+        <v>14.366040834262607</v>
       </c>
       <c r="H15" s="17"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -10230,7 +10247,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
@@ -10238,7 +10255,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
@@ -10258,7 +10275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
@@ -10268,7 +10285,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10279,10 +10296,10 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
@@ -10292,7 +10309,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
@@ -10303,10 +10320,10 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
@@ -10316,7 +10333,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
@@ -10327,10 +10344,10 @@
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
@@ -10340,7 +10357,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -10351,34 +10368,34 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>357.5</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>43.2</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+        <v>51.071428571428569</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
@@ -10388,7 +10405,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -10399,10 +10416,10 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
@@ -10412,7 +10429,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.28571428571428</v>
+        <v>297.91666666666669</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -10423,10 +10440,10 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.469387755102041</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>42.55952380952381</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="14"/>
@@ -10434,13 +10451,13 @@
       <c r="H30" s="11"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>1.2233888069867503E-25</v>
+        <v>2.2280164621083059E-24</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10448,11 +10465,11 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>5.332935306064023E-16</v>
+        <v>6.1822158701252165E-16</v>
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -10471,9 +10488,9 @@
       <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10484,2344 +10501,2344 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3547979756161175E-3</v>
+        <v>2.2639310640399949E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5069226040618702E-26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3282723123473232E-26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4873207274239192E-3</v>
+        <v>2.3953005598212665E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9597312544364373E-25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9142891944028022E-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6248628235899922E-3</v>
+        <v>2.5318747561812148E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6636001057831625E-23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3577986558324986E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7674394191270556E-3</v>
+        <v>2.6736823353476938E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2790017334617021E-22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6828501081117825E-22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9150521003760733E-3</v>
+        <v>2.8207382003978456E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8468590052384624E-21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.975495473541525E-21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0676881421739244E-3</v>
+        <v>2.9730426453070898E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>9.3310363370864333E-20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.3124654393036466E-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.225319793218352E-3</v>
+        <v>3.1305805505404813E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>9.246612674988953E-19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2547399848639947E-19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3879035952165421E-3</v>
+        <v>3.2933206103190021E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8539595823069447E-18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.0263560585449374E-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5553797414736494E-3</v>
+        <v>3.4612145978102295E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8371749609931115E-17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2331714394371291E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7276714806081285E-3</v>
+        <v>3.6341966745670785E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8562416170878186E-16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4645533140718119E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9046845710696749E-3</v>
+        <v>3.8121827505669774E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2928110871885109E-15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0642963496344528E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.086306792080675E-3</v>
+        <v>3.9950699011843732E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2393090577764408E-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1181605227186615E-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2724075165217999E-3</v>
+        <v>4.1827358473593527E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1404813076970553E-14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5519775954433617E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4628373511353091E-3</v>
+        <v>4.3750385051027699E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8084267255643024E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5446563979115376E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6574278492247509E-3</v>
+        <v>4.5718156103017223E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1927216358978185E-12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.082993645539733E-12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8559913007865021E-3</v>
+        <v>4.7728844245578236E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7277213796254429E-12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3018914253383883E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0583206047168476E-3</v>
+        <v>4.9780415275035754E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7568550341072416E-11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6020064422484083E-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2641892273983144E-3</v>
+        <v>5.1870627006994361E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1445635730709148E-11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.614875520625556E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4733512515816023E-3</v>
+        <v>5.3997029078161913E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0296566342159517E-10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8586277765033592E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6855415190458364E-3</v>
+        <v>5.6156963753551375E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>6.3514518132381774E-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.8285914921048323E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9004758700418984E-3</v>
+        <v>5.834756777653956E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8881958890498146E-9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7364345486895622E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1178514820033397E-3</v>
+        <v>6.0565775293711663E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3460348913097363E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9267885012422098E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3373473094498131E-3</v>
+        <v>6.2808321880393463E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4448180011448799E-8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3343385524197693E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.558624626411969E-3</v>
+        <v>6.5071749686306437E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7349891433322887E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4567103803627992E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7813276720784408E-3</v>
+        <v>6.7352413713907726E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2529909610410412E-8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.5817636179146143E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0050843997084989E-3</v>
+        <v>6.9646489234748213E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2006256217058836E-7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0453203289363133E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2295073281733839E-3</v>
+        <v>7.1949980341641222E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0324196909559698E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6871924204790483E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4541944947894853E-3</v>
+        <v>7.4258729626642322E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1081973943787702E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0343649940254712E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6787305073931968E-3</v>
+        <v>7.6568428966850002E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3532232425532862E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.2011040795482459E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9026876928859069E-3</v>
+        <v>7.8874631391917527E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8246872588703237E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5223833818304631E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1256273387538859E-3</v>
+        <v>8.1172763998976927E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5620706530563417E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.9819558833577214E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3471010233480795E-3</v>
+        <v>8.3458141872493636E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8339787123511784E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7263705528496703E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.566652029999124E-3</v>
+        <v>8.5725982958459335E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4075979467882121E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.214466003352892E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.7838168393495897E-3</v>
+        <v>8.797142383436974E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1395769067240316E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.8038969504982781E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.9981266936147962E-3</v>
+        <v>9.0189536308692368E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0736520624279626E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0171044900995774E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.209109225842069E-3</v>
+        <v>9.2375344776084237E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>1.823893830132725E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.731499310526663E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4162901466318828E-3</v>
+        <v>9.4523844247540959E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0123198892906337E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8657916829318534E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6191949802192801E-3</v>
+        <v>9.6630018968020034E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8406468645666384E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6149573272438808E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.817350841295933E-3</v>
+        <v>9.8688861527950721E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>7.57397453019786E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2361721249547669E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0010288243487752E-2</v>
+        <v>1.0069539236948553E-2</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1546843221495857E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1055262968680862E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0197542929995166E-2</v>
+        <v>1.0264467958342814E-2</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7163557674237707E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6467735463764224E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0378657716557884E-2</v>
+        <v>1.0453185888854391E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4890148794486917E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3931770033722415E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.055318433662714E-2</v>
+        <v>1.0635215368147617E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5235646014508334E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3950824551808555E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0720685278420128E-2</v>
+        <v>1.0810089504279861E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8721182296473028E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7044262702602884E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0880735603396269E-2</v>
+        <v>1.0977354158287059E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>6.5836870362961071E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.3705772409774842E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1032924735635951E-2</v>
+        <v>1.113656990101594E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>8.6988271254172921E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4351161616646204E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.117685821162095E-2</v>
+        <v>1.1287313930457728E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1243639284467945E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0925920390561974E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1312159380013261E-2</v>
+        <v>1.1429181937916462E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4223716322782826E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.385112248094292E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1438471041205727E-2</v>
+        <v>1.1561789911514351E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7618781945066136E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7193667662976031E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1555457016673378E-2</v>
+        <v>1.1684775865796797E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1378825205645824E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0907265950727682E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1662803638487771E-2</v>
+        <v>1.17978014865494E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5422477287399436E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4914491924617144E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1760221149765937E-2</v>
+        <v>1.1900553680377355E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9638193409007384E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.910761719951184E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1847445007308255E-2</v>
+        <v>1.1992746019120482E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3888505760518862E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3352478041107338E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1924237078232461E-2</v>
+        <v>1.2074120069782125E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8017240155061895E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.749531729464109E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1990386723030143E-2</v>
+        <v>1.2144446601332041E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1859194054330015E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1372147940846225E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2045711758152691E-2</v>
+        <v>1.220352666049764E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>4.525141965042119E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4819826935916796E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2090059291970774E-2</v>
+        <v>1.2251192509478337E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8045002190064537E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7687762290447189E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2123306428739095E-2</v>
+        <v>1.2287308419397741E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0116115066428234E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9849049762675054E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2145360836030045E-2</v>
+        <v>1.2311771314240929E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1375189878441939E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1209871523437728E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2156161171969585E-2</v>
+        <v>1.2324511261001151E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1773254303650207E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1716183812511272E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2155677369508497E-2</v>
+        <v>1.232549180277398E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1304829621855279E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1357043647146619E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2143910775885306E-2</v>
+        <v>1.2314710132578439E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0007189903082352E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.0164325420368631E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2120894146375473E-2</v>
+        <v>1.2292197106745246E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>4.795620377341675E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.8208995531671461E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2086691492367494E-2</v>
+        <v>1.225801709778278E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5259346962576087E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.5594486514742183E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2041397784752057E-2</v>
+        <v>1.2212267687702696E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2046741530857509E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2447992002657128E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1985138514547888E-2</v>
+        <v>1.2155079203849945E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8461217198116272E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8910659335769017E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1918069113609153E-2</v>
+        <v>1.2086614100327318E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4648395233454525E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5127678567013737E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1840374239157087E-2</v>
+        <v>1.2007066189123504E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0747680375615743E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.123916688484428E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1752266926744952E-2</v>
+        <v>1.1916659726037473E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6884841538511037E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.7372554316989761E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1653987617094037E-2</v>
+        <v>1.1815648357432483E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3166606725317385E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3636927942811227E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1545803063021793E-2</v>
+        <v>1.1704313934742206E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9677432079749198E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0119527951321468E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1428005123415805E-2</v>
+        <v>1.1582965204482366E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6478364651089754E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6884345639900041E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1300909451882779E-2</v>
+        <v>1.1451936382286844E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3607728904332447E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3972577699685821E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1164854088315416E-2</v>
+        <v>1.1311585620181698E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1083242211317361E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1404558282277818E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1020197962166977E-2</v>
+        <v>1.1162293376928478E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9051069659271901E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.1827242925997827E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0867319316699965E-2</v>
+        <v>1.1004460701805226E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0596295604169312E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2951642991209787E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0706614063878232E-2</v>
+        <v>1.0838507442645801E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5229658327923519E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.7193448178415335E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0538494079898538E-2</v>
+        <v>1.0664870389322845E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2646723183825197E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4256834899964355E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0363385451606413E-2</v>
+        <v>1.0484001364134908E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2508362983714335E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3807304437472748E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.018172668421111E-2</v>
+        <v>1.0296365270742642E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4466511164234904E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5498125182271125E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.9939668808050348E-3</v>
+        <v>1.0102438113392587E-2</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8183860618847488E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.8990791151378922E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8005639042050372E-3</v>
+        <v>9.9027049981702132E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3347659240854162E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3969563449831226E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6019825315672592E-3</v>
+        <v>9.6976581279383557E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>9.678215637706454E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0150648238444505E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.3986926120858127E-3</v>
+        <v>9.4877948024448943E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>6.9330005996788503E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.2868609342246766E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.1911672378711274E-3</v>
+        <v>9.2736154348278602E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9073381795686026E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1687555237803868E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.9798809378190819E-3</v>
+        <v>9.0556215954106997E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4326624375402749E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.6231962740225466E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.7653079039312215E-3</v>
+        <v>8.8343140932696448E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3732128015020872E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5102571084555445E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5479202591334843E-3</v>
+        <v>8.610191105574273E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6218902594173563E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7191894947755844E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3281863751706181E-3</v>
+        <v>8.3837463641567977E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0958291005998429E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1640345537543082E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1065692486312537E-3</v>
+        <v>8.1554674081616985E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>7.320771615885339E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.7929279581865789E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8835249425897036E-3</v>
+        <v>7.9258339109714096E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8363573754467918E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1592069352809137E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6595011007409867E-3</v>
+        <v>7.6953160889028241E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1599559492322467E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3780521600054034E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4349355402612526E-3</v>
+        <v>7.46437319843041E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0421951336497921E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1877783463802844E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2102549289529737E-3</v>
+        <v>7.2334521279220658E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3056246000384622E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4016680265787678E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.985873551539336E-3</v>
+        <v>7.0029860890808105E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2583732300304975E-6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.8846865159912599E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7621921692614167E-3</v>
+        <v>6.7733934124764297E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1686239674266312E-6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5724130341524294E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.539596976211412E-3</v>
+        <v>6.5450764507334726E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2011626417305971E-6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.4585723258845524E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3184586551114866E-3</v>
+        <v>6.3184205921228767E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9621854071992253E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1244666778414509E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0991315345268271E-3</v>
+        <v>6.0937933864907605E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1904687557963875E-6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2916612879733359E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.8819528487891537E-3</v>
+        <v>5.8715437846563598E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>7.1496839273081573E-7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.7738873813210821E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6672421012085574E-3</v>
+        <v>5.6520014916280701E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2509977864938072E-7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.6319412313704187E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4553005304727236E-3</v>
+        <v>5.4354764332280089E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5024968581877093E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.732539587813403E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2464106794779019E-3</v>
+        <v>5.2222583349869379E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4587383646746823E-7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5962138932079989E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0408360652102477E-3</v>
+        <v>5.0126164114779751E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4206228485105298E-8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.2337615990591687E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8388209477032091E-3</v>
+        <v>4.8067991636036407E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8140978427885073E-8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2901759161276779E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6405901955402099E-3</v>
+        <v>4.6050342807406096E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7260238396851549E-8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0019649047867298E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4463492448552711E-3</v>
+        <v>4.4075286440833682E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5290715930956349E-8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6874252412912793E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2562841483098739E-3</v>
+        <v>4.2144684270147628E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4966568364005507E-9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.3964879090597158E-9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.070561710094716E-3</v>
+        <v>4.0260192878704536E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6776568456480981E-9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.1840191782236E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8893297026216006E-3</v>
+        <v>3.8423266500572E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>2.551560654205397E-9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.8337719513989312E-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7127171602348934E-3</v>
+        <v>3.6635160641329385E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>1.379168239325053E-9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5349598070077689E-9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5408347449843013E-3</v>
+        <v>3.4896936461602042E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>7.3875137864489318E-10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2394614265056379E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3737751792617568E-3</v>
+        <v>3.3209465864037302E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9217898442858302E-10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3833444344877726E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2116137399143116E-3</v>
+        <v>3.1573437222575341E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0635258321007967E-10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3112767482734193E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0544088083020483E-3</v>
+        <v>2.9989361691553813E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0762399139352992E-10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2080137975259429E-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9022024706735912E-3</v>
+        <v>2.8457580031398572E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5643608966443225E-11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.2589120668916427E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7550211631808363E-3</v>
+        <v>2.6978269887375185E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8520775925903062E-11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2148865860830014E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6128763558470104E-3</v>
+        <v>2.5551453458084084E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4493708107888886E-11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6372107614311636E-11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4757652698362545E-3</v>
+        <v>2.4177005491050761E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>7.3030040127159993E-12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.2669893673960701E-12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3436716224461258E-3</v>
+        <v>2.2854661543862394E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6488718728600416E-12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1392838919384932E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2165663943542954E-3</v>
+        <v>2.1584026450802191E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>1.807929135100402E-12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0552694324555958E-12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0944086137944093E-3</v>
+        <v>2.0364582936799403E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>8.8838265174590505E-13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0120644932546471E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9771461525107097E-3</v>
+        <v>1.919570032271063E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>4.329565101365892E-13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9428013161001296E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8647165285435544E-3</v>
+        <v>1.8076643268440957E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0928745588716337E-13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3943786863222538E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7570477111251673E-3</v>
+        <v>1.7006580503164689E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0035188841041302E-13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.150524704785203E-13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6540589232137794E-3</v>
+        <v>1.5984593494876749E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7733092521615247E-14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4841677594761671E-14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5556614374613654E-3</v>
+        <v>1.5009685014661051E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2524391278340615E-14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.5933729814983542E-14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4617593616924344E-3</v>
+        <v>1.4080787554363369E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0545164960680864E-14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2167071402698765E-14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3722504102655307E-3</v>
+        <v>1.3196771559768061E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8983232774948173E-15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.6637083677927248E-15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2870266579921286E-3</v>
+        <v>1.2356453444865166E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2576767974455455E-15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6159893300851724E-15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2059752735966724E-3</v>
+        <v>1.1558603356323638E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0325770143921279E-15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1989951096223603E-15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.128979230013497E-3</v>
+        <v>1.0801952660824915E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6865709202835894E-16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.4534446779897147E-16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0559179891288053E-3</v>
+        <v>1.0085201131430595E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1109857327078478E-16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4616243338147721E-16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8666815888605558E-4</v>
+        <v>9.4070238126281219E-4</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4370812239852108E-17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.1027953625799375E-16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2110412097873285E-4</v>
+        <v>8.7660775470958937E-4</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1873275111115643E-17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9035987826160451E-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5909862765339191E-4</v>
+        <v>8.1610071505289921E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8441965186503747E-17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1642426725743107E-17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0052336643595919E-4</v>
+        <v>7.5904512240482116E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>8.0625482254442592E-18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.4818229833987576E-18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4524949187396671E-4</v>
+        <v>7.0530475967604562E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4990954863710874E-18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.1237855432664805E-18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.931481236549593E-4</v>
+        <v>6.5474383939310326E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5075813058257213E-18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7804991928958377E-18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4409081071547863E-4</v>
+        <v>6.0722747289544113E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>6.448667415053055E-19</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6322357489241179E-19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9794996119463784E-4</v>
+        <v>5.6262210198597905E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7387095695357914E-19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.2482431907623115E-19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5459923831042372E-4</v>
+        <v>5.2079589334507142E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1548641568802511E-19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3726323176093516E-19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1391392244475628E-4</v>
+        <v>4.8161909623495915E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8355579687480225E-20</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.7595780932553108E-20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7577123991449517E-4</v>
+        <v>4.4496436421931622E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0105486779150119E-20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.3998242055230592E-20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.400506590796203E-4</v>
+        <v>4.1070704180015455E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>8.3014916641690077E-21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.929828165213913E-21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.066341545966127E-4</v>
+        <v>3.7872541703225205E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4040205227852933E-21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0803604242115224E-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7540644076457404E-4</v>
+        <v>3.4890094131346714E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3862557158348981E-21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.6652155840817499E-21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4625517503402694E-4</v>
+        <v>3.2111841766822841E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>5.606993478430358E-22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.7495983141633901E-22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1907113285392278E-4</v>
+        <v>2.9526615894160622E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2525392719330774E-22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.7173213933710743E-22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.937483551215624E-4</v>
+        <v>2.7123611740330155E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9885603545402451E-23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0866246064095497E-22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7018426957345967E-4</v>
+        <v>2.4892398732540553E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5628941138663112E-23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3163144087934855E-23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4827978751326425E-4</v>
+        <v>2.2822928214571333E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4029106245895788E-23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7031814582160117E-23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2793937731645437E-4</v>
+        <v>2.0905538786064842E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4877011461858824E-24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.676396615265406E-24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0907111618137934E-4</v>
+        <v>1.9130959430949573E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1325688301050986E-24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.6000128430908404E-24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.915867216132626E-4</v>
+        <v>1.7490310601567995E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2335356872892612E-25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0059573500054072E-24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.754015641328353E-4</v>
+        <v>1.5975103424235057E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1583387585712102E-25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8669865873863667E-25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6043466269531799E-4</v>
+        <v>1.4577237189968882E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2037551202539609E-25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4769740437933981E-25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.466086642894406E-4</v>
+        <v>1.3288995291121727E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5587159331182074E-26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.6052889666256335E-26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3384980916106545E-4</v>
+        <v>1.2103039760713103E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>1.715495091648997E-26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.1138088666336152E-26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2208788307271044E-4</v>
+        <v>1.1012404566536574E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>6.4149960210629703E-27</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.9212439184645405E-27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1125615796982889E-4</v>
+        <v>1.0010487806686502E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3838583428271889E-27</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9498382300531815E-27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0129132237800538E-4</v>
+        <v>9.0910429471369812E-5</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>8.803565592587991E-28</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0916844381407952E-27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2133402803215689E-5</v>
+        <v>8.2481692355038385E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2310793647576276E-28</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.0151973933676879E-28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3725677350825279E-5</v>
+        <v>7.4763014182269294E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1785935421666119E-28</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.4677229735469678E-28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6014582718927223E-5</v>
+        <v>6.7701988812197725E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2729149150674401E-29</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.3324284862099271E-29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.8949615658738447E-5</v>
+        <v>6.1249343266283449E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5397291667975295E-29</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.925599175575792E-29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.2483229929836934E-5</v>
+        <v>5.5358820908043427E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5149335561197749E-30</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9116637075133982E-30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6570729711737611E-5</v>
+        <v>4.9987062010027973E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9634861814003372E-30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.4659877998363896E-30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1170160366320185E-5</v>
+        <v>4.509348260726893E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>6.9490046658064277E-31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.7459388734273886E-31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6242197378534532E-5</v>
+        <v>4.0640152461263656E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4447808469219202E-31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0835040899904384E-31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1750034236166783E-5</v>
+        <v>3.6591672884639273E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>8.5505696511670841E-32</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.0807379531094397E-31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7659269943730936E-5</v>
+        <v>3.2915055104447534E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>2.973055212043307E-32</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.765729222579097E-32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3937796801200294E-5</v>
+        <v>2.9579599772002407E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0277288864222621E-32</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.3045040669302811E-32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0555689015682171E-5</v>
+        <v>2.6556778159636931E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5321285097352131E-33</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.4928728702077638E-33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7485092653602427E-5</v>
+        <v>2.3820115520036363E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2069555712248517E-33</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.538507711780957E-33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4700117382777398E-5</v>
+        <v>2.1345077022138098E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>4.100693132602243E-34</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.2382524472540016E-34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2176730398144553E-5</v>
+        <v>1.9108956619173481E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3853153261274833E-34</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7733667139141808E-34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9892652872077589E-5</v>
+        <v>1.709076914940737E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6534966806639502E-35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.9696666687788158E-35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7827259220278161E-5</v>
+        <v>1.5271145918605192E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5544023422892015E-35</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.9982732528918054E-35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5961479427307592E-5</v>
+        <v>1.3632233965281813E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1631464873165057E-36</v>
+        <v>6.6516078948679331E-36</v>
       </c>
     </row>
   </sheetData>
@@ -12837,18 +12854,18 @@
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12901,7 +12918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -12967,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -13033,7 +13050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -13099,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -13165,7 +13182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -13231,7 +13248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -13297,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -13363,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -13429,7 +13446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -13495,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -13561,7 +13578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -13627,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -13693,7 +13710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13759,7 +13776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13825,7 +13842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13891,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13957,7 +13974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -14023,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -14089,7 +14106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -14155,7 +14172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -14221,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -14287,7 +14304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -14353,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -14419,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -14485,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -14551,7 +14568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -14617,7 +14634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -14683,7 +14700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -14749,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -14815,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14881,7 +14898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14947,7 +14964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -15013,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -15079,7 +15096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -15145,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -15211,7 +15228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -15230,7 +15247,7 @@
       </c>
       <c r="G37">
         <f>IF(Scrobbles!$B37=G$1,Scrobbles!$D37,0)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="H37">
         <f>IF(Scrobbles!$B37=H$1,Scrobbles!$D37,0)</f>
@@ -15254,7 +15271,7 @@
       </c>
       <c r="N37">
         <f>IF(AND(Scrobbles!$D37&gt;=Calc!M$1+1,Scrobbles!$D37&lt;=Calc!N$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <f>IF(AND(Scrobbles!$D37&gt;=Calc!N$1+1,Scrobbles!$D37&lt;=Calc!O$1,ISBLANK(Scrobbles!$D37)=FALSE),1,0)</f>
@@ -15274,10 +15291,10 @@
       </c>
       <c r="T37">
         <f>IF(Scrobbles!D37&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -15343,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -15409,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -15475,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -15541,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -15607,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -15673,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -15739,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -15805,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -15871,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -15937,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -16003,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -16069,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -16135,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -16201,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -16267,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -16333,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -16399,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -16465,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -16531,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -16597,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -16663,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -16729,7 +16746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -16795,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -16861,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -16927,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -16993,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -17059,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -17125,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -17191,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -17257,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -17323,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -17389,7 +17406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -17455,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -17521,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -17587,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -17653,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -17719,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -17785,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -17851,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -17917,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -17983,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -18049,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -18115,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -18181,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -18247,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -18313,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -18379,7 +18396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -18445,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -18511,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -18577,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -18643,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -18709,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -18775,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -18841,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -18907,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -18973,7 +18990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -19039,7 +19056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -19105,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -19171,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -19237,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -19303,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -19369,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -19435,7 +19452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -19501,7 +19518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -19567,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -19633,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -19699,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -19765,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -19831,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -19897,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -19963,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -20029,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -20095,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -20161,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -20227,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -20293,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -20359,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -20425,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -20491,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -20557,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -20623,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -20689,7 +20706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -20755,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -20821,7 +20838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -20887,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -20953,7 +20970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -21019,7 +21036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -21085,7 +21102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -21151,7 +21168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -21217,7 +21234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -21283,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -21349,7 +21366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -21415,7 +21432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -21481,7 +21498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -21547,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -21613,7 +21630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -21679,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -21745,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -21811,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -21877,7 +21894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -21943,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -22009,7 +22026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -22075,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -22141,7 +22158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -22207,7 +22224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -22273,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -22339,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -22405,7 +22422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -22471,7 +22488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -22537,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -22603,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -22669,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -22735,7 +22752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -22801,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -22867,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -22933,7 +22950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -22999,7 +23016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -23065,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -23131,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -23197,7 +23214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -23263,7 +23280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -23329,7 +23346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -23395,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -23461,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -23527,7 +23544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -23593,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -23659,7 +23676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -23725,7 +23742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -23791,7 +23808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -23857,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -23923,7 +23940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -23989,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -24055,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -24121,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -24187,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -24253,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -24319,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -24385,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -24451,7 +24468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -24517,7 +24534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -24583,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -24649,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -24715,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -24781,7 +24798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -24847,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -24913,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -24979,7 +24996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -25045,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -25111,7 +25128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -25177,7 +25194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -25243,7 +25260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -25309,7 +25326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -25375,7 +25392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -25441,7 +25458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -25507,7 +25524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -25573,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -25639,7 +25656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -25705,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -25771,7 +25788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -25837,7 +25854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -25903,7 +25920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -25969,7 +25986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -26035,7 +26052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -26101,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -26167,7 +26184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -26233,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -26299,7 +26316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -26365,7 +26382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -26431,7 +26448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -26497,7 +26514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -26563,7 +26580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -26629,7 +26646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -26695,7 +26712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -26761,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -26827,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -26893,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -26959,7 +26976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -27025,7 +27042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -27091,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -27157,7 +27174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -27223,7 +27240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -27289,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -27355,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -27421,7 +27438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -27487,7 +27504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -27553,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -27619,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -27685,7 +27702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -27751,7 +27768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -27817,7 +27834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -27883,7 +27900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -27949,7 +27966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -28015,7 +28032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -28081,7 +28098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -28147,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -28213,7 +28230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -28279,7 +28296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -28345,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -28411,7 +28428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -28477,7 +28494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -28543,7 +28560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -28609,7 +28626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -28675,7 +28692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -28741,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -28807,7 +28824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -28873,7 +28890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -28939,7 +28956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -29005,7 +29022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -29071,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -29137,7 +29154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -29203,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -29269,7 +29286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -29335,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -29401,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -29467,7 +29484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -29533,7 +29550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -29599,7 +29616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -29665,7 +29682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -29731,7 +29748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -29797,7 +29814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -29863,7 +29880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -29929,7 +29946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -29995,7 +30012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -30061,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -30127,7 +30144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -30193,7 +30210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -30259,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -30325,7 +30342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -30391,7 +30408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -30457,7 +30474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -30523,7 +30540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -30589,7 +30606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -30655,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -30721,7 +30738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -30787,7 +30804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -30853,7 +30870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -30919,7 +30936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -30985,7 +31002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -31051,7 +31068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -31117,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -31183,7 +31200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -31249,7 +31266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -31315,7 +31332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -31381,7 +31398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -31447,7 +31464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -31513,7 +31530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -31579,7 +31596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -31645,7 +31662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -31711,7 +31728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -31777,7 +31794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -31843,7 +31860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -31909,7 +31926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -31975,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -32041,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -32107,7 +32124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -32173,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -32239,7 +32256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -32305,7 +32322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -32371,7 +32388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -32437,7 +32454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -32503,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -32569,7 +32586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -32635,7 +32652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -32701,7 +32718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -32767,7 +32784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -32833,7 +32850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -32899,7 +32916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -32965,7 +32982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -33031,7 +33048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -33097,7 +33114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -33163,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -33229,7 +33246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -33295,7 +33312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -33361,7 +33378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
         <v>0</v>
@@ -33427,7 +33444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C313">
         <f>IF(Scrobbles!$B313=C$1,Scrobbles!$D313,0)</f>
         <v>0</v>
@@ -33493,7 +33510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C314">
         <f>IF(Scrobbles!$B314=C$1,Scrobbles!$D314,0)</f>
         <v>0</v>
@@ -33559,7 +33576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C315">
         <f>IF(Scrobbles!$B315=C$1,Scrobbles!$D315,0)</f>
         <v>0</v>
@@ -33625,7 +33642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C316">
         <f>IF(Scrobbles!$B316=C$1,Scrobbles!$D316,0)</f>
         <v>0</v>
@@ -33691,7 +33708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C317">
         <f>IF(Scrobbles!$B317=C$1,Scrobbles!$D317,0)</f>
         <v>0</v>
@@ -33757,7 +33774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C318">
         <f>IF(Scrobbles!$B318=C$1,Scrobbles!$D318,0)</f>
         <v>0</v>
@@ -33823,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C319">
         <f>IF(Scrobbles!$B319=C$1,Scrobbles!$D319,0)</f>
         <v>0</v>
@@ -33889,7 +33906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C320">
         <f>IF(Scrobbles!$B320=C$1,Scrobbles!$D320,0)</f>
         <v>0</v>
@@ -33955,7 +33972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C321">
         <f>IF(Scrobbles!$B321=C$1,Scrobbles!$D321,0)</f>
         <v>0</v>
@@ -34021,7 +34038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C322">
         <f>IF(Scrobbles!$B322=C$1,Scrobbles!$D322,0)</f>
         <v>0</v>
@@ -34087,7 +34104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C323">
         <f>IF(Scrobbles!$B323=C$1,Scrobbles!$D323,0)</f>
         <v>0</v>
@@ -34153,7 +34170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C324">
         <f>IF(Scrobbles!$B324=C$1,Scrobbles!$D324,0)</f>
         <v>0</v>
@@ -34219,7 +34236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C325">
         <f>IF(Scrobbles!$B325=C$1,Scrobbles!$D325,0)</f>
         <v>0</v>
@@ -34285,7 +34302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C326">
         <f>IF(Scrobbles!$B326=C$1,Scrobbles!$D326,0)</f>
         <v>0</v>
@@ -34351,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C327">
         <f>IF(Scrobbles!$B327=C$1,Scrobbles!$D327,0)</f>
         <v>0</v>
@@ -34417,7 +34434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C328">
         <f>IF(Scrobbles!$B328=C$1,Scrobbles!$D328,0)</f>
         <v>0</v>
@@ -34483,7 +34500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C329">
         <f>IF(Scrobbles!$B329=C$1,Scrobbles!$D329,0)</f>
         <v>0</v>
@@ -34549,7 +34566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C330">
         <f>IF(Scrobbles!$B330=C$1,Scrobbles!$D330,0)</f>
         <v>0</v>
@@ -34615,7 +34632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C331">
         <f>IF(Scrobbles!$B331=C$1,Scrobbles!$D331,0)</f>
         <v>0</v>
@@ -34681,7 +34698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C332">
         <f>IF(Scrobbles!$B332=C$1,Scrobbles!$D332,0)</f>
         <v>0</v>
@@ -34747,7 +34764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C333">
         <f>IF(Scrobbles!$B333=C$1,Scrobbles!$D333,0)</f>
         <v>0</v>
@@ -34813,7 +34830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C334">
         <f>IF(Scrobbles!$B334=C$1,Scrobbles!$D334,0)</f>
         <v>0</v>
@@ -34879,7 +34896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C335">
         <f>IF(Scrobbles!$B335=C$1,Scrobbles!$D335,0)</f>
         <v>0</v>
@@ -34945,7 +34962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C336">
         <f>IF(Scrobbles!$B336=C$1,Scrobbles!$D336,0)</f>
         <v>0</v>
@@ -35011,7 +35028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C337">
         <f>IF(Scrobbles!$B337=C$1,Scrobbles!$D337,0)</f>
         <v>0</v>
@@ -35077,7 +35094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C338">
         <f>IF(Scrobbles!$B338=C$1,Scrobbles!$D338,0)</f>
         <v>0</v>
@@ -35143,7 +35160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C339">
         <f>IF(Scrobbles!$B339=C$1,Scrobbles!$D339,0)</f>
         <v>0</v>
@@ -35209,7 +35226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C340">
         <f>IF(Scrobbles!$B340=C$1,Scrobbles!$D340,0)</f>
         <v>0</v>
@@ -35275,7 +35292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C341">
         <f>IF(Scrobbles!$B341=C$1,Scrobbles!$D341,0)</f>
         <v>0</v>
@@ -35341,7 +35358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C342">
         <f>IF(Scrobbles!$B342=C$1,Scrobbles!$D342,0)</f>
         <v>0</v>
@@ -35407,7 +35424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C343">
         <f>IF(Scrobbles!$B343=C$1,Scrobbles!$D343,0)</f>
         <v>0</v>
@@ -35473,7 +35490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C344">
         <f>IF(Scrobbles!$B344=C$1,Scrobbles!$D344,0)</f>
         <v>0</v>
@@ -35539,7 +35556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C345">
         <f>IF(Scrobbles!$B345=C$1,Scrobbles!$D345,0)</f>
         <v>0</v>
@@ -35605,7 +35622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C346">
         <f>IF(Scrobbles!$B346=C$1,Scrobbles!$D346,0)</f>
         <v>0</v>
@@ -35671,7 +35688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C347">
         <f>IF(Scrobbles!$B347=C$1,Scrobbles!$D347,0)</f>
         <v>0</v>
@@ -35737,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C348">
         <f>IF(Scrobbles!$B348=C$1,Scrobbles!$D348,0)</f>
         <v>0</v>
@@ -35803,7 +35820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C349">
         <f>IF(Scrobbles!$B349=C$1,Scrobbles!$D349,0)</f>
         <v>0</v>
@@ -35869,7 +35886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C350">
         <f>IF(Scrobbles!$B350=C$1,Scrobbles!$D350,0)</f>
         <v>0</v>
@@ -35935,7 +35952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C351">
         <f>IF(Scrobbles!$B351=C$1,Scrobbles!$D351,0)</f>
         <v>0</v>
@@ -36001,7 +36018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C352">
         <f>IF(Scrobbles!$B352=C$1,Scrobbles!$D352,0)</f>
         <v>0</v>
@@ -36067,7 +36084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C353">
         <f>IF(Scrobbles!$B353=C$1,Scrobbles!$D353,0)</f>
         <v>0</v>
@@ -36133,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C354">
         <f>IF(Scrobbles!$B354=C$1,Scrobbles!$D354,0)</f>
         <v>0</v>
@@ -36199,7 +36216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C355">
         <f>IF(Scrobbles!$B355=C$1,Scrobbles!$D355,0)</f>
         <v>0</v>
@@ -36265,7 +36282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C356">
         <f>IF(Scrobbles!$B356=C$1,Scrobbles!$D356,0)</f>
         <v>0</v>
@@ -36331,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C357">
         <f>IF(Scrobbles!$B357=C$1,Scrobbles!$D357,0)</f>
         <v>0</v>
@@ -36397,7 +36414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C358">
         <f>IF(Scrobbles!$B358=C$1,Scrobbles!$D358,0)</f>
         <v>0</v>
@@ -36463,7 +36480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C359">
         <f>IF(Scrobbles!$B359=C$1,Scrobbles!$D359,0)</f>
         <v>0</v>
@@ -36529,7 +36546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C360">
         <f>IF(Scrobbles!$B360=C$1,Scrobbles!$D360,0)</f>
         <v>0</v>
@@ -36595,7 +36612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C361">
         <f>IF(Scrobbles!$B361=C$1,Scrobbles!$D361,0)</f>
         <v>0</v>
@@ -36661,7 +36678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C362">
         <f>IF(Scrobbles!$B362=C$1,Scrobbles!$D362,0)</f>
         <v>0</v>
@@ -36727,7 +36744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C363">
         <f>IF(Scrobbles!$B363=C$1,Scrobbles!$D363,0)</f>
         <v>0</v>
@@ -36793,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C364">
         <f>IF(Scrobbles!$B364=C$1,Scrobbles!$D364,0)</f>
         <v>0</v>
@@ -36859,7 +36876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C365">
         <f>IF(Scrobbles!$B365=C$1,Scrobbles!$D365,0)</f>
         <v>0</v>
@@ -36925,7 +36942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C366">
         <f>IF(Scrobbles!$B366=C$1,Scrobbles!$D366,0)</f>
         <v>0</v>
@@ -36991,7 +37008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C367">
         <f>IF(Scrobbles!$B367=C$1,Scrobbles!$D367,0)</f>
         <v>0</v>
@@ -37057,7 +37074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C368">
         <f>IF(Scrobbles!$B368=C$1,Scrobbles!$D368,0)</f>
         <v>0</v>
@@ -37123,7 +37140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C369">
         <f>IF(Scrobbles!$B369=C$1,Scrobbles!$D369,0)</f>
         <v>0</v>
@@ -37189,7 +37206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C370">
         <f>IF(Scrobbles!$B370=C$1,Scrobbles!$D370,0)</f>
         <v>0</v>
@@ -37255,7 +37272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C371">
         <f>IF(Scrobbles!$B371=C$1,Scrobbles!$D371,0)</f>
         <v>0</v>
@@ -37321,7 +37338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C372">
         <f>IF(Scrobbles!$B372=C$1,Scrobbles!$D372,0)</f>
         <v>0</v>
@@ -37387,7 +37404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C373">
         <f>IF(Scrobbles!$B373=C$1,Scrobbles!$D373,0)</f>
         <v>0</v>
@@ -37453,7 +37470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C374">
         <f>IF(Scrobbles!$B374=C$1,Scrobbles!$D374,0)</f>
         <v>0</v>
@@ -37519,7 +37536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C375">
         <f>IF(Scrobbles!$B375=C$1,Scrobbles!$D375,0)</f>
         <v>0</v>
@@ -37585,7 +37602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C376">
         <f>IF(Scrobbles!$B376=C$1,Scrobbles!$D376,0)</f>
         <v>0</v>
@@ -37651,7 +37668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C377">
         <f>IF(Scrobbles!$B377=C$1,Scrobbles!$D377,0)</f>
         <v>0</v>
@@ -37717,7 +37734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C378">
         <f>IF(Scrobbles!$B378=C$1,Scrobbles!$D378,0)</f>
         <v>0</v>
@@ -37783,7 +37800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C379">
         <f>IF(Scrobbles!$B379=C$1,Scrobbles!$D379,0)</f>
         <v>0</v>
@@ -37849,7 +37866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C380">
         <f>IF(Scrobbles!$B380=C$1,Scrobbles!$D380,0)</f>
         <v>0</v>
@@ -37915,7 +37932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C381">
         <f>IF(Scrobbles!$B381=C$1,Scrobbles!$D381,0)</f>
         <v>0</v>
@@ -37981,7 +37998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C382">
         <f>IF(Scrobbles!$B382=C$1,Scrobbles!$D382,0)</f>
         <v>0</v>
@@ -38047,7 +38064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C383">
         <f>IF(Scrobbles!$B383=C$1,Scrobbles!$D383,0)</f>
         <v>0</v>
@@ -38113,7 +38130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C384">
         <f>IF(Scrobbles!$B384=C$1,Scrobbles!$D384,0)</f>
         <v>0</v>
@@ -38179,7 +38196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C385">
         <f>IF(Scrobbles!$B385=C$1,Scrobbles!$D385,0)</f>
         <v>0</v>
@@ -38245,7 +38262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C386">
         <f>IF(Scrobbles!$B386=C$1,Scrobbles!$D386,0)</f>
         <v>0</v>
@@ -38311,7 +38328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C387">
         <f>IF(Scrobbles!$B387=C$1,Scrobbles!$D387,0)</f>
         <v>0</v>
@@ -38377,7 +38394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C388">
         <f>IF(Scrobbles!$B388=C$1,Scrobbles!$D388,0)</f>
         <v>0</v>
@@ -38443,7 +38460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C389">
         <f>IF(Scrobbles!$B389=C$1,Scrobbles!$D389,0)</f>
         <v>0</v>
@@ -38509,7 +38526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C390">
         <f>IF(Scrobbles!$B390=C$1,Scrobbles!$D390,0)</f>
         <v>0</v>
@@ -38575,7 +38592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C391">
         <f>IF(Scrobbles!$B391=C$1,Scrobbles!$D391,0)</f>
         <v>0</v>
@@ -38641,7 +38658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C392">
         <f>IF(Scrobbles!$B392=C$1,Scrobbles!$D392,0)</f>
         <v>0</v>
@@ -38707,7 +38724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C393">
         <f>IF(Scrobbles!$B393=C$1,Scrobbles!$D393,0)</f>
         <v>0</v>
@@ -38773,7 +38790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C394">
         <f>IF(Scrobbles!$B394=C$1,Scrobbles!$D394,0)</f>
         <v>0</v>
@@ -38839,7 +38856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C395">
         <f>IF(Scrobbles!$B395=C$1,Scrobbles!$D395,0)</f>
         <v>0</v>
@@ -38905,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C396">
         <f>IF(Scrobbles!$B396=C$1,Scrobbles!$D396,0)</f>
         <v>0</v>
@@ -38971,7 +38988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C397">
         <f>IF(Scrobbles!$B397=C$1,Scrobbles!$D397,0)</f>
         <v>0</v>
@@ -39037,7 +39054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C398">
         <f>IF(Scrobbles!$B398=C$1,Scrobbles!$D398,0)</f>
         <v>0</v>
@@ -39103,7 +39120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C399">
         <f>IF(Scrobbles!$B399=C$1,Scrobbles!$D399,0)</f>
         <v>0</v>
@@ -39169,7 +39186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C400">
         <f>IF(Scrobbles!$B400=C$1,Scrobbles!$D400,0)</f>
         <v>0</v>
@@ -39235,7 +39252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C401">
         <f>IF(Scrobbles!$B401=C$1,Scrobbles!$D401,0)</f>
         <v>0</v>
@@ -39301,7 +39318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C402">
         <f>IF(Scrobbles!$B402=C$1,Scrobbles!$D402,0)</f>
         <v>0</v>
@@ -39367,7 +39384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C403">
         <f>IF(Scrobbles!$B403=C$1,Scrobbles!$D403,0)</f>
         <v>0</v>
@@ -39433,7 +39450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C404">
         <f>IF(Scrobbles!$B404=C$1,Scrobbles!$D404,0)</f>
         <v>0</v>
@@ -39499,7 +39516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C405">
         <f>IF(Scrobbles!$B405=C$1,Scrobbles!$D405,0)</f>
         <v>0</v>
@@ -39565,7 +39582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C406">
         <f>IF(Scrobbles!$B406=C$1,Scrobbles!$D406,0)</f>
         <v>0</v>

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9DF14-9129-45F3-B92D-4537EB338F67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE68FCD-1BC2-4A59-8E06-FDA7D533CF7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -667,7 +667,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7384520516120539</c:v>
+                  <c:v>2.7057742442785226</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7487514355890337</c:v>
+                  <c:v>5.6249171927380361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.335005208070049</c:v>
+                  <c:v>8.232514300830978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3478618392985684</c:v>
+                  <c:v>8.4840697387238766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7753986790648391</c:v>
+                  <c:v>6.1565360406932523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7596470447432049</c:v>
+                  <c:v>3.1453962111709197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91043604775072262</c:v>
+                  <c:v>1.1311278004924135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20728600955737317</c:v>
+                  <c:v>0.28621121942018468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0477573705860205E-8</c:v>
+                  <c:v>1.0110402928447782E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10717486475302905</c:v>
+                  <c:v>5.9315192543827513E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.04852353199508</c:v>
+                  <c:v>15.523377906021912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.603794785554364</c:v>
+                  <c:v>20.968962360074421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24046686704559833</c:v>
+                  <c:v>0.44822022227042979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9920029657401715E-5</c:v>
+                  <c:v>1.2430821416027307E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4470251056043228E-10</c:v>
+                  <c:v>7.6485060712579959E-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0177403453490165E-17</c:v>
+                  <c:v>1.820088450793747E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,7 +1419,10 @@
                   <c:v>59.457142857142856</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.583333333333336</c:v>
+                  <c:v>59.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.216216216216218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,7 +2004,10 @@
                   <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2145</c:v>
+                  <c:v>2148</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,424 +2694,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.2639310640399949E-3</c:v>
+                  <c:v>2.205647191450335E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3953005598212665E-3</c:v>
+                  <c:v>2.3300527779807905E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5318747561812148E-3</c:v>
+                  <c:v>2.459251780586581E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6736823353476938E-3</c:v>
+                  <c:v>2.5932701062213238E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8207382003978456E-3</c:v>
+                  <c:v>2.7321216710652317E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9730426453070898E-3</c:v>
+                  <c:v>2.8758076956551595E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1305805505404813E-3</c:v>
+                  <c:v>3.0243160208053505E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2933206103190021E-3</c:v>
+                  <c:v>3.1776204492354873E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4612145978102295E-3</c:v>
+                  <c:v>3.3356801179167278E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6341966745670785E-3</c:v>
+                  <c:v>3.4984389062082694E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8121827505669774E-3</c:v>
+                  <c:v>3.6658248848844971E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9950699011843732E-3</c:v>
+                  <c:v>3.8377498111439516E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1827358473593527E-3</c:v>
+                  <c:v>4.0141086746443358E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3750385051027699E-3</c:v>
+                  <c:v>4.1947792995213305E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5718156103017223E-3</c:v>
+                  <c:v>4.3796220072215564E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7728844245578236E-3</c:v>
+                  <c:v>4.5684793448111114E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9780415275035754E-3</c:v>
+                  <c:v>4.7611758832099057E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1870627006994361E-3</c:v>
+                  <c:v>4.9575180895484947E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3997029078161913E-3</c:v>
+                  <c:v>5.1572942775484736E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6156963753551375E-3</c:v>
+                  <c:v>5.3602746394903339E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.834756777653956E-3</c:v>
+                  <c:v>5.5662113629550329E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0565775293711663E-3</c:v>
+                  <c:v>5.7748388351088467E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.2808321880393463E-3</c:v>
+                  <c:v>5.9858739368471988E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5071749686306437E-3</c:v>
+                  <c:v>6.1990164286244319E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7352413713907726E-3</c:v>
+                  <c:v>6.4139494292754524E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9646489234748213E-3</c:v>
+                  <c:v>6.6303399885851554E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1949980341641222E-3</c:v>
+                  <c:v>6.8478397537857557E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4258729626642322E-3</c:v>
+                  <c:v>7.0660857295646012E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.6568428966850002E-3</c:v>
+                  <c:v>7.284701130549861E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.8874631391917527E-3</c:v>
+                  <c:v>7.5032963246131588E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.1172763998976927E-3</c:v>
+                  <c:v>7.7214698646913679E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.3458141872493636E-3</c:v>
+                  <c:v>7.9388096061897284E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.5725982958459335E-3</c:v>
+                  <c:v>8.1548939063898485E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.797142383436974E-3</c:v>
+                  <c:v>8.369292901654897E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0189536308692368E-3</c:v>
+                  <c:v>8.5815698576053017E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.2375344776084237E-3</c:v>
+                  <c:v>8.791282586837295E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.4523844247540959E-3</c:v>
+                  <c:v>8.9979849281790966E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.6630018968020034E-3</c:v>
+                  <c:v>9.2012282809305589E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.8688861527950721E-3</c:v>
+                  <c:v>9.4005631870173571E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0069539236948553E-2</c:v>
+                  <c:v>9.5955409535149628E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0264467958342814E-2</c:v>
+                  <c:v>9.7857153075658482E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0453185888854391E-2</c:v>
+                  <c:v>9.9706440753300259E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0635215368147617E-2</c:v>
+                  <c:v>1.0149890876278418E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0810089504279861E-2</c:v>
+                  <c:v>1.0323026823864417E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0977354158287059E-2</c:v>
+                  <c:v>1.0489632223394968E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.113656990101594E-2</c:v>
+                  <c:v>1.0649298257771087E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1287313930457728E-2</c:v>
+                  <c:v>1.0801628651681822E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1429181937916462E-2</c:v>
+                  <c:v>1.0946241304816607E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1561789911514351E-2</c:v>
+                  <c:v>1.108276988471054E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1684775865796797E-2</c:v>
+                  <c:v>1.1210865369955417E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.17978014865494E-2</c:v>
+                  <c:v>1.1330197534697058E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1900553680377355E-2</c:v>
+                  <c:v>1.1440456365595401E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1992746019120482E-2</c:v>
+                  <c:v>1.1541353402747288E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2074120069782125E-2</c:v>
+                  <c:v>1.16326229964606E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2144446601332041E-2</c:v>
+                  <c:v>1.17140234722203E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.220352666049764E-2</c:v>
+                  <c:v>1.1785338196698683E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2251192509478337E-2</c:v>
+                  <c:v>1.184637653823035E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2287308419397741E-2</c:v>
+                  <c:v>1.1896974715792668E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2311771314240929E-2</c:v>
+                  <c:v>1.1936996531200412E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2324511261001151E-2</c:v>
+                  <c:v>1.1966333979933443E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.232549180277398E-2</c:v>
+                  <c:v>1.1984907736763412E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2314710132578439E-2</c:v>
+                  <c:v>1.199266751312345E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2292197106745246E-2</c:v>
+                  <c:v>1.1989592283967532E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.225801709778278E-2</c:v>
+                  <c:v>1.1975690382687179E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2212267687702696E-2</c:v>
+                  <c:v>1.1950999463485818E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2155079203849945E-2</c:v>
+                  <c:v>1.1915586331448508E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2086614100327318E-2</c:v>
+                  <c:v>1.1869546641380409E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2007066189123504E-2</c:v>
+                  <c:v>1.1813004467314064E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1916659726037473E-2</c:v>
+                  <c:v>1.1746111745397143E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1815648357432483E-2</c:v>
+                  <c:v>1.1669047593661599E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1704313934742206E-2</c:v>
+                  <c:v>1.1582017512936568E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1582965204482366E-2</c:v>
+                  <c:v>1.148525247389403E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1451936382286844E-2</c:v>
+                  <c:v>1.1379007895903216E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1311585620181698E-2</c:v>
+                  <c:v>1.1263562524011159E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1162293376928478E-2</c:v>
+                  <c:v>1.1139217210958043E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1004460701805226E-2</c:v>
+                  <c:v>1.1006293611672704E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0838507442645801E-2</c:v>
+                  <c:v>1.0865132798171711E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0664870389322845E-2</c:v>
+                  <c:v>1.0716093803201963E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0484001364134908E-2</c:v>
+                  <c:v>1.0559552101318585E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0296365270742642E-2</c:v>
+                  <c:v>1.0395898036375291E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0102438113392587E-2</c:v>
+                  <c:v>1.022553520462164E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9027049981702132E-3</c:v>
+                  <c:v>1.0048878802750008E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.6976581279383557E-3</c:v>
+                  <c:v>9.8663539503143216E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.4877948024448943E-3</c:v>
+                  <c:v>9.6783939959531051E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.2736154348278602E-3</c:v>
+                  <c:v>9.4854388167922125E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.0556215954106997E-3</c:v>
+                  <c:v>9.2879331202792535E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.8343140932696448E-3</c:v>
+                  <c:v>9.0863247575144312E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.610191105574273E-3</c:v>
+                  <c:v>8.881063056894031E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.3837463641567977E-3</c:v>
+                  <c:v>8.6725971865760608E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.1554674081616985E-3</c:v>
+                  <c:v>8.461374553916625E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.9258339109714096E-3</c:v>
+                  <c:v>8.2478392496141747E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.6953160889028241E-3</c:v>
+                  <c:v>8.0324305438413679E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.46437319843041E-3</c:v>
+                  <c:v>7.8155814411458319E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2334521279220658E-3</c:v>
+                  <c:v>7.5977173003662375E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.0029860890808105E-3</c:v>
+                  <c:v>7.3792545252442943E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.7733934124764297E-3</c:v>
+                  <c:v>7.1605993308217373E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.5450764507334726E-3</c:v>
+                  <c:v>6.9421465900995454E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.3184205921228767E-3</c:v>
+                  <c:v>6.7242787648099621E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0937933864907605E-3</c:v>
+                  <c:v>6.5073649235158479E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8715437846563598E-3</c:v>
+                  <c:v>6.291759849611795E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.6520014916280701E-3</c:v>
+                  <c:v>6.0778032411625982E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.4354764332280089E-3</c:v>
+                  <c:v>5.8658190038820383E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.2222583349869379E-3</c:v>
+                  <c:v>5.6561146379335413E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.0126164114779751E-3</c:v>
+                  <c:v>5.448980718628516E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.8067991636036407E-3</c:v>
+                  <c:v>5.2446904705125523E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.6050342807406096E-3</c:v>
+                  <c:v>5.0434994337679867E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.4075286440833682E-3</c:v>
+                  <c:v>4.8456452213274321E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.2144684270147628E-3</c:v>
+                  <c:v>4.6513473645897604E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.0260192878704536E-3</c:v>
+                  <c:v>4.4608072451608116E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.8423266500572E-3</c:v>
+                  <c:v>4.2742081096080785E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.6635160641329385E-3</c:v>
+                  <c:v>4.0917151638238704E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.4896936461602042E-3</c:v>
+                  <c:v>3.9134757432366472E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.3209465864037302E-3</c:v>
+                  <c:v>3.7396195547965451E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.1573437222575341E-3</c:v>
+                  <c:v>3.5702589863892773E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.9989361691553813E-3</c:v>
+                  <c:v>3.4054894791031532E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.8457580031398572E-3</c:v>
+                  <c:v>3.2453899575867278E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.6978269887375185E-3</c:v>
+                  <c:v>3.0900233135894052E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.5551453458084084E-3</c:v>
+                  <c:v>2.9394369376731736E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4177005491050761E-3</c:v>
+                  <c:v>2.7936632940198307E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.2854661543862394E-3</c:v>
+                  <c:v>2.6527205332328792E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.1584026450802191E-3</c:v>
+                  <c:v>2.5166131380453078E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.0364582936799403E-3</c:v>
+                  <c:v>2.3853325968917444E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.919570032271063E-3</c:v>
+                  <c:v>2.2588581003839107E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.8076643268440957E-3</c:v>
+                  <c:v>2.1371572558395446E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.7006580503164689E-3</c:v>
+                  <c:v>2.0201868151546944E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.5984593494876749E-3</c:v>
+                  <c:v>1.9078934114747578E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5009685014661051E-3</c:v>
+                  <c:v>1.8002143003083653E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.4080787554363369E-3</c:v>
+                  <c:v>1.6970781009372816E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.3196771559768061E-3</c:v>
+                  <c:v>1.5984055342023566E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.2356453444865166E-3</c:v>
+                  <c:v>1.5041101529871927E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1558603356323638E-3</c:v>
+                  <c:v>1.4140990619751223E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.0801952660824915E-3</c:v>
+                  <c:v>1.328273623518455E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0085201131430595E-3</c:v>
+                  <c:v>1.2465301467290842E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>9.4070238126281219E-4</c:v>
+                  <c:v>1.1687605571741508E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.7660775470958937E-4</c:v>
+                  <c:v>1.0948530448368337E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.1610071505289921E-4</c:v>
+                  <c:v>1.0246926882783874E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7.5904512240482116E-4</c:v>
+                  <c:v>9.5816205321105669E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.0530475967604562E-4</c:v>
+                  <c:v>8.9514176396043995E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.5474383939310326E-4</c:v>
+                  <c:v>8.3551104655849159E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.0722747289544113E-4</c:v>
+                  <c:v>7.7914824246292172E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,424 +3799,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.3282723123473232E-26</c:v>
+                  <c:v>2.5949864489587821E-27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9142891944028022E-25</c:v>
+                  <c:v>1.5885525153761194E-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3577986558324986E-23</c:v>
+                  <c:v>4.8622587126039009E-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6828501081117825E-22</c:v>
+                  <c:v>9.9216360216648258E-23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.975495473541525E-21</c:v>
+                  <c:v>1.5184125398020767E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3124654393036466E-20</c:v>
+                  <c:v>1.8590294068387724E-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2547399848639947E-19</c:v>
+                  <c:v>1.896712435355766E-19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0263560585449374E-18</c:v>
+                  <c:v>1.658707979181767E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2331714394371291E-17</c:v>
+                  <c:v>1.2692478286644306E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4645533140718119E-16</c:v>
+                  <c:v>8.6331721679427774E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0642963496344528E-15</c:v>
+                  <c:v>5.2849013406460326E-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1181605227186615E-14</c:v>
+                  <c:v>2.9411060286396339E-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5519775954433617E-14</c:v>
+                  <c:v>1.5003615213668326E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5446563979115376E-13</c:v>
+                  <c:v>7.0651119457294943E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.082993645539733E-12</c:v>
+                  <c:v>3.0892815747253541E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3018914253383883E-12</c:v>
+                  <c:v>1.2607608588743988E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6020064422484083E-11</c:v>
+                  <c:v>4.8236880833623522E-12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.614875520625556E-11</c:v>
+                  <c:v>1.7369878392393875E-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8586277765033592E-10</c:v>
+                  <c:v>5.9073235073231226E-11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8285914921048323E-10</c:v>
+                  <c:v>1.9032841741233117E-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7364345486895622E-9</c:v>
+                  <c:v>5.8255927762017553E-10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9267885012422098E-9</c:v>
+                  <c:v>1.698194033217115E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3343385524197693E-8</c:v>
+                  <c:v>4.7253187779321538E-9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.4567103803627992E-8</c:v>
+                  <c:v>1.2576788521758271E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.5817636179146143E-8</c:v>
+                  <c:v>3.2079308560565979E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0453203289363133E-7</c:v>
+                  <c:v>7.8550955556412855E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6871924204790483E-7</c:v>
+                  <c:v>1.849458568973754E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0343649940254712E-6</c:v>
+                  <c:v>4.1932168756011515E-7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2011040795482459E-6</c:v>
+                  <c:v>9.1676025320816912E-7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.5223833818304631E-6</c:v>
+                  <c:v>1.9351928923732563E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.9819558833577214E-6</c:v>
+                  <c:v>3.9488395506535248E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7263705528496703E-5</c:v>
+                  <c:v>7.7978392172887895E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.214466003352892E-5</c:v>
+                  <c:v>1.491731911077624E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.8038969504982781E-5</c:v>
+                  <c:v>2.7672176728835649E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0171044900995774E-4</c:v>
+                  <c:v>4.9823116288404355E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.731499310526663E-4</c:v>
+                  <c:v>8.7142361693618266E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8657916829318534E-4</c:v>
+                  <c:v>1.481812681952295E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.6149573272438808E-4</c:v>
+                  <c:v>2.4516477170357569E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.2361721249547669E-4</c:v>
+                  <c:v>3.9494893876856131E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1055262968680862E-3</c:v>
+                  <c:v>6.1993024692362834E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.6467735463764224E-3</c:v>
+                  <c:v>9.4874460086622511E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3931770033722415E-3</c:v>
+                  <c:v>1.4165501126974288E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.3950824551808555E-3</c:v>
+                  <c:v>2.0646628090474138E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7044262702602884E-3</c:v>
+                  <c:v>2.9393219751680665E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.3705772409774842E-3</c:v>
+                  <c:v>4.0894129445673616E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.4351161616646204E-3</c:v>
+                  <c:v>5.5630752669339825E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0925920390561974E-2</c:v>
+                  <c:v>7.4032699645155452E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.385112248094292E-2</c:v>
+                  <c:v>9.6425569118043265E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7193667662976031E-2</c:v>
+                  <c:v>1.2297517683128815E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.0907265950727682E-2</c:v>
+                  <c:v>1.5363418396186865E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4914491924617144E-2</c:v>
+                  <c:v>1.8809806847223394E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.910761719951184E-2</c:v>
+                  <c:v>2.2577749077350752E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3352478041107338E-2</c:v>
+                  <c:v>2.6579314792203497E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.749531729464109E-2</c:v>
+                  <c:v>3.0699718513177401E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.1372147940846225E-2</c:v>
+                  <c:v>3.4802233449623098E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.4819826935916796E-2</c:v>
+                  <c:v>3.8735655411988312E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.7687762290447189E-2</c:v>
+                  <c:v>4.2343754588877201E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.9849049762675054E-2</c:v>
+                  <c:v>4.5475867303843905E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.1209871523437728E-2</c:v>
+                  <c:v>4.7997595267104599E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.1716183812511272E-2</c:v>
+                  <c:v>4.9800528300500226E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1357043647146619E-2</c:v>
+                  <c:v>5.0809998468753594E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0164325420368631E-2</c:v>
+                  <c:v>5.0990095937849748E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.8208995531671461E-2</c:v>
+                  <c:v>5.0345495771242234E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.5594486514742183E-2</c:v>
+                  <c:v>4.8920011978491489E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2447992002657128E-2</c:v>
+                  <c:v>4.6792156727737858E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.8910659335769017E-2</c:v>
+                  <c:v>4.4068288976435013E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.5127678567013737E-2</c:v>
+                  <c:v>4.0874150094850639E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.123916688484428E-2</c:v>
+                  <c:v>3.7345683729260497E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7372554316989761E-2</c:v>
+                  <c:v>3.3620021322247617E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.3636927942811227E-2</c:v>
+                  <c:v>2.9827398470384237E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0119527951321468E-2</c:v>
+                  <c:v>2.6084578199003953E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.6884345639900041E-2</c:v>
+                  <c:v>2.2490129280831286E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3972577699685821E-2</c:v>
+                  <c:v>1.9121675233139276E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1404558282277818E-2</c:v>
+                  <c:v>1.6035021992987931E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.1827242925997827E-3</c:v>
+                  <c:v>1.3264910450736921E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2951642991209787E-3</c:v>
+                  <c:v>1.082703501654745E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.7193448178415335E-3</c:v>
+                  <c:v>8.7209225862304191E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.4256834899964355E-3</c:v>
+                  <c:v>6.9332712031631933E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3807304437472748E-3</c:v>
+                  <c:v>5.4413926802372101E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.5498125182271125E-3</c:v>
+                  <c:v>4.2164743143131324E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8990791151378922E-3</c:v>
+                  <c:v>3.226457541188942E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3969563449831226E-3</c:v>
+                  <c:v>2.4384138574551064E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0150648238444505E-3</c:v>
+                  <c:v>1.8203715844218205E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.2868609342246766E-4</c:v>
+                  <c:v>1.3426055482629181E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.1687555237803868E-4</c:v>
+                  <c:v>9.7844323256612289E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.6231962740225466E-4</c:v>
+                  <c:v>7.046657938830751E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.5102571084555445E-4</c:v>
+                  <c:v>5.0159271626183579E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7191894947755844E-4</c:v>
+                  <c:v>3.5293802495590536E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.1640345537543082E-4</c:v>
+                  <c:v>2.4551739143892018E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.7929279581865789E-5</c:v>
+                  <c:v>1.6887242381085854E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.1592069352809137E-5</c:v>
+                  <c:v>1.1486367565513309E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.3780521600054034E-5</c:v>
+                  <c:v>7.7269446201032538E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.1877783463802844E-5</c:v>
+                  <c:v>5.1414599190757327E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.4016680265787678E-5</c:v>
+                  <c:v>3.3843088394962134E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.8846865159912599E-6</c:v>
+                  <c:v>2.203984911287827E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5724130341524294E-6</c:v>
+                  <c:v>1.4202064933334014E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.4585723258845524E-6</c:v>
+                  <c:v>9.0562153924553714E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.1244666778414509E-6</c:v>
+                  <c:v>5.7153323666512625E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.2916612879733359E-6</c:v>
+                  <c:v>3.5701124684128467E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.7738873813210821E-7</c:v>
+                  <c:v>2.2075634018441831E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.6319412313704187E-7</c:v>
+                  <c:v>1.3513867851829866E-6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.732539587813403E-7</c:v>
+                  <c:v>8.1907708548018797E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.5962138932079989E-7</c:v>
+                  <c:v>4.9157647022062039E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9.2337615990591687E-8</c:v>
+                  <c:v>2.9215972318281289E-7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.2901759161276779E-8</c:v>
+                  <c:v>1.719703152310487E-7</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.0019649047867298E-8</c:v>
+                  <c:v>1.0026068571385444E-7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.6874252412912793E-8</c:v>
+                  <c:v>5.7901696364579703E-8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.3964879090597158E-9</c:v>
+                  <c:v>3.3126380971399973E-8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.1840191782236E-9</c:v>
+                  <c:v>1.8776589814870102E-8</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.8337719513989312E-9</c:v>
+                  <c:v>1.0545245705598974E-8</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.5349598070077689E-9</c:v>
+                  <c:v>5.8685458287915741E-9</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>8.2394614265056379E-10</c:v>
+                  <c:v>3.2364880209917157E-9</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.3833444344877726E-10</c:v>
+                  <c:v>1.7689781292341294E-9</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.3112767482734193E-10</c:v>
+                  <c:v>9.5831989062790637E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2080137975259429E-10</c:v>
+                  <c:v>5.1460278621911291E-10</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6.2589120668916427E-11</c:v>
+                  <c:v>2.7393074284048889E-10</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.2148865860830014E-11</c:v>
+                  <c:v>1.4456037570682992E-10</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.6372107614311636E-11</c:v>
+                  <c:v>7.5636232611682465E-11</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8.2669893673960701E-12</c:v>
+                  <c:v>3.9238677706243683E-11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.1392838919384932E-12</c:v>
+                  <c:v>2.0185238474821951E-11</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.0552694324555958E-12</c:v>
+                  <c:v>1.029719935708828E-11</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.0120644932546471E-12</c:v>
+                  <c:v>5.2095502666528384E-12</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.9428013161001296E-13</c:v>
+                  <c:v>2.6140078320710861E-12</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.3943786863222538E-13</c:v>
+                  <c:v>1.3009729157637834E-12</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.150524704785203E-13</c:v>
+                  <c:v>6.4226322018416788E-13</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.4841677594761671E-14</c:v>
+                  <c:v>3.1453539323613389E-13</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.5933729814983542E-14</c:v>
+                  <c:v>1.5281481460314097E-13</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.2167071402698765E-14</c:v>
+                  <c:v>7.3659407336904883E-14</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5.6637083677927248E-15</c:v>
+                  <c:v>3.5227735983549122E-14</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.6159893300851724E-15</c:v>
+                  <c:v>1.6717121726951197E-14</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1989951096223603E-15</c:v>
+                  <c:v>7.8719918319221448E-15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5.4534446779897147E-16</c:v>
+                  <c:v>3.6785767483605219E-15</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.4616243338147721E-16</c:v>
+                  <c:v>1.7059738605726119E-15</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.1027953625799375E-16</c:v>
+                  <c:v>7.8521251660170588E-16</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>4.9035987826160451E-17</c:v>
+                  <c:v>3.5871447158185514E-16</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.1642426725743107E-17</c:v>
+                  <c:v>1.6266031594252239E-16</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9.4818229833987576E-18</c:v>
+                  <c:v>7.3216537283349821E-17</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4.1237855432664805E-18</c:v>
+                  <c:v>3.271561589007415E-17</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.7804991928958377E-18</c:v>
+                  <c:v>1.4512508811401853E-17</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7.6322357489241179E-19</c:v>
+                  <c:v>6.3913732175432649E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,10 +4603,10 @@
                   <c:v>47.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>47.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.8</c:v>
+                  <c:v>65.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.6</c:v>
@@ -8614,8 +8620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8747,11 +8753,11 @@
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.7384520516120539</v>
+        <v>2.7057742442785226</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>3.0477573705860205E-8</v>
+        <v>1.0110402928447782E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
@@ -8788,18 +8794,18 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.7487514355890337</v>
+        <v>5.6249171927380361</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>0.10717486475302905</v>
+        <v>5.9315192543827513E-2</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43575</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -8832,18 +8838,18 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>8.335005208070049</v>
+        <v>8.232514300830978</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>18.04852353199508</v>
+        <v>15.523377906021912</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -8876,11 +8882,11 @@
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>8.3478618392985684</v>
+        <v>8.4840697387238766</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>17.603794785554364</v>
+        <v>20.968962360074421</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
@@ -8915,18 +8921,18 @@
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>5.7753986790648391</v>
+        <v>6.1565360406932523</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>0.24046686704559833</v>
+        <v>0.44822022227042979</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>32.364568246429272</v>
+        <v>33.264813920153522</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -8955,22 +8961,22 @@
       </c>
       <c r="I9" s="27">
         <f>SUM(Calc!P2:P406)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>2.7596470447432049</v>
+        <v>3.1453962111709197</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>3.9920029657401715E-5</v>
+        <v>1.2430821416027307E-4</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>59.583333333333336</v>
+        <v>61.216216216216218</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9003,18 +9009,18 @@
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>0.91043604775072262</v>
+        <v>1.1311278004924135</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>1.4470251056043228E-10</v>
+        <v>7.6485060712579959E-10</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>2145</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9047,18 +9053,18 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.20728600955737317</v>
+        <v>0.28621121942018468</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>2.0177403453490165E-17</v>
+        <v>1.820088450793747E-16</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.97222222222222221</v>
+        <v>0.97297297297297303</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9113,15 +9119,15 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>34.615552306128471</v>
+        <v>35.480335528928002</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>36</v>
+        <v>37.000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9153,7 +9159,7 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>0.12105592173896725</v>
+        <v>0.24667529389504445</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
@@ -9186,7 +9192,7 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>21747.916666666668</v>
+        <v>22343.91891891892</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -9682,15 +9688,15 @@
         <v>43574</v>
       </c>
       <c r="D37">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3">
         <f>AVERAGE(D$2:D37)</f>
-        <v>59.583333333333336</v>
+        <v>59.666666666666664</v>
       </c>
       <c r="F37">
         <f>SUM($D$2:D37)</f>
-        <v>2145</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9702,6 +9708,17 @@
       </c>
       <c r="C38" s="1">
         <v>43575</v>
+      </c>
+      <c r="D38">
+        <v>117</v>
+      </c>
+      <c r="E38" s="3">
+        <f>AVERAGE(D$2:D38)</f>
+        <v>61.216216216216218</v>
+      </c>
+      <c r="F38">
+        <f>SUM($D$2:D38)</f>
+        <v>2265</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -9940,7 +9957,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35 E36:F36" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35 E36:F37" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9975,7 +9992,7 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -9983,7 +10000,7 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
@@ -10024,11 +10041,11 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>12.616666666666667</v>
+        <v>10.983783783783785</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.2117482517482518</v>
+        <v>1.1794260485651213</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -10049,11 +10066,11 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>29.616666666666667</v>
+        <v>27.983783783783785</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.4970629370629371</v>
+        <v>1.457130242825607</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -10074,11 +10091,11 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.5833333333333357</v>
+        <v>-3.2162162162162176</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97342657342657335</v>
+        <v>0.94746136865342157</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -10099,11 +10116,11 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.383333333333333</v>
+        <v>-14.016216216216215</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79216783216783215</v>
+        <v>0.77103752759381905</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -10112,7 +10129,7 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(Calc!G2:G1000)</f>
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E9" s="11">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
@@ -10120,15 +10137,15 @@
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>46.666666666666664</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.916666666666671</v>
+        <v>-14.049549549549553</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78321678321678312</v>
+        <v>0.7704930095658572</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -10137,23 +10154,23 @@
       </c>
       <c r="D10" s="11">
         <f>SUM(Calc!H2:H1000)</f>
-        <v>274</v>
+        <v>391</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>54.8</v>
+        <v>65.166666666666671</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7833333333333385</v>
+        <v>3.9504504504504538</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91972027972027959</v>
+        <v>1.0645327446651951</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -10174,11 +10191,11 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9833333333333343</v>
+        <v>-9.6162162162162161</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86601398601398605</v>
+        <v>0.84291390728476823</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -10195,15 +10212,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>2145</v>
+        <v>2265</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>59.583333333333336</v>
+        <v>61.216216216216218</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -10222,16 +10239,16 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>67.383459485580715</v>
+        <v>71.391990632917725</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>14.366040834262554</v>
+        <v>14.219798723503812</v>
       </c>
       <c r="G15" s="16">
         <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>14.366040834262607</v>
+        <v>14.219798723503841</v>
       </c>
       <c r="H15" s="17"/>
     </row>
@@ -10285,7 +10302,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>297.91666666666669</v>
+        <v>306.08108108108109</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10296,7 +10313,7 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>42.55952380952381</v>
+        <v>43.725868725868729</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
@@ -10309,7 +10326,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.91666666666669</v>
+        <v>306.08108108108109</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
@@ -10320,7 +10337,7 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>42.55952380952381</v>
+        <v>43.725868725868729</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
@@ -10333,7 +10350,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.91666666666669</v>
+        <v>306.08108108108109</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
@@ -10344,7 +10361,7 @@
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.55952380952381</v>
+        <v>43.725868725868729</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
@@ -10357,7 +10374,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.91666666666669</v>
+        <v>306.08108108108109</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -10368,7 +10385,7 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.55952380952381</v>
+        <v>43.725868725868729</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
@@ -10377,22 +10394,22 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>357.5</v>
+        <v>367.29729729729729</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>46.666666666666664</v>
+        <v>47.166666666666664</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>51.071428571428569</v>
+        <v>52.471042471042473</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
@@ -10401,22 +10418,22 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>391</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.91666666666669</v>
+        <v>367.29729729729729</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>54.8</v>
+        <v>65.166666666666671</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.55952380952381</v>
+        <v>52.471042471042473</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.3">
@@ -10429,7 +10446,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>297.91666666666669</v>
+        <v>306.08108108108109</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -10440,7 +10457,7 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>42.55952380952381</v>
+        <v>43.725868725868729</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
@@ -10457,7 +10474,7 @@
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>2.2280164621083059E-24</v>
+        <v>2.4756993410113528E-23</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10465,7 +10482,7 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>6.1822158701252165E-16</v>
+        <v>2.6312560983136681E-14</v>
       </c>
       <c r="I31" s="17"/>
     </row>
@@ -10507,11 +10524,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2639310640399949E-3</v>
+        <v>2.205647191450335E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3282723123473232E-26</v>
+        <v>2.5949864489587821E-27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10520,11 +10537,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3953005598212665E-3</v>
+        <v>2.3300527779807905E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9142891944028022E-25</v>
+        <v>1.5885525153761194E-25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -10533,11 +10550,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5318747561812148E-3</v>
+        <v>2.459251780586581E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3577986558324986E-23</v>
+        <v>4.8622587126039009E-24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10546,11 +10563,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6736823353476938E-3</v>
+        <v>2.5932701062213238E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6828501081117825E-22</v>
+        <v>9.9216360216648258E-23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10559,11 +10576,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8207382003978456E-3</v>
+        <v>2.7321216710652317E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>6.975495473541525E-21</v>
+        <v>1.5184125398020767E-21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10572,11 +10589,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9730426453070898E-3</v>
+        <v>2.8758076956551595E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>8.3124654393036466E-20</v>
+        <v>1.8590294068387724E-20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10585,11 +10602,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1305805505404813E-3</v>
+        <v>3.0243160208053505E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2547399848639947E-19</v>
+        <v>1.896712435355766E-19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10598,11 +10615,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2933206103190021E-3</v>
+        <v>3.1776204492354873E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0263560585449374E-18</v>
+        <v>1.658707979181767E-18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10611,11 +10628,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4612145978102295E-3</v>
+        <v>3.3356801179167278E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2331714394371291E-17</v>
+        <v>1.2692478286644306E-17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10624,11 +10641,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6341966745670785E-3</v>
+        <v>3.4984389062082694E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4645533140718119E-16</v>
+        <v>8.6331721679427774E-17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10637,11 +10654,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8121827505669774E-3</v>
+        <v>3.6658248848844971E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0642963496344528E-15</v>
+        <v>5.2849013406460326E-16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10650,11 +10667,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9950699011843732E-3</v>
+        <v>3.8377498111439516E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1181605227186615E-14</v>
+        <v>2.9411060286396339E-15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10663,11 +10680,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1827358473593527E-3</v>
+        <v>4.0141086746443358E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5519775954433617E-14</v>
+        <v>1.5003615213668326E-14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10676,11 +10693,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3750385051027699E-3</v>
+        <v>4.1947792995213305E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5446563979115376E-13</v>
+        <v>7.0651119457294943E-14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10689,11 +10706,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5718156103017223E-3</v>
+        <v>4.3796220072215564E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>1.082993645539733E-12</v>
+        <v>3.0892815747253541E-13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10702,11 +10719,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7728844245578236E-3</v>
+        <v>4.5684793448111114E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3018914253383883E-12</v>
+        <v>1.2607608588743988E-12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10715,11 +10732,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9780415275035754E-3</v>
+        <v>4.7611758832099057E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6020064422484083E-11</v>
+        <v>4.8236880833623522E-12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10728,11 +10745,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1870627006994361E-3</v>
+        <v>4.9575180895484947E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>5.614875520625556E-11</v>
+        <v>1.7369878392393875E-11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10741,11 +10758,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3997029078161913E-3</v>
+        <v>5.1572942775484736E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8586277765033592E-10</v>
+        <v>5.9073235073231226E-11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10754,11 +10771,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6156963753551375E-3</v>
+        <v>5.3602746394903339E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8285914921048323E-10</v>
+        <v>1.9032841741233117E-10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10767,11 +10784,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.834756777653956E-3</v>
+        <v>5.5662113629550329E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7364345486895622E-9</v>
+        <v>5.8255927762017553E-10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10780,11 +10797,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0565775293711663E-3</v>
+        <v>5.7748388351088467E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9267885012422098E-9</v>
+        <v>1.698194033217115E-9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10793,11 +10810,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.2808321880393463E-3</v>
+        <v>5.9858739368471988E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3343385524197693E-8</v>
+        <v>4.7253187779321538E-9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10806,11 +10823,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5071749686306437E-3</v>
+        <v>6.1990164286244319E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4567103803627992E-8</v>
+        <v>1.2576788521758271E-8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10819,11 +10836,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7352413713907726E-3</v>
+        <v>6.4139494292754524E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>8.5817636179146143E-8</v>
+        <v>3.2079308560565979E-8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10832,11 +10849,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9646489234748213E-3</v>
+        <v>6.6303399885851554E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0453203289363133E-7</v>
+        <v>7.8550955556412855E-8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10845,11 +10862,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1949980341641222E-3</v>
+        <v>6.8478397537857557E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6871924204790483E-7</v>
+        <v>1.849458568973754E-7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10858,11 +10875,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4258729626642322E-3</v>
+        <v>7.0660857295646012E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0343649940254712E-6</v>
+        <v>4.1932168756011515E-7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10871,11 +10888,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6568428966850002E-3</v>
+        <v>7.284701130549861E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2011040795482459E-6</v>
+        <v>9.1676025320816912E-7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10884,11 +10901,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8874631391917527E-3</v>
+        <v>7.5032963246131588E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5223833818304631E-6</v>
+        <v>1.9351928923732563E-6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10897,11 +10914,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1172763998976927E-3</v>
+        <v>7.7214698646913679E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>8.9819558833577214E-6</v>
+        <v>3.9488395506535248E-6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10910,11 +10927,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3458141872493636E-3</v>
+        <v>7.9388096061897284E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7263705528496703E-5</v>
+        <v>7.7978392172887895E-6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10923,11 +10940,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5725982958459335E-3</v>
+        <v>8.1548939063898485E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>3.214466003352892E-5</v>
+        <v>1.491731911077624E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10936,11 +10953,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.797142383436974E-3</v>
+        <v>8.369292901654897E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8038969504982781E-5</v>
+        <v>2.7672176728835649E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10949,11 +10966,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0189536308692368E-3</v>
+        <v>8.5815698576053017E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0171044900995774E-4</v>
+        <v>4.9823116288404355E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10962,11 +10979,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2375344776084237E-3</v>
+        <v>8.791282586837295E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>1.731499310526663E-4</v>
+        <v>8.7142361693618266E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10975,11 +10992,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4523844247540959E-3</v>
+        <v>8.9979849281790966E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8657916829318534E-4</v>
+        <v>1.481812681952295E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10988,11 +11005,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6630018968020034E-3</v>
+        <v>9.2012282809305589E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6149573272438808E-4</v>
+        <v>2.4516477170357569E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -11001,11 +11018,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8688861527950721E-3</v>
+        <v>9.4005631870173571E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>7.2361721249547669E-4</v>
+        <v>3.9494893876856131E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -11014,11 +11031,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0069539236948553E-2</v>
+        <v>9.5955409535149628E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1055262968680862E-3</v>
+        <v>6.1993024692362834E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -11027,11 +11044,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0264467958342814E-2</v>
+        <v>9.7857153075658482E-3</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6467735463764224E-3</v>
+        <v>9.4874460086622511E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -11040,11 +11057,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0453185888854391E-2</v>
+        <v>9.9706440753300259E-3</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3931770033722415E-3</v>
+        <v>1.4165501126974288E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -11053,11 +11070,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0635215368147617E-2</v>
+        <v>1.0149890876278418E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3950824551808555E-3</v>
+        <v>2.0646628090474138E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -11066,11 +11083,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0810089504279861E-2</v>
+        <v>1.0323026823864417E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7044262702602884E-3</v>
+        <v>2.9393219751680665E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -11079,11 +11096,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0977354158287059E-2</v>
+        <v>1.0489632223394968E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>6.3705772409774842E-3</v>
+        <v>4.0894129445673616E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -11092,11 +11109,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.113656990101594E-2</v>
+        <v>1.0649298257771087E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>8.4351161616646204E-3</v>
+        <v>5.5630752669339825E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -11105,11 +11122,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1287313930457728E-2</v>
+        <v>1.0801628651681822E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0925920390561974E-2</v>
+        <v>7.4032699645155452E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -11118,11 +11135,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1429181937916462E-2</v>
+        <v>1.0946241304816607E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>1.385112248094292E-2</v>
+        <v>9.6425569118043265E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -11131,11 +11148,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1561789911514351E-2</v>
+        <v>1.108276988471054E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7193667662976031E-2</v>
+        <v>1.2297517683128815E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -11144,11 +11161,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1684775865796797E-2</v>
+        <v>1.1210865369955417E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0907265950727682E-2</v>
+        <v>1.5363418396186865E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -11157,11 +11174,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.17978014865494E-2</v>
+        <v>1.1330197534697058E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4914491924617144E-2</v>
+        <v>1.8809806847223394E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -11170,11 +11187,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1900553680377355E-2</v>
+        <v>1.1440456365595401E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>2.910761719951184E-2</v>
+        <v>2.2577749077350752E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -11183,11 +11200,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1992746019120482E-2</v>
+        <v>1.1541353402747288E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3352478041107338E-2</v>
+        <v>2.6579314792203497E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -11196,11 +11213,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2074120069782125E-2</v>
+        <v>1.16326229964606E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>3.749531729464109E-2</v>
+        <v>3.0699718513177401E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -11209,11 +11226,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2144446601332041E-2</v>
+        <v>1.17140234722203E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1372147940846225E-2</v>
+        <v>3.4802233449623098E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -11222,11 +11239,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.220352666049764E-2</v>
+        <v>1.1785338196698683E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4819826935916796E-2</v>
+        <v>3.8735655411988312E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -11235,11 +11252,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2251192509478337E-2</v>
+        <v>1.184637653823035E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7687762290447189E-2</v>
+        <v>4.2343754588877201E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -11248,11 +11265,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2287308419397741E-2</v>
+        <v>1.1896974715792668E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9849049762675054E-2</v>
+        <v>4.5475867303843905E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -11261,11 +11278,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2311771314240929E-2</v>
+        <v>1.1936996531200412E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1209871523437728E-2</v>
+        <v>4.7997595267104599E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -11274,11 +11291,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2324511261001151E-2</v>
+        <v>1.1966333979933443E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1716183812511272E-2</v>
+        <v>4.9800528300500226E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -11287,11 +11304,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.232549180277398E-2</v>
+        <v>1.1984907736763412E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1357043647146619E-2</v>
+        <v>5.0809998468753594E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -11300,11 +11317,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2314710132578439E-2</v>
+        <v>1.199266751312345E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0164325420368631E-2</v>
+        <v>5.0990095937849748E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -11313,11 +11330,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2292197106745246E-2</v>
+        <v>1.1989592283967532E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8208995531671461E-2</v>
+        <v>5.0345495771242234E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -11326,11 +11343,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.225801709778278E-2</v>
+        <v>1.1975690382687179E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5594486514742183E-2</v>
+        <v>4.8920011978491489E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -11339,11 +11356,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2212267687702696E-2</v>
+        <v>1.1950999463485818E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2447992002657128E-2</v>
+        <v>4.6792156727737858E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -11352,11 +11369,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2155079203849945E-2</v>
+        <v>1.1915586331448508E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8910659335769017E-2</v>
+        <v>4.4068288976435013E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -11365,11 +11382,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2086614100327318E-2</v>
+        <v>1.1869546641380409E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5127678567013737E-2</v>
+        <v>4.0874150094850639E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -11378,11 +11395,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2007066189123504E-2</v>
+        <v>1.1813004467314064E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>3.123916688484428E-2</v>
+        <v>3.7345683729260497E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -11391,11 +11408,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1916659726037473E-2</v>
+        <v>1.1746111745397143E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7372554316989761E-2</v>
+        <v>3.3620021322247617E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -11404,11 +11421,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1815648357432483E-2</v>
+        <v>1.1669047593661599E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3636927942811227E-2</v>
+        <v>2.9827398470384237E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -11417,11 +11434,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1704313934742206E-2</v>
+        <v>1.1582017512936568E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0119527951321468E-2</v>
+        <v>2.6084578199003953E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -11430,11 +11447,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1582965204482366E-2</v>
+        <v>1.148525247389403E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6884345639900041E-2</v>
+        <v>2.2490129280831286E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -11443,11 +11460,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1451936382286844E-2</v>
+        <v>1.1379007895903216E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3972577699685821E-2</v>
+        <v>1.9121675233139276E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -11456,11 +11473,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1311585620181698E-2</v>
+        <v>1.1263562524011159E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1404558282277818E-2</v>
+        <v>1.6035021992987931E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -11469,11 +11486,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1162293376928478E-2</v>
+        <v>1.1139217210958043E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>9.1827242925997827E-3</v>
+        <v>1.3264910450736921E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -11482,11 +11499,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1004460701805226E-2</v>
+        <v>1.1006293611672704E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>7.2951642991209787E-3</v>
+        <v>1.082703501654745E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -11495,11 +11512,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0838507442645801E-2</v>
+        <v>1.0865132798171711E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7193448178415335E-3</v>
+        <v>8.7209225862304191E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -11508,11 +11525,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0664870389322845E-2</v>
+        <v>1.0716093803201963E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4256834899964355E-3</v>
+        <v>6.9332712031631933E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -11521,11 +11538,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0484001364134908E-2</v>
+        <v>1.0559552101318585E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3807304437472748E-3</v>
+        <v>5.4413926802372101E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -11534,11 +11551,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0296365270742642E-2</v>
+        <v>1.0395898036375291E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5498125182271125E-3</v>
+        <v>4.2164743143131324E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -11547,11 +11564,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0102438113392587E-2</v>
+        <v>1.022553520462164E-2</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8990791151378922E-3</v>
+        <v>3.226457541188942E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -11560,11 +11577,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.9027049981702132E-3</v>
+        <v>1.0048878802750008E-2</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3969563449831226E-3</v>
+        <v>2.4384138574551064E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -11573,11 +11590,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6976581279383557E-3</v>
+        <v>9.8663539503143216E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0150648238444505E-3</v>
+        <v>1.8203715844218205E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -11586,11 +11603,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4877948024448943E-3</v>
+        <v>9.6783939959531051E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>7.2868609342246766E-4</v>
+        <v>1.3426055482629181E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -11599,11 +11616,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2736154348278602E-3</v>
+        <v>9.4854388167922125E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1687555237803868E-4</v>
+        <v>9.7844323256612289E-4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -11612,11 +11629,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0556215954106997E-3</v>
+        <v>9.2879331202792535E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6231962740225466E-4</v>
+        <v>7.046657938830751E-4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -11625,11 +11642,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.8343140932696448E-3</v>
+        <v>9.0863247575144312E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5102571084555445E-4</v>
+        <v>5.0159271626183579E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -11638,11 +11655,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.610191105574273E-3</v>
+        <v>8.881063056894031E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7191894947755844E-4</v>
+        <v>3.5293802495590536E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -11651,11 +11668,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3837463641567977E-3</v>
+        <v>8.6725971865760608E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1640345537543082E-4</v>
+        <v>2.4551739143892018E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -11664,11 +11681,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1554674081616985E-3</v>
+        <v>8.461374553916625E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7929279581865789E-5</v>
+        <v>1.6887242381085854E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -11677,11 +11694,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9258339109714096E-3</v>
+        <v>8.2478392496141747E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1592069352809137E-5</v>
+        <v>1.1486367565513309E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -11690,11 +11707,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6953160889028241E-3</v>
+        <v>8.0324305438413679E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3780521600054034E-5</v>
+        <v>7.7269446201032538E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -11703,11 +11720,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.46437319843041E-3</v>
+        <v>7.8155814411458319E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1877783463802844E-5</v>
+        <v>5.1414599190757327E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -11716,11 +11733,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2334521279220658E-3</v>
+        <v>7.5977173003662375E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4016680265787678E-5</v>
+        <v>3.3843088394962134E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -11729,11 +11746,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0029860890808105E-3</v>
+        <v>7.3792545252442943E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>8.8846865159912599E-6</v>
+        <v>2.203984911287827E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -11742,11 +11759,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7733934124764297E-3</v>
+        <v>7.1605993308217373E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5724130341524294E-6</v>
+        <v>1.4202064933334014E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -11755,11 +11772,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5450764507334726E-3</v>
+        <v>6.9421465900995454E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4585723258845524E-6</v>
+        <v>9.0562153924553714E-6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -11768,11 +11785,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.3184205921228767E-3</v>
+        <v>6.7242787648099621E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1244666778414509E-6</v>
+        <v>5.7153323666512625E-6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -11781,11 +11798,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0937933864907605E-3</v>
+        <v>6.5073649235158479E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2916612879733359E-6</v>
+        <v>3.5701124684128467E-6</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -11794,11 +11811,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.8715437846563598E-3</v>
+        <v>6.291759849611795E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7738873813210821E-7</v>
+        <v>2.2075634018441831E-6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -11807,11 +11824,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6520014916280701E-3</v>
+        <v>6.0778032411625982E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6319412313704187E-7</v>
+        <v>1.3513867851829866E-6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -11820,11 +11837,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4354764332280089E-3</v>
+        <v>5.8658190038820383E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>2.732539587813403E-7</v>
+        <v>8.1907708548018797E-7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -11833,11 +11850,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2222583349869379E-3</v>
+        <v>5.6561146379335413E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5962138932079989E-7</v>
+        <v>4.9157647022062039E-7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -11846,11 +11863,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0126164114779751E-3</v>
+        <v>5.448980718628516E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>9.2337615990591687E-8</v>
+        <v>2.9215972318281289E-7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -11859,11 +11876,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8067991636036407E-3</v>
+        <v>5.2446904705125523E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2901759161276779E-8</v>
+        <v>1.719703152310487E-7</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -11872,11 +11889,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6050342807406096E-3</v>
+        <v>5.0434994337679867E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0019649047867298E-8</v>
+        <v>1.0026068571385444E-7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -11885,11 +11902,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4075286440833682E-3</v>
+        <v>4.8456452213274321E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6874252412912793E-8</v>
+        <v>5.7901696364579703E-8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -11898,11 +11915,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2144684270147628E-3</v>
+        <v>4.6513473645897604E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>9.3964879090597158E-9</v>
+        <v>3.3126380971399973E-8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -11911,11 +11928,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0260192878704536E-3</v>
+        <v>4.4608072451608116E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1840191782236E-9</v>
+        <v>1.8776589814870102E-8</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -11924,11 +11941,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8423266500572E-3</v>
+        <v>4.2742081096080785E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>2.8337719513989312E-9</v>
+        <v>1.0545245705598974E-8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -11937,11 +11954,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6635160641329385E-3</v>
+        <v>4.0917151638238704E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5349598070077689E-9</v>
+        <v>5.8685458287915741E-9</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -11950,11 +11967,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4896936461602042E-3</v>
+        <v>3.9134757432366472E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2394614265056379E-10</v>
+        <v>3.2364880209917157E-9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -11963,11 +11980,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3209465864037302E-3</v>
+        <v>3.7396195547965451E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3833444344877726E-10</v>
+        <v>1.7689781292341294E-9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -11976,11 +11993,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1573437222575341E-3</v>
+        <v>3.5702589863892773E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3112767482734193E-10</v>
+        <v>9.5831989062790637E-10</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -11989,11 +12006,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9989361691553813E-3</v>
+        <v>3.4054894791031532E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2080137975259429E-10</v>
+        <v>5.1460278621911291E-10</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -12002,11 +12019,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8457580031398572E-3</v>
+        <v>3.2453899575867278E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>6.2589120668916427E-11</v>
+        <v>2.7393074284048889E-10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -12015,11 +12032,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6978269887375185E-3</v>
+        <v>3.0900233135894052E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2148865860830014E-11</v>
+        <v>1.4456037570682992E-10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -12028,11 +12045,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5551453458084084E-3</v>
+        <v>2.9394369376731736E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6372107614311636E-11</v>
+        <v>7.5636232611682465E-11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -12041,11 +12058,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4177005491050761E-3</v>
+        <v>2.7936632940198307E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>8.2669893673960701E-12</v>
+        <v>3.9238677706243683E-11</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -12054,11 +12071,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2854661543862394E-3</v>
+        <v>2.6527205332328792E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1392838919384932E-12</v>
+        <v>2.0185238474821951E-11</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -12067,11 +12084,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1584026450802191E-3</v>
+        <v>2.5166131380453078E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0552694324555958E-12</v>
+        <v>1.029719935708828E-11</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -12080,11 +12097,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0364582936799403E-3</v>
+        <v>2.3853325968917444E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0120644932546471E-12</v>
+        <v>5.2095502666528384E-12</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -12093,11 +12110,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.919570032271063E-3</v>
+        <v>2.2588581003839107E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9428013161001296E-13</v>
+        <v>2.6140078320710861E-12</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -12106,11 +12123,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8076643268440957E-3</v>
+        <v>2.1371572558395446E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3943786863222538E-13</v>
+        <v>1.3009729157637834E-12</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -12119,11 +12136,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7006580503164689E-3</v>
+        <v>2.0201868151546944E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>1.150524704785203E-13</v>
+        <v>6.4226322018416788E-13</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -12132,11 +12149,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5984593494876749E-3</v>
+        <v>1.9078934114747578E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4841677594761671E-14</v>
+        <v>3.1453539323613389E-13</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -12145,11 +12162,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5009685014661051E-3</v>
+        <v>1.8002143003083653E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5933729814983542E-14</v>
+        <v>1.5281481460314097E-13</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -12158,11 +12175,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4080787554363369E-3</v>
+        <v>1.6970781009372816E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2167071402698765E-14</v>
+        <v>7.3659407336904883E-14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -12171,11 +12188,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3196771559768061E-3</v>
+        <v>1.5984055342023566E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>5.6637083677927248E-15</v>
+        <v>3.5227735983549122E-14</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -12184,11 +12201,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2356453444865166E-3</v>
+        <v>1.5041101529871927E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6159893300851724E-15</v>
+        <v>1.6717121726951197E-14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -12197,11 +12214,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1558603356323638E-3</v>
+        <v>1.4140990619751223E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1989951096223603E-15</v>
+        <v>7.8719918319221448E-15</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -12210,11 +12227,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0801952660824915E-3</v>
+        <v>1.328273623518455E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4534446779897147E-16</v>
+        <v>3.6785767483605219E-15</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -12223,11 +12240,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0085201131430595E-3</v>
+        <v>1.2465301467290842E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4616243338147721E-16</v>
+        <v>1.7059738605726119E-15</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -12236,11 +12253,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4070238126281219E-4</v>
+        <v>1.1687605571741508E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1027953625799375E-16</v>
+        <v>7.8521251660170588E-16</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -12249,11 +12266,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.7660775470958937E-4</v>
+        <v>1.0948530448368337E-3</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9035987826160451E-17</v>
+        <v>3.5871447158185514E-16</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -12262,11 +12279,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1610071505289921E-4</v>
+        <v>1.0246926882783874E-3</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1642426725743107E-17</v>
+        <v>1.6266031594252239E-16</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -12275,11 +12292,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5904512240482116E-4</v>
+        <v>9.5816205321105669E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4818229833987576E-18</v>
+        <v>7.3216537283349821E-17</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -12288,11 +12305,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0530475967604562E-4</v>
+        <v>8.9514176396043995E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1237855432664805E-18</v>
+        <v>3.271561589007415E-17</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -12301,11 +12318,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5474383939310326E-4</v>
+        <v>8.3551104655849159E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7804991928958377E-18</v>
+        <v>1.4512508811401853E-17</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -12314,11 +12331,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0722747289544113E-4</v>
+        <v>7.7914824246292172E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>7.6322357489241179E-19</v>
+        <v>6.3913732175432649E-18</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -12327,11 +12344,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6262210198597905E-4</v>
+        <v>7.2593129214382104E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2482431907623115E-19</v>
+        <v>2.7946834628832911E-18</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -12340,11 +12357,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2079589334507142E-4</v>
+        <v>6.7573818801261237E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3726323176093516E-19</v>
+        <v>1.2133329582961094E-18</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -12353,11 +12370,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8161909623495915E-4</v>
+        <v>6.2844739639072859E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7595780932553108E-20</v>
+        <v>5.2306797688251279E-19</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -12366,11 +12383,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4496436421931622E-4</v>
+        <v>5.83938248424909E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3998242055230592E-20</v>
+        <v>2.239177788015227E-19</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -12379,11 +12396,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1070704180015455E-4</v>
+        <v>5.4209130005175392E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>9.929828165213913E-21</v>
+        <v>9.5190271956729227E-20</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -12392,11 +12409,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7872541703225205E-4</v>
+        <v>5.0278866129577465E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0803604242115224E-21</v>
+        <v>4.0187505308851866E-20</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -12405,11 +12422,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4890094131346714E-4</v>
+        <v>4.6591429535202859E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6652155840817499E-21</v>
+        <v>1.685018502860974E-20</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -12418,11 +12435,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2111841766822841E-4</v>
+        <v>4.3135428805635682E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>6.7495983141633901E-22</v>
+        <v>7.0170378911197695E-21</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -12431,11 +12448,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9526615894160622E-4</v>
+        <v>3.9899708848309558E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7173213933710743E-22</v>
+        <v>2.9024088428390061E-21</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -12444,11 +12461,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7123611740330155E-4</v>
+        <v>3.6873372153190594E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0866246064095497E-22</v>
+        <v>1.1924462232959093E-21</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -12457,11 +12474,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4892398732540553E-4</v>
+        <v>3.4045797347224288E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3163144087934855E-23</v>
+        <v>4.866469722099485E-22</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -12470,11 +12487,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2822928214571333E-4</v>
+        <v>3.1406655150619168E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7031814582160117E-23</v>
+        <v>1.9728931305809052E-22</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -12483,11 +12500,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0905538786064842E-4</v>
+        <v>2.8945921848834042E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>6.676396615265406E-24</v>
+        <v>7.9455955561267945E-23</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -12496,11 +12513,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9130959430949573E-4</v>
+        <v>2.6653890400546752E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6000128430908404E-24</v>
+        <v>3.179080362944295E-23</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -12509,11 +12526,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7490310601567995E-4</v>
+        <v>2.4521179306968713E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0059573500054072E-24</v>
+        <v>1.2637095510826503E-23</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -12522,11 +12539,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5975103424235057E-4</v>
+        <v>2.2538739371691746E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8669865873863667E-25</v>
+        <v>4.9909365879724106E-24</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -12535,11 +12552,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4577237189968882E-4</v>
+        <v>2.0697858482879888E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4769740437933981E-25</v>
+        <v>1.9585016236585366E-24</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -12548,11 +12565,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3288995291121727E-4</v>
+        <v>1.8990164551125645E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>5.6052889666256335E-26</v>
+        <v>7.6364368696619718E-25</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -12561,11 +12578,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2103039760713103E-4</v>
+        <v>1.7407626736750734E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>2.1138088666336152E-26</v>
+        <v>2.9586947502196854E-25</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -12574,11 +12591,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1012404566536574E-4</v>
+        <v>1.5942555099829935E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9212439184645405E-27</v>
+        <v>1.1391201103599751E-25</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -12587,11 +12604,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0010487806686502E-4</v>
+        <v>1.45875988048327E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9498382300531815E-27</v>
+        <v>4.3582889357522131E-26</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -12600,11 +12617,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0910429471369812E-5</v>
+        <v>1.3335743009595214E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0916844381407952E-27</v>
+        <v>1.6571301728183078E-26</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -12613,11 +12630,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.2481692355038385E-5</v>
+        <v>1.218030456543854E-4</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0151973933676879E-28</v>
+        <v>6.2619283307198712E-27</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -12626,11 +12643,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.4763014182269294E-5</v>
+        <v>1.1114926651717834E-4</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4677229735469678E-28</v>
+        <v>2.3517273535201924E-27</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -12639,11 +12656,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7701988812197725E-5</v>
+        <v>1.0133572464005992E-4</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>5.3324284862099271E-29</v>
+        <v>8.778283546017406E-28</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -12652,11 +12669,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1249343266283449E-5</v>
+        <v>9.230518070559318E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>1.925599175575792E-29</v>
+        <v>3.2568079003651344E-28</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -12665,11 +12682,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5358820908043427E-5</v>
+        <v>8.4003445467610813E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>6.9116637075133982E-30</v>
+        <v>1.2010208229122553E-28</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -12678,11 +12695,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9987062010027973E-5</v>
+        <v>7.6379294919619347E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4659877998363896E-30</v>
+        <v>4.4025119985373168E-29</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -12691,11 +12708,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.509348260726893E-5</v>
+        <v>6.9384380276061967E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7459388734273886E-31</v>
+        <v>1.6041971809342234E-29</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -12704,11 +12721,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0640152461263656E-5</v>
+        <v>6.2973133698121227E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0835040899904384E-31</v>
+        <v>5.8108213894387235E-30</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -12717,11 +12734,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6591672884639273E-5</v>
+        <v>5.7102670637271129E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0807379531094397E-31</v>
+        <v>2.0924499915864409E-30</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -12730,11 +12747,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2915055104447534E-5</v>
+        <v>5.1732689610597148E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>3.765729222579097E-32</v>
+        <v>7.490752696290943E-31</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -12743,11 +12760,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9579599772002407E-5</v>
+        <v>4.6825370162527793E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3045040669302811E-32</v>
+        <v>2.6660205620833881E-31</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -12756,11 +12773,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6556778159636931E-5</v>
+        <v>4.2345269708536038E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4928728702077638E-33</v>
+        <v>9.4337393737211094E-32</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -12769,11 +12786,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3820115520036363E-5</v>
+        <v>3.8259219898005289E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>1.538507711780957E-33</v>
+        <v>3.3189530415468708E-32</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -12782,11 +12799,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1345077022138098E-5</v>
+        <v>3.4536223076192571E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2382524472540016E-34</v>
+        <v>1.160992840016022E-32</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -12795,11 +12812,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9108956619173481E-5</v>
+        <v>3.1147349369405644E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7733667139141808E-34</v>
+        <v>4.0381584499943113E-33</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -12808,11 +12825,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.709076914940737E-5</v>
+        <v>2.8065634863429781E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>5.9696666687788158E-35</v>
+        <v>1.3966145807355602E-33</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -12821,11 +12838,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5271145918605192E-5</v>
+        <v>2.5265981293147915E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9982732528918054E-35</v>
+        <v>4.8031157384847476E-34</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -12834,11 +12851,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3632233965281813E-5</v>
+        <v>2.2725057611402221E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>6.6516078948679331E-36</v>
+        <v>1.6426177182044117E-34</v>
       </c>
     </row>
   </sheetData>
@@ -15247,7 +15264,7 @@
       </c>
       <c r="G37">
         <f>IF(Scrobbles!$B37=G$1,Scrobbles!$D37,0)</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H37">
         <f>IF(Scrobbles!$B37=H$1,Scrobbles!$D37,0)</f>
@@ -15317,7 +15334,7 @@
       </c>
       <c r="H38">
         <f>IF(Scrobbles!$B38=H$1,Scrobbles!$D38,0)</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I38">
         <f>IF(Scrobbles!$B38=I$1,Scrobbles!$D38,0)</f>
@@ -15345,7 +15362,7 @@
       </c>
       <c r="P38">
         <f>IF(AND(Scrobbles!$D38&gt;=Calc!O$1+1,Scrobbles!$D38&lt;=Calc!P$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <f>IF(AND(Scrobbles!$D38&gt;=Calc!P$1+1,Scrobbles!$D38&lt;=Calc!Q$1,ISBLANK(Scrobbles!$D38)=FALSE),1,0)</f>
@@ -15357,7 +15374,7 @@
       </c>
       <c r="T38">
         <f>IF(Scrobbles!D38&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.3">

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE68FCD-1BC2-4A59-8E06-FDA7D533CF7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8C037-4201-4AAE-A5D1-B0966ED339F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -8620,8 +8620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9311,8 +9311,8 @@
         <v>50</v>
       </c>
       <c r="Z20">
-        <f>SLOPE(F2:F35,A2:A35)</f>
-        <v>57.559969442322391</v>
+        <f>SLOPE(F2:F38,A2:A38)</f>
+        <v>60.352062588904701</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
@@ -9340,8 +9340,8 @@
         <v>51</v>
       </c>
       <c r="Z21">
-        <f>INTERCEPT(F2:F35,A2:A35)</f>
-        <v>-137.06417112299482</v>
+        <f>INTERCEPT(F2:F38,A2:A38)</f>
+        <v>-171.50000000000023</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">

--- a/Will's Last FM.xlsx
+++ b/Will's Last FM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8C037-4201-4AAE-A5D1-B0966ED339F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B23FDA-123D-4310-9403-EA7042EA4FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
   <sheets>
     <sheet name="Scrobbles" sheetId="2" r:id="rId1"/>
@@ -652,7 +652,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -765,28 +765,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7057742442785226</c:v>
+                  <c:v>2.9814167360891393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6249171927380361</c:v>
+                  <c:v>5.9618789523941622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.232514300830978</c:v>
+                  <c:v>8.4644140295779184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4840697387238766</c:v>
+                  <c:v>8.5333258696600982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1565360406932523</c:v>
+                  <c:v>6.1086989515625802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1453962111709197</c:v>
+                  <c:v>3.1048178926561762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1311278004924135</c:v>
+                  <c:v>1.1201555390943003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28621121942018468</c:v>
+                  <c:v>0.28676647003814831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,28 +863,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0110402928447782E-8</c:v>
+                  <c:v>2.4579899108981903E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9315192543827513E-2</c:v>
+                  <c:v>9.7792111299094708E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.523377906021912</c:v>
+                  <c:v>18.301218432393352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.968962360074421</c:v>
+                  <c:v>19.306811446812581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44822022227042979</c:v>
+                  <c:v>0.29412269982149197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2430821416027307E-4</c:v>
+                  <c:v>5.5284865841570439E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6485060712579959E-10</c:v>
+                  <c:v>2.2773515118737226E-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.820088450793747E-16</c:v>
+                  <c:v>3.6132760521058809E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,6 +1424,9 @@
                 <c:pt idx="36">
                   <c:v>61.216216216216218</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.973684210526315</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2009,6 +2012,9 @@
                 <c:pt idx="36">
                   <c:v>2265</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2279</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2694,424 +2700,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.205647191450335E-3</c:v>
+                  <c:v>2.4270637587857726E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3300527779807905E-3</c:v>
+                  <c:v>2.5576851538760955E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.459251780586581E-3</c:v>
+                  <c:v>2.6929617845743779E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5932701062213238E-3</c:v>
+                  <c:v>2.8328952019903001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7321216710652317E-3</c:v>
+                  <c:v>2.9774744115219584E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8758076956551595E-3</c:v>
+                  <c:v>3.1266752608787342E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0243160208053505E-3</c:v>
+                  <c:v>3.2804598560180671E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1776204492354873E-3</c:v>
+                  <c:v>3.4387760095839852E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3356801179167278E-3</c:v>
+                  <c:v>3.601556726461811E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4984389062082694E-3</c:v>
+                  <c:v>3.7687197310580555E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6658248848844971E-3</c:v>
+                  <c:v>3.9401670408755968E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8377498111439516E-3</c:v>
+                  <c:v>4.1157845908804894E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0141086746443358E-3</c:v>
+                  <c:v>4.2954419130470768E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1947792995213305E-3</c:v>
+                  <c:v>4.4789918753217655E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3796220072215564E-3</c:v>
+                  <c:v>4.6662704840622765E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5684793448111114E-3</c:v>
+                  <c:v>4.8570967537882757E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7611758832099057E-3</c:v>
+                  <c:v>5.0512726478211378E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9575180895484947E-3</c:v>
+                  <c:v>5.2485830930957432E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1572942775484736E-3</c:v>
+                  <c:v>5.4487960720962948E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3602746394903339E-3</c:v>
+                  <c:v>5.6516627945026876E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5662113629550329E-3</c:v>
+                  <c:v>5.856917950735163E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7748388351088467E-3</c:v>
+                  <c:v>6.0642800491550073E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9858739368471988E-3</c:v>
+                  <c:v>6.2734518382199997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.1990164286244319E-3</c:v>
+                  <c:v>6.4841208144079563E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4139494292754524E-3</c:v>
+                  <c:v>6.695959816212827E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6303399885851554E-3</c:v>
+                  <c:v>6.9086277039887489E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.8478397537857557E-3</c:v>
+                  <c:v>7.1217701248718155E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0660857295646012E-3</c:v>
+                  <c:v>7.3350203614508227E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.284701130549861E-3</c:v>
+                  <c:v>7.5480002622910708E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5032963246131588E-3</c:v>
+                  <c:v>7.7603212518436507E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.7214698646913679E-3</c:v>
+                  <c:v>7.9715854167010259E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.9388096061897284E-3</c:v>
+                  <c:v>8.181386664592739E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1548939063898485E-3</c:v>
+                  <c:v>8.3893119519573289E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.369292901654897E-3</c:v>
+                  <c:v>8.5949425753829526E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5815698576053017E-3</c:v>
+                  <c:v>8.7978555216843748E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.791282586837295E-3</c:v>
+                  <c:v>8.9976248708826239E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.9979849281790966E-3</c:v>
+                  <c:v>9.193823245880587E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.2012282809305589E-3</c:v>
+                  <c:v>9.3860233021871783E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.4005631870173571E-3</c:v>
+                  <c:v>9.5737992506393296E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.5955409535149628E-3</c:v>
+                  <c:v>9.7567284057085008E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7857153075658482E-3</c:v>
+                  <c:v>9.9343927516608622E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.9706440753300259E-3</c:v>
+                  <c:v>1.0106380518571092E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0149890876278418E-2</c:v>
+                  <c:v>1.0272287759971981E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0323026823864417E-2</c:v>
+                  <c:v>1.0431719923758739E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0489632223394968E-2</c:v>
+                  <c:v>1.0584293407859888E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0649298257771087E-2</c:v>
+                  <c:v>1.0729637092138406E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0801628651681822E-2</c:v>
+                  <c:v>1.0867393837998047E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0946241304816607E-2</c:v>
+                  <c:v>1.0997221947241983E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.108276988471054E-2</c:v>
+                  <c:v>1.1118796571863951E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1210865369955417E-2</c:v>
+                  <c:v>1.1231811066646079E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1330197534697058E-2</c:v>
+                  <c:v>1.1335978276691494E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1440456365595401E-2</c:v>
+                  <c:v>1.1431031752332775E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1541353402747288E-2</c:v>
+                  <c:v>1.1516726884226912E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.16326229964606E-2</c:v>
+                  <c:v>1.1592841951872103E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.17140234722203E-2</c:v>
+                  <c:v>1.1659179079257745E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1785338196698683E-2</c:v>
+                  <c:v>1.1715565091883829E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.184637653823035E-2</c:v>
+                  <c:v>1.1761852269955249E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1896974715792668E-2</c:v>
+                  <c:v>1.1797918993166366E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.1936996531200412E-2</c:v>
+                  <c:v>1.182367027313694E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.1966333979933443E-2</c:v>
+                  <c:v>1.1839038170237093E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1984907736763412E-2</c:v>
+                  <c:v>1.1843982092241344E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.199266751312345E-2</c:v>
+                  <c:v>1.1838488972974282E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1989592283967532E-2</c:v>
+                  <c:v>1.1822573329847466E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1975690382687179E-2</c:v>
+                  <c:v>1.1796277199933E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1950999463485818E-2</c:v>
+                  <c:v>1.1759669954967678E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1915586331448508E-2</c:v>
+                  <c:v>1.1712847996427264E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1869546641380409E-2</c:v>
+                  <c:v>1.1655934332546641E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.1813004467314064E-2</c:v>
+                  <c:v>1.1589078039883453E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.1746111745397143E-2</c:v>
+                  <c:v>1.1512453612723756E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.1669047593661599E-2</c:v>
+                  <c:v>1.1426260204303445E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.1582017512936568E-2</c:v>
+                  <c:v>1.1330720764463113E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.148525247389403E-2</c:v>
+                  <c:v>1.1226081078961846E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.1379007895903216E-2</c:v>
+                  <c:v>1.111260871624253E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1263562524011159E-2</c:v>
+                  <c:v>1.099059188796358E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1139217210958043E-2</c:v>
+                  <c:v>1.0860338230085469E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1006293611672704E-2</c:v>
+                  <c:v>1.0722173511722196E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0865132798171711E-2</c:v>
+                  <c:v>1.0576440279334555E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.0716093803201963E-2</c:v>
+                  <c:v>1.0423496444151961E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.0559552101318585E-2</c:v>
+                  <c:v>1.0263713820960346E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.0395898036375291E-2</c:v>
+                  <c:v>1.0097476626584473E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.022553520462164E-2</c:v>
+                  <c:v>9.9251799465228784E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0048878802750008E-2</c:v>
+                  <c:v>9.7472281782625559E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.8663539503143216E-3</c:v>
+                  <c:v>9.5640334598087271E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.6783939959531051E-3</c:v>
+                  <c:v>9.3760140919135586E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.4854388167922125E-3</c:v>
+                  <c:v>9.1835929623777807E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.2879331202792535E-3</c:v>
+                  <c:v>8.9871959806328804E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.0863247575144312E-3</c:v>
+                  <c:v>8.7872505305909652E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.881063056894031E-3</c:v>
+                  <c:v>8.5841839494776896E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.6725971865760608E-3</c:v>
+                  <c:v>8.3784220400434633E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.461374553916625E-3</c:v>
+                  <c:v>8.1703876231835372E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.2478392496141747E-3</c:v>
+                  <c:v>7.9604991375919493E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.0324305438413679E-3</c:v>
+                  <c:v>7.7491692926320134E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.8155814411458319E-3</c:v>
+                  <c:v>7.5368037801312304E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.5977173003662375E-3</c:v>
+                  <c:v>7.3238000503059886E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.3792545252442943E-3</c:v>
+                  <c:v>7.1105461564952947E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.1605993308217373E-3</c:v>
+                  <c:v>6.8974196728384413E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.9421465900995454E-3</c:v>
+                  <c:v>6.6847866884731299E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.7242787648099621E-3</c:v>
+                  <c:v>6.4730008812632052E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.5073649235158479E-3</c:v>
+                  <c:v>6.2624026734934756E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.291759849611795E-3</c:v>
+                  <c:v>6.0533184713975298E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.0778032411625982E-3</c:v>
+                  <c:v>5.8460599898176105E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.8658190038820383E-3</c:v>
+                  <c:v>5.6409236627377752E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.6561146379335413E-3</c:v>
+                  <c:v>5.4381901398865944E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.448980718628516E-3</c:v>
+                  <c:v>5.2381238690776179E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.2446904705125523E-3</c:v>
+                  <c:v>5.0409727634481549E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.0434994337679867E-3</c:v>
+                  <c:v>4.8469679522727639E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.8456452213274321E-3</c:v>
+                  <c:v>4.656323613570339E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.6513473645897604E-3</c:v>
+                  <c:v>4.4692368862952712E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.4608072451608116E-3</c:v>
+                  <c:v>4.2858878595060943E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.2742081096080785E-3</c:v>
+                  <c:v>4.1064396355413053E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.0917151638238704E-3</c:v>
+                  <c:v>3.9310384639030405E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.9134757432366472E-3</c:v>
+                  <c:v>3.7598139422563726E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.7396195547965451E-3</c:v>
+                  <c:v>3.5928792806957394E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.5702589863892773E-3</c:v>
+                  <c:v>3.4303316252110921E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.4054894791031532E-3</c:v>
+                  <c:v>3.2722524361048213E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.2453899575867278E-3</c:v>
+                  <c:v>3.1187079169660644E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.0900233135894052E-3</c:v>
+                  <c:v>2.9697494897012876E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.9394369376731736E-3</c:v>
+                  <c:v>2.8254143110481621E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7936632940198307E-3</c:v>
+                  <c:v>2.6857258259625964E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.6527205332328792E-3</c:v>
+                  <c:v>2.5506943532651225E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.5166131380453078E-3</c:v>
+                  <c:v>2.4203176989610353E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.3853325968917444E-3</c:v>
+                  <c:v>2.2945817927070189E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.2588581003839107E-3</c:v>
+                  <c:v>2.173461342983548E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1371572558395446E-3</c:v>
+                  <c:v>2.0569205066449979E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.0201868151546944E-3</c:v>
+                  <c:v>1.9449135686560534E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.9078934114747578E-3</c:v>
+                  <c:v>1.837385627981231E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.8002143003083653E-3</c:v>
+                  <c:v>1.7342732857719234E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.6970781009372816E-3</c:v>
+                  <c:v>1.635505332189824E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.5984055342023566E-3</c:v>
+                  <c:v>1.5410034284145601E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.5041101529871927E-3</c:v>
+                  <c:v>1.4506827806043962E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.4140990619751223E-3</c:v>
+                  <c:v>1.3644528028096418E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.328273623518455E-3</c:v>
+                  <c:v>1.2822177660765373E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.2465301467290842E-3</c:v>
+                  <c:v>1.2038774312226721E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.1687605571741508E-3</c:v>
+                  <c:v>1.1293276630112512E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.0948530448368337E-3</c:v>
+                  <c:v>1.0584610236986278E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.0246926882783874E-3</c:v>
+                  <c:v>9.9116734417564376E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9.5816205321105669E-4</c:v>
+                  <c:v>9.273342711665169E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.9514176396043995E-4</c:v>
+                  <c:v>8.6684778918761632E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>8.3551104655849159E-4</c:v>
+                  <c:v>8.0959271620101899E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7.7914824246292172E-4</c:v>
+                  <c:v>7.5545317212273306E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3799,424 +3805,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>2.5949864489587821E-27</c:v>
+                  <c:v>8.9900040619471292E-27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5885525153761194E-25</c:v>
+                  <c:v>5.3916366466256605E-25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8622587126039009E-24</c:v>
+                  <c:v>1.6167815681131374E-23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9216360216648258E-23</c:v>
+                  <c:v>3.2321449067805576E-22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5184125398020767E-21</c:v>
+                  <c:v>4.8460909490479783E-21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8590294068387724E-20</c:v>
+                  <c:v>5.8127585646738762E-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.896712435355766E-19</c:v>
+                  <c:v>5.8102091091630387E-19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.658707979181767E-18</c:v>
+                  <c:v>4.9779949472866851E-18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2692478286644306E-17</c:v>
+                  <c:v>3.7318587121270847E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6331721679427774E-17</c:v>
+                  <c:v>2.4868146213267857E-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2849013406460326E-16</c:v>
+                  <c:v>1.4914343478957306E-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9411060286396339E-15</c:v>
+                  <c:v>8.1315284183118504E-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5003615213668326E-14</c:v>
+                  <c:v>4.0639809792396303E-14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0651119457294943E-14</c:v>
+                  <c:v>1.8748608606654111E-13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0892815747253541E-13</c:v>
+                  <c:v>8.0315937997302138E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2607608588743988E-12</c:v>
+                  <c:v>3.2112284683482612E-12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8236880833623522E-12</c:v>
+                  <c:v>1.2036825130535689E-11</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7369878392393875E-11</c:v>
+                  <c:v>4.246427936918103E-11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.9073235073231226E-11</c:v>
+                  <c:v>1.4148551561748986E-10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9032841741233117E-10</c:v>
+                  <c:v>4.4660040178983409E-10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.8255927762017553E-10</c:v>
+                  <c:v>1.3392135732618814E-9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.698194033217115E-9</c:v>
+                  <c:v>3.8246462825361337E-9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7253187779321538E-9</c:v>
+                  <c:v>1.0426278562081147E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2576788521758271E-8</c:v>
+                  <c:v>2.7187058172749351E-8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2079308560565979E-8</c:v>
+                  <c:v>6.7937835061069824E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.8550955556412855E-8</c:v>
+                  <c:v>1.6297929063597776E-7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.849458568973754E-7</c:v>
+                  <c:v>3.7594109651760396E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.1932168756011515E-7</c:v>
+                  <c:v>8.3505824460391871E-7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.1676025320816912E-7</c:v>
+                  <c:v>1.7886256949739904E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9351928923732563E-6</c:v>
+                  <c:v>3.6989818138345909E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9488395506535248E-6</c:v>
+                  <c:v>7.3947189067798966E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7978392172887895E-6</c:v>
+                  <c:v>1.4306081823897501E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.491731911077624E-5</c:v>
+                  <c:v>2.6812138549886929E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7672176728835649E-5</c:v>
+                  <c:v>4.8727961527266556E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9823116288404355E-5</c:v>
+                  <c:v>8.5952805201734491E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.7142361693618266E-5</c:v>
+                  <c:v>1.4728303989079063E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.481812681952295E-4</c:v>
+                  <c:v>2.4536407011046277E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4516477170357569E-4</c:v>
+                  <c:v>3.9771316911930597E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.9494893876856131E-4</c:v>
+                  <c:v>6.2769273713497253E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.1993024692362834E-4</c:v>
+                  <c:v>9.652575896967558E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4874460086622511E-4</c:v>
+                  <c:v>1.4472513466571818E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4165501126974288E-3</c:v>
+                  <c:v>2.1169998838457748E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0646628090474138E-3</c:v>
+                  <c:v>3.0229591073211316E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.9393219751680665E-3</c:v>
+                  <c:v>4.216232439158427E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0894129445673616E-3</c:v>
+                  <c:v>5.7468862014605554E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.5630752669339825E-3</c:v>
+                  <c:v>7.6591541831161425E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.4032699645155452E-3</c:v>
+                  <c:v>9.9858194412595445E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.6425569118043265E-3</c:v>
+                  <c:v>1.2742263441562427E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2297517683128815E-2</c:v>
+                  <c:v>1.5920843411908314E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5363418396186865E-2</c:v>
+                  <c:v>1.9486359901041354E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8809806847223394E-2</c:v>
+                  <c:v>2.3373375902354405E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.2577749077350752E-2</c:v>
+                  <c:v>2.7486028731406428E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.6579314792203497E-2</c:v>
+                  <c:v>3.1700738602669608E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.0699718513177401E-2</c:v>
+                  <c:v>3.5871888418810373E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.4802233449623098E-2</c:v>
+                  <c:v>3.9840172371573536E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.8735655411988312E-2</c:v>
+                  <c:v>4.3442943940103389E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.2343754588877201E-2</c:v>
+                  <c:v>4.6525596447131355E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.5475867303843905E-2</c:v>
+                  <c:v>4.895283208818671E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7997595267104599E-2</c:v>
+                  <c:v>5.0618649877031512E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9800528300500226E-2</c:v>
+                  <c:v>5.1454015642174326E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0809998468753594E-2</c:v>
+                  <c:v>5.1431448091454078E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0990095937849748E-2</c:v>
+                  <c:v>5.0566121743064643E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.0345495771242234E-2</c:v>
+                  <c:v>4.8913493825315894E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.8920011978491489E-2</c:v>
+                  <c:v>4.6563848131952794E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.6792156727737858E-2</c:v>
+                  <c:v>4.363446130457254E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.4068288976435013E-2</c:v>
+                  <c:v>4.026029850733634E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.0874150094850639E-2</c:v>
+                  <c:v>3.6584218619704789E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.7345683729260497E-2</c:v>
+                  <c:v>3.2747617531149707E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3620021322247617E-2</c:v>
+                  <c:v>2.8882283418533345E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9827398470384237E-2</c:v>
+                  <c:v>2.5104013695971573E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.6084578199003953E-2</c:v>
+                  <c:v>2.1508288425984699E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.2490129280831286E-2</c:v>
+                  <c:v>1.8168046450266553E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9121675233139276E-2</c:v>
+                  <c:v>1.5133398340700821E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.6035021992987931E-2</c:v>
+                  <c:v>1.2432954152291686E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3264910450736921E-2</c:v>
+                  <c:v>1.0076352245047202E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.082703501654745E-2</c:v>
+                  <c:v>8.0575462338465138E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7209225862304191E-3</c:v>
+                  <c:v>6.3584307018477275E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.9332712031631933E-3</c:v>
+                  <c:v>4.9524482465861134E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.4413926802372101E-3</c:v>
+                  <c:v>3.8079047078170441E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.2164743143131324E-3</c:v>
+                  <c:v>2.8908110689923557E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.226457541188942E-3</c:v>
+                  <c:v>2.1671573770505269E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.4384138574551064E-3</c:v>
+                  <c:v>1.6045976810585261E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8203715844218205E-3</c:v>
+                  <c:v>1.1735809098627615E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3426055482629181E-3</c:v>
+                  <c:v>8.4799964920014373E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.7844323256612289E-4</c:v>
+                  <c:v>6.0544837109245664E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.046657938830751E-4</c:v>
+                  <c:v>4.2718787545501863E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.0159271626183579E-4</c:v>
+                  <c:v>2.9790733419889391E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.5293802495590536E-4</c:v>
+                  <c:v>2.0536322281889936E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.4551739143892018E-4</c:v>
+                  <c:v>1.3995896674768755E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6887242381085854E-4</c:v>
+                  <c:v>9.4312976114128627E-5</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.1486367565513309E-4</c:v>
+                  <c:v>6.2847740515818251E-5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.7269446201032538E-5</c:v>
+                  <c:v>4.141989607737102E-5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.1414599190757327E-5</c:v>
+                  <c:v>2.7001127906272784E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.3843088394962134E-5</c:v>
+                  <c:v>1.7412442133105676E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.203984911287827E-5</c:v>
+                  <c:v>1.1109450061967534E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.4202064933334014E-5</c:v>
+                  <c:v>7.0134173659899704E-6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.0562153924553714E-6</c:v>
+                  <c:v>4.38146331608858E-6</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.7153323666512625E-6</c:v>
+                  <c:v>2.7089948175165351E-6</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.5701124684128467E-6</c:v>
+                  <c:v>1.6578408134049768E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.2075634018441831E-6</c:v>
+                  <c:v>1.0043113274189022E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3513867851829866E-6</c:v>
+                  <c:v>6.0232250399676416E-7</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.1907708548018797E-7</c:v>
+                  <c:v>3.5765841235243024E-7</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.9157647022062039E-7</c:v>
+                  <c:v>2.1029502625159799E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.9215972318281289E-7</c:v>
+                  <c:v>1.2244822811123929E-7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.719703152310487E-7</c:v>
+                  <c:v>7.0612224662326073E-8</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.0026068571385444E-7</c:v>
+                  <c:v>4.0332145364772492E-8</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.7901696364579703E-8</c:v>
+                  <c:v>2.2819503298489546E-8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.3126380971399973E-8</c:v>
+                  <c:v>1.2790370884716571E-8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.8776589814870102E-8</c:v>
+                  <c:v>7.102645040513916E-9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.0545245705598974E-8</c:v>
+                  <c:v>3.9079980799930681E-9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.8685458287915741E-9</c:v>
+                  <c:v>2.1307003885895478E-9</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.2364880209917157E-9</c:v>
+                  <c:v>1.1512247950676878E-9</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.7689781292341294E-9</c:v>
+                  <c:v>6.1645707423854453E-10</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>9.5831989062790637E-10</c:v>
+                  <c:v>3.2717877787369966E-10</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.1460278621911291E-10</c:v>
+                  <c:v>1.7212383074195539E-10</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.7393074284048889E-10</c:v>
+                  <c:v>8.976435017412272E-11</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4456037570682992E-10</c:v>
+                  <c:v>4.6409472333672145E-11</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.5636232611682465E-11</c:v>
+                  <c:v>2.3789290924075451E-11</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.9238677706243683E-11</c:v>
+                  <c:v>1.2090944249769885E-11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.0185238474821951E-11</c:v>
+                  <c:v>6.0936006070820766E-12</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.029719935708828E-11</c:v>
+                  <c:v>3.0454639876184764E-12</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>5.2095502666528384E-12</c:v>
+                  <c:v>1.5094850865120516E-12</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.6140078320710861E-12</c:v>
+                  <c:v>7.4204411392600474E-13</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.3009729157637834E-12</c:v>
+                  <c:v>3.6181397852747009E-13</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6.4226322018416788E-13</c:v>
+                  <c:v>1.7499449428354973E-13</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.1453539323613389E-13</c:v>
+                  <c:v>8.3960516309938462E-14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.5281481460314097E-13</c:v>
+                  <c:v>3.9963662629564075E-14</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7.3659407336904883E-14</c:v>
+                  <c:v>1.8872189625523257E-14</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.5227735983549122E-14</c:v>
+                  <c:v>8.8424589137680201E-15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.6717121726951197E-14</c:v>
+                  <c:v>4.1109677406115079E-15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.8719918319221448E-15</c:v>
+                  <c:v>1.8965375467315192E-15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.6785767483605219E-15</c:v>
+                  <c:v>8.6826216733648012E-16</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.7059738605726119E-15</c:v>
+                  <c:v>3.9449152299838038E-16</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.8521251660170588E-16</c:v>
+                  <c:v>1.7788804529349185E-16</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.5871447158185514E-16</c:v>
+                  <c:v>7.9616428755667696E-17</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.6266031594252239E-16</c:v>
+                  <c:v>3.536955967527686E-17</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7.3216537283349821E-17</c:v>
+                  <c:v>1.5597373548753363E-17</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.271561589007415E-17</c:v>
+                  <c:v>6.8279704797556482E-18</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.4512508811401853E-17</c:v>
+                  <c:v>2.9673807634178579E-18</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.3913732175432649E-18</c:v>
+                  <c:v>1.2803219916375085E-18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,7 +4615,7 @@
                   <c:v>65.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.6</c:v>
+                  <c:v>45.333333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8620,28 +8626,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -8664,7 +8670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8689,7 +8695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8749,22 +8755,22 @@
       </c>
       <c r="I4" s="27">
         <f>SUM(Calc!K2:K406)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="27">
         <f>SUM('Dist Calc'!B2:B21)*I13</f>
-        <v>2.7057742442785226</v>
+        <v>2.9814167360891393</v>
       </c>
       <c r="K4" s="28">
         <f>SUM('Dist Calc'!C2:C21)*I13</f>
-        <v>1.0110402928447782E-8</v>
+        <v>2.4579899108981903E-8</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8794,21 +8800,21 @@
       </c>
       <c r="J5" s="27">
         <f>SUM('Dist Calc'!B22:B41)*I13</f>
-        <v>5.6249171927380361</v>
+        <v>5.9618789523941622</v>
       </c>
       <c r="K5" s="28">
         <f>SUM('Dist Calc'!C22:C41)*I13</f>
-        <v>5.9315192543827513E-2</v>
+        <v>9.7792111299094708E-2</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O5" s="31">
         <f ca="1">TODAY()</f>
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8838,21 +8844,21 @@
       </c>
       <c r="J6" s="27">
         <f>SUM('Dist Calc'!B42:B61)*I13</f>
-        <v>8.232514300830978</v>
+        <v>8.4644140295779184</v>
       </c>
       <c r="K6" s="28">
         <f>SUM('Dist Calc'!C42:C61)*I13</f>
-        <v>15.523377906021912</v>
+        <v>18.301218432393352</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="5">
         <f ca="1">O5-C2</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8882,16 +8888,16 @@
       </c>
       <c r="J7" s="27">
         <f>SUM('Dist Calc'!B62:B81)*I13</f>
-        <v>8.4840697387238766</v>
+        <v>8.5333258696600982</v>
       </c>
       <c r="K7" s="28">
         <f>SUM('Dist Calc'!C62:C81)*I13</f>
-        <v>20.968962360074421</v>
+        <v>19.306811446812581</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8921,21 +8927,21 @@
       </c>
       <c r="J8" s="27">
         <f>SUM('Dist Calc'!B82:B101)*I13</f>
-        <v>6.1565360406932523</v>
+        <v>6.1086989515625802</v>
       </c>
       <c r="K8" s="28">
         <f>SUM('Dist Calc'!C82:C101)*I13</f>
-        <v>0.44822022227042979</v>
+        <v>0.29412269982149197</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="6">
         <f>_xlfn.STDEV.P(D:D)</f>
-        <v>33.264813920153522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>33.683110590593792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8965,21 +8971,21 @@
       </c>
       <c r="J9" s="27">
         <f>SUM('Dist Calc'!B102:B121)*I13</f>
-        <v>3.1453962111709197</v>
+        <v>3.1048178926561762</v>
       </c>
       <c r="K9" s="28">
         <f>SUM('Dist Calc'!C102:C121)*I13</f>
-        <v>1.2430821416027307E-4</v>
+        <v>5.5284865841570439E-5</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="O9" s="6">
         <f>AVERAGE(D:D)</f>
-        <v>61.216216216216218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>59.973684210526315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9009,21 +9015,21 @@
       </c>
       <c r="J10" s="27">
         <f>SUM('Dist Calc'!B122:B141)*I13</f>
-        <v>1.1311278004924135</v>
+        <v>1.1201555390943003</v>
       </c>
       <c r="K10" s="28">
         <f>SUM('Dist Calc'!C122:C141)*I13</f>
-        <v>7.6485060712579959E-10</v>
+        <v>2.2773515118737226E-10</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(D:D)</f>
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9053,21 +9059,21 @@
       </c>
       <c r="J11" s="27">
         <f>SUM('Dist Calc'!B142:B161)*I13</f>
-        <v>0.28621121942018468</v>
+        <v>0.28676647003814831</v>
       </c>
       <c r="K11" s="28">
         <f>SUM('Dist Calc'!C142:C161)*I13</f>
-        <v>1.820088450793747E-16</v>
+        <v>3.6132760521058809E-17</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="O11" s="26">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!O6</f>
-        <v>0.97297297297297303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9093,7 +9099,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9119,18 +9125,18 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I4:I10)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" s="27">
         <f>SUM(J4:J10)</f>
-        <v>35.480335528928002</v>
+        <v>36.274707971034374</v>
       </c>
       <c r="K13" s="28">
         <f>SUM(K4:K10)</f>
-        <v>37.000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9159,14 +9165,14 @@
       </c>
       <c r="J14" s="25">
         <f>_xlfn.CHISQ.TEST(I4:I10,J4:J10)</f>
-        <v>0.24667529389504445</v>
+        <v>0.17449123888008755</v>
       </c>
       <c r="K14" s="26">
         <f>_xlfn.CHISQ.TEST(I4:I10,K4:K10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9192,10 +9198,10 @@
       </c>
       <c r="N15" s="30">
         <f>365*O9</f>
-        <v>22343.91891891892</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21890.394736842107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9239,7 +9245,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>60.352062588904701</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9344,7 +9350,7 @@
         <v>-171.50000000000023</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9366,7 +9372,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9410,7 +9416,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9432,7 +9438,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9523,7 +9529,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9545,7 +9551,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9589,7 +9595,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9633,7 +9639,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9699,7 +9705,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9721,7 +9727,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9731,8 +9737,19 @@
       <c r="C39" s="1">
         <v>43576</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3">
+        <f>AVERAGE(D$2:D39)</f>
+        <v>59.973684210526315</v>
+      </c>
+      <c r="F39">
+        <f>SUM($D$2:D39)</f>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9743,7 +9760,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9754,7 +9771,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9765,7 +9782,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9773,7 +9790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9781,7 +9798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9789,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9797,7 +9814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9805,7 +9822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9813,7 +9830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9821,7 +9838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9829,7 +9846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9837,7 +9854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9845,7 +9862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9853,7 +9870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9861,7 +9878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9869,7 +9886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9877,7 +9894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9885,7 +9902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9893,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9901,7 +9918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9909,7 +9926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9917,7 +9934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9925,7 +9942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9933,7 +9950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9957,7 +9974,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35 E36:F37" formulaRange="1"/>
+    <ignoredError sqref="E3 E4:E30 F3:F30 E31:F31 E32:F32 E33:F33 E34:F34 E35:F35 E36:F37 E38:F38" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9967,18 +9984,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA36D5C-F037-4174-89E6-4D05A4E2D961}">
   <dimension ref="C1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>11</v>
       </c>
@@ -9989,10 +10006,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D2">
         <f ca="1">Scrobbles!O6</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -10000,10 +10017,10 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
@@ -10023,7 +10040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
@@ -10041,14 +10058,14 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>10.983783783783785</v>
+        <v>12.226315789473688</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.1794260485651213</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.2038613426941642</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
@@ -10066,14 +10083,14 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>27.983783783783785</v>
+        <v>29.226315789473688</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.457130242825607</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.4873189995612111</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
@@ -10091,14 +10108,14 @@
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2162162162162176</v>
+        <v>-1.973684210526315</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94746136865342157</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.96709082931110135</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
@@ -10116,14 +10133,14 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.016216216216215</v>
+        <v>-12.773684210526312</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77103752759381905</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.78701184730144802</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
@@ -10141,14 +10158,14 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.049549549549553</v>
+        <v>-12.807017543859651</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7704930095658572</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.78645604797425772</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
@@ -10166,39 +10183,39 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9504504504504538</v>
+        <v>5.1929824561403564</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0645327446651951</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.0865876846570135</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="11">
         <f>SUM(Calc!I2:I1000)</f>
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>51.6</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.6162162162162161</v>
+        <v>-14.640350877192979</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84291390728476823</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+        <v>0.75588708497879187</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10206,26 +10223,26 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>2265</v>
+        <v>2279</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>61.216216216216218</v>
+        <v>59.973684210526315</v>
       </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -10233,26 +10250,23 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>71.391990632917725</v>
+        <v>69.703160704841054</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>14.219798723503812</v>
-      </c>
-      <c r="G15" s="16">
-        <f ca="1">_xlfn.STDEV.P(G5:G11)</f>
-        <v>14.219798723503841</v>
-      </c>
+        <v>14.991518388167544</v>
+      </c>
+      <c r="G15" s="16"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>21</v>
       </c>
@@ -10264,7 +10278,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
@@ -10272,7 +10286,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
@@ -10292,7 +10306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>7</v>
       </c>
@@ -10302,7 +10316,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>306.08108108108109</v>
+        <v>299.86842105263156</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -10313,10 +10327,10 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/7</f>
-        <v>43.725868725868729</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.838345864661655</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
@@ -10326,7 +10340,7 @@
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>306.08108108108109</v>
+        <v>299.86842105263156</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
@@ -10337,10 +10351,10 @@
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/7</f>
-        <v>43.725868725868729</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.838345864661655</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
@@ -10350,7 +10364,7 @@
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>306.08108108108109</v>
+        <v>299.86842105263156</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
@@ -10361,10 +10375,10 @@
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>43.725868725868729</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.838345864661655</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
@@ -10374,7 +10388,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>306.08108108108109</v>
+        <v>299.86842105263156</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -10385,10 +10399,10 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>43.725868725868729</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+        <v>42.838345864661655</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="10" t="s">
         <v>3</v>
       </c>
@@ -10398,7 +10412,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>367.29729729729729</v>
+        <v>359.84210526315792</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
@@ -10409,10 +10423,10 @@
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>52.471042471042473</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+        <v>51.406015037593988</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
         <v>4</v>
       </c>
@@ -10422,7 +10436,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>367.29729729729729</v>
+        <v>359.84210526315792</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -10433,34 +10447,34 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>52.471042471042473</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
+        <v>51.406015037593988</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>306.08108108108109</v>
+        <v>359.84210526315792</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>51.6</v>
+        <v>45.333333333333336</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>43.725868725868729</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+        <v>51.406015037593988</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="14"/>
@@ -10468,13 +10482,13 @@
       <c r="H30" s="11"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>2.4756993410113528E-23</v>
+        <v>2.457861670775662E-27</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -10482,11 +10496,11 @@
       </c>
       <c r="H31" s="19">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>2.6312560983136681E-14</v>
+        <v>2.3730257710281045E-15</v>
       </c>
       <c r="I31" s="17"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -10505,9 +10519,9 @@
       <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -10518,2344 +10532,2344 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.205647191450335E-3</v>
+        <v>2.4270637587857726E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$O$9,FALSE)</f>
-        <v>2.5949864489587821E-27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.9900040619471292E-27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3300527779807905E-3</v>
+        <v>2.5576851538760955E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5885525153761194E-25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.3916366466256605E-25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.459251780586581E-3</v>
+        <v>2.6929617845743779E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8622587126039009E-24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6167815681131374E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5932701062213238E-3</v>
+        <v>2.8328952019903001E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$O$9,FALSE)</f>
-        <v>9.9216360216648258E-23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2321449067805576E-22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7321216710652317E-3</v>
+        <v>2.9774744115219584E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5184125398020767E-21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8460909490479783E-21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8758076956551595E-3</v>
+        <v>3.1266752608787342E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8590294068387724E-20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.8127585646738762E-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0243160208053505E-3</v>
+        <v>3.2804598560180671E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$O$9,FALSE)</f>
-        <v>1.896712435355766E-19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.8102091091630387E-19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1776204492354873E-3</v>
+        <v>3.4387760095839852E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$O$9,FALSE)</f>
-        <v>1.658707979181767E-18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9779949472866851E-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.3356801179167278E-3</v>
+        <v>3.601556726461811E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2692478286644306E-17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7318587121270847E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4984389062082694E-3</v>
+        <v>3.7687197310580555E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$O$9,FALSE)</f>
-        <v>8.6331721679427774E-17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4868146213267857E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6658248848844971E-3</v>
+        <v>3.9401670408755968E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2849013406460326E-16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4914343478957306E-15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8377498111439516E-3</v>
+        <v>4.1157845908804894E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9411060286396339E-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.1315284183118504E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0141086746443358E-3</v>
+        <v>4.2954419130470768E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5003615213668326E-14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0639809792396303E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.1947792995213305E-3</v>
+        <v>4.4789918753217655E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0651119457294943E-14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8748608606654111E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3796220072215564E-3</v>
+        <v>4.6662704840622765E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0892815747253541E-13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0315937997302138E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.5684793448111114E-3</v>
+        <v>4.8570967537882757E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2607608588743988E-12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2112284683482612E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.7611758832099057E-3</v>
+        <v>5.0512726478211378E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8236880833623522E-12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2036825130535689E-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.9575180895484947E-3</v>
+        <v>5.2485830930957432E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7369878392393875E-11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.246427936918103E-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1572942775484736E-3</v>
+        <v>5.4487960720962948E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$O$9,FALSE)</f>
-        <v>5.9073235073231226E-11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4148551561748986E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.3602746394903339E-3</v>
+        <v>5.6516627945026876E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9032841741233117E-10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.4660040178983409E-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.5662113629550329E-3</v>
+        <v>5.856917950735163E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8255927762017553E-10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3392135732618814E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7748388351088467E-3</v>
+        <v>6.0642800491550073E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$O$9,FALSE)</f>
-        <v>1.698194033217115E-9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8246462825361337E-9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.9858739368471988E-3</v>
+        <v>6.2734518382199997E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7253187779321538E-9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0426278562081147E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.1990164286244319E-3</v>
+        <v>6.4841208144079563E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2576788521758271E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7187058172749351E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.4139494292754524E-3</v>
+        <v>6.695959816212827E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2079308560565979E-8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.7937835061069824E-8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.6303399885851554E-3</v>
+        <v>6.9086277039887489E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8550955556412855E-8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6297929063597776E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.8478397537857557E-3</v>
+        <v>7.1217701248718155E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$O$9,FALSE)</f>
-        <v>1.849458568973754E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7594109651760396E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.0660857295646012E-3</v>
+        <v>7.3350203614508227E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$O$9,FALSE)</f>
-        <v>4.1932168756011515E-7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3505824460391871E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.284701130549861E-3</v>
+        <v>7.5480002622910708E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$O$9,FALSE)</f>
-        <v>9.1676025320816912E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7886256949739904E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5032963246131588E-3</v>
+        <v>7.7603212518436507E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9351928923732563E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6989818138345909E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.7214698646913679E-3</v>
+        <v>7.9715854167010259E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9488395506535248E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.3947189067798966E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.9388096061897284E-3</v>
+        <v>8.181386664592739E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7978392172887895E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4306081823897501E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.1548939063898485E-3</v>
+        <v>8.3893119519573289E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$O$9,FALSE)</f>
-        <v>1.491731911077624E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.6812138549886929E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.369292901654897E-3</v>
+        <v>8.5949425753829526E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7672176728835649E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8727961527266556E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.5815698576053017E-3</v>
+        <v>8.7978555216843748E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9823116288404355E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.5952805201734491E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.791282586837295E-3</v>
+        <v>8.9976248708826239E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7142361693618266E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4728303989079063E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.9979849281790966E-3</v>
+        <v>9.193823245880587E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$O$9,FALSE)</f>
-        <v>1.481812681952295E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.4536407011046277E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2012282809305589E-3</v>
+        <v>9.3860233021871783E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4516477170357569E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9771316911930597E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4005631870173571E-3</v>
+        <v>9.5737992506393296E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9494893876856131E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.2769273713497253E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.5955409535149628E-3</v>
+        <v>9.7567284057085008E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$O$9,FALSE)</f>
-        <v>6.1993024692362834E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.652575896967558E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.7857153075658482E-3</v>
+        <v>9.9343927516608622E-3</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4874460086622511E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.4472513466571818E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.9706440753300259E-3</v>
+        <v>1.0106380518571092E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4165501126974288E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1169998838457748E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0149890876278418E-2</v>
+        <v>1.0272287759971981E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0646628090474138E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0229591073211316E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0323026823864417E-2</v>
+        <v>1.0431719923758739E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9393219751680665E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.216232439158427E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0489632223394968E-2</v>
+        <v>1.0584293407859888E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0894129445673616E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.7468862014605554E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0649298257771087E-2</v>
+        <v>1.0729637092138406E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$O$9,FALSE)</f>
-        <v>5.5630752669339825E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.6591541831161425E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0801628651681822E-2</v>
+        <v>1.0867393837998047E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$O$9,FALSE)</f>
-        <v>7.4032699645155452E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.9858194412595445E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0946241304816607E-2</v>
+        <v>1.0997221947241983E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$O$9,FALSE)</f>
-        <v>9.6425569118043265E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2742263441562427E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.108276988471054E-2</v>
+        <v>1.1118796571863951E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2297517683128815E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5920843411908314E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1210865369955417E-2</v>
+        <v>1.1231811066646079E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5363418396186865E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9486359901041354E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1330197534697058E-2</v>
+        <v>1.1335978276691494E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8809806847223394E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3373375902354405E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1440456365595401E-2</v>
+        <v>1.1431031752332775E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2577749077350752E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7486028731406428E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1541353402747288E-2</v>
+        <v>1.1516726884226912E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6579314792203497E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.1700738602669608E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.16326229964606E-2</v>
+        <v>1.1592841951872103E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$O$9,FALSE)</f>
-        <v>3.0699718513177401E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5871888418810373E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.17140234722203E-2</v>
+        <v>1.1659179079257745E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$O$9,FALSE)</f>
-        <v>3.4802233449623098E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9840172371573536E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1785338196698683E-2</v>
+        <v>1.1715565091883829E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$O$9,FALSE)</f>
-        <v>3.8735655411988312E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3442943940103389E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.184637653823035E-2</v>
+        <v>1.1761852269955249E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2343754588877201E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6525596447131355E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1896974715792668E-2</v>
+        <v>1.1797918993166366E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$O$9,FALSE)</f>
-        <v>4.5475867303843905E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.895283208818671E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1936996531200412E-2</v>
+        <v>1.182367027313694E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$O$9,FALSE)</f>
-        <v>4.7997595267104599E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0618649877031512E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1966333979933443E-2</v>
+        <v>1.1839038170237093E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9800528300500226E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1454015642174326E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1984907736763412E-2</v>
+        <v>1.1843982092241344E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0809998468753594E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.1431448091454078E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.199266751312345E-2</v>
+        <v>1.1838488972974282E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0990095937849748E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.0566121743064643E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1989592283967532E-2</v>
+        <v>1.1822573329847466E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0345495771242234E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8913493825315894E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1975690382687179E-2</v>
+        <v>1.1796277199933E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8920011978491489E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6563848131952794E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1950999463485818E-2</v>
+        <v>1.1759669954967678E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$O$9,FALSE)</f>
-        <v>4.6792156727737858E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.363446130457254E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1915586331448508E-2</v>
+        <v>1.1712847996427264E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4068288976435013E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.026029850733634E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1869546641380409E-2</v>
+        <v>1.1655934332546641E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0874150094850639E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6584218619704789E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1813004467314064E-2</v>
+        <v>1.1589078039883453E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$O$9,FALSE)</f>
-        <v>3.7345683729260497E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2747617531149707E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1746111745397143E-2</v>
+        <v>1.1512453612723756E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3620021322247617E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8882283418533345E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1669047593661599E-2</v>
+        <v>1.1426260204303445E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9827398470384237E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.5104013695971573E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1582017512936568E-2</v>
+        <v>1.1330720764463113E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6084578199003953E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1508288425984699E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.148525247389403E-2</v>
+        <v>1.1226081078961846E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2490129280831286E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8168046450266553E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1379007895903216E-2</v>
+        <v>1.111260871624253E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9121675233139276E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5133398340700821E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1263562524011159E-2</v>
+        <v>1.099059188796358E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6035021992987931E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2432954152291686E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1139217210958043E-2</v>
+        <v>1.0860338230085469E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3264910450736921E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0076352245047202E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1006293611672704E-2</v>
+        <v>1.0722173511722196E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$O$9,FALSE)</f>
-        <v>1.082703501654745E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.0575462338465138E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0865132798171711E-2</v>
+        <v>1.0576440279334555E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$O$9,FALSE)</f>
-        <v>8.7209225862304191E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.3584307018477275E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0716093803201963E-2</v>
+        <v>1.0423496444151961E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$O$9,FALSE)</f>
-        <v>6.9332712031631933E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9524482465861134E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0559552101318585E-2</v>
+        <v>1.0263713820960346E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$O$9,FALSE)</f>
-        <v>5.4413926802372101E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8079047078170441E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0395898036375291E-2</v>
+        <v>1.0097476626584473E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$O$9,FALSE)</f>
-        <v>4.2164743143131324E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8908110689923557E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.022553520462164E-2</v>
+        <v>9.9251799465228784E-3</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$O$9,FALSE)</f>
-        <v>3.226457541188942E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1671573770505269E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0048878802750008E-2</v>
+        <v>9.7472281782625559E-3</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4384138574551064E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6045976810585261E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.8663539503143216E-3</v>
+        <v>9.5640334598087271E-3</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8203715844218205E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1735809098627615E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.6783939959531051E-3</v>
+        <v>9.3760140919135586E-3</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3426055482629181E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.4799964920014373E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.4854388167922125E-3</v>
+        <v>9.1835929623777807E-3</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$O$9,FALSE)</f>
-        <v>9.7844323256612289E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0544837109245664E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.2879331202792535E-3</v>
+        <v>8.9871959806328804E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$O$9,FALSE)</f>
-        <v>7.046657938830751E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.2718787545501863E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.0863247575144312E-3</v>
+        <v>8.7872505305909652E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$O$9,FALSE)</f>
-        <v>5.0159271626183579E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9790733419889391E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.881063056894031E-3</v>
+        <v>8.5841839494776896E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5293802495590536E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.0536322281889936E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.6725971865760608E-3</v>
+        <v>8.3784220400434633E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$O$9,FALSE)</f>
-        <v>2.4551739143892018E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3995896674768755E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.461374553916625E-3</v>
+        <v>8.1703876231835372E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6887242381085854E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.4312976114128627E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.2478392496141747E-3</v>
+        <v>7.9604991375919493E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1486367565513309E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.2847740515818251E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.0324305438413679E-3</v>
+        <v>7.7491692926320134E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$O$9,FALSE)</f>
-        <v>7.7269446201032538E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.141989607737102E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.8155814411458319E-3</v>
+        <v>7.5368037801312304E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1414599190757327E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7001127906272784E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.5977173003662375E-3</v>
+        <v>7.3238000503059886E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3843088394962134E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7412442133105676E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.3792545252442943E-3</v>
+        <v>7.1105461564952947E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$O$9,FALSE)</f>
-        <v>2.203984911287827E-5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1109450061967534E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.1605993308217373E-3</v>
+        <v>6.8974196728384413E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4202064933334014E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.0134173659899704E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9421465900995454E-3</v>
+        <v>6.6847866884731299E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$O$9,FALSE)</f>
-        <v>9.0562153924553714E-6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.38146331608858E-6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7242787648099621E-3</v>
+        <v>6.4730008812632052E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7153323666512625E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7089948175165351E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.5073649235158479E-3</v>
+        <v>6.2624026734934756E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5701124684128467E-6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.6578408134049768E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.291759849611795E-3</v>
+        <v>6.0533184713975298E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$O$9,FALSE)</f>
-        <v>2.2075634018441831E-6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0043113274189022E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.0778032411625982E-3</v>
+        <v>5.8460599898176105E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3513867851829866E-6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0232250399676416E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.8658190038820383E-3</v>
+        <v>5.6409236627377752E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$O$9,FALSE)</f>
-        <v>8.1907708548018797E-7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.5765841235243024E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.6561146379335413E-3</v>
+        <v>5.4381901398865944E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9157647022062039E-7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1029502625159799E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.448980718628516E-3</v>
+        <v>5.2381238690776179E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9215972318281289E-7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2244822811123929E-7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.2446904705125523E-3</v>
+        <v>5.0409727634481549E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$O$9,FALSE)</f>
-        <v>1.719703152310487E-7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.0612224662326073E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0434994337679867E-3</v>
+        <v>4.8469679522727639E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0026068571385444E-7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0332145364772492E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.8456452213274321E-3</v>
+        <v>4.656323613570339E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$O$9,FALSE)</f>
-        <v>5.7901696364579703E-8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2819503298489546E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6513473645897604E-3</v>
+        <v>4.4692368862952712E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3126380971399973E-8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2790370884716571E-8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.4608072451608116E-3</v>
+        <v>4.2858878595060943E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$O$9,FALSE)</f>
-        <v>1.8776589814870102E-8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.102645040513916E-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2742081096080785E-3</v>
+        <v>4.1064396355413053E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$O$9,FALSE)</f>
-        <v>1.0545245705598974E-8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9079980799930681E-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.0917151638238704E-3</v>
+        <v>3.9310384639030405E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8685458287915741E-9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.1307003885895478E-9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9134757432366472E-3</v>
+        <v>3.7598139422563726E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2364880209917157E-9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1512247950676878E-9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.7396195547965451E-3</v>
+        <v>3.5928792806957394E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7689781292341294E-9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.1645707423854453E-10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.5702589863892773E-3</v>
+        <v>3.4303316252110921E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5831989062790637E-10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2717877787369966E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4054894791031532E-3</v>
+        <v>3.2722524361048213E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$O$9,FALSE)</f>
-        <v>5.1460278621911291E-10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7212383074195539E-10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.2453899575867278E-3</v>
+        <v>3.1187079169660644E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7393074284048889E-10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.976435017412272E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.0900233135894052E-3</v>
+        <v>2.9697494897012876E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4456037570682992E-10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.6409472333672145E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.9394369376731736E-3</v>
+        <v>2.8254143110481621E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$O$9,FALSE)</f>
-        <v>7.5636232611682465E-11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3789290924075451E-11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.7936632940198307E-3</v>
+        <v>2.6857258259625964E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$O$9,FALSE)</f>
-        <v>3.9238677706243683E-11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2090944249769885E-11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6527205332328792E-3</v>
+        <v>2.5506943532651225E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0185238474821951E-11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.0936006070820766E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5166131380453078E-3</v>
+        <v>2.4203176989610353E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$O$9,FALSE)</f>
-        <v>1.029719935708828E-11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0454639876184764E-12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.3853325968917444E-3</v>
+        <v>2.2945817927070189E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2095502666528384E-12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5094850865120516E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2588581003839107E-3</v>
+        <v>2.173461342983548E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6140078320710861E-12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4204411392600474E-13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.1371572558395446E-3</v>
+        <v>2.0569205066449979E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3009729157637834E-12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.6181397852747009E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0201868151546944E-3</v>
+        <v>1.9449135686560534E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$O$9,FALSE)</f>
-        <v>6.4226322018416788E-13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7499449428354973E-13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.9078934114747578E-3</v>
+        <v>1.837385627981231E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$O$9,FALSE)</f>
-        <v>3.1453539323613389E-13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.3960516309938462E-14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8002143003083653E-3</v>
+        <v>1.7342732857719234E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$O$9,FALSE)</f>
-        <v>1.5281481460314097E-13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9963662629564075E-14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.6970781009372816E-3</v>
+        <v>1.635505332189824E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$O$9,FALSE)</f>
-        <v>7.3659407336904883E-14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8872189625523257E-14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5984055342023566E-3</v>
+        <v>1.5410034284145601E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5227735983549122E-14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.8424589137680201E-15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5041101529871927E-3</v>
+        <v>1.4506827806043962E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6717121726951197E-14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1109677406115079E-15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.4140990619751223E-3</v>
+        <v>1.3644528028096418E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8719918319221448E-15</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8965375467315192E-15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.328273623518455E-3</v>
+        <v>1.2822177660765373E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$O$9,FALSE)</f>
-        <v>3.6785767483605219E-15</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8.6826216733648012E-16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.2465301467290842E-3</v>
+        <v>1.2038774312226721E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$O$9,FALSE)</f>
-        <v>1.7059738605726119E-15</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.9449152299838038E-16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1687605571741508E-3</v>
+        <v>1.1293276630112512E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$O$9,FALSE)</f>
-        <v>7.8521251660170588E-16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7788804529349185E-16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0948530448368337E-3</v>
+        <v>1.0584610236986278E-3</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$O$9,FALSE)</f>
-        <v>3.5871447158185514E-16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.9616428755667696E-17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0246926882783874E-3</v>
+        <v>9.9116734417564376E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6266031594252239E-16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.536955967527686E-17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.5816205321105669E-4</v>
+        <v>9.273342711665169E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$O$9,FALSE)</f>
-        <v>7.3216537283349821E-17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5597373548753363E-17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.9514176396043995E-4</v>
+        <v>8.6684778918761632E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$O$9,FALSE)</f>
-        <v>3.271561589007415E-17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.8279704797556482E-18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.3551104655849159E-4</v>
+        <v>8.0959271620101899E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$O$9,FALSE)</f>
-        <v>1.4512508811401853E-17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9673807634178579E-18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.7914824246292172E-4</v>
+        <v>7.5545317212273306E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$O$9,FALSE)</f>
-        <v>6.3913732175432649E-18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2803219916375085E-18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.2593129214382104E-4</v>
+        <v>7.0431301956169127E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$O$9,FALSE)</f>
-        <v>2.7946834628832911E-18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.4846876295898792E-19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.7573818801261237E-4</v>
+        <v>6.5605627637205211E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2133329582961094E-18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.3328859850383656E-19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.2844739639072859E-4</v>
+        <v>6.1056749979693443E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$O$9,FALSE)</f>
-        <v>5.2306797688251279E-19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.8529413637925779E-20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.83938248424909E-4</v>
+        <v>5.6773214216575404E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$O$9,FALSE)</f>
-        <v>2.239177788015227E-19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.1322880692093235E-20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.4209130005175392E-4</v>
+        <v>5.2743687827921622E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$O$9,FALSE)</f>
-        <v>9.5190271956729227E-20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.721031525900575E-20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.0278866129577465E-4</v>
+        <v>4.8956990477515305E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0187505308851866E-20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.1183862931531107E-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6591429535202859E-4</v>
+        <v>4.5402121191457241E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$O$9,FALSE)</f>
-        <v>1.685018502860974E-20</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.9240811755760898E-21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.3135428805635682E-4</v>
+        <v>4.2068282836020299E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$O$9,FALSE)</f>
-        <v>7.0170378911197695E-21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1929790546254671E-21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.9899708848309558E-4</v>
+        <v>3.8944903963940883E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9024088428390061E-21</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.8342803440459553E-22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.6873372153190594E-4</v>
+        <v>3.6021658108969032E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1924462232959093E-21</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.9458362599930543E-22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4045797347224288E-4</v>
+        <v>3.3288480617818349E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$O$9,FALSE)</f>
-        <v>4.866469722099485E-22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.7799312921475703E-23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1406655150619168E-4</v>
+        <v>3.0735583116686964E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9728931305809052E-22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.0900075661910972E-23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8945921848834042E-4</v>
+        <v>2.835346571629882E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$O$9,FALSE)</f>
-        <v>7.9455955561267945E-23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2192048551505556E-23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.6653890400546752E-4</v>
+        <v>2.6132927064978224E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$O$9,FALSE)</f>
-        <v>3.179080362944295E-23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.7790984948195637E-24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.4521179306968713E-4</v>
+        <v>2.4065072363670559E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2637095510826503E-23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.8611697658396962E-24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2538739371691746E-4</v>
+        <v>2.2141319460114832E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$O$9,FALSE)</f>
-        <v>4.9909365879724106E-24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.2013682450742417E-25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.0697858482879888E-4</v>
+        <v>2.0353403141618083E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$O$9,FALSE)</f>
-        <v>1.9585016236585366E-24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7685422116267673E-25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.8990164551125645E-4</v>
+        <v>1.8693377747141312E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$O$9,FALSE)</f>
-        <v>7.6364368696619718E-25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0575775562014124E-25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.7407626736750734E-4</v>
+        <v>1.7153618219752423E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$O$9,FALSE)</f>
-        <v>2.9586947502196854E-25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.0143558470736086E-26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.5942555099829935E-4</v>
+        <v>1.5726819720001057E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$O$9,FALSE)</f>
-        <v>1.1391201103599751E-25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.5141868545979652E-26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.45875988048327E-4</v>
+        <v>1.4405995919494617E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$O$9,FALSE)</f>
-        <v>4.3582889357522131E-26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5.6757102658366777E-27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.3335743009595214E-4</v>
+        <v>1.3184476091980456E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6571301728183078E-26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.114243820830596E-27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.218030456543854E-4</v>
+        <v>1.2055901116633008E-4</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$O$9,FALSE)</f>
-        <v>6.2619283307198712E-27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.8270982255897833E-28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.1114926651717834E-4</v>
+        <v>1.1014218505083382E-4</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$O$9,FALSE)</f>
-        <v>2.3517273535201924E-27</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.8798767930446784E-28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>1.0133572464005992E-4</v>
+        <v>1.005367656007992E-4</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$O$9,FALSE)</f>
-        <v>8.778283546017406E-28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.0531513497029757E-28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>9.230518070559318E-5</v>
+        <v>9.1688177696020164E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$O$9,FALSE)</f>
-        <v>3.2568079003651344E-28</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.8279616044228123E-29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>8.4003445467610813E-5</v>
+        <v>8.3544715358308056E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$O$9,FALSE)</f>
-        <v>1.2010208229122553E-28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.3829937375522109E-29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>7.6379294919619347E-5</v>
+        <v>7.6057463336751433E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$O$9,FALSE)</f>
-        <v>4.4025119985373168E-29</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.9666604599454998E-30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.9384380276061967E-5</v>
+        <v>6.9180213886174232E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6041971809342234E-29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.7730293214623842E-30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>6.2973133698121227E-5</v>
+        <v>6.2869379585410979E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$O$9,FALSE)</f>
-        <v>5.8108213894387235E-30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6.2920177882479887E-31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.7102670637271129E-5</v>
+        <v>5.7083902989820974E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$O$9,FALSE)</f>
-        <v>2.0924499915864409E-30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.2197381639964706E-31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>5.1732689610597148E-5</v>
+        <v>5.178516385960263E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$O$9,FALSE)</f>
-        <v>7.490752696290943E-31</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.785138928513265E-32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.6825370162527793E-5</v>
+        <v>4.6936884652403489E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$O$9,FALSE)</f>
-        <v>2.6660205620833881E-31</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.7145550211262732E-32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>4.2345269708536038E-5</v>
+        <v>4.2505034915870739E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$O$9,FALSE)</f>
-        <v>9.4337393737211094E-32</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9.4105124629552077E-33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.8259219898005289E-5</v>
+        <v>3.8457735163526404E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$O$9,FALSE)</f>
-        <v>3.3189530415468708E-32</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.2435810500718772E-33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.4536223076192571E-5</v>
+        <v>3.4765160766027962E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$O$9,FALSE)</f>
-        <v>1.160992840016022E-32</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.1115971749043696E-33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>3.1147349369405644E-5</v>
+        <v>3.1399446339784314E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$O$9,FALSE)</f>
-        <v>4.0381584499943113E-33</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3.7878737464219183E-34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.8065634863429781E-5</v>
+        <v>2.8334591066298482E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$O$9,FALSE)</f>
-        <v>1.3966145807355602E-33</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1.2834618299280132E-34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.5265981293147915E-5</v>
+        <v>2.5546365328736612E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$O$9,FALSE)</f>
-        <v>4.8031157384847476E-34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4.3243783418183579E-35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$O$9,Scrobbles!$O$8,FALSE)</f>
-        <v>2.2725057611402221E-5</v>
+        <v>2.3012219007254175E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$O$9,FALSE)</f>
-        <v>1.6426177182044117E-34</v>
+        <v>1.448876542341056E-35</v>
       </c>
     </row>
   </sheetData>
@@ -12871,18 +12885,18 @@
       <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -12935,7 +12949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2">
         <f>IF(Scrobbles!$B2=C$1,Scrobbles!$D2,0)</f>
         <v>0</v>
@@ -13001,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>IF(Scrobbles!$B3=C$1,Scrobbles!$D3,0)</f>
         <v>0</v>
@@ -13067,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <f>IF(Scrobbles!$B4=C$1,Scrobbles!$D4,0)</f>
         <v>0</v>
@@ -13133,7 +13147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>IF(Scrobbles!$B5=C$1,Scrobbles!$D5,0)</f>
         <v>52</v>
@@ -13199,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <f>IF(Scrobbles!$B6=C$1,Scrobbles!$D6,0)</f>
         <v>0</v>
@@ -13265,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <f>IF(Scrobbles!$B7=C$1,Scrobbles!$D7,0)</f>
         <v>0</v>
@@ -13331,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>IF(Scrobbles!$B8=C$1,Scrobbles!$D8,0)</f>
         <v>0</v>
@@ -13397,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <f>IF(Scrobbles!$B9=C$1,Scrobbles!$D9,0)</f>
         <v>0</v>
@@ -13463,7 +13477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>IF(Scrobbles!$B10=C$1,Scrobbles!$D10,0)</f>
         <v>0</v>
@@ -13529,7 +13543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>IF(Scrobbles!$B11=C$1,Scrobbles!$D11,0)</f>
         <v>0</v>
@@ -13595,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <f>IF(Scrobbles!$B12=C$1,Scrobbles!$D12,0)</f>
         <v>92</v>
@@ -13661,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13">
         <f>IF(Scrobbles!$B13=C$1,Scrobbles!$D13,0)</f>
         <v>0</v>
@@ -13727,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>IF(Scrobbles!$B14=C$1,Scrobbles!$D14,0)</f>
         <v>0</v>
@@ -13793,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15">
         <f>IF(Scrobbles!$B15=C$1,Scrobbles!$D15,0)</f>
         <v>0</v>
@@ -13859,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>IF(Scrobbles!$B16=C$1,Scrobbles!$D16,0)</f>
         <v>0</v>
@@ -13925,7 +13939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <f>IF(Scrobbles!$B17=C$1,Scrobbles!$D17,0)</f>
         <v>0</v>
@@ -13991,7 +14005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>IF(Scrobbles!$B18=C$1,Scrobbles!$D18,0)</f>
         <v>0</v>
@@ -14057,7 +14071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>IF(Scrobbles!$B19=C$1,Scrobbles!$D19,0)</f>
         <v>32</v>
@@ -14123,7 +14137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <f>IF(Scrobbles!$B20=C$1,Scrobbles!$D20,0)</f>
         <v>0</v>
@@ -14189,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <f>IF(Scrobbles!$B21=C$1,Scrobbles!$D21,0)</f>
         <v>0</v>
@@ -14255,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>IF(Scrobbles!$B22=C$1,Scrobbles!$D22,0)</f>
         <v>0</v>
@@ -14321,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>IF(Scrobbles!$B23=C$1,Scrobbles!$D23,0)</f>
         <v>0</v>
@@ -14387,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24">
         <f>IF(Scrobbles!$B24=C$1,Scrobbles!$D24,0)</f>
         <v>0</v>
@@ -14453,7 +14467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25">
         <f>IF(Scrobbles!$B25=C$1,Scrobbles!$D25,0)</f>
         <v>0</v>
@@ -14519,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>IF(Scrobbles!$B26=C$1,Scrobbles!$D26,0)</f>
         <v>93</v>
@@ -14585,7 +14599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <f>IF(Scrobbles!$B27=C$1,Scrobbles!$D27,0)</f>
         <v>0</v>
@@ -14651,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>IF(Scrobbles!$B28=C$1,Scrobbles!$D28,0)</f>
         <v>0</v>
@@ -14717,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>IF(Scrobbles!$B29=C$1,Scrobbles!$D29,0)</f>
         <v>0</v>
@@ -14783,7 +14797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>IF(Scrobbles!$B30=C$1,Scrobbles!$D30,0)</f>
         <v>0</v>
@@ -14849,7 +14863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>IF(Scrobbles!$B31=C$1,Scrobbles!$D31,0)</f>
         <v>0</v>
@@ -14915,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>IF(Scrobbles!$B32=C$1,Scrobbles!$D32,0)</f>
         <v>0</v>
@@ -14981,7 +14995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>IF(Scrobbles!$B33=C$1,Scrobbles!$D33,0)</f>
         <v>92</v>
@@ -15047,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>IF(Scrobbles!$B34=C$1,Scrobbles!$D34,0)</f>
         <v>0</v>
@@ -15113,7 +15127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>IF(Scrobbles!$B35=C$1,Scrobbles!$D35,0)</f>
         <v>0</v>
@@ -15179,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>IF(Scrobbles!$B36=C$1,Scrobbles!$D36,0)</f>
         <v>0</v>
@@ -15245,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>IF(Scrobbles!$B37=C$1,Scrobbles!$D37,0)</f>
         <v>0</v>
@@ -15311,7 +15325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>IF(Scrobbles!$B38=C$1,Scrobbles!$D38,0)</f>
         <v>0</v>
@@ -15377,7 +15391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>IF(Scrobbles!$B39=C$1,Scrobbles!$D39,0)</f>
         <v>0</v>
@@ -15404,11 +15418,11 @@
       </c>
       <c r="I39">
         <f>IF(Scrobbles!$B39=I$1,Scrobbles!$D39,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K39">
         <f>IF(AND(Scrobbles!$D39&gt;=Calc!J$1+1,Scrobbles!$D39&lt;=Calc!K$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <f>IF(AND(Scrobbles!$D39&gt;=Calc!K$1+1,Scrobbles!$D39&lt;=Calc!L$1,ISBLANK(Scrobbles!$D39)=FALSE),1,0)</f>
@@ -15440,10 +15454,10 @@
       </c>
       <c r="T39">
         <f>IF(Scrobbles!D39&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>IF(Scrobbles!$B40=C$1,Scrobbles!$D40,0)</f>
         <v>0</v>
@@ -15509,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>IF(Scrobbles!$B41=C$1,Scrobbles!$D41,0)</f>
         <v>0</v>
@@ -15575,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>IF(Scrobbles!$B42=C$1,Scrobbles!$D42,0)</f>
         <v>0</v>
@@ -15641,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>IF(Scrobbles!$B43=C$1,Scrobbles!$D43,0)</f>
         <v>0</v>
@@ -15707,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>IF(Scrobbles!$B44=C$1,Scrobbles!$D44,0)</f>
         <v>0</v>
@@ -15773,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>IF(Scrobbles!$B45=C$1,Scrobbles!$D45,0)</f>
         <v>0</v>
@@ -15839,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>IF(Scrobbles!$B46=C$1,Scrobbles!$D46,0)</f>
         <v>0</v>
@@ -15905,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>IF(Scrobbles!$B47=C$1,Scrobbles!$D47,0)</f>
         <v>0</v>
@@ -15971,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>IF(Scrobbles!$B48=C$1,Scrobbles!$D48,0)</f>
         <v>0</v>
@@ -16037,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>IF(Scrobbles!$B49=C$1,Scrobbles!$D49,0)</f>
         <v>0</v>
@@ -16103,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>IF(Scrobbles!$B50=C$1,Scrobbles!$D50,0)</f>
         <v>0</v>
@@ -16169,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>IF(Scrobbles!$B51=C$1,Scrobbles!$D51,0)</f>
         <v>0</v>
@@ -16235,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>IF(Scrobbles!$B52=C$1,Scrobbles!$D52,0)</f>
         <v>0</v>
@@ -16301,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>IF(Scrobbles!$B53=C$1,Scrobbles!$D53,0)</f>
         <v>0</v>
@@ -16367,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>IF(Scrobbles!$B54=C$1,Scrobbles!$D54,0)</f>
         <v>0</v>
@@ -16433,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>IF(Scrobbles!$B55=C$1,Scrobbles!$D55,0)</f>
         <v>0</v>
@@ -16499,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>IF(Scrobbles!$B56=C$1,Scrobbles!$D56,0)</f>
         <v>0</v>
@@ -16565,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>IF(Scrobbles!$B57=C$1,Scrobbles!$D57,0)</f>
         <v>0</v>
@@ -16631,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>IF(Scrobbles!$B58=C$1,Scrobbles!$D58,0)</f>
         <v>0</v>
@@ -16697,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>IF(Scrobbles!$B59=C$1,Scrobbles!$D59,0)</f>
         <v>0</v>
@@ -16763,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>IF(Scrobbles!$B60=C$1,Scrobbles!$D60,0)</f>
         <v>0</v>
@@ -16829,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>IF(Scrobbles!$B61=C$1,Scrobbles!$D61,0)</f>
         <v>0</v>
@@ -16895,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>IF(Scrobbles!$B62=C$1,Scrobbles!$D62,0)</f>
         <v>0</v>
@@ -16961,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>IF(Scrobbles!$B63=C$1,Scrobbles!$D63,0)</f>
         <v>0</v>
@@ -17027,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>IF(Scrobbles!$B64=C$1,Scrobbles!$D64,0)</f>
         <v>0</v>
@@ -17093,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>IF(Scrobbles!$B65=C$1,Scrobbles!$D65,0)</f>
         <v>0</v>
@@ -17159,7 +17173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>IF(Scrobbles!$B66=C$1,Scrobbles!$D66,0)</f>
         <v>0</v>
@@ -17225,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>IF(Scrobbles!$B67=C$1,Scrobbles!$D67,0)</f>
         <v>0</v>
@@ -17291,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>IF(Scrobbles!$B68=C$1,Scrobbles!$D68,0)</f>
         <v>0</v>
@@ -17357,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>IF(Scrobbles!$B69=C$1,Scrobbles!$D69,0)</f>
         <v>0</v>
@@ -17423,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>IF(Scrobbles!$B70=C$1,Scrobbles!$D70,0)</f>
         <v>0</v>
@@ -17489,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>IF(Scrobbles!$B71=C$1,Scrobbles!$D71,0)</f>
         <v>0</v>
@@ -17555,7 +17569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>IF(Scrobbles!$B72=C$1,Scrobbles!$D72,0)</f>
         <v>0</v>
@@ -17621,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>IF(Scrobbles!$B73=C$1,Scrobbles!$D73,0)</f>
         <v>0</v>
@@ -17687,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>IF(Scrobbles!$B74=C$1,Scrobbles!$D74,0)</f>
         <v>0</v>
@@ -17753,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>IF(Scrobbles!$B75=C$1,Scrobbles!$D75,0)</f>
         <v>0</v>
@@ -17819,7 +17833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>IF(Scrobbles!$B76=C$1,Scrobbles!$D76,0)</f>
         <v>0</v>
@@ -17885,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>IF(Scrobbles!$B77=C$1,Scrobbles!$D77,0)</f>
         <v>0</v>
@@ -17951,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>IF(Scrobbles!$B78=C$1,Scrobbles!$D78,0)</f>
         <v>0</v>
@@ -18017,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>IF(Scrobbles!$B79=C$1,Scrobbles!$D79,0)</f>
         <v>0</v>
@@ -18083,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>IF(Scrobbles!$B80=C$1,Scrobbles!$D80,0)</f>
         <v>0</v>
@@ -18149,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>IF(Scrobbles!$B81=C$1,Scrobbles!$D81,0)</f>
         <v>0</v>
@@ -18215,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$D82,0)</f>
         <v>0</v>
@@ -18281,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>IF(Scrobbles!$B83=C$1,Scrobbles!$D83,0)</f>
         <v>0</v>
@@ -18347,7 +18361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>IF(Scrobbles!$B84=C$1,Scrobbles!$D84,0)</f>
         <v>0</v>
@@ -18413,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>IF(Scrobbles!$B85=C$1,Scrobbles!$D85,0)</f>
         <v>0</v>
@@ -18479,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>IF(Scrobbles!$B86=C$1,Scrobbles!$D86,0)</f>
         <v>0</v>
@@ -18545,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>IF(Scrobbles!$B87=C$1,Scrobbles!$D87,0)</f>
         <v>0</v>
@@ -18611,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>IF(Scrobbles!$B88=C$1,Scrobbles!$D88,0)</f>
         <v>0</v>
@@ -18677,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$D89,0)</f>
         <v>0</v>
@@ -18743,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>IF(Scrobbles!$B90=C$1,Scrobbles!$D90,0)</f>
         <v>0</v>
@@ -18809,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>IF(Scrobbles!$B91=C$1,Scrobbles!$D91,0)</f>
         <v>0</v>
@@ -18875,7 +18889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>IF(Scrobbles!$B92=C$1,Scrobbles!$D92,0)</f>
         <v>0</v>
@@ -18941,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>IF(Scrobbles!$B93=C$1,Scrobbles!$D93,0)</f>
         <v>0</v>
@@ -19007,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>IF(Scrobbles!$B94=C$1,Scrobbles!$D94,0)</f>
         <v>0</v>
@@ -19073,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>IF(Scrobbles!$B95=C$1,Scrobbles!$D95,0)</f>
         <v>0</v>
@@ -19139,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>IF(Scrobbles!$B96=C$1,Scrobbles!$D96,0)</f>
         <v>0</v>
@@ -19205,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>IF(Scrobbles!$B97=C$1,Scrobbles!$D97,0)</f>
         <v>0</v>
@@ -19271,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>IF(Scrobbles!$B98=C$1,Scrobbles!$D98,0)</f>
         <v>0</v>
@@ -19337,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>IF(Scrobbles!$B99=C$1,Scrobbles!$D99,0)</f>
         <v>0</v>
@@ -19403,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>IF(Scrobbles!$B100=C$1,Scrobbles!$D100,0)</f>
         <v>0</v>
@@ -19469,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>IF(Scrobbles!$B101=C$1,Scrobbles!$D101,0)</f>
         <v>0</v>
@@ -19535,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>IF(Scrobbles!$B102=C$1,Scrobbles!$D102,0)</f>
         <v>0</v>
@@ -19601,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>IF(Scrobbles!$B103=C$1,Scrobbles!$D103,0)</f>
         <v>0</v>
@@ -19667,7 +19681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>IF(Scrobbles!$B104=C$1,Scrobbles!$D104,0)</f>
         <v>0</v>
@@ -19733,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C105">
         <f>IF(Scrobbles!$B105=C$1,Scrobbles!$D105,0)</f>
         <v>0</v>
@@ -19799,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C106">
         <f>IF(Scrobbles!$B106=C$1,Scrobbles!$D106,0)</f>
         <v>0</v>
@@ -19865,7 +19879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C107">
         <f>IF(Scrobbles!$B107=C$1,Scrobbles!$D107,0)</f>
         <v>0</v>
@@ -19931,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C108">
         <f>IF(Scrobbles!$B108=C$1,Scrobbles!$D108,0)</f>
         <v>0</v>
@@ -19997,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C109">
         <f>IF(Scrobbles!$B109=C$1,Scrobbles!$D109,0)</f>
         <v>0</v>
@@ -20063,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C110">
         <f>IF(Scrobbles!$B110=C$1,Scrobbles!$D110,0)</f>
         <v>0</v>
@@ -20129,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C111">
         <f>IF(Scrobbles!$B111=C$1,Scrobbles!$D111,0)</f>
         <v>0</v>
@@ -20195,7 +20209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C112">
         <f>IF(Scrobbles!$B112=C$1,Scrobbles!$D112,0)</f>
         <v>0</v>
@@ -20261,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C113">
         <f>IF(Scrobbles!$B113=C$1,Scrobbles!$D113,0)</f>
         <v>0</v>
@@ -20327,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C114">
         <f>IF(Scrobbles!$B114=C$1,Scrobbles!$D114,0)</f>
         <v>0</v>
@@ -20393,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C115">
         <f>IF(Scrobbles!$B115=C$1,Scrobbles!$D115,0)</f>
         <v>0</v>
@@ -20459,7 +20473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C116">
         <f>IF(Scrobbles!$B116=C$1,Scrobbles!$D116,0)</f>
         <v>0</v>
@@ -20525,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C117">
         <f>IF(Scrobbles!$B117=C$1,Scrobbles!$D117,0)</f>
         <v>0</v>
@@ -20591,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C118">
         <f>IF(Scrobbles!$B118=C$1,Scrobbles!$D118,0)</f>
         <v>0</v>
@@ -20657,7 +20671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C119">
         <f>IF(Scrobbles!$B119=C$1,Scrobbles!$D119,0)</f>
         <v>0</v>
@@ -20723,7 +20737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C120">
         <f>IF(Scrobbles!$B120=C$1,Scrobbles!$D120,0)</f>
         <v>0</v>
@@ -20789,7 +20803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C121">
         <f>IF(Scrobbles!$B121=C$1,Scrobbles!$D121,0)</f>
         <v>0</v>
@@ -20855,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C122">
         <f>IF(Scrobbles!$B122=C$1,Scrobbles!$D122,0)</f>
         <v>0</v>
@@ -20921,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C123">
         <f>IF(Scrobbles!$B123=C$1,Scrobbles!$D123,0)</f>
         <v>0</v>
@@ -20987,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C124">
         <f>IF(Scrobbles!$B124=C$1,Scrobbles!$D124,0)</f>
         <v>0</v>
@@ -21053,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C125">
         <f>IF(Scrobbles!$B125=C$1,Scrobbles!$D125,0)</f>
         <v>0</v>
@@ -21119,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C126">
         <f>IF(Scrobbles!$B126=C$1,Scrobbles!$D126,0)</f>
         <v>0</v>
@@ -21185,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C127">
         <f>IF(Scrobbles!$B127=C$1,Scrobbles!$D127,0)</f>
         <v>0</v>
@@ -21251,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C128">
         <f>IF(Scrobbles!$B128=C$1,Scrobbles!$D128,0)</f>
         <v>0</v>
@@ -21317,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C129">
         <f>IF(Scrobbles!$B129=C$1,Scrobbles!$D129,0)</f>
         <v>0</v>
@@ -21383,7 +21397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C130">
         <f>IF(Scrobbles!$B130=C$1,Scrobbles!$D130,0)</f>
         <v>0</v>
@@ -21449,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C131">
         <f>IF(Scrobbles!$B131=C$1,Scrobbles!$D131,0)</f>
         <v>0</v>
@@ -21515,7 +21529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C132">
         <f>IF(Scrobbles!$B132=C$1,Scrobbles!$D132,0)</f>
         <v>0</v>
@@ -21581,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C133">
         <f>IF(Scrobbles!$B133=C$1,Scrobbles!$D133,0)</f>
         <v>0</v>
@@ -21647,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C134">
         <f>IF(Scrobbles!$B134=C$1,Scrobbles!$D134,0)</f>
         <v>0</v>
@@ -21713,7 +21727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C135">
         <f>IF(Scrobbles!$B135=C$1,Scrobbles!$D135,0)</f>
         <v>0</v>
@@ -21779,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C136">
         <f>IF(Scrobbles!$B136=C$1,Scrobbles!$D136,0)</f>
         <v>0</v>
@@ -21845,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C137">
         <f>IF(Scrobbles!$B137=C$1,Scrobbles!$D137,0)</f>
         <v>0</v>
@@ -21911,7 +21925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C138">
         <f>IF(Scrobbles!$B138=C$1,Scrobbles!$D138,0)</f>
         <v>0</v>
@@ -21977,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C139">
         <f>IF(Scrobbles!$B139=C$1,Scrobbles!$D139,0)</f>
         <v>0</v>
@@ -22043,7 +22057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C140">
         <f>IF(Scrobbles!$B140=C$1,Scrobbles!$D140,0)</f>
         <v>0</v>
@@ -22109,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C141">
         <f>IF(Scrobbles!$B141=C$1,Scrobbles!$D141,0)</f>
         <v>0</v>
@@ -22175,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C142">
         <f>IF(Scrobbles!$B142=C$1,Scrobbles!$D142,0)</f>
         <v>0</v>
@@ -22241,7 +22255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C143">
         <f>IF(Scrobbles!$B143=C$1,Scrobbles!$D143,0)</f>
         <v>0</v>
@@ -22307,7 +22321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C144">
         <f>IF(Scrobbles!$B144=C$1,Scrobbles!$D144,0)</f>
         <v>0</v>
@@ -22373,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C145">
         <f>IF(Scrobbles!$B145=C$1,Scrobbles!$D145,0)</f>
         <v>0</v>
@@ -22439,7 +22453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C146">
         <f>IF(Scrobbles!$B146=C$1,Scrobbles!$D146,0)</f>
         <v>0</v>
@@ -22505,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C147">
         <f>IF(Scrobbles!$B147=C$1,Scrobbles!$D147,0)</f>
         <v>0</v>
@@ -22571,7 +22585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C148">
         <f>IF(Scrobbles!$B148=C$1,Scrobbles!$D148,0)</f>
         <v>0</v>
@@ -22637,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C149">
         <f>IF(Scrobbles!$B149=C$1,Scrobbles!$D149,0)</f>
         <v>0</v>
@@ -22703,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C150">
         <f>IF(Scrobbles!$B150=C$1,Scrobbles!$D150,0)</f>
         <v>0</v>
@@ -22769,7 +22783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C151">
         <f>IF(Scrobbles!$B151=C$1,Scrobbles!$D151,0)</f>
         <v>0</v>
@@ -22835,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C152">
         <f>IF(Scrobbles!$B152=C$1,Scrobbles!$D152,0)</f>
         <v>0</v>
@@ -22901,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C153">
         <f>IF(Scrobbles!$B153=C$1,Scrobbles!$D153,0)</f>
         <v>0</v>
@@ -22967,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C154">
         <f>IF(Scrobbles!$B154=C$1,Scrobbles!$D154,0)</f>
         <v>0</v>
@@ -23033,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C155">
         <f>IF(Scrobbles!$B155=C$1,Scrobbles!$D155,0)</f>
         <v>0</v>
@@ -23099,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C156">
         <f>IF(Scrobbles!$B156=C$1,Scrobbles!$D156,0)</f>
         <v>0</v>
@@ -23165,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C157">
         <f>IF(Scrobbles!$B157=C$1,Scrobbles!$D157,0)</f>
         <v>0</v>
@@ -23231,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C158">
         <f>IF(Scrobbles!$B158=C$1,Scrobbles!$D158,0)</f>
         <v>0</v>
@@ -23297,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C159">
         <f>IF(Scrobbles!$B159=C$1,Scrobbles!$D159,0)</f>
         <v>0</v>
@@ -23363,7 +23377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C160">
         <f>IF(Scrobbles!$B160=C$1,Scrobbles!$D160,0)</f>
         <v>0</v>
@@ -23429,7 +23443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C161">
         <f>IF(Scrobbles!$B161=C$1,Scrobbles!$D161,0)</f>
         <v>0</v>
@@ -23495,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C162">
         <f>IF(Scrobbles!$B162=C$1,Scrobbles!$D162,0)</f>
         <v>0</v>
@@ -23561,7 +23575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C163">
         <f>IF(Scrobbles!$B163=C$1,Scrobbles!$D163,0)</f>
         <v>0</v>
@@ -23627,7 +23641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C164">
         <f>IF(Scrobbles!$B164=C$1,Scrobbles!$D164,0)</f>
         <v>0</v>
@@ -23693,7 +23707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C165">
         <f>IF(Scrobbles!$B165=C$1,Scrobbles!$D165,0)</f>
         <v>0</v>
@@ -23759,7 +23773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C166">
         <f>IF(Scrobbles!$B166=C$1,Scrobbles!$D166,0)</f>
         <v>0</v>
@@ -23825,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C167">
         <f>IF(Scrobbles!$B167=C$1,Scrobbles!$D167,0)</f>
         <v>0</v>
@@ -23891,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C168">
         <f>IF(Scrobbles!$B168=C$1,Scrobbles!$D168,0)</f>
         <v>0</v>
@@ -23957,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C169">
         <f>IF(Scrobbles!$B169=C$1,Scrobbles!$D169,0)</f>
         <v>0</v>
@@ -24023,7 +24037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C170">
         <f>IF(Scrobbles!$B170=C$1,Scrobbles!$D170,0)</f>
         <v>0</v>
@@ -24089,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C171">
         <f>IF(Scrobbles!$B171=C$1,Scrobbles!$D171,0)</f>
         <v>0</v>
@@ -24155,7 +24169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C172">
         <f>IF(Scrobbles!$B172=C$1,Scrobbles!$D172,0)</f>
         <v>0</v>
@@ -24221,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C173">
         <f>IF(Scrobbles!$B173=C$1,Scrobbles!$D173,0)</f>
         <v>0</v>
@@ -24287,7 +24301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C174">
         <f>IF(Scrobbles!$B174=C$1,Scrobbles!$D174,0)</f>
         <v>0</v>
@@ -24353,7 +24367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C175">
         <f>IF(Scrobbles!$B175=C$1,Scrobbles!$D175,0)</f>
         <v>0</v>
@@ -24419,7 +24433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C176">
         <f>IF(Scrobbles!$B176=C$1,Scrobbles!$D176,0)</f>
         <v>0</v>
@@ -24485,7 +24499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C177">
         <f>IF(Scrobbles!$B177=C$1,Scrobbles!$D177,0)</f>
         <v>0</v>
@@ -24551,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C178">
         <f>IF(Scrobbles!$B178=C$1,Scrobbles!$D178,0)</f>
         <v>0</v>
@@ -24617,7 +24631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C179">
         <f>IF(Scrobbles!$B179=C$1,Scrobbles!$D179,0)</f>
         <v>0</v>
@@ -24683,7 +24697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C180">
         <f>IF(Scrobbles!$B180=C$1,Scrobbles!$D180,0)</f>
         <v>0</v>
@@ -24749,7 +24763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C181">
         <f>IF(Scrobbles!$B181=C$1,Scrobbles!$D181,0)</f>
         <v>0</v>
@@ -24815,7 +24829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C182">
         <f>IF(Scrobbles!$B182=C$1,Scrobbles!$D182,0)</f>
         <v>0</v>
@@ -24881,7 +24895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C183">
         <f>IF(Scrobbles!$B183=C$1,Scrobbles!$D183,0)</f>
         <v>0</v>
@@ -24947,7 +24961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C184">
         <f>IF(Scrobbles!$B184=C$1,Scrobbles!$D184,0)</f>
         <v>0</v>
@@ -25013,7 +25027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C185">
         <f>IF(Scrobbles!$B185=C$1,Scrobbles!$D185,0)</f>
         <v>0</v>
@@ -25079,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C186">
         <f>IF(Scrobbles!$B186=C$1,Scrobbles!$D186,0)</f>
         <v>0</v>
@@ -25145,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C187">
         <f>IF(Scrobbles!$B187=C$1,Scrobbles!$D187,0)</f>
         <v>0</v>
@@ -25211,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C188">
         <f>IF(Scrobbles!$B188=C$1,Scrobbles!$D188,0)</f>
         <v>0</v>
@@ -25277,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C189">
         <f>IF(Scrobbles!$B189=C$1,Scrobbles!$D189,0)</f>
         <v>0</v>
@@ -25343,7 +25357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C190">
         <f>IF(Scrobbles!$B190=C$1,Scrobbles!$D190,0)</f>
         <v>0</v>
@@ -25409,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C191">
         <f>IF(Scrobbles!$B191=C$1,Scrobbles!$D191,0)</f>
         <v>0</v>
@@ -25475,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C192">
         <f>IF(Scrobbles!$B192=C$1,Scrobbles!$D192,0)</f>
         <v>0</v>
@@ -25541,7 +25555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C193">
         <f>IF(Scrobbles!$B193=C$1,Scrobbles!$D193,0)</f>
         <v>0</v>
@@ -25607,7 +25621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C194">
         <f>IF(Scrobbles!$B194=C$1,Scrobbles!$D194,0)</f>
         <v>0</v>
@@ -25673,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C195">
         <f>IF(Scrobbles!$B195=C$1,Scrobbles!$D195,0)</f>
         <v>0</v>
@@ -25739,7 +25753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C196">
         <f>IF(Scrobbles!$B196=C$1,Scrobbles!$D196,0)</f>
         <v>0</v>
@@ -25805,7 +25819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C197">
         <f>IF(Scrobbles!$B197=C$1,Scrobbles!$D197,0)</f>
         <v>0</v>
@@ -25871,7 +25885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C198">
         <f>IF(Scrobbles!$B198=C$1,Scrobbles!$D198,0)</f>
         <v>0</v>
@@ -25937,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C199">
         <f>IF(Scrobbles!$B199=C$1,Scrobbles!$D199,0)</f>
         <v>0</v>
@@ -26003,7 +26017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C200">
         <f>IF(Scrobbles!$B200=C$1,Scrobbles!$D200,0)</f>
         <v>0</v>
@@ -26069,7 +26083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C201">
         <f>IF(Scrobbles!$B201=C$1,Scrobbles!$D201,0)</f>
         <v>0</v>
@@ -26135,7 +26149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C202">
         <f>IF(Scrobbles!$B202=C$1,Scrobbles!$D202,0)</f>
         <v>0</v>
@@ -26201,7 +26215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C203">
         <f>IF(Scrobbles!$B203=C$1,Scrobbles!$D203,0)</f>
         <v>0</v>
@@ -26267,7 +26281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C204">
         <f>IF(Scrobbles!$B204=C$1,Scrobbles!$D204,0)</f>
         <v>0</v>
@@ -26333,7 +26347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C205">
         <f>IF(Scrobbles!$B205=C$1,Scrobbles!$D205,0)</f>
         <v>0</v>
@@ -26399,7 +26413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C206">
         <f>IF(Scrobbles!$B206=C$1,Scrobbles!$D206,0)</f>
         <v>0</v>
@@ -26465,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C207">
         <f>IF(Scrobbles!$B207=C$1,Scrobbles!$D207,0)</f>
         <v>0</v>
@@ -26531,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C208">
         <f>IF(Scrobbles!$B208=C$1,Scrobbles!$D208,0)</f>
         <v>0</v>
@@ -26597,7 +26611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C209">
         <f>IF(Scrobbles!$B209=C$1,Scrobbles!$D209,0)</f>
         <v>0</v>
@@ -26663,7 +26677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C210">
         <f>IF(Scrobbles!$B210=C$1,Scrobbles!$D210,0)</f>
         <v>0</v>
@@ -26729,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C211">
         <f>IF(Scrobbles!$B211=C$1,Scrobbles!$D211,0)</f>
         <v>0</v>
@@ -26795,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C212">
         <f>IF(Scrobbles!$B212=C$1,Scrobbles!$D212,0)</f>
         <v>0</v>
@@ -26861,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C213">
         <f>IF(Scrobbles!$B213=C$1,Scrobbles!$D213,0)</f>
         <v>0</v>
@@ -26927,7 +26941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C214">
         <f>IF(Scrobbles!$B214=C$1,Scrobbles!$D214,0)</f>
         <v>0</v>
@@ -26993,7 +27007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C215">
         <f>IF(Scrobbles!$B215=C$1,Scrobbles!$D215,0)</f>
         <v>0</v>
@@ -27059,7 +27073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C216">
         <f>IF(Scrobbles!$B216=C$1,Scrobbles!$D216,0)</f>
         <v>0</v>
@@ -27125,7 +27139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C217">
         <f>IF(Scrobbles!$B217=C$1,Scrobbles!$D217,0)</f>
         <v>0</v>
@@ -27191,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C218">
         <f>IF(Scrobbles!$B218=C$1,Scrobbles!$D218,0)</f>
         <v>0</v>
@@ -27257,7 +27271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C219">
         <f>IF(Scrobbles!$B219=C$1,Scrobbles!$D219,0)</f>
         <v>0</v>
@@ -27323,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C220">
         <f>IF(Scrobbles!$B220=C$1,Scrobbles!$D220,0)</f>
         <v>0</v>
@@ -27389,7 +27403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C221">
         <f>IF(Scrobbles!$B221=C$1,Scrobbles!$D221,0)</f>
         <v>0</v>
@@ -27455,7 +27469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C222">
         <f>IF(Scrobbles!$B222=C$1,Scrobbles!$D222,0)</f>
         <v>0</v>
@@ -27521,7 +27535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C223">
         <f>IF(Scrobbles!$B223=C$1,Scrobbles!$D223,0)</f>
         <v>0</v>
@@ -27587,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C224">
         <f>IF(Scrobbles!$B224=C$1,Scrobbles!$D224,0)</f>
         <v>0</v>
@@ -27653,7 +27667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C225">
         <f>IF(Scrobbles!$B225=C$1,Scrobbles!$D225,0)</f>
         <v>0</v>
@@ -27719,7 +27733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C226">
         <f>IF(Scrobbles!$B226=C$1,Scrobbles!$D226,0)</f>
         <v>0</v>
@@ -27785,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C227">
         <f>IF(Scrobbles!$B227=C$1,Scrobbles!$D227,0)</f>
         <v>0</v>
@@ -27851,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C228">
         <f>IF(Scrobbles!$B228=C$1,Scrobbles!$D228,0)</f>
         <v>0</v>
@@ -27917,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C229">
         <f>IF(Scrobbles!$B229=C$1,Scrobbles!$D229,0)</f>
         <v>0</v>
@@ -27983,7 +27997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C230">
         <f>IF(Scrobbles!$B230=C$1,Scrobbles!$D230,0)</f>
         <v>0</v>
@@ -28049,7 +28063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C231">
         <f>IF(Scrobbles!$B231=C$1,Scrobbles!$D231,0)</f>
         <v>0</v>
@@ -28115,7 +28129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C232">
         <f>IF(Scrobbles!$B232=C$1,Scrobbles!$D232,0)</f>
         <v>0</v>
@@ -28181,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C233">
         <f>IF(Scrobbles!$B233=C$1,Scrobbles!$D233,0)</f>
         <v>0</v>
@@ -28247,7 +28261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C234">
         <f>IF(Scrobbles!$B234=C$1,Scrobbles!$D234,0)</f>
         <v>0</v>
@@ -28313,7 +28327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C235">
         <f>IF(Scrobbles!$B235=C$1,Scrobbles!$D235,0)</f>
         <v>0</v>
@@ -28379,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C236">
         <f>IF(Scrobbles!$B236=C$1,Scrobbles!$D236,0)</f>
         <v>0</v>
@@ -28445,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C237">
         <f>IF(Scrobbles!$B237=C$1,Scrobbles!$D237,0)</f>
         <v>0</v>
@@ -28511,7 +28525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C238">
         <f>IF(Scrobbles!$B238=C$1,Scrobbles!$D238,0)</f>
         <v>0</v>
@@ -28577,7 +28591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C239">
         <f>IF(Scrobbles!$B239=C$1,Scrobbles!$D239,0)</f>
         <v>0</v>
@@ -28643,7 +28657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C240">
         <f>IF(Scrobbles!$B240=C$1,Scrobbles!$D240,0)</f>
         <v>0</v>
@@ -28709,7 +28723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C241">
         <f>IF(Scrobbles!$B241=C$1,Scrobbles!$D241,0)</f>
         <v>0</v>
@@ -28775,7 +28789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C242">
         <f>IF(Scrobbles!$B242=C$1,Scrobbles!$D242,0)</f>
         <v>0</v>
@@ -28841,7 +28855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C243">
         <f>IF(Scrobbles!$B243=C$1,Scrobbles!$D243,0)</f>
         <v>0</v>
@@ -28907,7 +28921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C244">
         <f>IF(Scrobbles!$B244=C$1,Scrobbles!$D244,0)</f>
         <v>0</v>
@@ -28973,7 +28987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C245">
         <f>IF(Scrobbles!$B245=C$1,Scrobbles!$D245,0)</f>
         <v>0</v>
@@ -29039,7 +29053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C246">
         <f>IF(Scrobbles!$B246=C$1,Scrobbles!$D246,0)</f>
         <v>0</v>
@@ -29105,7 +29119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C247">
         <f>IF(Scrobbles!$B247=C$1,Scrobbles!$D247,0)</f>
         <v>0</v>
@@ -29171,7 +29185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C248">
         <f>IF(Scrobbles!$B248=C$1,Scrobbles!$D248,0)</f>
         <v>0</v>
@@ -29237,7 +29251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C249">
         <f>IF(Scrobbles!$B249=C$1,Scrobbles!$D249,0)</f>
         <v>0</v>
@@ -29303,7 +29317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C250">
         <f>IF(Scrobbles!$B250=C$1,Scrobbles!$D250,0)</f>
         <v>0</v>
@@ -29369,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C251">
         <f>IF(Scrobbles!$B251=C$1,Scrobbles!$D251,0)</f>
         <v>0</v>
@@ -29435,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C252">
         <f>IF(Scrobbles!$B252=C$1,Scrobbles!$D252,0)</f>
         <v>0</v>
@@ -29501,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C253">
         <f>IF(Scrobbles!$B253=C$1,Scrobbles!$D253,0)</f>
         <v>0</v>
@@ -29567,7 +29581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C254">
         <f>IF(Scrobbles!$B254=C$1,Scrobbles!$D254,0)</f>
         <v>0</v>
@@ -29633,7 +29647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C255">
         <f>IF(Scrobbles!$B255=C$1,Scrobbles!$D255,0)</f>
         <v>0</v>
@@ -29699,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C256">
         <f>IF(Scrobbles!$B256=C$1,Scrobbles!$D256,0)</f>
         <v>0</v>
@@ -29765,7 +29779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C257">
         <f>IF(Scrobbles!$B257=C$1,Scrobbles!$D257,0)</f>
         <v>0</v>
@@ -29831,7 +29845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C258">
         <f>IF(Scrobbles!$B258=C$1,Scrobbles!$D258,0)</f>
         <v>0</v>
@@ -29897,7 +29911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C259">
         <f>IF(Scrobbles!$B259=C$1,Scrobbles!$D259,0)</f>
         <v>0</v>
@@ -29963,7 +29977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C260">
         <f>IF(Scrobbles!$B260=C$1,Scrobbles!$D260,0)</f>
         <v>0</v>
@@ -30029,7 +30043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C261">
         <f>IF(Scrobbles!$B261=C$1,Scrobbles!$D261,0)</f>
         <v>0</v>
@@ -30095,7 +30109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C262">
         <f>IF(Scrobbles!$B262=C$1,Scrobbles!$D262,0)</f>
         <v>0</v>
@@ -30161,7 +30175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C263">
         <f>IF(Scrobbles!$B263=C$1,Scrobbles!$D263,0)</f>
         <v>0</v>
@@ -30227,7 +30241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C264">
         <f>IF(Scrobbles!$B264=C$1,Scrobbles!$D264,0)</f>
         <v>0</v>
@@ -30293,7 +30307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C265">
         <f>IF(Scrobbles!$B265=C$1,Scrobbles!$D265,0)</f>
         <v>0</v>
@@ -30359,7 +30373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C266">
         <f>IF(Scrobbles!$B266=C$1,Scrobbles!$D266,0)</f>
         <v>0</v>
@@ -30425,7 +30439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C267">
         <f>IF(Scrobbles!$B267=C$1,Scrobbles!$D267,0)</f>
         <v>0</v>
@@ -30491,7 +30505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C268">
         <f>IF(Scrobbles!$B268=C$1,Scrobbles!$D268,0)</f>
         <v>0</v>
@@ -30557,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C269">
         <f>IF(Scrobbles!$B269=C$1,Scrobbles!$D269,0)</f>
         <v>0</v>
@@ -30623,7 +30637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C270">
         <f>IF(Scrobbles!$B270=C$1,Scrobbles!$D270,0)</f>
         <v>0</v>
@@ -30689,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C271">
         <f>IF(Scrobbles!$B271=C$1,Scrobbles!$D271,0)</f>
         <v>0</v>
@@ -30755,7 +30769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C272">
         <f>IF(Scrobbles!$B272=C$1,Scrobbles!$D272,0)</f>
         <v>0</v>
@@ -30821,7 +30835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C273">
         <f>IF(Scrobbles!$B273=C$1,Scrobbles!$D273,0)</f>
         <v>0</v>
@@ -30887,7 +30901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C274">
         <f>IF(Scrobbles!$B274=C$1,Scrobbles!$D274,0)</f>
         <v>0</v>
@@ -30953,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C275">
         <f>IF(Scrobbles!$B275=C$1,Scrobbles!$D275,0)</f>
         <v>0</v>
@@ -31019,7 +31033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C276">
         <f>IF(Scrobbles!$B276=C$1,Scrobbles!$D276,0)</f>
         <v>0</v>
@@ -31085,7 +31099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C277">
         <f>IF(Scrobbles!$B277=C$1,Scrobbles!$D277,0)</f>
         <v>0</v>
@@ -31151,7 +31165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C278">
         <f>IF(Scrobbles!$B278=C$1,Scrobbles!$D278,0)</f>
         <v>0</v>
@@ -31217,7 +31231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C279">
         <f>IF(Scrobbles!$B279=C$1,Scrobbles!$D279,0)</f>
         <v>0</v>
@@ -31283,7 +31297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C280">
         <f>IF(Scrobbles!$B280=C$1,Scrobbles!$D280,0)</f>
         <v>0</v>
@@ -31349,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C281">
         <f>IF(Scrobbles!$B281=C$1,Scrobbles!$D281,0)</f>
         <v>0</v>
@@ -31415,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C282">
         <f>IF(Scrobbles!$B282=C$1,Scrobbles!$D282,0)</f>
         <v>0</v>
@@ -31481,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C283">
         <f>IF(Scrobbles!$B283=C$1,Scrobbles!$D283,0)</f>
         <v>0</v>
@@ -31547,7 +31561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C284">
         <f>IF(Scrobbles!$B284=C$1,Scrobbles!$D284,0)</f>
         <v>0</v>
@@ -31613,7 +31627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C285">
         <f>IF(Scrobbles!$B285=C$1,Scrobbles!$D285,0)</f>
         <v>0</v>
@@ -31679,7 +31693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C286">
         <f>IF(Scrobbles!$B286=C$1,Scrobbles!$D286,0)</f>
         <v>0</v>
@@ -31745,7 +31759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C287">
         <f>IF(Scrobbles!$B287=C$1,Scrobbles!$D287,0)</f>
         <v>0</v>
@@ -31811,7 +31825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C288">
         <f>IF(Scrobbles!$B288=C$1,Scrobbles!$D288,0)</f>
         <v>0</v>
@@ -31877,7 +31891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C289">
         <f>IF(Scrobbles!$B289=C$1,Scrobbles!$D289,0)</f>
         <v>0</v>
@@ -31943,7 +31957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C290">
         <f>IF(Scrobbles!$B290=C$1,Scrobbles!$D290,0)</f>
         <v>0</v>
@@ -32009,7 +32023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C291">
         <f>IF(Scrobbles!$B291=C$1,Scrobbles!$D291,0)</f>
         <v>0</v>
@@ -32075,7 +32089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C292">
         <f>IF(Scrobbles!$B292=C$1,Scrobbles!$D292,0)</f>
         <v>0</v>
@@ -32141,7 +32155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C293">
         <f>IF(Scrobbles!$B293=C$1,Scrobbles!$D293,0)</f>
         <v>0</v>
@@ -32207,7 +32221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C294">
         <f>IF(Scrobbles!$B294=C$1,Scrobbles!$D294,0)</f>
         <v>0</v>
@@ -32273,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C295">
         <f>IF(Scrobbles!$B295=C$1,Scrobbles!$D295,0)</f>
         <v>0</v>
@@ -32339,7 +32353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C296">
         <f>IF(Scrobbles!$B296=C$1,Scrobbles!$D296,0)</f>
         <v>0</v>
@@ -32405,7 +32419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C297">
         <f>IF(Scrobbles!$B297=C$1,Scrobbles!$D297,0)</f>
         <v>0</v>
@@ -32471,7 +32485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C298">
         <f>IF(Scrobbles!$B298=C$1,Scrobbles!$D298,0)</f>
         <v>0</v>
@@ -32537,7 +32551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C299">
         <f>IF(Scrobbles!$B299=C$1,Scrobbles!$D299,0)</f>
         <v>0</v>
@@ -32603,7 +32617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C300">
         <f>IF(Scrobbles!$B300=C$1,Scrobbles!$D300,0)</f>
         <v>0</v>
@@ -32669,7 +32683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C301">
         <f>IF(Scrobbles!$B301=C$1,Scrobbles!$D301,0)</f>
         <v>0</v>
@@ -32735,7 +32749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C302">
         <f>IF(Scrobbles!$B302=C$1,Scrobbles!$D302,0)</f>
         <v>0</v>
@@ -32801,7 +32815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C303">
         <f>IF(Scrobbles!$B303=C$1,Scrobbles!$D303,0)</f>
         <v>0</v>
@@ -32867,7 +32881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C304">
         <f>IF(Scrobbles!$B304=C$1,Scrobbles!$D304,0)</f>
         <v>0</v>
@@ -32933,7 +32947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C305">
         <f>IF(Scrobbles!$B305=C$1,Scrobbles!$D305,0)</f>
         <v>0</v>
@@ -32999,7 +33013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C306">
         <f>IF(Scrobbles!$B306=C$1,Scrobbles!$D306,0)</f>
         <v>0</v>
@@ -33065,7 +33079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C307">
         <f>IF(Scrobbles!$B307=C$1,Scrobbles!$D307,0)</f>
         <v>0</v>
@@ -33131,7 +33145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C308">
         <f>IF(Scrobbles!$B308=C$1,Scrobbles!$D308,0)</f>
         <v>0</v>
@@ -33197,7 +33211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C309">
         <f>IF(Scrobbles!$B309=C$1,Scrobbles!$D309,0)</f>
         <v>0</v>
@@ -33263,7 +33277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C310">
         <f>IF(Scrobbles!$B310=C$1,Scrobbles!$D310,0)</f>
         <v>0</v>
@@ -33329,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C311">
         <f>IF(Scrobbles!$B311=C$1,Scrobbles!$D311,0)</f>
         <v>0</v>
@@ -33395,7 +33409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C312">
         <f>IF(Scrobbles!$B312=C$1,Scrobbles!$D312,0)</f>
    